--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 현태" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'진행 상황 - 기범'!$A$7:$S$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'진행 상황 - 서희'!$A$7:$S$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'진행 상황 - 현태'!$A$7:$S$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'진행 상황 - 형준'!$A$7:$S$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'진행 상황 - 형준'!$A$7:$S$34</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
   <si>
     <r>
       <rPr>
@@ -157,18 +157,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>HT – P - 004</t>
   </si>
   <si>
     <t>HT – M - 004</t>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HT – P - 005</t>
@@ -511,30 +503,13 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>형준</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>hj_user_w_signUp
-hj_user_m_signUp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hj_user_w_signUpDone
 hj_user_m_signUp</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>hj_user_w_semiReg
 hj_user_m_semiReg</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hj_user_w_myPage</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -585,6 +560,79 @@
   </si>
   <si>
     <t>사용자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(메인)</t>
+  </si>
+  <si>
+    <t>마이페이지(세미나예약리스트)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hj_user_w_myPage_semi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hj_user_w_myPage_meetup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(밋업예약리스트)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 완료페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스(메뉴)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hj_user_w_signUpDone
+hj_user_m_signUp</t>
+  </si>
+  <si>
+    <t>형준</t>
+  </si>
+  <si>
+    <t>hj_user_w_myPage</t>
+  </si>
+  <si>
+    <t>hj_user_w_myPage_qna</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(문의사항관리)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지(이용후기관리)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hj_user_w_myPage_comm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +793,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1166,11 +1214,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1380,131 +1437,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1518,45 +1458,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,30 +1466,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1622,6 +1499,228 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1842,7 +1941,7 @@
   <dimension ref="A1:AJ991"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C32"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1856,7 +1955,7 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="103" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="71" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
@@ -1905,23 +2004,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
-        <v>123</v>
+      <c r="B2" s="123" t="s">
+        <v>117</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -1945,21 +2044,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -2115,29 +2214,29 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
       <c r="J7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="45" t="s">
+      <c r="O7" s="45" t="s">
         <v>94</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>96</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>7</v>
@@ -2170,29 +2269,33 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="96" t="s">
-        <v>73</v>
+      <c r="A8" s="119"/>
+      <c r="B8" s="95" t="s">
+        <v>71</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>116</v>
+      <c r="C8" s="95" t="s">
+        <v>110</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="127" t="s">
-        <v>57</v>
+      <c r="D8" s="107"/>
+      <c r="E8" s="110" t="s">
+        <v>55</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="84" t="s">
-        <v>117</v>
+      <c r="J8" s="118" t="s">
+        <v>111</v>
       </c>
       <c r="K8" s="65">
         <v>1</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="17">
+        <v>100</v>
+      </c>
+      <c r="M8" s="24">
+        <v>100</v>
+      </c>
       <c r="N8" s="65">
         <v>1</v>
       </c>
@@ -2220,21 +2323,25 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="85"/>
+      <c r="J9" s="114"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="17">
+        <v>100</v>
+      </c>
+      <c r="M9" s="24">
+        <v>100</v>
+      </c>
       <c r="N9" s="65">
         <v>2</v>
       </c>
@@ -2262,20 +2369,22 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="129"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="116"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="86"/>
+      <c r="J10" s="115"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="17">
+        <v>100</v>
+      </c>
       <c r="M10" s="31"/>
       <c r="N10" s="65"/>
       <c r="O10" s="17"/>
@@ -2284,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -2308,21 +2417,21 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="96" t="s">
-        <v>77</v>
+      <c r="A11" s="99"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="95" t="s">
+        <v>75</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="127" t="s">
-        <v>81</v>
+      <c r="D11" s="107"/>
+      <c r="E11" s="110" t="s">
+        <v>79</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="84" t="s">
-        <v>118</v>
+      <c r="J11" s="118" t="s">
+        <v>112</v>
       </c>
       <c r="K11" s="65">
         <v>1</v>
@@ -2356,16 +2465,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="128"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="85"/>
+      <c r="J12" s="114"/>
       <c r="K12" s="65">
         <v>2</v>
       </c>
@@ -2398,16 +2507,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="129"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="116"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="86"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="65">
         <v>3</v>
       </c>
@@ -2438,21 +2547,21 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="96" t="s">
-        <v>32</v>
+      <c r="A14" s="99"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="95" t="s">
+        <v>30</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="127" t="s">
-        <v>43</v>
+      <c r="D14" s="107"/>
+      <c r="E14" s="110" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="118" t="s">
-        <v>119</v>
+      <c r="J14" s="113" t="s">
+        <v>113</v>
       </c>
       <c r="K14" s="65">
         <v>1</v>
@@ -2486,16 +2595,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="128"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="85"/>
+      <c r="J15" s="114"/>
       <c r="K15" s="65">
         <v>2</v>
       </c>
@@ -2528,16 +2637,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="86"/>
+      <c r="J16" s="115"/>
       <c r="K16" s="65">
         <v>3</v>
       </c>
@@ -2550,10 +2659,10 @@
         <v>2</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2574,23 +2683,23 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="96" t="s">
-        <v>42</v>
+      <c r="A17" s="119"/>
+      <c r="B17" s="95" t="s">
+        <v>40</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>78</v>
+      <c r="C17" s="95" t="s">
+        <v>76</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="92" t="s">
-        <v>58</v>
+      <c r="D17" s="101"/>
+      <c r="E17" s="99" t="s">
+        <v>56</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="140" t="s">
-        <v>120</v>
+      <c r="J17" s="97" t="s">
+        <v>114</v>
       </c>
       <c r="K17" s="65">
         <v>1</v>
@@ -2600,9 +2709,9 @@
       <c r="N17" s="65"/>
       <c r="O17" s="17"/>
       <c r="P17" s="56"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="134"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="82"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2622,16 +2731,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="135"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="141"/>
+      <c r="J18" s="98"/>
       <c r="K18" s="65">
         <v>2</v>
       </c>
@@ -2640,9 +2749,9 @@
       <c r="N18" s="65"/>
       <c r="O18" s="17"/>
       <c r="P18" s="56"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="133"/>
-      <c r="S18" s="134"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="82"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2662,16 +2771,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="135"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="141"/>
+      <c r="J19" s="98"/>
       <c r="K19" s="65">
         <v>3</v>
       </c>
@@ -2680,9 +2789,9 @@
       <c r="N19" s="65"/>
       <c r="O19" s="17"/>
       <c r="P19" s="56"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="133"/>
-      <c r="S19" s="134"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="82"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -2702,16 +2811,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="141"/>
+      <c r="J20" s="98"/>
       <c r="K20" s="65">
         <v>4</v>
       </c>
@@ -2720,9 +2829,9 @@
       <c r="N20" s="65"/>
       <c r="O20" s="17"/>
       <c r="P20" s="56"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="133"/>
-      <c r="S20" s="134"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="82"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2742,16 +2851,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="135"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="100"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="141"/>
+      <c r="J21" s="98"/>
       <c r="K21" s="65">
         <v>5</v>
       </c>
@@ -2760,9 +2869,9 @@
       <c r="N21" s="65"/>
       <c r="O21" s="17"/>
       <c r="P21" s="56"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="133"/>
-      <c r="S21" s="134"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="82"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -2782,16 +2891,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="136"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="52"/>
-      <c r="J22" s="142"/>
+      <c r="J22" s="103"/>
       <c r="K22" s="66">
         <v>6</v>
       </c>
@@ -2822,21 +2931,21 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="96" t="s">
+      <c r="A23" s="119"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="99" t="s">
         <v>79</v>
-      </c>
-      <c r="D23" s="137"/>
-      <c r="E23" s="92" t="s">
-        <v>81</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="140" t="s">
-        <v>121</v>
+      <c r="J23" s="97" t="s">
+        <v>115</v>
       </c>
       <c r="K23" s="66">
         <v>1</v>
@@ -2868,16 +2977,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="135"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="52"/>
-      <c r="J24" s="141"/>
+      <c r="J24" s="98"/>
       <c r="K24" s="66">
         <v>2</v>
       </c>
@@ -2908,16 +3017,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="135"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="141"/>
+      <c r="J25" s="98"/>
       <c r="K25" s="66">
         <v>3</v>
       </c>
@@ -2948,16 +3057,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="135"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="100"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="52"/>
-      <c r="J26" s="141"/>
+      <c r="J26" s="98"/>
       <c r="K26" s="66">
         <v>4</v>
       </c>
@@ -2988,16 +3097,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="135"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="141"/>
+      <c r="J27" s="98"/>
       <c r="K27" s="66">
         <v>5</v>
       </c>
@@ -3028,16 +3137,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A28" s="91"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="141"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="98"/>
       <c r="K28" s="66">
         <v>6</v>
       </c>
@@ -3068,21 +3177,21 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="96" t="s">
-        <v>80</v>
+      <c r="A29" s="119"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="95" t="s">
+        <v>78</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="92" t="s">
-        <v>58</v>
+      <c r="D29" s="101"/>
+      <c r="E29" s="99" t="s">
+        <v>56</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="52"/>
-      <c r="J29" s="140" t="s">
-        <v>122</v>
+      <c r="J29" s="97" t="s">
+        <v>116</v>
       </c>
       <c r="K29" s="66">
         <v>1</v>
@@ -3114,16 +3223,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="135"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="100"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="52"/>
-      <c r="J30" s="141"/>
+      <c r="J30" s="98"/>
       <c r="K30" s="66">
         <v>2</v>
       </c>
@@ -3154,16 +3263,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="100"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="52"/>
-      <c r="J31" s="141"/>
+      <c r="J31" s="98"/>
       <c r="K31" s="66">
         <v>3</v>
       </c>
@@ -3194,16 +3303,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A32" s="91"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="136"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="52"/>
-      <c r="J32" s="142"/>
+      <c r="J32" s="103"/>
       <c r="K32" s="66">
         <v>4</v>
       </c>
@@ -3235,11 +3344,11 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="97" t="s">
-        <v>59</v>
+      <c r="B33" s="120" t="s">
+        <v>57</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
@@ -3277,9 +3386,9 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="98"/>
+      <c r="B34" s="121"/>
       <c r="C34" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
@@ -3317,9 +3426,9 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="98"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
@@ -3357,9 +3466,9 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="99"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
@@ -3403,7 +3512,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3441,7 +3550,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3549,7 +3658,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3588,10 +3697,10 @@
     <row r="42" spans="1:36" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3630,10 +3739,10 @@
     <row r="43" spans="1:36" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3672,10 +3781,10 @@
     <row r="44" spans="1:36" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -3714,10 +3823,10 @@
     <row r="45" spans="1:36" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -3756,10 +3865,10 @@
     <row r="46" spans="1:36" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -11555,6 +11664,29 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="J17:J22"/>
     <mergeCell ref="C23:C28"/>
     <mergeCell ref="J23:J28"/>
     <mergeCell ref="E23:E28"/>
@@ -11563,29 +11695,6 @@
     <mergeCell ref="E29:E32"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11595,10 +11704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ986"/>
+  <dimension ref="A1:AJ994"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -11612,7 +11721,7 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="71" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
@@ -11661,23 +11770,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
-        <v>124</v>
+      <c r="B2" s="123" t="s">
+        <v>118</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -11701,21 +11810,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -11860,10 +11969,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>4</v>
@@ -11871,29 +11980,29 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
       <c r="J7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="46" t="s">
+      <c r="O7" s="46" t="s">
         <v>94</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>96</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>7</v>
@@ -11926,34 +12035,38 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A8" s="91" t="s">
-        <v>127</v>
+      <c r="A8" s="119" t="s">
+        <v>121</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="104" t="s">
-        <v>17</v>
+      <c r="B8" s="135" t="s">
+        <v>128</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="107" t="s">
-        <v>47</v>
+      <c r="C8" s="141" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="130"/>
+      <c r="E8" s="162" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="84" t="s">
-        <v>112</v>
+      <c r="J8" s="118" t="s">
+        <v>108</v>
       </c>
       <c r="K8" s="65">
         <v>1</v>
       </c>
-      <c r="L8" s="145">
+      <c r="L8" s="85">
         <v>1</v>
       </c>
-      <c r="M8" s="146"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="149"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="65">
+        <v>1</v>
+      </c>
+      <c r="O8" s="85"/>
+      <c r="P8" s="89"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="43"/>
       <c r="S8" s="6"/>
@@ -11976,24 +12089,26 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="108"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="111"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="149"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="65">
+        <v>2</v>
+      </c>
+      <c r="O9" s="85"/>
+      <c r="P9" s="89"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="43"/>
       <c r="S9" s="6"/>
@@ -12016,32 +12131,34 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="108"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="139"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="111"/>
+      <c r="J10" s="128"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="150"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="65">
+        <v>3</v>
+      </c>
+      <c r="O10" s="85"/>
+      <c r="P10" s="90"/>
       <c r="Q10" s="7">
         <v>2</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -12062,24 +12179,26 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="108"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="111"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="65">
         <v>4</v>
       </c>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="150"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="65">
+        <v>4</v>
+      </c>
+      <c r="O11" s="85"/>
+      <c r="P11" s="90"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="8"/>
       <c r="S11" s="5"/>
@@ -12102,24 +12221,26 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="108"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="139"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="111"/>
+      <c r="J12" s="128"/>
       <c r="K12" s="65">
         <v>5</v>
       </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="150"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="65">
+        <v>5</v>
+      </c>
+      <c r="O12" s="85"/>
+      <c r="P12" s="90"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="8"/>
       <c r="S12" s="5"/>
@@ -12142,24 +12263,26 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="109"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="112"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="65">
         <v>6</v>
       </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="150"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="65">
+        <v>6</v>
+      </c>
+      <c r="O13" s="85"/>
+      <c r="P13" s="90"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="8"/>
       <c r="S13" s="5"/>
@@ -12182,30 +12305,30 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="26.25" customHeight="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="34" t="s">
-        <v>110</v>
+      <c r="A14" s="119"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="73" t="s">
+        <v>127</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>111</v>
-      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="117" t="s">
-        <v>113</v>
+      <c r="J14" s="78" t="s">
+        <v>132</v>
       </c>
       <c r="K14" s="65">
         <v>7</v>
       </c>
-      <c r="L14" s="145"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="150"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="65">
+        <v>7</v>
+      </c>
+      <c r="O14" s="85"/>
+      <c r="P14" s="90"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="8"/>
       <c r="S14" s="5"/>
@@ -12228,30 +12351,32 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="104" t="s">
-        <v>20</v>
+      <c r="A15" s="119"/>
+      <c r="B15" s="135" t="s">
+        <v>140</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="107" t="s">
-        <v>47</v>
+      <c r="C15" s="72" t="s">
+        <v>122</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="161"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="118" t="s">
-        <v>115</v>
+      <c r="J15" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="K15" s="65">
         <v>1</v>
       </c>
-      <c r="L15" s="145"/>
-      <c r="M15" s="146"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="65"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="150"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="90"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="8"/>
       <c r="S15" s="5"/>
@@ -12274,24 +12399,28 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="141" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="165"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="85"/>
+      <c r="J16" s="118" t="s">
+        <v>124</v>
+      </c>
       <c r="K16" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="L16" s="145"/>
-      <c r="M16" s="146"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="65"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="150"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="90"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="8"/>
       <c r="S16" s="5"/>
@@ -12314,24 +12443,24 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="85"/>
+      <c r="J17" s="128"/>
       <c r="K17" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="L17" s="145"/>
-      <c r="M17" s="146"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="65"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="150"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="90"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="8"/>
       <c r="S17" s="5"/>
@@ -12354,24 +12483,24 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="85"/>
+      <c r="J18" s="129"/>
       <c r="K18" s="65">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="L18" s="145"/>
-      <c r="M18" s="146"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="86"/>
       <c r="N18" s="65"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="150"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="90"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="8"/>
       <c r="S18" s="5"/>
@@ -12394,32 +12523,36 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="131"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="161"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="86"/>
+      <c r="J19" s="113" t="s">
+        <v>125</v>
+      </c>
       <c r="K19" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
-      <c r="L19" s="145"/>
-      <c r="M19" s="146"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
       <c r="N19" s="65"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="151"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="91"/>
       <c r="Q19" s="7">
         <v>1</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -12440,26 +12573,24 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="37" t="s">
-        <v>76</v>
+      <c r="A20" s="119"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="65">
+        <v>2</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="146"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86"/>
       <c r="N20" s="65"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="152"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="157"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -12482,27 +12613,25 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="50" t="s">
-        <v>69</v>
+      <c r="A21" s="119"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="65">
+        <v>3</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="146"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86"/>
       <c r="N21" s="65"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="7"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="18"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="1"/>
@@ -12524,33 +12653,31 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="119" t="s">
-        <v>83</v>
+      <c r="A22" s="119"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="141" t="s">
+        <v>137</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="107" t="s">
-        <v>47</v>
+      <c r="D22" s="168"/>
+      <c r="E22" s="138" t="s">
+        <v>136</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="84" t="s">
-        <v>114</v>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="118" t="s">
+        <v>135</v>
       </c>
       <c r="K22" s="65">
         <v>1</v>
       </c>
-      <c r="L22" s="145"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="65">
-        <v>1</v>
-      </c>
-      <c r="O22" s="145"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="7"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="1"/>
@@ -12572,27 +12699,25 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="85"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="128"/>
       <c r="K23" s="65">
         <v>2</v>
       </c>
-      <c r="L23" s="145"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="65">
-        <v>2</v>
-      </c>
-      <c r="O23" s="145"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="7"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="1"/>
@@ -12614,27 +12739,25 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="86"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="128"/>
       <c r="K24" s="65">
         <v>3</v>
       </c>
-      <c r="L24" s="145"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="65">
-        <v>3</v>
-      </c>
-      <c r="O24" s="145"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="7"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="18"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="1"/>
@@ -12655,34 +12778,26 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="1:36" ht="27" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="49" t="s">
-        <v>75</v>
+    <row r="25" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A25" s="119"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="65">
+        <v>4</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" s="65">
-        <v>1</v>
-      </c>
-      <c r="L25" s="145"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="65">
-        <v>1</v>
-      </c>
-      <c r="O25" s="145"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="7"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="1"/>
@@ -12704,32 +12819,32 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A26" s="91" t="s">
-        <v>35</v>
+      <c r="A26" s="119"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="141" t="s">
+        <v>138</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>36</v>
+      <c r="D26" s="168"/>
+      <c r="E26" s="138" t="s">
+        <v>136</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>37</v>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="118" t="s">
+        <v>139</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="48" t="s">
-        <v>47</v>
+      <c r="K26" s="65">
+        <v>1</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="147"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="86"/>
       <c r="N26" s="65"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="152"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="157"/>
       <c r="Q26" s="18"/>
-      <c r="R26" s="2"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -12750,29 +12865,27 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="49" t="s">
-        <v>85</v>
+      <c r="A27" s="119"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="65">
+        <v>2</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -12791,21 +12904,28 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="J28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+    <row r="28" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A28" s="119"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="65">
+        <v>3</v>
+      </c>
+      <c r="L28" s="85"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -12824,28 +12944,30 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1" t="s">
-        <v>43</v>
+    <row r="29" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A29" s="119"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="50" t="s">
+        <v>67</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -12864,26 +12986,36 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1" t="s">
-        <v>44</v>
+    <row r="30" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A30" s="119"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="135" t="s">
+        <v>81</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="65">
+        <v>1</v>
+      </c>
+      <c r="L30" s="85"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="65">
+        <v>1</v>
+      </c>
+      <c r="O30" s="85"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -12902,26 +13034,30 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1" t="s">
-        <v>45</v>
+    <row r="31" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A31" s="119"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="65">
+        <v>2</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="65">
+        <v>2</v>
+      </c>
+      <c r="O31" s="85"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -12940,26 +13076,30 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1" t="s">
-        <v>46</v>
+    <row r="32" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A32" s="119"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="65">
+        <v>3</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="65">
+        <v>3</v>
+      </c>
+      <c r="O32" s="85"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -12978,26 +13118,36 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="1" t="s">
-        <v>47</v>
+    <row r="33" spans="1:36" ht="27" customHeight="1">
+      <c r="A33" s="119"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="49" t="s">
+        <v>73</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="65">
+        <v>1</v>
+      </c>
+      <c r="L33" s="85"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="65">
+        <v>1</v>
+      </c>
+      <c r="O33" s="85"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -13016,24 +13166,34 @@
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+    <row r="34" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A34" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="5"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -13052,23 +13212,27 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="1"/>
+    <row r="35" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A35" s="119"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="94"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -13093,21 +13257,14 @@
     <row r="36" spans="1:36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="J36" s="10"/>
+      <c r="M36" s="10"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -13132,24 +13289,22 @@
     </row>
     <row r="37" spans="1:36" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -13174,24 +13329,20 @@
     </row>
     <row r="38" spans="1:36" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -13216,24 +13367,20 @@
     </row>
     <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -13258,24 +13405,20 @@
     </row>
     <row r="40" spans="1:36" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -13300,24 +13443,20 @@
     </row>
     <row r="41" spans="1:36" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -13342,8 +13481,6 @@
     </row>
     <row r="42" spans="1:36" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -13419,7 +13556,9 @@
     <row r="44" spans="1:36" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -13456,8 +13595,12 @@
     </row>
     <row r="45" spans="1:36" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -13494,8 +13637,12 @@
     </row>
     <row r="46" spans="1:36" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -13532,8 +13679,12 @@
     </row>
     <row r="47" spans="1:36" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -13570,8 +13721,12 @@
     </row>
     <row r="48" spans="1:36" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -13608,8 +13763,12 @@
     </row>
     <row r="49" spans="1:36" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -20332,14 +20491,310 @@
       <c r="AI225" s="1"/>
       <c r="AJ225" s="1"/>
     </row>
-    <row r="226" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="227" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="228" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="229" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="230" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="231" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="232" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="233" spans="1:36" ht="15.75" customHeight="1"/>
+    <row r="226" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A226" s="1"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
+      <c r="Y226" s="1"/>
+      <c r="Z226" s="1"/>
+      <c r="AA226" s="1"/>
+      <c r="AB226" s="1"/>
+      <c r="AC226" s="1"/>
+      <c r="AD226" s="1"/>
+      <c r="AE226" s="1"/>
+      <c r="AF226" s="1"/>
+      <c r="AG226" s="1"/>
+      <c r="AH226" s="1"/>
+      <c r="AI226" s="1"/>
+      <c r="AJ226" s="1"/>
+    </row>
+    <row r="227" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
+      <c r="AA227" s="1"/>
+      <c r="AB227" s="1"/>
+      <c r="AC227" s="1"/>
+      <c r="AD227" s="1"/>
+      <c r="AE227" s="1"/>
+      <c r="AF227" s="1"/>
+      <c r="AG227" s="1"/>
+      <c r="AH227" s="1"/>
+      <c r="AI227" s="1"/>
+      <c r="AJ227" s="1"/>
+    </row>
+    <row r="228" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
+      <c r="W228" s="1"/>
+      <c r="X228" s="1"/>
+      <c r="Y228" s="1"/>
+      <c r="Z228" s="1"/>
+      <c r="AA228" s="1"/>
+      <c r="AB228" s="1"/>
+      <c r="AC228" s="1"/>
+      <c r="AD228" s="1"/>
+      <c r="AE228" s="1"/>
+      <c r="AF228" s="1"/>
+      <c r="AG228" s="1"/>
+      <c r="AH228" s="1"/>
+      <c r="AI228" s="1"/>
+      <c r="AJ228" s="1"/>
+    </row>
+    <row r="229" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+      <c r="Y229" s="1"/>
+      <c r="Z229" s="1"/>
+      <c r="AA229" s="1"/>
+      <c r="AB229" s="1"/>
+      <c r="AC229" s="1"/>
+      <c r="AD229" s="1"/>
+      <c r="AE229" s="1"/>
+      <c r="AF229" s="1"/>
+      <c r="AG229" s="1"/>
+      <c r="AH229" s="1"/>
+      <c r="AI229" s="1"/>
+      <c r="AJ229" s="1"/>
+    </row>
+    <row r="230" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
+      <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
+      <c r="AC230" s="1"/>
+      <c r="AD230" s="1"/>
+      <c r="AE230" s="1"/>
+      <c r="AF230" s="1"/>
+      <c r="AG230" s="1"/>
+      <c r="AH230" s="1"/>
+      <c r="AI230" s="1"/>
+      <c r="AJ230" s="1"/>
+    </row>
+    <row r="231" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+      <c r="AE231" s="1"/>
+      <c r="AF231" s="1"/>
+      <c r="AG231" s="1"/>
+      <c r="AH231" s="1"/>
+      <c r="AI231" s="1"/>
+      <c r="AJ231" s="1"/>
+    </row>
+    <row r="232" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
+      <c r="AH232" s="1"/>
+      <c r="AI232" s="1"/>
+      <c r="AJ232" s="1"/>
+    </row>
+    <row r="233" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+      <c r="AG233" s="1"/>
+      <c r="AH233" s="1"/>
+      <c r="AI233" s="1"/>
+      <c r="AJ233" s="1"/>
+    </row>
     <row r="234" spans="1:36" ht="15.75" customHeight="1"/>
     <row r="235" spans="1:36" ht="15.75" customHeight="1"/>
     <row r="236" spans="1:36" ht="15.75" customHeight="1"/>
@@ -21093,31 +21548,51 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:S26">
+  <autoFilter ref="A7:S34">
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="18">
+  <mergeCells count="30">
+    <mergeCell ref="B15:B28"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A33"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="D8:D13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -21144,7 +21619,7 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="71" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
@@ -21193,23 +21668,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
-        <v>125</v>
+      <c r="B2" s="123" t="s">
+        <v>119</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -21233,21 +21708,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -21403,29 +21878,29 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
       <c r="J7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="46" t="s">
+      <c r="O7" s="46" t="s">
         <v>94</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>96</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>7</v>
@@ -21458,16 +21933,16 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="93" t="s">
-        <v>88</v>
+      <c r="A8" s="119"/>
+      <c r="B8" s="144" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -21484,10 +21959,10 @@
         <v>1</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -21508,14 +21983,14 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -21532,10 +22007,10 @@
         <v>2</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -21556,14 +22031,14 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -21580,10 +22055,10 @@
         <v>1</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -21604,14 +22079,14 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -21628,10 +22103,10 @@
         <v>2</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -21652,14 +22127,14 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -21694,13 +22169,13 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="13"/>
@@ -21738,25 +22213,25 @@
     <row r="14" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A14" s="48"/>
       <c r="B14" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="114"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -21822,7 +22297,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -21860,7 +22335,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -21898,7 +22373,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -21936,7 +22411,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -21974,7 +22449,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -22082,7 +22557,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -22121,10 +22596,10 @@
     <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -22163,10 +22638,10 @@
     <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -22205,10 +22680,10 @@
     <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -22247,10 +22722,10 @@
     <row r="27" spans="1:36" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -22289,10 +22764,10 @@
     <row r="28" spans="1:36" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -30103,8 +30578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ978"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -30118,7 +30593,7 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="71" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
@@ -30167,23 +30642,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
-        <v>126</v>
+      <c r="B2" s="123" t="s">
+        <v>120</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -30207,21 +30682,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -30377,29 +30852,29 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
       <c r="J7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="46" t="s">
+      <c r="O7" s="46" t="s">
         <v>94</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>96</v>
       </c>
       <c r="P7" s="46" t="s">
         <v>7</v>
@@ -30432,29 +30907,29 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="81" t="s">
-        <v>46</v>
+      <c r="C8" s="148"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="153" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="84" t="s">
-        <v>91</v>
+      <c r="J8" s="118" t="s">
+        <v>89</v>
       </c>
       <c r="K8" s="65">
         <v>1</v>
       </c>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="65">
         <v>1</v>
       </c>
@@ -30488,21 +30963,21 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="82"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="85"/>
+      <c r="J9" s="114"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
       <c r="N9" s="65">
         <v>2</v>
       </c>
@@ -30530,21 +31005,21 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="82"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="85"/>
+      <c r="J10" s="114"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="146"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86"/>
       <c r="N10" s="65">
         <v>3</v>
       </c>
@@ -30572,21 +31047,21 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="82"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="154"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="85"/>
+      <c r="J11" s="114"/>
       <c r="K11" s="65">
         <v>4</v>
       </c>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
       <c r="N11" s="65">
         <v>4</v>
       </c>
@@ -30614,21 +31089,21 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="83"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="155"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="86"/>
+      <c r="J12" s="115"/>
       <c r="K12" s="65">
         <v>5</v>
       </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="146"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="86"/>
       <c r="N12" s="65"/>
       <c r="O12" s="17"/>
       <c r="P12" s="54"/>
@@ -30654,7 +31129,7 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="36">
-      <c r="A13" s="91"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="49" t="s">
         <v>15</v>
       </c>
@@ -30663,20 +31138,20 @@
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
       <c r="J13" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K13" s="65">
         <v>1</v>
       </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="146"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="65">
         <v>1</v>
       </c>
@@ -30710,29 +31185,29 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="24">
-      <c r="A14" s="91"/>
-      <c r="B14" s="100" t="s">
-        <v>87</v>
+      <c r="A14" s="119"/>
+      <c r="B14" s="146" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
       <c r="J14" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K14" s="65">
         <v>1</v>
       </c>
-      <c r="L14" s="145"/>
-      <c r="M14" s="146"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="65">
         <v>1</v>
       </c>
@@ -30742,10 +31217,10 @@
         <v>2</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -30766,27 +31241,27 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="54.75" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
       <c r="J15" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K15" s="65">
         <v>1</v>
       </c>
-      <c r="L15" s="145"/>
-      <c r="M15" s="146"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="65">
         <v>1</v>
       </c>
@@ -30814,29 +31289,29 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="91"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="51"/>
       <c r="J16" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="65">
         <v>1</v>
       </c>
-      <c r="L16" s="145"/>
-      <c r="M16" s="147"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="65"/>
       <c r="O16" s="17"/>
       <c r="P16" s="60"/>
@@ -30844,7 +31319,7 @@
         <v>3</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="1"/>
@@ -30866,29 +31341,29 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A17" s="91"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="51"/>
       <c r="J17" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K17" s="65">
         <v>1</v>
       </c>
-      <c r="L17" s="145"/>
-      <c r="M17" s="147"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="65"/>
       <c r="O17" s="17"/>
       <c r="P17" s="56"/>
@@ -30896,7 +31371,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="1"/>
@@ -30918,31 +31393,31 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="95" t="s">
-        <v>89</v>
+      <c r="A18" s="119"/>
+      <c r="B18" s="145" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="53"/>
       <c r="J18" s="61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
-      <c r="K18" s="113">
+      <c r="K18" s="74">
         <v>1</v>
       </c>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="114"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="75"/>
       <c r="P18" s="61"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -30966,29 +31441,29 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="53"/>
       <c r="J19" s="61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
-      <c r="K19" s="113">
+      <c r="K19" s="74">
         <v>1</v>
       </c>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="114"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="75"/>
       <c r="P19" s="61"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -31054,7 +31529,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -31092,7 +31567,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -31130,7 +31605,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -31168,7 +31643,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -31206,7 +31681,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -31314,7 +31789,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -31353,10 +31828,10 @@
     <row r="29" spans="1:36" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -31395,10 +31870,10 @@
     <row r="30" spans="1:36" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -31437,10 +31912,10 @@
     <row r="31" spans="1:36" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -31479,10 +31954,10 @@
     <row r="32" spans="1:36" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -31521,10 +31996,10 @@
     <row r="33" spans="1:36" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 현태" sheetId="1" r:id="rId1"/>
@@ -1380,131 +1380,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1515,48 +1392,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,30 +1400,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1622,6 +1433,195 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ991"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1856,7 +1856,7 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="103" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="71" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
@@ -1905,23 +1905,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -1945,21 +1945,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -2115,12 +2115,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="45" t="s">
         <v>90</v>
       </c>
@@ -2169,23 +2169,23 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="96" t="s">
+    <row r="8" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A8" s="116"/>
+      <c r="B8" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="127" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="107" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="115" t="s">
         <v>117</v>
       </c>
       <c r="K8" s="65">
@@ -2219,17 +2219,17 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="128"/>
+    <row r="9" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="85"/>
+      <c r="J9" s="111"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
@@ -2261,17 +2261,17 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="129"/>
+    <row r="10" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="86"/>
+      <c r="J10" s="112"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
@@ -2307,21 +2307,21 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="96" t="s">
+    <row r="11" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="127" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="107" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="115" t="s">
         <v>118</v>
       </c>
       <c r="K11" s="65">
@@ -2355,17 +2355,17 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="128"/>
+    <row r="12" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A12" s="96"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="85"/>
+      <c r="J12" s="111"/>
       <c r="K12" s="65">
         <v>2</v>
       </c>
@@ -2397,17 +2397,17 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="129"/>
+    <row r="13" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A13" s="96"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="86"/>
+      <c r="J13" s="112"/>
       <c r="K13" s="65">
         <v>3</v>
       </c>
@@ -2437,21 +2437,21 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="96" t="s">
+    <row r="14" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A14" s="96"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="127" t="s">
+      <c r="D14" s="104"/>
+      <c r="E14" s="107" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="118" t="s">
+      <c r="J14" s="110" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="65">
@@ -2485,17 +2485,17 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="128"/>
+    <row r="15" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A15" s="96"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="85"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="65">
         <v>2</v>
       </c>
@@ -2527,17 +2527,17 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
+    <row r="16" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A16" s="96"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="86"/>
+      <c r="J16" s="112"/>
       <c r="K16" s="65">
         <v>3</v>
       </c>
@@ -2573,23 +2573,23 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="96" t="s">
+    <row r="17" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A17" s="116"/>
+      <c r="B17" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="92" t="s">
+      <c r="D17" s="98"/>
+      <c r="E17" s="96" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="140" t="s">
+      <c r="J17" s="94" t="s">
         <v>120</v>
       </c>
       <c r="K17" s="65">
@@ -2600,9 +2600,9 @@
       <c r="N17" s="65"/>
       <c r="O17" s="17"/>
       <c r="P17" s="56"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="134"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="79"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2621,17 +2621,17 @@
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
     </row>
-    <row r="18" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="135"/>
+    <row r="18" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A18" s="116"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="141"/>
+      <c r="J18" s="95"/>
       <c r="K18" s="65">
         <v>2</v>
       </c>
@@ -2640,9 +2640,9 @@
       <c r="N18" s="65"/>
       <c r="O18" s="17"/>
       <c r="P18" s="56"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="133"/>
-      <c r="S18" s="134"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="79"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2661,17 +2661,17 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="135"/>
+    <row r="19" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A19" s="116"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="141"/>
+      <c r="J19" s="95"/>
       <c r="K19" s="65">
         <v>3</v>
       </c>
@@ -2680,9 +2680,9 @@
       <c r="N19" s="65"/>
       <c r="O19" s="17"/>
       <c r="P19" s="56"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="133"/>
-      <c r="S19" s="134"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="79"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -2701,17 +2701,17 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
     </row>
-    <row r="20" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+    <row r="20" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A20" s="116"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="141"/>
+      <c r="J20" s="95"/>
       <c r="K20" s="65">
         <v>4</v>
       </c>
@@ -2720,9 +2720,9 @@
       <c r="N20" s="65"/>
       <c r="O20" s="17"/>
       <c r="P20" s="56"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="133"/>
-      <c r="S20" s="134"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="79"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2741,17 +2741,17 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
     </row>
-    <row r="21" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="135"/>
+    <row r="21" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A21" s="116"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="97"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="141"/>
+      <c r="J21" s="95"/>
       <c r="K21" s="65">
         <v>5</v>
       </c>
@@ -2760,9 +2760,9 @@
       <c r="N21" s="65"/>
       <c r="O21" s="17"/>
       <c r="P21" s="56"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="133"/>
-      <c r="S21" s="134"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="79"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -2781,17 +2781,17 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
     </row>
-    <row r="22" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="136"/>
+    <row r="22" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A22" s="116"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="101"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="52"/>
-      <c r="J22" s="142"/>
+      <c r="J22" s="100"/>
       <c r="K22" s="66">
         <v>6</v>
       </c>
@@ -2821,21 +2821,21 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="96" t="s">
+    <row r="23" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A23" s="116"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="137"/>
-      <c r="E23" s="92" t="s">
+      <c r="D23" s="98"/>
+      <c r="E23" s="96" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="140" t="s">
+      <c r="J23" s="94" t="s">
         <v>121</v>
       </c>
       <c r="K23" s="66">
@@ -2867,17 +2867,17 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
     </row>
-    <row r="24" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="135"/>
+    <row r="24" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A24" s="116"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="52"/>
-      <c r="J24" s="141"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="66">
         <v>2</v>
       </c>
@@ -2907,17 +2907,17 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="135"/>
+    <row r="25" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A25" s="116"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="141"/>
+      <c r="J25" s="95"/>
       <c r="K25" s="66">
         <v>3</v>
       </c>
@@ -2947,17 +2947,17 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
     </row>
-    <row r="26" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="135"/>
+    <row r="26" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A26" s="116"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="97"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="52"/>
-      <c r="J26" s="141"/>
+      <c r="J26" s="95"/>
       <c r="K26" s="66">
         <v>4</v>
       </c>
@@ -2987,17 +2987,17 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
     </row>
-    <row r="27" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="135"/>
+    <row r="27" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A27" s="116"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="141"/>
+      <c r="J27" s="95"/>
       <c r="K27" s="66">
         <v>5</v>
       </c>
@@ -3027,17 +3027,17 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A28" s="91"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="141"/>
+    <row r="28" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A28" s="116"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="95"/>
       <c r="K28" s="66">
         <v>6</v>
       </c>
@@ -3067,21 +3067,21 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="96" t="s">
+    <row r="29" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A29" s="116"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="92" t="s">
+      <c r="D29" s="98"/>
+      <c r="E29" s="96" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="52"/>
-      <c r="J29" s="140" t="s">
+      <c r="J29" s="94" t="s">
         <v>122</v>
       </c>
       <c r="K29" s="66">
@@ -3113,17 +3113,17 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="135"/>
+    <row r="30" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A30" s="116"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="52"/>
-      <c r="J30" s="141"/>
+      <c r="J30" s="95"/>
       <c r="K30" s="66">
         <v>2</v>
       </c>
@@ -3153,17 +3153,17 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="135"/>
+    <row r="31" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A31" s="116"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="97"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="52"/>
-      <c r="J31" s="141"/>
+      <c r="J31" s="95"/>
       <c r="K31" s="66">
         <v>3</v>
       </c>
@@ -3193,17 +3193,17 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A32" s="91"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="136"/>
+    <row r="32" spans="1:36" ht="16.5" customHeight="1">
+      <c r="A32" s="116"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="52"/>
-      <c r="J32" s="142"/>
+      <c r="J32" s="100"/>
       <c r="K32" s="66">
         <v>4</v>
       </c>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="117" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="40" t="s">
@@ -3277,7 +3277,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="98"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="40" t="s">
         <v>72</v>
       </c>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="98"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="40" t="s">
         <v>61</v>
       </c>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="99"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="40" t="s">
         <v>74</v>
       </c>
@@ -11555,6 +11555,29 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="J17:J22"/>
     <mergeCell ref="C23:C28"/>
     <mergeCell ref="J23:J28"/>
     <mergeCell ref="E23:E28"/>
@@ -11563,29 +11586,6 @@
     <mergeCell ref="E29:E32"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11612,7 +11612,7 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="71" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
@@ -11661,23 +11661,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -11701,21 +11701,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -11871,12 +11871,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
@@ -11926,34 +11926,34 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="104" t="s">
+      <c r="B8" s="142"/>
+      <c r="C8" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="107" t="s">
+      <c r="D8" s="127"/>
+      <c r="E8" s="135" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="115" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="65">
         <v>1</v>
       </c>
-      <c r="L8" s="145">
+      <c r="L8" s="82">
         <v>1</v>
       </c>
-      <c r="M8" s="146"/>
+      <c r="M8" s="83"/>
       <c r="N8" s="65"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="149"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="86"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="43"/>
       <c r="S8" s="6"/>
@@ -11976,24 +11976,24 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="108"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="136"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="111"/>
+      <c r="J9" s="125"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
       <c r="N9" s="65"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="149"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="86"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="43"/>
       <c r="S9" s="6"/>
@@ -12016,24 +12016,24 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="108"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="136"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="111"/>
+      <c r="J10" s="125"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="146"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="65"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="150"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="87"/>
       <c r="Q10" s="7">
         <v>2</v>
       </c>
@@ -12062,24 +12062,24 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="108"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="111"/>
+      <c r="J11" s="125"/>
       <c r="K11" s="65">
         <v>4</v>
       </c>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
       <c r="N11" s="65"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="150"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="87"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="8"/>
       <c r="S11" s="5"/>
@@ -12102,24 +12102,24 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="108"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="111"/>
+      <c r="J12" s="125"/>
       <c r="K12" s="65">
         <v>5</v>
       </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="146"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83"/>
       <c r="N12" s="65"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="150"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="87"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="8"/>
       <c r="S12" s="5"/>
@@ -12142,24 +12142,24 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="109"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="137"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="112"/>
+      <c r="J13" s="126"/>
       <c r="K13" s="65">
         <v>6</v>
       </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="146"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="65"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="150"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="87"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="8"/>
       <c r="S13" s="5"/>
@@ -12182,9 +12182,9 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="26.25" customHeight="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="106"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="34" t="s">
         <v>110</v>
       </c>
@@ -12195,17 +12195,17 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="117" t="s">
+      <c r="J14" s="76" t="s">
         <v>113</v>
       </c>
       <c r="K14" s="65">
         <v>7</v>
       </c>
-      <c r="L14" s="145"/>
-      <c r="M14" s="146"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="65"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="150"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="87"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="8"/>
       <c r="S14" s="5"/>
@@ -12228,30 +12228,30 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="104" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="107" t="s">
+      <c r="D15" s="141"/>
+      <c r="E15" s="135" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="118" t="s">
+      <c r="J15" s="110" t="s">
         <v>115</v>
       </c>
       <c r="K15" s="65">
         <v>1</v>
       </c>
-      <c r="L15" s="145"/>
-      <c r="M15" s="146"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="65"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="150"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="87"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="8"/>
       <c r="S15" s="5"/>
@@ -12274,24 +12274,24 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="108"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="85"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="65">
         <v>2</v>
       </c>
-      <c r="L16" s="145"/>
-      <c r="M16" s="146"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="65"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="150"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="87"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="8"/>
       <c r="S16" s="5"/>
@@ -12314,24 +12314,24 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="108"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="85"/>
+      <c r="J17" s="111"/>
       <c r="K17" s="65">
         <v>3</v>
       </c>
-      <c r="L17" s="145"/>
-      <c r="M17" s="146"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="65"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="150"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="8"/>
       <c r="S17" s="5"/>
@@ -12354,24 +12354,24 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="108"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="136"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="85"/>
+      <c r="J18" s="111"/>
       <c r="K18" s="65">
         <v>4</v>
       </c>
-      <c r="L18" s="145"/>
-      <c r="M18" s="146"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="65"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="150"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="8"/>
       <c r="S18" s="5"/>
@@ -12394,24 +12394,24 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="109"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="137"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="86"/>
+      <c r="J19" s="112"/>
       <c r="K19" s="65">
         <v>5</v>
       </c>
-      <c r="L19" s="145"/>
-      <c r="M19" s="146"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
       <c r="N19" s="65"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="151"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="88"/>
       <c r="Q19" s="7">
         <v>1</v>
       </c>
@@ -12440,8 +12440,8 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="37" t="s">
         <v>76</v>
       </c>
@@ -12455,11 +12455,11 @@
       <c r="I20" s="51"/>
       <c r="J20" s="24"/>
       <c r="K20" s="65"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="146"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
       <c r="N20" s="65"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="152"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="89"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -12482,8 +12482,8 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="50" t="s">
         <v>69</v>
       </c>
@@ -12497,11 +12497,11 @@
       <c r="I21" s="16"/>
       <c r="J21" s="24"/>
       <c r="K21" s="65"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="146"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
       <c r="N21" s="65"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="153"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="90"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -12524,32 +12524,32 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="119" t="s">
+      <c r="A22" s="116"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="107" t="s">
+      <c r="D22" s="104"/>
+      <c r="E22" s="135" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="84" t="s">
+      <c r="J22" s="115" t="s">
         <v>114</v>
       </c>
       <c r="K22" s="65">
         <v>1</v>
       </c>
-      <c r="L22" s="145"/>
-      <c r="M22" s="146"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="83"/>
       <c r="N22" s="65">
         <v>1</v>
       </c>
-      <c r="O22" s="145"/>
-      <c r="P22" s="153"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="90"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -12572,26 +12572,26 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="108"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="136"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="85"/>
+      <c r="J23" s="111"/>
       <c r="K23" s="65">
         <v>2</v>
       </c>
-      <c r="L23" s="145"/>
-      <c r="M23" s="146"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="83"/>
       <c r="N23" s="65">
         <v>2</v>
       </c>
-      <c r="O23" s="145"/>
-      <c r="P23" s="153"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="90"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -12614,26 +12614,26 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="109"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="137"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="86"/>
+      <c r="J24" s="112"/>
       <c r="K24" s="65">
         <v>3</v>
       </c>
-      <c r="L24" s="145"/>
-      <c r="M24" s="146"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="83"/>
       <c r="N24" s="65">
         <v>3</v>
       </c>
-      <c r="O24" s="145"/>
-      <c r="P24" s="150"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="87"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -12656,8 +12656,8 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="27" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="49" t="s">
         <v>75</v>
       </c>
@@ -12675,13 +12675,13 @@
       <c r="K25" s="65">
         <v>1</v>
       </c>
-      <c r="L25" s="145"/>
-      <c r="M25" s="146"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="83"/>
       <c r="N25" s="65">
         <v>1</v>
       </c>
-      <c r="O25" s="145"/>
-      <c r="P25" s="150"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="87"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -12704,7 +12704,7 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="116" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -12723,11 +12723,11 @@
       <c r="I26" s="51"/>
       <c r="J26" s="31"/>
       <c r="K26" s="65"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="147"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="84"/>
       <c r="N26" s="65"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="152"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="89"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="2"/>
       <c r="S26" s="5"/>
@@ -12750,7 +12750,7 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A27" s="91"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="50"/>
       <c r="C27" s="49" t="s">
         <v>85</v>
@@ -12763,13 +12763,13 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="53"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="154"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="91"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -21100,6 +21100,11 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C14"/>
     <mergeCell ref="J8:J13"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="A26:A27"/>
@@ -21113,11 +21118,6 @@
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="J15:J19"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -21130,7 +21130,7 @@
   <dimension ref="A1:AJ973"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="A12:XFD12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -21144,7 +21144,7 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="71" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
@@ -21193,23 +21193,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -21233,21 +21233,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -21403,12 +21403,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
@@ -21457,9 +21457,9 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="93" t="s">
+    <row r="8" spans="1:36" ht="29.25" customHeight="1">
+      <c r="A8" s="116"/>
+      <c r="B8" s="143" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -21507,9 +21507,9 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="93"/>
+    <row r="9" spans="1:36" ht="29.25" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="37" t="s">
         <v>63</v>
       </c>
@@ -21555,9 +21555,9 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="93"/>
+    <row r="10" spans="1:36" ht="29.25" customHeight="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="37" t="s">
         <v>48</v>
       </c>
@@ -21603,9 +21603,9 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="93"/>
+    <row r="11" spans="1:36" ht="29.25" customHeight="1">
+      <c r="A11" s="116"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="37" t="s">
         <v>49</v>
       </c>
@@ -21651,9 +21651,9 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="93"/>
+    <row r="12" spans="1:36" ht="29.25" customHeight="1">
+      <c r="A12" s="116"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="37" t="s">
         <v>76</v>
       </c>
@@ -21693,9 +21693,9 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A13" s="91"/>
-      <c r="B13" s="93"/>
+    <row r="13" spans="1:36" ht="29.25" customHeight="1">
+      <c r="A13" s="116"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="44" t="s">
         <v>29</v>
       </c>
@@ -21735,7 +21735,7 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" ht="16.149999999999999" customHeight="1">
+    <row r="14" spans="1:36" ht="29.25" customHeight="1">
       <c r="A14" s="48"/>
       <c r="B14" s="37" t="s">
         <v>64</v>
@@ -21751,12 +21751,12 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="114"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="73"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -30103,8 +30103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ978"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -30118,9 +30118,9 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="71" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
     <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" hidden="1" customWidth="1"/>
@@ -30167,23 +30167,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -30207,21 +30207,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -30377,12 +30377,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
@@ -30431,30 +30431,30 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:36" ht="33" customHeight="1">
+      <c r="A8" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="81" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="152" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="115" t="s">
         <v>91</v>
       </c>
       <c r="K8" s="65">
         <v>1</v>
       </c>
-      <c r="L8" s="145"/>
-      <c r="M8" s="146"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
       <c r="N8" s="65">
         <v>1</v>
       </c>
@@ -30487,22 +30487,22 @@
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="82"/>
+    <row r="9" spans="1:36" ht="33" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="153"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="85"/>
+      <c r="J9" s="111"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
       <c r="N9" s="65">
         <v>2</v>
       </c>
@@ -30529,22 +30529,22 @@
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="82"/>
+    <row r="10" spans="1:36" ht="33" customHeight="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="153"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="85"/>
+      <c r="J10" s="111"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="146"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="65">
         <v>3</v>
       </c>
@@ -30571,22 +30571,22 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="82"/>
+    <row r="11" spans="1:36" ht="33" customHeight="1">
+      <c r="A11" s="116"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="153"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="85"/>
+      <c r="J11" s="111"/>
       <c r="K11" s="65">
         <v>4</v>
       </c>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
       <c r="N11" s="65">
         <v>4</v>
       </c>
@@ -30613,22 +30613,22 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="83"/>
+    <row r="12" spans="1:36" ht="33" customHeight="1">
+      <c r="A12" s="116"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="154"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="86"/>
+      <c r="J12" s="112"/>
       <c r="K12" s="65">
         <v>5</v>
       </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="146"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83"/>
       <c r="N12" s="65"/>
       <c r="O12" s="17"/>
       <c r="P12" s="54"/>
@@ -30653,8 +30653,8 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36" ht="36">
-      <c r="A13" s="91"/>
+    <row r="13" spans="1:36" ht="33" customHeight="1">
+      <c r="A13" s="116"/>
       <c r="B13" s="49" t="s">
         <v>15</v>
       </c>
@@ -30675,8 +30675,8 @@
       <c r="K13" s="65">
         <v>1</v>
       </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="146"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="65">
         <v>1</v>
       </c>
@@ -30709,9 +30709,9 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" ht="24">
-      <c r="A14" s="91"/>
-      <c r="B14" s="100" t="s">
+    <row r="14" spans="1:36" ht="33" customHeight="1">
+      <c r="A14" s="116"/>
+      <c r="B14" s="145" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="50" t="s">
@@ -30731,8 +30731,8 @@
       <c r="K14" s="65">
         <v>1</v>
       </c>
-      <c r="L14" s="145"/>
-      <c r="M14" s="146"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
       <c r="N14" s="65">
         <v>1</v>
       </c>
@@ -30765,9 +30765,9 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:36" ht="54.75" customHeight="1">
-      <c r="A15" s="91"/>
-      <c r="B15" s="101"/>
+    <row r="15" spans="1:36" ht="33" customHeight="1">
+      <c r="A15" s="116"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="50" t="s">
         <v>99</v>
       </c>
@@ -30785,8 +30785,8 @@
       <c r="K15" s="65">
         <v>1</v>
       </c>
-      <c r="L15" s="145"/>
-      <c r="M15" s="146"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="65">
         <v>1</v>
       </c>
@@ -30813,8 +30813,8 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="91"/>
+    <row r="16" spans="1:36" ht="33" customHeight="1">
+      <c r="A16" s="116"/>
       <c r="B16" s="49" t="s">
         <v>38</v>
       </c>
@@ -30835,8 +30835,8 @@
       <c r="K16" s="65">
         <v>1</v>
       </c>
-      <c r="L16" s="145"/>
-      <c r="M16" s="147"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="84"/>
       <c r="N16" s="65"/>
       <c r="O16" s="17"/>
       <c r="P16" s="60"/>
@@ -30865,8 +30865,8 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A17" s="91"/>
+    <row r="17" spans="1:36" ht="33" customHeight="1">
+      <c r="A17" s="116"/>
       <c r="B17" s="50" t="s">
         <v>40</v>
       </c>
@@ -30887,8 +30887,8 @@
       <c r="K17" s="65">
         <v>1</v>
       </c>
-      <c r="L17" s="145"/>
-      <c r="M17" s="147"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="84"/>
       <c r="N17" s="65"/>
       <c r="O17" s="17"/>
       <c r="P17" s="56"/>
@@ -30917,9 +30917,9 @@
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
     </row>
-    <row r="18" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="95" t="s">
+    <row r="18" spans="1:36" ht="33" customHeight="1">
+      <c r="A18" s="116"/>
+      <c r="B18" s="144" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -30936,13 +30936,13 @@
       <c r="J18" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="113">
+      <c r="K18" s="72">
         <v>1</v>
       </c>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="114"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="73"/>
       <c r="P18" s="61"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -30965,9 +30965,9 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="1:36" ht="16.149999999999999" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="95"/>
+    <row r="19" spans="1:36" ht="33" customHeight="1">
+      <c r="A19" s="116"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="49" t="s">
         <v>108</v>
       </c>
@@ -30982,13 +30982,13 @@
       <c r="J19" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="113">
+      <c r="K19" s="72">
         <v>1</v>
       </c>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="114"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="61"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="진행 상황 - 기범" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'진행 상황 - 기범'!$A$7:$S$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'진행 상황 - 기범'!$A$7:$T$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'진행 상황 - 서희'!$A$7:$S$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'진행 상황 - 통합'!$A$15:$L$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'진행 상황 - 현태'!$A$7:$S$16</definedName>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="174">
   <si>
     <r>
       <rPr>
@@ -723,6 +728,73 @@
 현태</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>진행완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.09</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>020.04.11</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.04.13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1392,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1815,19 +1887,34 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,10 +1944,73 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,15 +2021,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1917,75 +2058,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2013,7 +2085,31 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2052,26 +2148,11 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2291,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:L11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2342,19 +2423,19 @@
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1">
       <c r="A2" s="94"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="155"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="160"/>
       <c r="M2" s="94"/>
       <c r="N2" s="94"/>
       <c r="O2" s="94"/>
@@ -2375,17 +2456,17 @@
     </row>
     <row r="3" spans="1:29" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="94"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="158"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="163"/>
       <c r="M3" s="94"/>
       <c r="N3" s="94"/>
       <c r="O3" s="94"/>
@@ -2501,19 +2582,19 @@
     </row>
     <row r="7" spans="1:29" ht="40.5" customHeight="1">
       <c r="A7" s="94"/>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
       <c r="M7" s="98"/>
       <c r="N7" s="94"/>
       <c r="O7" s="94"/>
@@ -2554,10 +2635,10 @@
       <c r="J8" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="149" t="s">
+      <c r="K8" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="150"/>
+      <c r="L8" s="169"/>
       <c r="M8" s="94"/>
       <c r="N8" s="94"/>
       <c r="O8" s="94"/>
@@ -2575,7 +2656,7 @@
       <c r="AA8" s="94"/>
     </row>
     <row r="9" spans="1:29" ht="38.25" customHeight="1">
-      <c r="B9" s="225" t="s">
+      <c r="B9" s="147" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="105" t="s">
@@ -2590,10 +2671,10 @@
         <v>154</v>
       </c>
       <c r="J9" s="133"/>
-      <c r="K9" s="146" t="s">
+      <c r="K9" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="146"/>
+      <c r="L9" s="165"/>
       <c r="M9" s="98"/>
       <c r="N9" s="94"/>
       <c r="O9" s="94"/>
@@ -2613,7 +2694,7 @@
       <c r="AC9" s="94"/>
     </row>
     <row r="10" spans="1:29" ht="38.25" customHeight="1">
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="147" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="105"/>
@@ -2624,8 +2705,8 @@
       <c r="H10" s="105"/>
       <c r="I10" s="27"/>
       <c r="J10" s="133"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
       <c r="M10" s="98"/>
       <c r="N10" s="94"/>
       <c r="O10" s="94"/>
@@ -2645,7 +2726,7 @@
       <c r="AC10" s="94"/>
     </row>
     <row r="11" spans="1:29" ht="38.25" customHeight="1">
-      <c r="B11" s="225" t="s">
+      <c r="B11" s="147" t="s">
         <v>148</v>
       </c>
       <c r="C11" s="105"/>
@@ -2656,8 +2737,8 @@
       <c r="H11" s="105"/>
       <c r="I11" s="27"/>
       <c r="J11" s="133"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
       <c r="M11" s="98"/>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -2677,7 +2758,7 @@
       <c r="AC11" s="94"/>
     </row>
     <row r="12" spans="1:29" ht="38.25" customHeight="1">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="147" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="105"/>
@@ -2688,8 +2769,8 @@
       <c r="H12" s="105"/>
       <c r="I12" s="27"/>
       <c r="J12" s="133"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
       <c r="M12" s="98"/>
       <c r="N12" s="94"/>
       <c r="O12" s="94"/>
@@ -2741,19 +2822,19 @@
     </row>
     <row r="14" spans="1:29" ht="40.5" customHeight="1">
       <c r="A14" s="94"/>
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
       <c r="M14" s="98"/>
       <c r="N14" s="94"/>
       <c r="O14" s="94"/>
@@ -2785,12 +2866,12 @@
       <c r="D15" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="159" t="s">
+      <c r="E15" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
       <c r="I15" s="92" t="s">
         <v>94</v>
       </c>
@@ -2822,7 +2903,7 @@
       <c r="AC15" s="94"/>
     </row>
     <row r="16" spans="1:29" ht="39" customHeight="1">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="154" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="125" t="s">
@@ -2836,7 +2917,9 @@
       <c r="F16" s="143"/>
       <c r="G16" s="143"/>
       <c r="H16" s="144"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="J16" s="24"/>
       <c r="K16" s="17"/>
       <c r="L16" s="145"/>
@@ -2859,12 +2942,12 @@
       <c r="AC16" s="94"/>
     </row>
     <row r="17" spans="1:29" ht="39" customHeight="1">
-      <c r="A17" s="160"/>
-      <c r="B17" s="226" t="s">
+      <c r="A17" s="154"/>
+      <c r="B17" s="148" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="124"/>
-      <c r="D17" s="230" t="s">
+      <c r="D17" s="152" t="s">
         <v>158</v>
       </c>
       <c r="E17" s="121"/>
@@ -2894,12 +2977,12 @@
       <c r="AC17" s="94"/>
     </row>
     <row r="18" spans="1:29" ht="39" customHeight="1">
-      <c r="A18" s="160"/>
+      <c r="A18" s="154"/>
       <c r="B18" s="122" t="s">
         <v>155</v>
       </c>
       <c r="C18" s="116"/>
-      <c r="D18" s="229" t="s">
+      <c r="D18" s="151" t="s">
         <v>158</v>
       </c>
       <c r="E18" s="114"/>
@@ -2929,12 +3012,12 @@
       <c r="AC18" s="94"/>
     </row>
     <row r="19" spans="1:29" ht="39" customHeight="1">
-      <c r="A19" s="160"/>
-      <c r="B19" s="227" t="s">
+      <c r="A19" s="154"/>
+      <c r="B19" s="149" t="s">
         <v>156</v>
       </c>
       <c r="C19" s="116"/>
-      <c r="D19" s="229" t="s">
+      <c r="D19" s="151" t="s">
         <v>159</v>
       </c>
       <c r="E19" s="114"/>
@@ -2964,7 +3047,7 @@
       <c r="AC19" s="94"/>
     </row>
     <row r="20" spans="1:29" ht="39" customHeight="1">
-      <c r="A20" s="160"/>
+      <c r="A20" s="154"/>
       <c r="B20" s="119" t="s">
         <v>139</v>
       </c>
@@ -2976,7 +3059,7 @@
       <c r="F20" s="114"/>
       <c r="G20" s="117"/>
       <c r="H20" s="113"/>
-      <c r="I20" s="27"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="111"/>
@@ -2999,7 +3082,7 @@
       <c r="AC20" s="94"/>
     </row>
     <row r="21" spans="1:29" ht="39" customHeight="1">
-      <c r="A21" s="160"/>
+      <c r="A21" s="154"/>
       <c r="B21" s="112" t="s">
         <v>138</v>
       </c>
@@ -3011,7 +3094,7 @@
       <c r="F21" s="114"/>
       <c r="G21" s="114"/>
       <c r="H21" s="113"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="107"/>
@@ -3034,7 +3117,7 @@
       <c r="AC21" s="94"/>
     </row>
     <row r="22" spans="1:29" ht="39" customHeight="1">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="155" t="s">
         <v>137</v>
       </c>
       <c r="B22" s="135" t="s">
@@ -3048,9 +3131,9 @@
       <c r="F22" s="138"/>
       <c r="G22" s="138"/>
       <c r="H22" s="138"/>
-      <c r="I22" s="139"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="139"/>
-      <c r="K22" s="147"/>
+      <c r="K22" s="166"/>
       <c r="L22" s="140"/>
       <c r="M22" s="94"/>
       <c r="N22" s="94"/>
@@ -3071,7 +3154,7 @@
       <c r="AC22" s="94"/>
     </row>
     <row r="23" spans="1:29" ht="39" customHeight="1">
-      <c r="A23" s="160"/>
+      <c r="A23" s="154"/>
       <c r="B23" s="104" t="s">
         <v>136</v>
       </c>
@@ -3083,9 +3166,9 @@
       <c r="F23" s="108"/>
       <c r="G23" s="108"/>
       <c r="H23" s="108"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="147"/>
+      <c r="K23" s="166"/>
       <c r="L23" s="110"/>
       <c r="M23" s="94"/>
       <c r="N23" s="94"/>
@@ -3106,7 +3189,7 @@
       <c r="AC23" s="94"/>
     </row>
     <row r="24" spans="1:29" ht="39" customHeight="1">
-      <c r="A24" s="160"/>
+      <c r="A24" s="154"/>
       <c r="B24" s="109" t="s">
         <v>135</v>
       </c>
@@ -3118,9 +3201,9 @@
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
       <c r="H24" s="108"/>
-      <c r="I24" s="27"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="147"/>
+      <c r="K24" s="166"/>
       <c r="L24" s="105"/>
       <c r="M24" s="94"/>
       <c r="N24" s="94"/>
@@ -3141,7 +3224,7 @@
       <c r="AC24" s="94"/>
     </row>
     <row r="25" spans="1:29" ht="39" customHeight="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="154"/>
       <c r="B25" s="112" t="s">
         <v>134</v>
       </c>
@@ -3155,7 +3238,7 @@
       <c r="H25" s="105"/>
       <c r="I25" s="17"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="147"/>
+      <c r="K25" s="166"/>
       <c r="L25" s="105"/>
       <c r="M25" s="94"/>
       <c r="N25" s="94"/>
@@ -3176,12 +3259,12 @@
       <c r="AC25" s="94"/>
     </row>
     <row r="26" spans="1:29" ht="39" customHeight="1">
-      <c r="A26" s="160"/>
-      <c r="B26" s="228" t="s">
+      <c r="A26" s="154"/>
+      <c r="B26" s="150" t="s">
         <v>157</v>
       </c>
       <c r="C26" s="102"/>
-      <c r="D26" s="231" t="s">
+      <c r="D26" s="153" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="99"/>
@@ -3190,7 +3273,7 @@
       <c r="H26" s="100"/>
       <c r="I26" s="17"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="147"/>
+      <c r="K26" s="166"/>
       <c r="L26" s="101"/>
       <c r="M26" s="94"/>
       <c r="N26" s="94"/>
@@ -3211,7 +3294,7 @@
       <c r="AC26" s="94"/>
     </row>
     <row r="27" spans="1:29" ht="39" customHeight="1">
-      <c r="A27" s="160"/>
+      <c r="A27" s="154"/>
       <c r="B27" s="103" t="s">
         <v>64</v>
       </c>
@@ -3223,9 +3306,9 @@
       <c r="F27" s="101"/>
       <c r="G27" s="101"/>
       <c r="H27" s="100"/>
-      <c r="I27" s="32"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="148"/>
+      <c r="K27" s="167"/>
       <c r="L27" s="99"/>
       <c r="M27" s="94"/>
       <c r="N27" s="94"/>
@@ -10234,23 +10317,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -10274,21 +10357,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -10444,12 +10527,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
       <c r="J7" s="45" t="s">
         <v>90</v>
       </c>
@@ -10499,22 +10582,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="191"/>
-      <c r="B8" s="165" t="s">
+      <c r="A8" s="175"/>
+      <c r="B8" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="168" t="s">
+      <c r="D8" s="194"/>
+      <c r="E8" s="191" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="197" t="s">
         <v>117</v>
       </c>
       <c r="K8" s="65">
@@ -10549,16 +10632,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="169"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="192"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="175"/>
+      <c r="J9" s="198"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
@@ -10591,16 +10674,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="170"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="193"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="176"/>
+      <c r="J10" s="199"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
@@ -10637,20 +10720,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="165" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="171"/>
-      <c r="E11" s="168" t="s">
+      <c r="D11" s="194"/>
+      <c r="E11" s="191" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="174" t="s">
+      <c r="J11" s="197" t="s">
         <v>118</v>
       </c>
       <c r="K11" s="65">
@@ -10685,16 +10768,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="180"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="169"/>
+      <c r="A12" s="176"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="192"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="175"/>
+      <c r="J12" s="198"/>
       <c r="K12" s="65">
         <v>2</v>
       </c>
@@ -10727,16 +10810,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="180"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="170"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="193"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="176"/>
+      <c r="J13" s="199"/>
       <c r="K13" s="65">
         <v>3</v>
       </c>
@@ -10767,20 +10850,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="180"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="165" t="s">
+      <c r="A14" s="176"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="168" t="s">
+      <c r="D14" s="194"/>
+      <c r="E14" s="191" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="179" t="s">
+      <c r="J14" s="202" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="65">
@@ -10815,16 +10898,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="169"/>
+      <c r="A15" s="176"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="192"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="175"/>
+      <c r="J15" s="198"/>
       <c r="K15" s="65">
         <v>2</v>
       </c>
@@ -10857,16 +10940,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="180"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
+      <c r="A16" s="176"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="201"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="176"/>
+      <c r="J16" s="199"/>
       <c r="K16" s="65">
         <v>3</v>
       </c>
@@ -10903,22 +10986,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="191"/>
-      <c r="B17" s="165" t="s">
+      <c r="A17" s="175"/>
+      <c r="B17" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="184"/>
+      <c r="E17" s="176" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="192" t="s">
+      <c r="J17" s="180" t="s">
         <v>120</v>
       </c>
       <c r="K17" s="65">
@@ -10951,16 +11034,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="191"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="181"/>
+      <c r="A18" s="175"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="183"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="193"/>
+      <c r="J18" s="181"/>
       <c r="K18" s="65">
         <v>2</v>
       </c>
@@ -10991,16 +11074,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="191"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="181"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="183"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="193"/>
+      <c r="J19" s="181"/>
       <c r="K19" s="65">
         <v>3</v>
       </c>
@@ -11031,16 +11114,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="191"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="181"/>
+      <c r="A20" s="175"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="183"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="193"/>
+      <c r="J20" s="181"/>
       <c r="K20" s="65">
         <v>4</v>
       </c>
@@ -11071,16 +11154,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="191"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="181"/>
+      <c r="A21" s="175"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="183"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="193"/>
+      <c r="J21" s="181"/>
       <c r="K21" s="65">
         <v>5</v>
       </c>
@@ -11111,16 +11194,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="191"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="182"/>
+      <c r="A22" s="175"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="186"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="52"/>
-      <c r="J22" s="194"/>
+      <c r="J22" s="182"/>
       <c r="K22" s="66">
         <v>6</v>
       </c>
@@ -11151,20 +11234,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="191"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="165" t="s">
+      <c r="A23" s="175"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="180" t="s">
+      <c r="D23" s="184"/>
+      <c r="E23" s="176" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="192" t="s">
+      <c r="J23" s="180" t="s">
         <v>121</v>
       </c>
       <c r="K23" s="66">
@@ -11197,16 +11280,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="191"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="181"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="183"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="52"/>
-      <c r="J24" s="193"/>
+      <c r="J24" s="181"/>
       <c r="K24" s="66">
         <v>2</v>
       </c>
@@ -11237,16 +11320,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="191"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="181"/>
+      <c r="A25" s="175"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="183"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="193"/>
+      <c r="J25" s="181"/>
       <c r="K25" s="66">
         <v>3</v>
       </c>
@@ -11277,16 +11360,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="191"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="181"/>
+      <c r="A26" s="175"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="183"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="52"/>
-      <c r="J26" s="193"/>
+      <c r="J26" s="181"/>
       <c r="K26" s="66">
         <v>4</v>
       </c>
@@ -11317,16 +11400,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="191"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="181"/>
+      <c r="A27" s="175"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="183"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="193"/>
+      <c r="J27" s="181"/>
       <c r="K27" s="66">
         <v>5</v>
       </c>
@@ -11357,16 +11440,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="191"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="181"/>
+      <c r="A28" s="175"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="183"/>
       <c r="F28" s="80"/>
       <c r="G28" s="80"/>
       <c r="H28" s="80"/>
       <c r="I28" s="81"/>
-      <c r="J28" s="193"/>
+      <c r="J28" s="181"/>
       <c r="K28" s="66">
         <v>6</v>
       </c>
@@ -11397,20 +11480,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="191"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="165" t="s">
+      <c r="A29" s="175"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="180" t="s">
+      <c r="D29" s="184"/>
+      <c r="E29" s="176" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="52"/>
-      <c r="J29" s="192" t="s">
+      <c r="J29" s="180" t="s">
         <v>122</v>
       </c>
       <c r="K29" s="66">
@@ -11443,16 +11526,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="191"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="181"/>
+      <c r="A30" s="175"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="183"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="52"/>
-      <c r="J30" s="193"/>
+      <c r="J30" s="181"/>
       <c r="K30" s="66">
         <v>2</v>
       </c>
@@ -11483,16 +11566,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="191"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="181"/>
+      <c r="A31" s="175"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="183"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="52"/>
-      <c r="J31" s="193"/>
+      <c r="J31" s="181"/>
       <c r="K31" s="66">
         <v>3</v>
       </c>
@@ -11523,16 +11606,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="191"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="182"/>
+      <c r="A32" s="175"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="186"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="52"/>
-      <c r="J32" s="194"/>
+      <c r="J32" s="182"/>
       <c r="K32" s="66">
         <v>4</v>
       </c>
@@ -11564,7 +11647,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="188" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="40" t="s">
@@ -11606,7 +11689,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="163"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="40" t="s">
         <v>72</v>
       </c>
@@ -11646,7 +11729,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="163"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="40" t="s">
         <v>61</v>
       </c>
@@ -11686,7 +11769,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="164"/>
+      <c r="B36" s="190"/>
       <c r="C36" s="40" t="s">
         <v>74</v>
       </c>
@@ -19884,21 +19967,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -19915,6 +19983,21 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -19990,23 +20073,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -20030,21 +20113,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -20200,12 +20283,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
@@ -20255,7 +20338,7 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="175" t="s">
         <v>127</v>
       </c>
       <c r="B8" s="203"/>
@@ -20263,14 +20346,14 @@
         <v>17</v>
       </c>
       <c r="D8" s="209"/>
-      <c r="E8" s="200" t="s">
+      <c r="E8" s="212" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="197" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="65">
@@ -20305,11 +20388,11 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A9" s="191"/>
+      <c r="A9" s="175"/>
       <c r="B9" s="203"/>
       <c r="C9" s="205"/>
       <c r="D9" s="210"/>
-      <c r="E9" s="201"/>
+      <c r="E9" s="213"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -20345,11 +20428,11 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A10" s="191"/>
+      <c r="A10" s="175"/>
       <c r="B10" s="203"/>
       <c r="C10" s="205"/>
       <c r="D10" s="210"/>
-      <c r="E10" s="201"/>
+      <c r="E10" s="213"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -20391,11 +20474,11 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A11" s="191"/>
+      <c r="A11" s="175"/>
       <c r="B11" s="203"/>
       <c r="C11" s="205"/>
       <c r="D11" s="210"/>
-      <c r="E11" s="201"/>
+      <c r="E11" s="213"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -20431,11 +20514,11 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A12" s="191"/>
+      <c r="A12" s="175"/>
       <c r="B12" s="203"/>
       <c r="C12" s="205"/>
       <c r="D12" s="210"/>
-      <c r="E12" s="201"/>
+      <c r="E12" s="213"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -20471,11 +20554,11 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A13" s="191"/>
+      <c r="A13" s="175"/>
       <c r="B13" s="203"/>
       <c r="C13" s="205"/>
       <c r="D13" s="211"/>
-      <c r="E13" s="202"/>
+      <c r="E13" s="214"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -20511,7 +20594,7 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="26.25" customHeight="1">
-      <c r="A14" s="191"/>
+      <c r="A14" s="175"/>
       <c r="B14" s="203"/>
       <c r="C14" s="206"/>
       <c r="D14" s="34" t="s">
@@ -20557,20 +20640,20 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A15" s="191"/>
+      <c r="A15" s="175"/>
       <c r="B15" s="203"/>
       <c r="C15" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="212"/>
-      <c r="E15" s="200" t="s">
+      <c r="D15" s="215"/>
+      <c r="E15" s="212" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="179" t="s">
+      <c r="J15" s="202" t="s">
         <v>115</v>
       </c>
       <c r="K15" s="65">
@@ -20603,16 +20686,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A16" s="191"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="203"/>
       <c r="C16" s="205"/>
       <c r="D16" s="210"/>
-      <c r="E16" s="201"/>
+      <c r="E16" s="213"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="175"/>
+      <c r="J16" s="198"/>
       <c r="K16" s="65">
         <v>2</v>
       </c>
@@ -20643,16 +20726,16 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="191"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="203"/>
       <c r="C17" s="205"/>
       <c r="D17" s="210"/>
-      <c r="E17" s="201"/>
+      <c r="E17" s="213"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="175"/>
+      <c r="J17" s="198"/>
       <c r="K17" s="65">
         <v>3</v>
       </c>
@@ -20683,16 +20766,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A18" s="191"/>
+      <c r="A18" s="175"/>
       <c r="B18" s="203"/>
       <c r="C18" s="205"/>
       <c r="D18" s="210"/>
-      <c r="E18" s="201"/>
+      <c r="E18" s="213"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="175"/>
+      <c r="J18" s="198"/>
       <c r="K18" s="65">
         <v>4</v>
       </c>
@@ -20723,16 +20806,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A19" s="191"/>
+      <c r="A19" s="175"/>
       <c r="B19" s="203"/>
       <c r="C19" s="206"/>
       <c r="D19" s="211"/>
-      <c r="E19" s="202"/>
+      <c r="E19" s="214"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="176"/>
+      <c r="J19" s="199"/>
       <c r="K19" s="65">
         <v>5</v>
       </c>
@@ -20769,7 +20852,7 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A20" s="191"/>
+      <c r="A20" s="175"/>
       <c r="B20" s="203"/>
       <c r="C20" s="37" t="s">
         <v>76</v>
@@ -20811,8 +20894,8 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A21" s="191"/>
-      <c r="B21" s="195"/>
+      <c r="A21" s="175"/>
+      <c r="B21" s="216"/>
       <c r="C21" s="50" t="s">
         <v>69</v>
       </c>
@@ -20853,20 +20936,20 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A22" s="191"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="197" t="s">
+      <c r="A22" s="175"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="171"/>
-      <c r="E22" s="200" t="s">
+      <c r="D22" s="194"/>
+      <c r="E22" s="212" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="174" t="s">
+      <c r="J22" s="197" t="s">
         <v>114</v>
       </c>
       <c r="K22" s="65">
@@ -20901,16 +20984,16 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A23" s="191"/>
-      <c r="B23" s="195"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="201"/>
+      <c r="A23" s="175"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="213"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="175"/>
+      <c r="J23" s="198"/>
       <c r="K23" s="65">
         <v>2</v>
       </c>
@@ -20943,16 +21026,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A24" s="191"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="202"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="214"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="176"/>
+      <c r="J24" s="199"/>
       <c r="K24" s="65">
         <v>3</v>
       </c>
@@ -20985,8 +21068,8 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="27" customHeight="1">
-      <c r="A25" s="191"/>
-      <c r="B25" s="196"/>
+      <c r="A25" s="175"/>
+      <c r="B25" s="217"/>
       <c r="C25" s="49" t="s">
         <v>75</v>
       </c>
@@ -21033,7 +21116,7 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A26" s="191" t="s">
+      <c r="A26" s="175" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -21079,7 +21162,7 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A27" s="191"/>
+      <c r="A27" s="175"/>
       <c r="B27" s="50"/>
       <c r="C27" s="49" t="s">
         <v>85</v>
@@ -29429,6 +29512,11 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="B2:P3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A25"/>
@@ -29442,11 +29530,6 @@
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="J15:J19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29522,23 +29605,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -29562,21 +29645,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -29732,12 +29815,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
@@ -29787,8 +29870,8 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A8" s="191"/>
-      <c r="B8" s="213" t="s">
+      <c r="A8" s="175"/>
+      <c r="B8" s="221" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -29837,8 +29920,8 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="213"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="37" t="s">
         <v>63</v>
       </c>
@@ -29885,8 +29968,8 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="213"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="37" t="s">
         <v>48</v>
       </c>
@@ -29933,8 +30016,8 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A11" s="191"/>
-      <c r="B11" s="213"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="37" t="s">
         <v>49</v>
       </c>
@@ -29981,8 +30064,8 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A12" s="191"/>
-      <c r="B12" s="213"/>
+      <c r="A12" s="175"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="37" t="s">
         <v>76</v>
       </c>
@@ -30023,8 +30106,8 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A13" s="191"/>
-      <c r="B13" s="213"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="44" t="s">
         <v>29</v>
       </c>
@@ -38430,10 +38513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ978"/>
+  <dimension ref="A1:AK978"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -38446,17 +38529,17 @@
     <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="20" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="31.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -38467,12 +38550,12 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="2"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -38493,29 +38576,30 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:36" ht="19.5" customHeight="1">
+      <c r="AK1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="1"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -38533,27 +38617,28 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-    </row>
-    <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="1"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="70"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -38571,8 +38656,9 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
-    </row>
-    <row r="4" spans="1:36" ht="19.5" hidden="1" customHeight="1">
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="1:37" ht="19.5" hidden="1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -38583,12 +38669,12 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -38609,8 +38695,9 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-    </row>
-    <row r="5" spans="1:36" ht="50.25" hidden="1" customHeight="1">
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="1:37" ht="50.25" hidden="1" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="11">
         <v>43860</v>
@@ -38625,12 +38712,12 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -38651,8 +38738,9 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-    </row>
-    <row r="6" spans="1:36" ht="19.5" customHeight="1">
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -38663,12 +38751,12 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -38689,8 +38777,9 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-    </row>
-    <row r="7" spans="1:36" ht="27.75" customHeight="1">
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" ht="27.75" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -38706,43 +38795,45 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="146" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="M7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="N7" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="O7" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="P7" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="Q7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="R7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="S7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="T7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -38759,46 +38850,51 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" ht="33" customHeight="1">
-      <c r="A8" s="191" t="s">
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" ht="33" customHeight="1">
+      <c r="A8" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="217"/>
+      <c r="C8" s="225"/>
       <c r="D8" s="209"/>
-      <c r="E8" s="222" t="s">
+      <c r="E8" s="230" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="197">
         <v>1</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="65">
+      <c r="L8" s="65">
         <v>1</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="5">
+      <c r="M8" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="82"/>
+      <c r="O8" s="65">
         <v>1</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -38815,32 +38911,37 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-    </row>
-    <row r="9" spans="1:36" ht="33" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="218"/>
-      <c r="C9" s="219"/>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="1:37" ht="33" customHeight="1">
+      <c r="A9" s="175"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="227"/>
       <c r="D9" s="210"/>
-      <c r="E9" s="223"/>
+      <c r="E9" s="231"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="65">
+      <c r="J9" s="198"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="65">
         <v>2</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="65">
+      <c r="M9" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="234" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="65">
         <v>2</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -38857,32 +38958,37 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" ht="33" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="218"/>
-      <c r="C10" s="219"/>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="1:37" ht="33" customHeight="1">
+      <c r="A10" s="175"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="227"/>
       <c r="D10" s="210"/>
-      <c r="E10" s="223"/>
+      <c r="E10" s="231"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="65">
+      <c r="J10" s="198"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="65">
         <v>3</v>
       </c>
-      <c r="L10" s="82"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="65">
+      <c r="M10" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" s="234" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="65">
         <v>3</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -38899,32 +39005,35 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-    </row>
-    <row r="11" spans="1:36" ht="33" customHeight="1">
-      <c r="A11" s="191"/>
-      <c r="B11" s="218"/>
-      <c r="C11" s="219"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="1:37" ht="33" customHeight="1">
+      <c r="A11" s="175"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="227"/>
       <c r="D11" s="210"/>
-      <c r="E11" s="223"/>
+      <c r="E11" s="231"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="65">
+      <c r="J11" s="198"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="65">
         <v>4</v>
       </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="65">
+      <c r="M11" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="82"/>
+      <c r="O11" s="65">
         <v>4</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -38941,30 +39050,35 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-    </row>
-    <row r="12" spans="1:36" ht="33" customHeight="1">
-      <c r="A12" s="191"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="221"/>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="1:37" ht="33" customHeight="1">
+      <c r="A12" s="175"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="229"/>
       <c r="D12" s="211"/>
-      <c r="E12" s="224"/>
+      <c r="E12" s="232"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="65">
+      <c r="J12" s="199"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="65">
         <v>5</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
+      <c r="M12" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" s="234" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" s="65"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="5"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -38981,9 +39095,10 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-    </row>
-    <row r="13" spans="1:36" ht="33" customHeight="1">
-      <c r="A13" s="191"/>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="1:37" ht="33" customHeight="1">
+      <c r="A13" s="175"/>
       <c r="B13" s="49" t="s">
         <v>15</v>
       </c>
@@ -39001,26 +39116,32 @@
       <c r="J13" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="31">
         <v>1</v>
       </c>
-      <c r="L13" s="82"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="65">
+      <c r="L13" s="65">
         <v>1</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="5">
+      <c r="M13" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="65">
         <v>1</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="P13" s="17"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -39037,10 +39158,11 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-    </row>
-    <row r="14" spans="1:36" ht="33" customHeight="1">
-      <c r="A14" s="191"/>
-      <c r="B14" s="215" t="s">
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="1:37" ht="33" customHeight="1">
+      <c r="A14" s="175"/>
+      <c r="B14" s="223" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="50" t="s">
@@ -39057,26 +39179,32 @@
       <c r="J14" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="31">
+        <v>2</v>
+      </c>
+      <c r="L14" s="65">
         <v>1</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="65">
+      <c r="M14" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="N14" s="234" t="s">
+        <v>172</v>
+      </c>
+      <c r="O14" s="65">
         <v>1</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="7">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="7">
         <v>2</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -39093,10 +39221,11 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-    </row>
-    <row r="15" spans="1:36" ht="33" customHeight="1">
-      <c r="A15" s="191"/>
-      <c r="B15" s="195"/>
+      <c r="AK14" s="1"/>
+    </row>
+    <row r="15" spans="1:37" ht="33" customHeight="1">
+      <c r="A15" s="175"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="50" t="s">
         <v>99</v>
       </c>
@@ -39111,20 +39240,26 @@
       <c r="J15" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="65">
+      <c r="K15" s="31">
+        <v>3</v>
+      </c>
+      <c r="L15" s="65">
         <v>1</v>
       </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="65">
+      <c r="M15" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="234" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" s="65">
         <v>1</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="5"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -39141,9 +39276,10 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-    </row>
-    <row r="16" spans="1:36" ht="33" customHeight="1">
-      <c r="A16" s="191"/>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="1:37" ht="33" customHeight="1">
+      <c r="A16" s="175"/>
       <c r="B16" s="49" t="s">
         <v>38</v>
       </c>
@@ -39161,22 +39297,28 @@
       <c r="J16" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="31">
+        <v>3</v>
+      </c>
+      <c r="L16" s="65">
         <v>1</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="18">
+      <c r="M16" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" s="234" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" s="65"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="18">
         <v>3</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="S16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -39193,9 +39335,10 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-    </row>
-    <row r="17" spans="1:36" ht="33" customHeight="1">
-      <c r="A17" s="191"/>
+      <c r="AK16" s="1"/>
+    </row>
+    <row r="17" spans="1:37" ht="33" customHeight="1">
+      <c r="A17" s="175"/>
       <c r="B17" s="50" t="s">
         <v>40</v>
       </c>
@@ -39213,22 +39356,28 @@
       <c r="J17" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="63">
+        <v>4</v>
+      </c>
+      <c r="L17" s="65">
         <v>1</v>
       </c>
-      <c r="L17" s="82"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="18">
+      <c r="M17" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" s="234" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" s="65"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="18">
         <v>3</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="S17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -39245,10 +39394,11 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-    </row>
-    <row r="18" spans="1:36" ht="33" customHeight="1">
-      <c r="A18" s="191"/>
-      <c r="B18" s="214" t="s">
+      <c r="AK17" s="1"/>
+    </row>
+    <row r="18" spans="1:37" ht="33" customHeight="1">
+      <c r="A18" s="175"/>
+      <c r="B18" s="222" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -39265,15 +39415,21 @@
       <c r="J18" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="61">
+        <v>4</v>
+      </c>
+      <c r="L18" s="233">
         <v>1</v>
       </c>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="1"/>
+      <c r="M18" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="N18" s="234" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" s="74"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="61"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -39293,10 +39449,11 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
-    </row>
-    <row r="19" spans="1:36" ht="33" customHeight="1">
-      <c r="A19" s="191"/>
-      <c r="B19" s="214"/>
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="1:37" ht="33" customHeight="1">
+      <c r="A19" s="175"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="49" t="s">
         <v>108</v>
       </c>
@@ -39311,15 +39468,21 @@
       <c r="J19" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="72">
+      <c r="K19" s="61">
+        <v>4</v>
+      </c>
+      <c r="L19" s="233">
         <v>1</v>
       </c>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="1"/>
+      <c r="M19" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="N19" s="234" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" s="74"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="61"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -39339,8 +39502,9 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-    </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="20" spans="1:37" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -39350,8 +39514,8 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="J20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="P20" s="1"/>
+      <c r="K20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -39372,8 +39536,9 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-    </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK20" s="1"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -39387,9 +39552,9 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -39412,8 +39577,9 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
-    </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK21" s="1"/>
+    </row>
+    <row r="22" spans="1:37" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -39425,9 +39591,9 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -39450,8 +39616,9 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-    </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK22" s="1"/>
+    </row>
+    <row r="23" spans="1:37" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -39463,9 +39630,9 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -39488,8 +39655,9 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-    </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK23" s="1"/>
+    </row>
+    <row r="24" spans="1:37" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -39501,9 +39669,9 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -39526,8 +39694,9 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
-    </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK24" s="1"/>
+    </row>
+    <row r="25" spans="1:37" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -39539,9 +39708,9 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -39564,8 +39733,9 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
-    </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK25" s="1"/>
+    </row>
+    <row r="26" spans="1:37" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -39574,12 +39744,12 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -39600,8 +39770,9 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
-    </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK26" s="1"/>
+    </row>
+    <row r="27" spans="1:37" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -39612,12 +39783,12 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="2"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -39638,8 +39809,9 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
-    </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK27" s="1"/>
+    </row>
+    <row r="28" spans="1:37" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
@@ -39652,12 +39824,12 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="2"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -39678,8 +39850,9 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
-    </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK28" s="1"/>
+    </row>
+    <row r="29" spans="1:37" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="26" t="s">
         <v>52</v>
@@ -39694,12 +39867,12 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="1"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -39720,8 +39893,9 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-    </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK29" s="1"/>
+    </row>
+    <row r="30" spans="1:37" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
@@ -39736,12 +39910,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="1"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -39762,8 +39936,9 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
-    </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK30" s="1"/>
+    </row>
+    <row r="31" spans="1:37" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="25" t="s">
         <v>71</v>
@@ -39778,12 +39953,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="1"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="1"/>
+      <c r="P31" s="2"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -39804,8 +39979,9 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
-    </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK31" s="1"/>
+    </row>
+    <row r="32" spans="1:37" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>66</v>
@@ -39820,12 +39996,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="2"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -39846,8 +40022,9 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-    </row>
-    <row r="33" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK32" s="1"/>
+    </row>
+    <row r="33" spans="1:37" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>67</v>
@@ -39862,12 +40039,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="1"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -39888,8 +40065,9 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-    </row>
-    <row r="34" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK33" s="1"/>
+    </row>
+    <row r="34" spans="1:37" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -39900,12 +40078,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="1"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -39926,8 +40104,9 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-    </row>
-    <row r="35" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK34" s="1"/>
+    </row>
+    <row r="35" spans="1:37" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -39938,12 +40117,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="1"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -39964,8 +40143,9 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
-    </row>
-    <row r="36" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK35" s="1"/>
+    </row>
+    <row r="36" spans="1:37" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -39976,12 +40156,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="1"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="1"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -40002,8 +40182,9 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
-    </row>
-    <row r="37" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK36" s="1"/>
+    </row>
+    <row r="37" spans="1:37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -40014,12 +40195,12 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="1"/>
+      <c r="P37" s="2"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -40040,8 +40221,9 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-    </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK37" s="1"/>
+    </row>
+    <row r="38" spans="1:37" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -40052,12 +40234,12 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="1"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="1"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -40078,8 +40260,9 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
-    </row>
-    <row r="39" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK38" s="1"/>
+    </row>
+    <row r="39" spans="1:37" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -40090,12 +40273,12 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="1"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -40116,8 +40299,9 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
-    </row>
-    <row r="40" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK39" s="1"/>
+    </row>
+    <row r="40" spans="1:37" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -40128,12 +40312,12 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="2"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="1"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="1"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -40154,8 +40338,9 @@
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
-    </row>
-    <row r="41" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK40" s="1"/>
+    </row>
+    <row r="41" spans="1:37" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -40166,12 +40351,12 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="1"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -40192,8 +40377,9 @@
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
-    </row>
-    <row r="42" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK41" s="1"/>
+    </row>
+    <row r="42" spans="1:37" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -40204,12 +40390,12 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="1"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -40230,8 +40416,9 @@
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
-    </row>
-    <row r="43" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK42" s="1"/>
+    </row>
+    <row r="43" spans="1:37" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -40242,12 +40429,12 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="1"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -40268,8 +40455,9 @@
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
-    </row>
-    <row r="44" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK43" s="1"/>
+    </row>
+    <row r="44" spans="1:37" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -40280,12 +40468,12 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="1"/>
+      <c r="P44" s="2"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -40306,8 +40494,9 @@
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
-    </row>
-    <row r="45" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK44" s="1"/>
+    </row>
+    <row r="45" spans="1:37" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -40318,12 +40507,12 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="1"/>
+      <c r="P45" s="2"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -40344,8 +40533,9 @@
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
-    </row>
-    <row r="46" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK45" s="1"/>
+    </row>
+    <row r="46" spans="1:37" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -40356,12 +40546,12 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="1"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -40382,8 +40572,9 @@
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
-    </row>
-    <row r="47" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK46" s="1"/>
+    </row>
+    <row r="47" spans="1:37" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -40394,12 +40585,12 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="1"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="1"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -40420,8 +40611,9 @@
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
-    </row>
-    <row r="48" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK47" s="1"/>
+    </row>
+    <row r="48" spans="1:37" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -40432,12 +40624,12 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="1"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -40458,8 +40650,9 @@
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
-    </row>
-    <row r="49" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK48" s="1"/>
+    </row>
+    <row r="49" spans="1:37" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -40470,12 +40663,12 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="2"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -40496,8 +40689,9 @@
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
-    </row>
-    <row r="50" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK49" s="1"/>
+    </row>
+    <row r="50" spans="1:37" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -40508,12 +40702,12 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="1"/>
+      <c r="P50" s="2"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -40534,8 +40728,9 @@
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
-    </row>
-    <row r="51" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK50" s="1"/>
+    </row>
+    <row r="51" spans="1:37" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -40546,12 +40741,12 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="1"/>
+      <c r="P51" s="2"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -40572,8 +40767,9 @@
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
-    </row>
-    <row r="52" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK51" s="1"/>
+    </row>
+    <row r="52" spans="1:37" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -40584,12 +40780,12 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="2"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="1"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="1"/>
+      <c r="P52" s="2"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -40610,8 +40806,9 @@
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
-    </row>
-    <row r="53" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK52" s="1"/>
+    </row>
+    <row r="53" spans="1:37" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -40622,12 +40819,12 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="1"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="1"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -40648,8 +40845,9 @@
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
-    </row>
-    <row r="54" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK53" s="1"/>
+    </row>
+    <row r="54" spans="1:37" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -40660,12 +40858,12 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="2"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="1"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="1"/>
+      <c r="P54" s="2"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -40686,8 +40884,9 @@
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
-    </row>
-    <row r="55" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK54" s="1"/>
+    </row>
+    <row r="55" spans="1:37" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -40698,12 +40897,12 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="2"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="1"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="1"/>
+      <c r="P55" s="2"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -40724,8 +40923,9 @@
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
-    </row>
-    <row r="56" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK55" s="1"/>
+    </row>
+    <row r="56" spans="1:37" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -40736,12 +40936,12 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="1"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="1"/>
+      <c r="P56" s="2"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -40762,8 +40962,9 @@
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
-    </row>
-    <row r="57" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK56" s="1"/>
+    </row>
+    <row r="57" spans="1:37" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -40774,12 +40975,12 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="1"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="1"/>
+      <c r="P57" s="2"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -40800,8 +41001,9 @@
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
-    </row>
-    <row r="58" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK57" s="1"/>
+    </row>
+    <row r="58" spans="1:37" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -40812,12 +41014,12 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="2"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="1"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="1"/>
+      <c r="P58" s="2"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -40838,8 +41040,9 @@
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
-    </row>
-    <row r="59" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK58" s="1"/>
+    </row>
+    <row r="59" spans="1:37" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -40850,12 +41053,12 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="2"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="1"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="1"/>
+      <c r="P59" s="2"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -40876,8 +41079,9 @@
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
-    </row>
-    <row r="60" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK59" s="1"/>
+    </row>
+    <row r="60" spans="1:37" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -40888,12 +41092,12 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="1"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="1"/>
+      <c r="P60" s="2"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -40914,8 +41118,9 @@
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
-    </row>
-    <row r="61" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK60" s="1"/>
+    </row>
+    <row r="61" spans="1:37" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -40926,12 +41131,12 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="2"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="1"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="1"/>
+      <c r="P61" s="2"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -40952,8 +41157,9 @@
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
-    </row>
-    <row r="62" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK61" s="1"/>
+    </row>
+    <row r="62" spans="1:37" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -40964,12 +41170,12 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="1"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="1"/>
+      <c r="P62" s="2"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -40990,8 +41196,9 @@
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
-    </row>
-    <row r="63" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK62" s="1"/>
+    </row>
+    <row r="63" spans="1:37" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -41002,12 +41209,12 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="1"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="1"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -41028,8 +41235,9 @@
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
-    </row>
-    <row r="64" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK63" s="1"/>
+    </row>
+    <row r="64" spans="1:37" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -41040,12 +41248,12 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="2"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="1"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="1"/>
+      <c r="P64" s="2"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -41066,8 +41274,9 @@
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
-    </row>
-    <row r="65" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK64" s="1"/>
+    </row>
+    <row r="65" spans="1:37" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -41078,12 +41287,12 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="2"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="1"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="1"/>
+      <c r="P65" s="2"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -41104,8 +41313,9 @@
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
-    </row>
-    <row r="66" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK65" s="1"/>
+    </row>
+    <row r="66" spans="1:37" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -41116,12 +41326,12 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="1"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="1"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -41142,8 +41352,9 @@
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
-    </row>
-    <row r="67" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK66" s="1"/>
+    </row>
+    <row r="67" spans="1:37" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -41154,12 +41365,12 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="2"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="1"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="1"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -41180,8 +41391,9 @@
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
-    </row>
-    <row r="68" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK67" s="1"/>
+    </row>
+    <row r="68" spans="1:37" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -41192,12 +41404,12 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="2"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="1"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="1"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -41218,8 +41430,9 @@
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
-    </row>
-    <row r="69" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK68" s="1"/>
+    </row>
+    <row r="69" spans="1:37" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -41230,12 +41443,12 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="2"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="1"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="1"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -41256,8 +41469,9 @@
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
-    </row>
-    <row r="70" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK69" s="1"/>
+    </row>
+    <row r="70" spans="1:37" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -41268,12 +41482,12 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="1"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="1"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -41294,8 +41508,9 @@
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
-    </row>
-    <row r="71" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK70" s="1"/>
+    </row>
+    <row r="71" spans="1:37" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -41306,12 +41521,12 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="2"/>
+      <c r="K71" s="1"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="1"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="1"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -41332,8 +41547,9 @@
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
-    </row>
-    <row r="72" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK71" s="1"/>
+    </row>
+    <row r="72" spans="1:37" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -41344,12 +41560,12 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="1"/>
       <c r="O72" s="2"/>
-      <c r="P72" s="1"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -41370,8 +41586,9 @@
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
-    </row>
-    <row r="73" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK72" s="1"/>
+    </row>
+    <row r="73" spans="1:37" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -41382,12 +41599,12 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="2"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="1"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="1"/>
+      <c r="P73" s="2"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -41408,8 +41625,9 @@
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
-    </row>
-    <row r="74" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK73" s="1"/>
+    </row>
+    <row r="74" spans="1:37" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -41420,12 +41638,12 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="1"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="1"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="1"/>
+      <c r="P74" s="2"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -41446,8 +41664,9 @@
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
-    </row>
-    <row r="75" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK74" s="1"/>
+    </row>
+    <row r="75" spans="1:37" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -41458,12 +41677,12 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="2"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="1"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="1"/>
+      <c r="P75" s="2"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -41484,8 +41703,9 @@
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
-    </row>
-    <row r="76" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK75" s="1"/>
+    </row>
+    <row r="76" spans="1:37" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -41496,12 +41716,12 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="2"/>
+      <c r="K76" s="1"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="1"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="1"/>
+      <c r="P76" s="2"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -41522,8 +41742,9 @@
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
-    </row>
-    <row r="77" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK76" s="1"/>
+    </row>
+    <row r="77" spans="1:37" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -41534,12 +41755,12 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="2"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="1"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="1"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -41560,8 +41781,9 @@
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
-    </row>
-    <row r="78" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK77" s="1"/>
+    </row>
+    <row r="78" spans="1:37" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -41572,12 +41794,12 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="2"/>
+      <c r="K78" s="1"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="1"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="1"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -41598,8 +41820,9 @@
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
-    </row>
-    <row r="79" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK78" s="1"/>
+    </row>
+    <row r="79" spans="1:37" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -41610,12 +41833,12 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="2"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="1"/>
       <c r="O79" s="2"/>
-      <c r="P79" s="1"/>
+      <c r="P79" s="2"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -41636,8 +41859,9 @@
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
-    </row>
-    <row r="80" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK79" s="1"/>
+    </row>
+    <row r="80" spans="1:37" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -41648,12 +41872,12 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="2"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="1"/>
       <c r="O80" s="2"/>
-      <c r="P80" s="1"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -41674,8 +41898,9 @@
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
-    </row>
-    <row r="81" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK80" s="1"/>
+    </row>
+    <row r="81" spans="1:37" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -41686,12 +41911,12 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="2"/>
+      <c r="K81" s="1"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="1"/>
       <c r="O81" s="2"/>
-      <c r="P81" s="1"/>
+      <c r="P81" s="2"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -41712,8 +41937,9 @@
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
-    </row>
-    <row r="82" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK81" s="1"/>
+    </row>
+    <row r="82" spans="1:37" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -41724,12 +41950,12 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="2"/>
+      <c r="K82" s="1"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="1"/>
       <c r="O82" s="2"/>
-      <c r="P82" s="1"/>
+      <c r="P82" s="2"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -41750,8 +41976,9 @@
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
-    </row>
-    <row r="83" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK82" s="1"/>
+    </row>
+    <row r="83" spans="1:37" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -41762,12 +41989,12 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="2"/>
+      <c r="K83" s="1"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="1"/>
       <c r="O83" s="2"/>
-      <c r="P83" s="1"/>
+      <c r="P83" s="2"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -41788,8 +42015,9 @@
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
-    </row>
-    <row r="84" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK83" s="1"/>
+    </row>
+    <row r="84" spans="1:37" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -41800,12 +42028,12 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="2"/>
+      <c r="K84" s="1"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="1"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="1"/>
+      <c r="P84" s="2"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -41826,8 +42054,9 @@
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
-    </row>
-    <row r="85" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK84" s="1"/>
+    </row>
+    <row r="85" spans="1:37" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -41838,12 +42067,12 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="2"/>
+      <c r="K85" s="1"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="1"/>
       <c r="O85" s="2"/>
-      <c r="P85" s="1"/>
+      <c r="P85" s="2"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -41864,8 +42093,9 @@
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
-    </row>
-    <row r="86" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK85" s="1"/>
+    </row>
+    <row r="86" spans="1:37" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -41876,12 +42106,12 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="2"/>
+      <c r="K86" s="1"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="1"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="1"/>
+      <c r="P86" s="2"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -41902,8 +42132,9 @@
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
-    </row>
-    <row r="87" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK86" s="1"/>
+    </row>
+    <row r="87" spans="1:37" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -41914,12 +42145,12 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="2"/>
+      <c r="K87" s="1"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="1"/>
       <c r="O87" s="2"/>
-      <c r="P87" s="1"/>
+      <c r="P87" s="2"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -41940,8 +42171,9 @@
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
-    </row>
-    <row r="88" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK87" s="1"/>
+    </row>
+    <row r="88" spans="1:37" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -41952,12 +42184,12 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="2"/>
+      <c r="K88" s="1"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="1"/>
       <c r="O88" s="2"/>
-      <c r="P88" s="1"/>
+      <c r="P88" s="2"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -41978,8 +42210,9 @@
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
-    </row>
-    <row r="89" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK88" s="1"/>
+    </row>
+    <row r="89" spans="1:37" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -41990,12 +42223,12 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="2"/>
+      <c r="K89" s="1"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="1"/>
       <c r="O89" s="2"/>
-      <c r="P89" s="1"/>
+      <c r="P89" s="2"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -42016,8 +42249,9 @@
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
-    </row>
-    <row r="90" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK89" s="1"/>
+    </row>
+    <row r="90" spans="1:37" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -42028,12 +42262,12 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="2"/>
+      <c r="K90" s="1"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="1"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="1"/>
+      <c r="P90" s="2"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -42054,8 +42288,9 @@
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
-    </row>
-    <row r="91" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK90" s="1"/>
+    </row>
+    <row r="91" spans="1:37" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -42066,12 +42301,12 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="2"/>
+      <c r="K91" s="1"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="1"/>
       <c r="O91" s="2"/>
-      <c r="P91" s="1"/>
+      <c r="P91" s="2"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -42092,8 +42327,9 @@
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
-    </row>
-    <row r="92" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK91" s="1"/>
+    </row>
+    <row r="92" spans="1:37" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -42104,12 +42340,12 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="2"/>
+      <c r="K92" s="1"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="1"/>
       <c r="O92" s="2"/>
-      <c r="P92" s="1"/>
+      <c r="P92" s="2"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -42130,8 +42366,9 @@
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
-    </row>
-    <row r="93" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK92" s="1"/>
+    </row>
+    <row r="93" spans="1:37" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -42142,12 +42379,12 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="2"/>
+      <c r="K93" s="1"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="1"/>
       <c r="O93" s="2"/>
-      <c r="P93" s="1"/>
+      <c r="P93" s="2"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -42168,8 +42405,9 @@
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
-    </row>
-    <row r="94" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK93" s="1"/>
+    </row>
+    <row r="94" spans="1:37" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -42180,12 +42418,12 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="1"/>
-      <c r="K94" s="2"/>
+      <c r="K94" s="1"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="1"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="1"/>
+      <c r="P94" s="2"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -42206,8 +42444,9 @@
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
-    </row>
-    <row r="95" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK94" s="1"/>
+    </row>
+    <row r="95" spans="1:37" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -42218,12 +42457,12 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="1"/>
-      <c r="K95" s="2"/>
+      <c r="K95" s="1"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="1"/>
       <c r="O95" s="2"/>
-      <c r="P95" s="1"/>
+      <c r="P95" s="2"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -42244,8 +42483,9 @@
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
-    </row>
-    <row r="96" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK95" s="1"/>
+    </row>
+    <row r="96" spans="1:37" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -42256,12 +42496,12 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="1"/>
-      <c r="K96" s="2"/>
+      <c r="K96" s="1"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="1"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="1"/>
+      <c r="P96" s="2"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -42282,8 +42522,9 @@
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
-    </row>
-    <row r="97" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK96" s="1"/>
+    </row>
+    <row r="97" spans="1:37" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -42294,12 +42535,12 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="2"/>
+      <c r="K97" s="1"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="1"/>
       <c r="O97" s="2"/>
-      <c r="P97" s="1"/>
+      <c r="P97" s="2"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -42320,8 +42561,9 @@
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
-    </row>
-    <row r="98" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK97" s="1"/>
+    </row>
+    <row r="98" spans="1:37" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -42332,12 +42574,12 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="2"/>
+      <c r="K98" s="1"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="1"/>
       <c r="O98" s="2"/>
-      <c r="P98" s="1"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -42358,8 +42600,9 @@
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
-    </row>
-    <row r="99" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK98" s="1"/>
+    </row>
+    <row r="99" spans="1:37" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -42370,12 +42613,12 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="1"/>
-      <c r="K99" s="2"/>
+      <c r="K99" s="1"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="1"/>
       <c r="O99" s="2"/>
-      <c r="P99" s="1"/>
+      <c r="P99" s="2"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -42396,8 +42639,9 @@
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
-    </row>
-    <row r="100" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK99" s="1"/>
+    </row>
+    <row r="100" spans="1:37" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -42408,12 +42652,12 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="1"/>
-      <c r="K100" s="2"/>
+      <c r="K100" s="1"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="1"/>
       <c r="O100" s="2"/>
-      <c r="P100" s="1"/>
+      <c r="P100" s="2"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -42434,8 +42678,9 @@
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
-    </row>
-    <row r="101" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK100" s="1"/>
+    </row>
+    <row r="101" spans="1:37" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -42446,12 +42691,12 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="2"/>
+      <c r="K101" s="1"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="1"/>
       <c r="O101" s="2"/>
-      <c r="P101" s="1"/>
+      <c r="P101" s="2"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -42472,8 +42717,9 @@
       <c r="AH101" s="1"/>
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
-    </row>
-    <row r="102" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK101" s="1"/>
+    </row>
+    <row r="102" spans="1:37" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -42484,12 +42730,12 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="1"/>
-      <c r="K102" s="2"/>
+      <c r="K102" s="1"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="1"/>
       <c r="O102" s="2"/>
-      <c r="P102" s="1"/>
+      <c r="P102" s="2"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -42510,8 +42756,9 @@
       <c r="AH102" s="1"/>
       <c r="AI102" s="1"/>
       <c r="AJ102" s="1"/>
-    </row>
-    <row r="103" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK102" s="1"/>
+    </row>
+    <row r="103" spans="1:37" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -42522,12 +42769,12 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="1"/>
-      <c r="K103" s="2"/>
+      <c r="K103" s="1"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="1"/>
       <c r="O103" s="2"/>
-      <c r="P103" s="1"/>
+      <c r="P103" s="2"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -42548,8 +42795,9 @@
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
-    </row>
-    <row r="104" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK103" s="1"/>
+    </row>
+    <row r="104" spans="1:37" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -42560,12 +42808,12 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="1"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="1"/>
       <c r="O104" s="2"/>
-      <c r="P104" s="1"/>
+      <c r="P104" s="2"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -42586,8 +42834,9 @@
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
-    </row>
-    <row r="105" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK104" s="1"/>
+    </row>
+    <row r="105" spans="1:37" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -42598,12 +42847,12 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="1"/>
-      <c r="K105" s="2"/>
+      <c r="K105" s="1"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="1"/>
       <c r="O105" s="2"/>
-      <c r="P105" s="1"/>
+      <c r="P105" s="2"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -42624,8 +42873,9 @@
       <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
-    </row>
-    <row r="106" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK105" s="1"/>
+    </row>
+    <row r="106" spans="1:37" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -42636,12 +42886,12 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="1"/>
-      <c r="K106" s="2"/>
+      <c r="K106" s="1"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="1"/>
       <c r="O106" s="2"/>
-      <c r="P106" s="1"/>
+      <c r="P106" s="2"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -42662,8 +42912,9 @@
       <c r="AH106" s="1"/>
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
-    </row>
-    <row r="107" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK106" s="1"/>
+    </row>
+    <row r="107" spans="1:37" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -42674,12 +42925,12 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="1"/>
-      <c r="K107" s="2"/>
+      <c r="K107" s="1"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="1"/>
       <c r="O107" s="2"/>
-      <c r="P107" s="1"/>
+      <c r="P107" s="2"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -42700,8 +42951,9 @@
       <c r="AH107" s="1"/>
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
-    </row>
-    <row r="108" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK107" s="1"/>
+    </row>
+    <row r="108" spans="1:37" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -42712,12 +42964,12 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="1"/>
-      <c r="K108" s="2"/>
+      <c r="K108" s="1"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="1"/>
       <c r="O108" s="2"/>
-      <c r="P108" s="1"/>
+      <c r="P108" s="2"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -42738,8 +42990,9 @@
       <c r="AH108" s="1"/>
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
-    </row>
-    <row r="109" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK108" s="1"/>
+    </row>
+    <row r="109" spans="1:37" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -42750,12 +43003,12 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="1"/>
-      <c r="K109" s="2"/>
+      <c r="K109" s="1"/>
       <c r="L109" s="2"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="1"/>
       <c r="O109" s="2"/>
-      <c r="P109" s="1"/>
+      <c r="P109" s="2"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -42776,8 +43029,9 @@
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
-    </row>
-    <row r="110" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK109" s="1"/>
+    </row>
+    <row r="110" spans="1:37" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -42788,12 +43042,12 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="1"/>
-      <c r="K110" s="2"/>
+      <c r="K110" s="1"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="1"/>
       <c r="O110" s="2"/>
-      <c r="P110" s="1"/>
+      <c r="P110" s="2"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -42814,8 +43068,9 @@
       <c r="AH110" s="1"/>
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
-    </row>
-    <row r="111" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK110" s="1"/>
+    </row>
+    <row r="111" spans="1:37" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -42826,12 +43081,12 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="1"/>
-      <c r="K111" s="2"/>
+      <c r="K111" s="1"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="1"/>
       <c r="O111" s="2"/>
-      <c r="P111" s="1"/>
+      <c r="P111" s="2"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -42852,8 +43107,9 @@
       <c r="AH111" s="1"/>
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
-    </row>
-    <row r="112" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK111" s="1"/>
+    </row>
+    <row r="112" spans="1:37" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -42864,12 +43120,12 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="1"/>
-      <c r="K112" s="2"/>
+      <c r="K112" s="1"/>
       <c r="L112" s="2"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="1"/>
       <c r="O112" s="2"/>
-      <c r="P112" s="1"/>
+      <c r="P112" s="2"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -42890,8 +43146,9 @@
       <c r="AH112" s="1"/>
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
-    </row>
-    <row r="113" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK112" s="1"/>
+    </row>
+    <row r="113" spans="1:37" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -42902,12 +43159,12 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="1"/>
-      <c r="K113" s="2"/>
+      <c r="K113" s="1"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="1"/>
       <c r="O113" s="2"/>
-      <c r="P113" s="1"/>
+      <c r="P113" s="2"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -42928,8 +43185,9 @@
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
       <c r="AJ113" s="1"/>
-    </row>
-    <row r="114" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK113" s="1"/>
+    </row>
+    <row r="114" spans="1:37" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -42940,12 +43198,12 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="1"/>
-      <c r="K114" s="2"/>
+      <c r="K114" s="1"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="1"/>
       <c r="O114" s="2"/>
-      <c r="P114" s="1"/>
+      <c r="P114" s="2"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -42966,8 +43224,9 @@
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
-    </row>
-    <row r="115" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK114" s="1"/>
+    </row>
+    <row r="115" spans="1:37" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -42978,12 +43237,12 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="1"/>
-      <c r="K115" s="2"/>
+      <c r="K115" s="1"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="1"/>
       <c r="O115" s="2"/>
-      <c r="P115" s="1"/>
+      <c r="P115" s="2"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -43004,8 +43263,9 @@
       <c r="AH115" s="1"/>
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
-    </row>
-    <row r="116" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK115" s="1"/>
+    </row>
+    <row r="116" spans="1:37" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -43016,12 +43276,12 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="1"/>
-      <c r="K116" s="2"/>
+      <c r="K116" s="1"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="1"/>
       <c r="O116" s="2"/>
-      <c r="P116" s="1"/>
+      <c r="P116" s="2"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -43042,8 +43302,9 @@
       <c r="AH116" s="1"/>
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
-    </row>
-    <row r="117" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK116" s="1"/>
+    </row>
+    <row r="117" spans="1:37" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -43054,12 +43315,12 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="1"/>
-      <c r="K117" s="2"/>
+      <c r="K117" s="1"/>
       <c r="L117" s="2"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="1"/>
       <c r="O117" s="2"/>
-      <c r="P117" s="1"/>
+      <c r="P117" s="2"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -43080,8 +43341,9 @@
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
-    </row>
-    <row r="118" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK117" s="1"/>
+    </row>
+    <row r="118" spans="1:37" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -43092,12 +43354,12 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="1"/>
-      <c r="K118" s="2"/>
+      <c r="K118" s="1"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="1"/>
       <c r="O118" s="2"/>
-      <c r="P118" s="1"/>
+      <c r="P118" s="2"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
@@ -43118,8 +43380,9 @@
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
-    </row>
-    <row r="119" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK118" s="1"/>
+    </row>
+    <row r="119" spans="1:37" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -43130,12 +43393,12 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="1"/>
-      <c r="K119" s="2"/>
+      <c r="K119" s="1"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="1"/>
       <c r="O119" s="2"/>
-      <c r="P119" s="1"/>
+      <c r="P119" s="2"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
@@ -43156,8 +43419,9 @@
       <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
-    </row>
-    <row r="120" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK119" s="1"/>
+    </row>
+    <row r="120" spans="1:37" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -43168,12 +43432,12 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="1"/>
-      <c r="K120" s="2"/>
+      <c r="K120" s="1"/>
       <c r="L120" s="2"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="1"/>
       <c r="O120" s="2"/>
-      <c r="P120" s="1"/>
+      <c r="P120" s="2"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -43194,8 +43458,9 @@
       <c r="AH120" s="1"/>
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
-    </row>
-    <row r="121" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK120" s="1"/>
+    </row>
+    <row r="121" spans="1:37" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -43206,12 +43471,12 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="1"/>
-      <c r="K121" s="2"/>
+      <c r="K121" s="1"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="1"/>
       <c r="O121" s="2"/>
-      <c r="P121" s="1"/>
+      <c r="P121" s="2"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -43232,8 +43497,9 @@
       <c r="AH121" s="1"/>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
-    </row>
-    <row r="122" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK121" s="1"/>
+    </row>
+    <row r="122" spans="1:37" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -43244,12 +43510,12 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="1"/>
-      <c r="K122" s="2"/>
+      <c r="K122" s="1"/>
       <c r="L122" s="2"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="1"/>
       <c r="O122" s="2"/>
-      <c r="P122" s="1"/>
+      <c r="P122" s="2"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -43270,8 +43536,9 @@
       <c r="AH122" s="1"/>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
-    </row>
-    <row r="123" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK122" s="1"/>
+    </row>
+    <row r="123" spans="1:37" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -43282,12 +43549,12 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="1"/>
-      <c r="K123" s="2"/>
+      <c r="K123" s="1"/>
       <c r="L123" s="2"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="1"/>
       <c r="O123" s="2"/>
-      <c r="P123" s="1"/>
+      <c r="P123" s="2"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -43308,8 +43575,9 @@
       <c r="AH123" s="1"/>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
-    </row>
-    <row r="124" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK123" s="1"/>
+    </row>
+    <row r="124" spans="1:37" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -43320,12 +43588,12 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="1"/>
-      <c r="K124" s="2"/>
+      <c r="K124" s="1"/>
       <c r="L124" s="2"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="1"/>
       <c r="O124" s="2"/>
-      <c r="P124" s="1"/>
+      <c r="P124" s="2"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
@@ -43346,8 +43614,9 @@
       <c r="AH124" s="1"/>
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
-    </row>
-    <row r="125" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK124" s="1"/>
+    </row>
+    <row r="125" spans="1:37" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -43358,12 +43627,12 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="1"/>
-      <c r="K125" s="2"/>
+      <c r="K125" s="1"/>
       <c r="L125" s="2"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="1"/>
       <c r="O125" s="2"/>
-      <c r="P125" s="1"/>
+      <c r="P125" s="2"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
@@ -43384,8 +43653,9 @@
       <c r="AH125" s="1"/>
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
-    </row>
-    <row r="126" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK125" s="1"/>
+    </row>
+    <row r="126" spans="1:37" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -43396,12 +43666,12 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="1"/>
-      <c r="K126" s="2"/>
+      <c r="K126" s="1"/>
       <c r="L126" s="2"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="1"/>
       <c r="O126" s="2"/>
-      <c r="P126" s="1"/>
+      <c r="P126" s="2"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
@@ -43422,8 +43692,9 @@
       <c r="AH126" s="1"/>
       <c r="AI126" s="1"/>
       <c r="AJ126" s="1"/>
-    </row>
-    <row r="127" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK126" s="1"/>
+    </row>
+    <row r="127" spans="1:37" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -43434,12 +43705,12 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="1"/>
-      <c r="K127" s="2"/>
+      <c r="K127" s="1"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="1"/>
       <c r="O127" s="2"/>
-      <c r="P127" s="1"/>
+      <c r="P127" s="2"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
@@ -43460,8 +43731,9 @@
       <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
-    </row>
-    <row r="128" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK127" s="1"/>
+    </row>
+    <row r="128" spans="1:37" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -43472,12 +43744,12 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="1"/>
-      <c r="K128" s="2"/>
+      <c r="K128" s="1"/>
       <c r="L128" s="2"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="1"/>
       <c r="O128" s="2"/>
-      <c r="P128" s="1"/>
+      <c r="P128" s="2"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
@@ -43498,8 +43770,9 @@
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
-    </row>
-    <row r="129" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK128" s="1"/>
+    </row>
+    <row r="129" spans="1:37" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -43510,12 +43783,12 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="1"/>
-      <c r="K129" s="2"/>
+      <c r="K129" s="1"/>
       <c r="L129" s="2"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="1"/>
       <c r="O129" s="2"/>
-      <c r="P129" s="1"/>
+      <c r="P129" s="2"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
@@ -43536,8 +43809,9 @@
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
-    </row>
-    <row r="130" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK129" s="1"/>
+    </row>
+    <row r="130" spans="1:37" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -43548,12 +43822,12 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="1"/>
-      <c r="K130" s="2"/>
+      <c r="K130" s="1"/>
       <c r="L130" s="2"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="1"/>
       <c r="O130" s="2"/>
-      <c r="P130" s="1"/>
+      <c r="P130" s="2"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
@@ -43574,8 +43848,9 @@
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
-    </row>
-    <row r="131" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK130" s="1"/>
+    </row>
+    <row r="131" spans="1:37" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -43586,12 +43861,12 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="1"/>
-      <c r="K131" s="2"/>
+      <c r="K131" s="1"/>
       <c r="L131" s="2"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="1"/>
       <c r="O131" s="2"/>
-      <c r="P131" s="1"/>
+      <c r="P131" s="2"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
@@ -43612,8 +43887,9 @@
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
-    </row>
-    <row r="132" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK131" s="1"/>
+    </row>
+    <row r="132" spans="1:37" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -43624,12 +43900,12 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="1"/>
-      <c r="K132" s="2"/>
+      <c r="K132" s="1"/>
       <c r="L132" s="2"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="1"/>
       <c r="O132" s="2"/>
-      <c r="P132" s="1"/>
+      <c r="P132" s="2"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
@@ -43650,8 +43926,9 @@
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
-    </row>
-    <row r="133" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK132" s="1"/>
+    </row>
+    <row r="133" spans="1:37" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -43662,12 +43939,12 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="1"/>
-      <c r="K133" s="2"/>
+      <c r="K133" s="1"/>
       <c r="L133" s="2"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="1"/>
       <c r="O133" s="2"/>
-      <c r="P133" s="1"/>
+      <c r="P133" s="2"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
@@ -43688,8 +43965,9 @@
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
-    </row>
-    <row r="134" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK133" s="1"/>
+    </row>
+    <row r="134" spans="1:37" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -43700,12 +43978,12 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="1"/>
-      <c r="K134" s="2"/>
+      <c r="K134" s="1"/>
       <c r="L134" s="2"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="1"/>
       <c r="O134" s="2"/>
-      <c r="P134" s="1"/>
+      <c r="P134" s="2"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -43726,8 +44004,9 @@
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
-    </row>
-    <row r="135" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK134" s="1"/>
+    </row>
+    <row r="135" spans="1:37" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -43738,12 +44017,12 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="1"/>
-      <c r="K135" s="2"/>
+      <c r="K135" s="1"/>
       <c r="L135" s="2"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="1"/>
       <c r="O135" s="2"/>
-      <c r="P135" s="1"/>
+      <c r="P135" s="2"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -43764,8 +44043,9 @@
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
-    </row>
-    <row r="136" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK135" s="1"/>
+    </row>
+    <row r="136" spans="1:37" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -43776,12 +44056,12 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="1"/>
-      <c r="K136" s="2"/>
+      <c r="K136" s="1"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="1"/>
       <c r="O136" s="2"/>
-      <c r="P136" s="1"/>
+      <c r="P136" s="2"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
@@ -43802,8 +44082,9 @@
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
-    </row>
-    <row r="137" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK136" s="1"/>
+    </row>
+    <row r="137" spans="1:37" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -43814,12 +44095,12 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="1"/>
-      <c r="K137" s="2"/>
+      <c r="K137" s="1"/>
       <c r="L137" s="2"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="1"/>
       <c r="O137" s="2"/>
-      <c r="P137" s="1"/>
+      <c r="P137" s="2"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
@@ -43840,8 +44121,9 @@
       <c r="AH137" s="1"/>
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
-    </row>
-    <row r="138" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK137" s="1"/>
+    </row>
+    <row r="138" spans="1:37" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -43852,12 +44134,12 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="1"/>
-      <c r="K138" s="2"/>
+      <c r="K138" s="1"/>
       <c r="L138" s="2"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="1"/>
       <c r="O138" s="2"/>
-      <c r="P138" s="1"/>
+      <c r="P138" s="2"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
@@ -43878,8 +44160,9 @@
       <c r="AH138" s="1"/>
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
-    </row>
-    <row r="139" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK138" s="1"/>
+    </row>
+    <row r="139" spans="1:37" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -43890,12 +44173,12 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="1"/>
-      <c r="K139" s="2"/>
+      <c r="K139" s="1"/>
       <c r="L139" s="2"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="1"/>
       <c r="O139" s="2"/>
-      <c r="P139" s="1"/>
+      <c r="P139" s="2"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
@@ -43916,8 +44199,9 @@
       <c r="AH139" s="1"/>
       <c r="AI139" s="1"/>
       <c r="AJ139" s="1"/>
-    </row>
-    <row r="140" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK139" s="1"/>
+    </row>
+    <row r="140" spans="1:37" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -43928,12 +44212,12 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="1"/>
-      <c r="K140" s="2"/>
+      <c r="K140" s="1"/>
       <c r="L140" s="2"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="1"/>
       <c r="O140" s="2"/>
-      <c r="P140" s="1"/>
+      <c r="P140" s="2"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
@@ -43954,8 +44238,9 @@
       <c r="AH140" s="1"/>
       <c r="AI140" s="1"/>
       <c r="AJ140" s="1"/>
-    </row>
-    <row r="141" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK140" s="1"/>
+    </row>
+    <row r="141" spans="1:37" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -43966,12 +44251,12 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="2"/>
+      <c r="K141" s="1"/>
       <c r="L141" s="2"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="1"/>
       <c r="O141" s="2"/>
-      <c r="P141" s="1"/>
+      <c r="P141" s="2"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -43992,8 +44277,9 @@
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
       <c r="AJ141" s="1"/>
-    </row>
-    <row r="142" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK141" s="1"/>
+    </row>
+    <row r="142" spans="1:37" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -44004,12 +44290,12 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="1"/>
-      <c r="K142" s="2"/>
+      <c r="K142" s="1"/>
       <c r="L142" s="2"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="1"/>
       <c r="O142" s="2"/>
-      <c r="P142" s="1"/>
+      <c r="P142" s="2"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -44030,8 +44316,9 @@
       <c r="AH142" s="1"/>
       <c r="AI142" s="1"/>
       <c r="AJ142" s="1"/>
-    </row>
-    <row r="143" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK142" s="1"/>
+    </row>
+    <row r="143" spans="1:37" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -44042,12 +44329,12 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="1"/>
-      <c r="K143" s="2"/>
+      <c r="K143" s="1"/>
       <c r="L143" s="2"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="1"/>
       <c r="O143" s="2"/>
-      <c r="P143" s="1"/>
+      <c r="P143" s="2"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
@@ -44068,8 +44355,9 @@
       <c r="AH143" s="1"/>
       <c r="AI143" s="1"/>
       <c r="AJ143" s="1"/>
-    </row>
-    <row r="144" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK143" s="1"/>
+    </row>
+    <row r="144" spans="1:37" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -44080,12 +44368,12 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="1"/>
-      <c r="K144" s="2"/>
+      <c r="K144" s="1"/>
       <c r="L144" s="2"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="1"/>
       <c r="O144" s="2"/>
-      <c r="P144" s="1"/>
+      <c r="P144" s="2"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -44106,8 +44394,9 @@
       <c r="AH144" s="1"/>
       <c r="AI144" s="1"/>
       <c r="AJ144" s="1"/>
-    </row>
-    <row r="145" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK144" s="1"/>
+    </row>
+    <row r="145" spans="1:37" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -44118,12 +44407,12 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="1"/>
-      <c r="K145" s="2"/>
+      <c r="K145" s="1"/>
       <c r="L145" s="2"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="1"/>
       <c r="O145" s="2"/>
-      <c r="P145" s="1"/>
+      <c r="P145" s="2"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
@@ -44144,8 +44433,9 @@
       <c r="AH145" s="1"/>
       <c r="AI145" s="1"/>
       <c r="AJ145" s="1"/>
-    </row>
-    <row r="146" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK145" s="1"/>
+    </row>
+    <row r="146" spans="1:37" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -44156,12 +44446,12 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="1"/>
-      <c r="K146" s="2"/>
+      <c r="K146" s="1"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="1"/>
       <c r="O146" s="2"/>
-      <c r="P146" s="1"/>
+      <c r="P146" s="2"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -44182,8 +44472,9 @@
       <c r="AH146" s="1"/>
       <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
-    </row>
-    <row r="147" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK146" s="1"/>
+    </row>
+    <row r="147" spans="1:37" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -44194,12 +44485,12 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="1"/>
-      <c r="K147" s="2"/>
+      <c r="K147" s="1"/>
       <c r="L147" s="2"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="1"/>
       <c r="O147" s="2"/>
-      <c r="P147" s="1"/>
+      <c r="P147" s="2"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -44220,8 +44511,9 @@
       <c r="AH147" s="1"/>
       <c r="AI147" s="1"/>
       <c r="AJ147" s="1"/>
-    </row>
-    <row r="148" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK147" s="1"/>
+    </row>
+    <row r="148" spans="1:37" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -44232,12 +44524,12 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="1"/>
-      <c r="K148" s="2"/>
+      <c r="K148" s="1"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="1"/>
       <c r="O148" s="2"/>
-      <c r="P148" s="1"/>
+      <c r="P148" s="2"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
@@ -44258,8 +44550,9 @@
       <c r="AH148" s="1"/>
       <c r="AI148" s="1"/>
       <c r="AJ148" s="1"/>
-    </row>
-    <row r="149" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK148" s="1"/>
+    </row>
+    <row r="149" spans="1:37" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -44270,12 +44563,12 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="1"/>
-      <c r="K149" s="2"/>
+      <c r="K149" s="1"/>
       <c r="L149" s="2"/>
-      <c r="M149" s="1"/>
-      <c r="N149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="1"/>
       <c r="O149" s="2"/>
-      <c r="P149" s="1"/>
+      <c r="P149" s="2"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
@@ -44296,8 +44589,9 @@
       <c r="AH149" s="1"/>
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
-    </row>
-    <row r="150" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK149" s="1"/>
+    </row>
+    <row r="150" spans="1:37" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -44308,12 +44602,12 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="1"/>
-      <c r="K150" s="2"/>
+      <c r="K150" s="1"/>
       <c r="L150" s="2"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="1"/>
       <c r="O150" s="2"/>
-      <c r="P150" s="1"/>
+      <c r="P150" s="2"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
@@ -44334,8 +44628,9 @@
       <c r="AH150" s="1"/>
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
-    </row>
-    <row r="151" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK150" s="1"/>
+    </row>
+    <row r="151" spans="1:37" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -44346,12 +44641,12 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="1"/>
-      <c r="K151" s="2"/>
+      <c r="K151" s="1"/>
       <c r="L151" s="2"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="1"/>
       <c r="O151" s="2"/>
-      <c r="P151" s="1"/>
+      <c r="P151" s="2"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
@@ -44372,8 +44667,9 @@
       <c r="AH151" s="1"/>
       <c r="AI151" s="1"/>
       <c r="AJ151" s="1"/>
-    </row>
-    <row r="152" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK151" s="1"/>
+    </row>
+    <row r="152" spans="1:37" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -44384,12 +44680,12 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="1"/>
-      <c r="K152" s="2"/>
+      <c r="K152" s="1"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="1"/>
       <c r="O152" s="2"/>
-      <c r="P152" s="1"/>
+      <c r="P152" s="2"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -44410,8 +44706,9 @@
       <c r="AH152" s="1"/>
       <c r="AI152" s="1"/>
       <c r="AJ152" s="1"/>
-    </row>
-    <row r="153" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK152" s="1"/>
+    </row>
+    <row r="153" spans="1:37" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -44422,12 +44719,12 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="1"/>
-      <c r="K153" s="2"/>
+      <c r="K153" s="1"/>
       <c r="L153" s="2"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="1"/>
       <c r="O153" s="2"/>
-      <c r="P153" s="1"/>
+      <c r="P153" s="2"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
@@ -44448,8 +44745,9 @@
       <c r="AH153" s="1"/>
       <c r="AI153" s="1"/>
       <c r="AJ153" s="1"/>
-    </row>
-    <row r="154" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK153" s="1"/>
+    </row>
+    <row r="154" spans="1:37" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -44460,12 +44758,12 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="1"/>
-      <c r="K154" s="2"/>
+      <c r="K154" s="1"/>
       <c r="L154" s="2"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="1"/>
       <c r="O154" s="2"/>
-      <c r="P154" s="1"/>
+      <c r="P154" s="2"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
@@ -44486,8 +44784,9 @@
       <c r="AH154" s="1"/>
       <c r="AI154" s="1"/>
       <c r="AJ154" s="1"/>
-    </row>
-    <row r="155" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK154" s="1"/>
+    </row>
+    <row r="155" spans="1:37" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -44498,12 +44797,12 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="1"/>
-      <c r="K155" s="2"/>
+      <c r="K155" s="1"/>
       <c r="L155" s="2"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="1"/>
       <c r="O155" s="2"/>
-      <c r="P155" s="1"/>
+      <c r="P155" s="2"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
@@ -44524,8 +44823,9 @@
       <c r="AH155" s="1"/>
       <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
-    </row>
-    <row r="156" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK155" s="1"/>
+    </row>
+    <row r="156" spans="1:37" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -44536,12 +44836,12 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="1"/>
-      <c r="K156" s="2"/>
+      <c r="K156" s="1"/>
       <c r="L156" s="2"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="1"/>
       <c r="O156" s="2"/>
-      <c r="P156" s="1"/>
+      <c r="P156" s="2"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
@@ -44562,8 +44862,9 @@
       <c r="AH156" s="1"/>
       <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
-    </row>
-    <row r="157" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK156" s="1"/>
+    </row>
+    <row r="157" spans="1:37" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -44574,12 +44875,12 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="1"/>
-      <c r="K157" s="2"/>
+      <c r="K157" s="1"/>
       <c r="L157" s="2"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="1"/>
       <c r="O157" s="2"/>
-      <c r="P157" s="1"/>
+      <c r="P157" s="2"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -44600,8 +44901,9 @@
       <c r="AH157" s="1"/>
       <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
-    </row>
-    <row r="158" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK157" s="1"/>
+    </row>
+    <row r="158" spans="1:37" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -44612,12 +44914,12 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="2"/>
+      <c r="K158" s="1"/>
       <c r="L158" s="2"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="1"/>
       <c r="O158" s="2"/>
-      <c r="P158" s="1"/>
+      <c r="P158" s="2"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
@@ -44638,8 +44940,9 @@
       <c r="AH158" s="1"/>
       <c r="AI158" s="1"/>
       <c r="AJ158" s="1"/>
-    </row>
-    <row r="159" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK158" s="1"/>
+    </row>
+    <row r="159" spans="1:37" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -44650,12 +44953,12 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="1"/>
-      <c r="K159" s="2"/>
+      <c r="K159" s="1"/>
       <c r="L159" s="2"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="1"/>
       <c r="O159" s="2"/>
-      <c r="P159" s="1"/>
+      <c r="P159" s="2"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
@@ -44676,8 +44979,9 @@
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
-    </row>
-    <row r="160" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK159" s="1"/>
+    </row>
+    <row r="160" spans="1:37" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -44688,12 +44992,12 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="1"/>
-      <c r="K160" s="2"/>
+      <c r="K160" s="1"/>
       <c r="L160" s="2"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="1"/>
       <c r="O160" s="2"/>
-      <c r="P160" s="1"/>
+      <c r="P160" s="2"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
@@ -44714,8 +45018,9 @@
       <c r="AH160" s="1"/>
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
-    </row>
-    <row r="161" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK160" s="1"/>
+    </row>
+    <row r="161" spans="1:37" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -44726,12 +45031,12 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="1"/>
-      <c r="K161" s="2"/>
+      <c r="K161" s="1"/>
       <c r="L161" s="2"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="1"/>
       <c r="O161" s="2"/>
-      <c r="P161" s="1"/>
+      <c r="P161" s="2"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
@@ -44752,8 +45057,9 @@
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
-    </row>
-    <row r="162" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK161" s="1"/>
+    </row>
+    <row r="162" spans="1:37" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -44764,12 +45070,12 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="1"/>
-      <c r="K162" s="2"/>
+      <c r="K162" s="1"/>
       <c r="L162" s="2"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="1"/>
       <c r="O162" s="2"/>
-      <c r="P162" s="1"/>
+      <c r="P162" s="2"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
@@ -44790,8 +45096,9 @@
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
-    </row>
-    <row r="163" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK162" s="1"/>
+    </row>
+    <row r="163" spans="1:37" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -44802,12 +45109,12 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="1"/>
-      <c r="K163" s="2"/>
+      <c r="K163" s="1"/>
       <c r="L163" s="2"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="1"/>
       <c r="O163" s="2"/>
-      <c r="P163" s="1"/>
+      <c r="P163" s="2"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -44828,8 +45135,9 @@
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
-    </row>
-    <row r="164" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK163" s="1"/>
+    </row>
+    <row r="164" spans="1:37" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -44840,12 +45148,12 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="1"/>
-      <c r="K164" s="2"/>
+      <c r="K164" s="1"/>
       <c r="L164" s="2"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="1"/>
       <c r="O164" s="2"/>
-      <c r="P164" s="1"/>
+      <c r="P164" s="2"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -44866,8 +45174,9 @@
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
-    </row>
-    <row r="165" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK164" s="1"/>
+    </row>
+    <row r="165" spans="1:37" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -44878,12 +45187,12 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="1"/>
-      <c r="K165" s="2"/>
+      <c r="K165" s="1"/>
       <c r="L165" s="2"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="1"/>
       <c r="O165" s="2"/>
-      <c r="P165" s="1"/>
+      <c r="P165" s="2"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -44904,8 +45213,9 @@
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
       <c r="AJ165" s="1"/>
-    </row>
-    <row r="166" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK165" s="1"/>
+    </row>
+    <row r="166" spans="1:37" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -44916,12 +45226,12 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="1"/>
-      <c r="K166" s="2"/>
+      <c r="K166" s="1"/>
       <c r="L166" s="2"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="1"/>
       <c r="O166" s="2"/>
-      <c r="P166" s="1"/>
+      <c r="P166" s="2"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
@@ -44942,8 +45252,9 @@
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
       <c r="AJ166" s="1"/>
-    </row>
-    <row r="167" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK166" s="1"/>
+    </row>
+    <row r="167" spans="1:37" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -44954,12 +45265,12 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="1"/>
-      <c r="K167" s="2"/>
+      <c r="K167" s="1"/>
       <c r="L167" s="2"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="1"/>
       <c r="O167" s="2"/>
-      <c r="P167" s="1"/>
+      <c r="P167" s="2"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
@@ -44980,8 +45291,9 @@
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
       <c r="AJ167" s="1"/>
-    </row>
-    <row r="168" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK167" s="1"/>
+    </row>
+    <row r="168" spans="1:37" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -44992,12 +45304,12 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="1"/>
-      <c r="K168" s="2"/>
+      <c r="K168" s="1"/>
       <c r="L168" s="2"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="1"/>
       <c r="O168" s="2"/>
-      <c r="P168" s="1"/>
+      <c r="P168" s="2"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
@@ -45018,8 +45330,9 @@
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
-    </row>
-    <row r="169" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK168" s="1"/>
+    </row>
+    <row r="169" spans="1:37" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -45030,12 +45343,12 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="1"/>
-      <c r="K169" s="2"/>
+      <c r="K169" s="1"/>
       <c r="L169" s="2"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="1"/>
       <c r="O169" s="2"/>
-      <c r="P169" s="1"/>
+      <c r="P169" s="2"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
@@ -45056,8 +45369,9 @@
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
-    </row>
-    <row r="170" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK169" s="1"/>
+    </row>
+    <row r="170" spans="1:37" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -45068,12 +45382,12 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="1"/>
-      <c r="K170" s="2"/>
+      <c r="K170" s="1"/>
       <c r="L170" s="2"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="1"/>
       <c r="O170" s="2"/>
-      <c r="P170" s="1"/>
+      <c r="P170" s="2"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
@@ -45094,8 +45408,9 @@
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
-    </row>
-    <row r="171" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK170" s="1"/>
+    </row>
+    <row r="171" spans="1:37" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -45106,12 +45421,12 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="1"/>
-      <c r="K171" s="2"/>
+      <c r="K171" s="1"/>
       <c r="L171" s="2"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="1"/>
       <c r="O171" s="2"/>
-      <c r="P171" s="1"/>
+      <c r="P171" s="2"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
@@ -45132,8 +45447,9 @@
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
-    </row>
-    <row r="172" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK171" s="1"/>
+    </row>
+    <row r="172" spans="1:37" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -45144,12 +45460,12 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="1"/>
-      <c r="K172" s="2"/>
+      <c r="K172" s="1"/>
       <c r="L172" s="2"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="1"/>
       <c r="O172" s="2"/>
-      <c r="P172" s="1"/>
+      <c r="P172" s="2"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
@@ -45170,8 +45486,9 @@
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
-    </row>
-    <row r="173" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK172" s="1"/>
+    </row>
+    <row r="173" spans="1:37" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -45182,12 +45499,12 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="1"/>
-      <c r="K173" s="2"/>
+      <c r="K173" s="1"/>
       <c r="L173" s="2"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="1"/>
       <c r="O173" s="2"/>
-      <c r="P173" s="1"/>
+      <c r="P173" s="2"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
@@ -45208,8 +45525,9 @@
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
-    </row>
-    <row r="174" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK173" s="1"/>
+    </row>
+    <row r="174" spans="1:37" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -45220,12 +45538,12 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="1"/>
-      <c r="K174" s="2"/>
+      <c r="K174" s="1"/>
       <c r="L174" s="2"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="1"/>
       <c r="O174" s="2"/>
-      <c r="P174" s="1"/>
+      <c r="P174" s="2"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -45246,8 +45564,9 @@
       <c r="AH174" s="1"/>
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
-    </row>
-    <row r="175" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK174" s="1"/>
+    </row>
+    <row r="175" spans="1:37" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -45258,12 +45577,12 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="1"/>
-      <c r="K175" s="2"/>
+      <c r="K175" s="1"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="1"/>
       <c r="O175" s="2"/>
-      <c r="P175" s="1"/>
+      <c r="P175" s="2"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
@@ -45284,8 +45603,9 @@
       <c r="AH175" s="1"/>
       <c r="AI175" s="1"/>
       <c r="AJ175" s="1"/>
-    </row>
-    <row r="176" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK175" s="1"/>
+    </row>
+    <row r="176" spans="1:37" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -45296,12 +45616,12 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="1"/>
-      <c r="K176" s="2"/>
+      <c r="K176" s="1"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="1"/>
       <c r="O176" s="2"/>
-      <c r="P176" s="1"/>
+      <c r="P176" s="2"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -45322,8 +45642,9 @@
       <c r="AH176" s="1"/>
       <c r="AI176" s="1"/>
       <c r="AJ176" s="1"/>
-    </row>
-    <row r="177" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK176" s="1"/>
+    </row>
+    <row r="177" spans="1:37" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -45334,12 +45655,12 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="1"/>
-      <c r="K177" s="2"/>
+      <c r="K177" s="1"/>
       <c r="L177" s="2"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="1"/>
       <c r="O177" s="2"/>
-      <c r="P177" s="1"/>
+      <c r="P177" s="2"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
@@ -45360,8 +45681,9 @@
       <c r="AH177" s="1"/>
       <c r="AI177" s="1"/>
       <c r="AJ177" s="1"/>
-    </row>
-    <row r="178" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK177" s="1"/>
+    </row>
+    <row r="178" spans="1:37" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -45372,12 +45694,12 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="1"/>
-      <c r="K178" s="2"/>
+      <c r="K178" s="1"/>
       <c r="L178" s="2"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="1"/>
       <c r="O178" s="2"/>
-      <c r="P178" s="1"/>
+      <c r="P178" s="2"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
@@ -45398,8 +45720,9 @@
       <c r="AH178" s="1"/>
       <c r="AI178" s="1"/>
       <c r="AJ178" s="1"/>
-    </row>
-    <row r="179" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK178" s="1"/>
+    </row>
+    <row r="179" spans="1:37" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -45410,12 +45733,12 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="1"/>
-      <c r="K179" s="2"/>
+      <c r="K179" s="1"/>
       <c r="L179" s="2"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="1"/>
       <c r="O179" s="2"/>
-      <c r="P179" s="1"/>
+      <c r="P179" s="2"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -45436,8 +45759,9 @@
       <c r="AH179" s="1"/>
       <c r="AI179" s="1"/>
       <c r="AJ179" s="1"/>
-    </row>
-    <row r="180" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK179" s="1"/>
+    </row>
+    <row r="180" spans="1:37" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -45448,12 +45772,12 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="1"/>
-      <c r="K180" s="2"/>
+      <c r="K180" s="1"/>
       <c r="L180" s="2"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="1"/>
       <c r="O180" s="2"/>
-      <c r="P180" s="1"/>
+      <c r="P180" s="2"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
@@ -45474,8 +45798,9 @@
       <c r="AH180" s="1"/>
       <c r="AI180" s="1"/>
       <c r="AJ180" s="1"/>
-    </row>
-    <row r="181" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK180" s="1"/>
+    </row>
+    <row r="181" spans="1:37" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -45486,12 +45811,12 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="1"/>
-      <c r="K181" s="2"/>
+      <c r="K181" s="1"/>
       <c r="L181" s="2"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="1"/>
       <c r="O181" s="2"/>
-      <c r="P181" s="1"/>
+      <c r="P181" s="2"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
@@ -45512,8 +45837,9 @@
       <c r="AH181" s="1"/>
       <c r="AI181" s="1"/>
       <c r="AJ181" s="1"/>
-    </row>
-    <row r="182" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK181" s="1"/>
+    </row>
+    <row r="182" spans="1:37" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -45524,12 +45850,12 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="1"/>
-      <c r="K182" s="2"/>
+      <c r="K182" s="1"/>
       <c r="L182" s="2"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="1"/>
       <c r="O182" s="2"/>
-      <c r="P182" s="1"/>
+      <c r="P182" s="2"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
@@ -45550,8 +45876,9 @@
       <c r="AH182" s="1"/>
       <c r="AI182" s="1"/>
       <c r="AJ182" s="1"/>
-    </row>
-    <row r="183" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK182" s="1"/>
+    </row>
+    <row r="183" spans="1:37" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -45562,12 +45889,12 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="1"/>
-      <c r="K183" s="2"/>
+      <c r="K183" s="1"/>
       <c r="L183" s="2"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="1"/>
       <c r="O183" s="2"/>
-      <c r="P183" s="1"/>
+      <c r="P183" s="2"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
@@ -45588,8 +45915,9 @@
       <c r="AH183" s="1"/>
       <c r="AI183" s="1"/>
       <c r="AJ183" s="1"/>
-    </row>
-    <row r="184" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK183" s="1"/>
+    </row>
+    <row r="184" spans="1:37" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -45600,12 +45928,12 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="1"/>
-      <c r="K184" s="2"/>
+      <c r="K184" s="1"/>
       <c r="L184" s="2"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="1"/>
       <c r="O184" s="2"/>
-      <c r="P184" s="1"/>
+      <c r="P184" s="2"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
@@ -45626,8 +45954,9 @@
       <c r="AH184" s="1"/>
       <c r="AI184" s="1"/>
       <c r="AJ184" s="1"/>
-    </row>
-    <row r="185" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK184" s="1"/>
+    </row>
+    <row r="185" spans="1:37" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -45638,12 +45967,12 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="1"/>
-      <c r="K185" s="2"/>
+      <c r="K185" s="1"/>
       <c r="L185" s="2"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="1"/>
       <c r="O185" s="2"/>
-      <c r="P185" s="1"/>
+      <c r="P185" s="2"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
@@ -45664,8 +45993,9 @@
       <c r="AH185" s="1"/>
       <c r="AI185" s="1"/>
       <c r="AJ185" s="1"/>
-    </row>
-    <row r="186" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK185" s="1"/>
+    </row>
+    <row r="186" spans="1:37" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -45676,12 +46006,12 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="1"/>
-      <c r="K186" s="2"/>
+      <c r="K186" s="1"/>
       <c r="L186" s="2"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="1"/>
       <c r="O186" s="2"/>
-      <c r="P186" s="1"/>
+      <c r="P186" s="2"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
@@ -45702,8 +46032,9 @@
       <c r="AH186" s="1"/>
       <c r="AI186" s="1"/>
       <c r="AJ186" s="1"/>
-    </row>
-    <row r="187" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK186" s="1"/>
+    </row>
+    <row r="187" spans="1:37" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -45714,12 +46045,12 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="1"/>
-      <c r="K187" s="2"/>
+      <c r="K187" s="1"/>
       <c r="L187" s="2"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="1"/>
       <c r="O187" s="2"/>
-      <c r="P187" s="1"/>
+      <c r="P187" s="2"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -45740,8 +46071,9 @@
       <c r="AH187" s="1"/>
       <c r="AI187" s="1"/>
       <c r="AJ187" s="1"/>
-    </row>
-    <row r="188" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK187" s="1"/>
+    </row>
+    <row r="188" spans="1:37" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -45752,12 +46084,12 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="1"/>
-      <c r="K188" s="2"/>
+      <c r="K188" s="1"/>
       <c r="L188" s="2"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="1"/>
       <c r="O188" s="2"/>
-      <c r="P188" s="1"/>
+      <c r="P188" s="2"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
@@ -45778,8 +46110,9 @@
       <c r="AH188" s="1"/>
       <c r="AI188" s="1"/>
       <c r="AJ188" s="1"/>
-    </row>
-    <row r="189" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK188" s="1"/>
+    </row>
+    <row r="189" spans="1:37" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -45790,12 +46123,12 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="1"/>
-      <c r="K189" s="2"/>
+      <c r="K189" s="1"/>
       <c r="L189" s="2"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="1"/>
       <c r="O189" s="2"/>
-      <c r="P189" s="1"/>
+      <c r="P189" s="2"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
@@ -45816,8 +46149,9 @@
       <c r="AH189" s="1"/>
       <c r="AI189" s="1"/>
       <c r="AJ189" s="1"/>
-    </row>
-    <row r="190" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK189" s="1"/>
+    </row>
+    <row r="190" spans="1:37" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -45828,12 +46162,12 @@
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="1"/>
-      <c r="K190" s="2"/>
+      <c r="K190" s="1"/>
       <c r="L190" s="2"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="1"/>
       <c r="O190" s="2"/>
-      <c r="P190" s="1"/>
+      <c r="P190" s="2"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
@@ -45854,8 +46188,9 @@
       <c r="AH190" s="1"/>
       <c r="AI190" s="1"/>
       <c r="AJ190" s="1"/>
-    </row>
-    <row r="191" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK190" s="1"/>
+    </row>
+    <row r="191" spans="1:37" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -45866,12 +46201,12 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="1"/>
-      <c r="K191" s="2"/>
+      <c r="K191" s="1"/>
       <c r="L191" s="2"/>
-      <c r="M191" s="1"/>
-      <c r="N191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="1"/>
       <c r="O191" s="2"/>
-      <c r="P191" s="1"/>
+      <c r="P191" s="2"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
@@ -45892,8 +46227,9 @@
       <c r="AH191" s="1"/>
       <c r="AI191" s="1"/>
       <c r="AJ191" s="1"/>
-    </row>
-    <row r="192" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK191" s="1"/>
+    </row>
+    <row r="192" spans="1:37" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -45904,12 +46240,12 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="1"/>
-      <c r="K192" s="2"/>
+      <c r="K192" s="1"/>
       <c r="L192" s="2"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="1"/>
       <c r="O192" s="2"/>
-      <c r="P192" s="1"/>
+      <c r="P192" s="2"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
@@ -45930,8 +46266,9 @@
       <c r="AH192" s="1"/>
       <c r="AI192" s="1"/>
       <c r="AJ192" s="1"/>
-    </row>
-    <row r="193" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK192" s="1"/>
+    </row>
+    <row r="193" spans="1:37" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -45942,12 +46279,12 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="1"/>
-      <c r="K193" s="2"/>
+      <c r="K193" s="1"/>
       <c r="L193" s="2"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="1"/>
       <c r="O193" s="2"/>
-      <c r="P193" s="1"/>
+      <c r="P193" s="2"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
@@ -45968,8 +46305,9 @@
       <c r="AH193" s="1"/>
       <c r="AI193" s="1"/>
       <c r="AJ193" s="1"/>
-    </row>
-    <row r="194" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK193" s="1"/>
+    </row>
+    <row r="194" spans="1:37" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -45980,12 +46318,12 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="1"/>
-      <c r="K194" s="2"/>
+      <c r="K194" s="1"/>
       <c r="L194" s="2"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="1"/>
       <c r="O194" s="2"/>
-      <c r="P194" s="1"/>
+      <c r="P194" s="2"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
@@ -46006,8 +46344,9 @@
       <c r="AH194" s="1"/>
       <c r="AI194" s="1"/>
       <c r="AJ194" s="1"/>
-    </row>
-    <row r="195" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK194" s="1"/>
+    </row>
+    <row r="195" spans="1:37" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -46018,12 +46357,12 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="1"/>
-      <c r="K195" s="2"/>
+      <c r="K195" s="1"/>
       <c r="L195" s="2"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="1"/>
       <c r="O195" s="2"/>
-      <c r="P195" s="1"/>
+      <c r="P195" s="2"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
@@ -46044,8 +46383,9 @@
       <c r="AH195" s="1"/>
       <c r="AI195" s="1"/>
       <c r="AJ195" s="1"/>
-    </row>
-    <row r="196" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK195" s="1"/>
+    </row>
+    <row r="196" spans="1:37" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -46056,12 +46396,12 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="1"/>
-      <c r="K196" s="2"/>
+      <c r="K196" s="1"/>
       <c r="L196" s="2"/>
-      <c r="M196" s="1"/>
-      <c r="N196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="1"/>
       <c r="O196" s="2"/>
-      <c r="P196" s="1"/>
+      <c r="P196" s="2"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
@@ -46082,8 +46422,9 @@
       <c r="AH196" s="1"/>
       <c r="AI196" s="1"/>
       <c r="AJ196" s="1"/>
-    </row>
-    <row r="197" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK196" s="1"/>
+    </row>
+    <row r="197" spans="1:37" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -46094,12 +46435,12 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="1"/>
-      <c r="K197" s="2"/>
+      <c r="K197" s="1"/>
       <c r="L197" s="2"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="1"/>
       <c r="O197" s="2"/>
-      <c r="P197" s="1"/>
+      <c r="P197" s="2"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
@@ -46120,8 +46461,9 @@
       <c r="AH197" s="1"/>
       <c r="AI197" s="1"/>
       <c r="AJ197" s="1"/>
-    </row>
-    <row r="198" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK197" s="1"/>
+    </row>
+    <row r="198" spans="1:37" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -46132,12 +46474,12 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="1"/>
-      <c r="K198" s="2"/>
+      <c r="K198" s="1"/>
       <c r="L198" s="2"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="1"/>
       <c r="O198" s="2"/>
-      <c r="P198" s="1"/>
+      <c r="P198" s="2"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
@@ -46158,8 +46500,9 @@
       <c r="AH198" s="1"/>
       <c r="AI198" s="1"/>
       <c r="AJ198" s="1"/>
-    </row>
-    <row r="199" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK198" s="1"/>
+    </row>
+    <row r="199" spans="1:37" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -46170,12 +46513,12 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="1"/>
-      <c r="K199" s="2"/>
+      <c r="K199" s="1"/>
       <c r="L199" s="2"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="1"/>
       <c r="O199" s="2"/>
-      <c r="P199" s="1"/>
+      <c r="P199" s="2"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
@@ -46196,8 +46539,9 @@
       <c r="AH199" s="1"/>
       <c r="AI199" s="1"/>
       <c r="AJ199" s="1"/>
-    </row>
-    <row r="200" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK199" s="1"/>
+    </row>
+    <row r="200" spans="1:37" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -46208,12 +46552,12 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="1"/>
-      <c r="K200" s="2"/>
+      <c r="K200" s="1"/>
       <c r="L200" s="2"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="1"/>
       <c r="O200" s="2"/>
-      <c r="P200" s="1"/>
+      <c r="P200" s="2"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
@@ -46234,8 +46578,9 @@
       <c r="AH200" s="1"/>
       <c r="AI200" s="1"/>
       <c r="AJ200" s="1"/>
-    </row>
-    <row r="201" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK200" s="1"/>
+    </row>
+    <row r="201" spans="1:37" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -46246,12 +46591,12 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="1"/>
-      <c r="K201" s="2"/>
+      <c r="K201" s="1"/>
       <c r="L201" s="2"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="1"/>
       <c r="O201" s="2"/>
-      <c r="P201" s="1"/>
+      <c r="P201" s="2"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
@@ -46272,8 +46617,9 @@
       <c r="AH201" s="1"/>
       <c r="AI201" s="1"/>
       <c r="AJ201" s="1"/>
-    </row>
-    <row r="202" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK201" s="1"/>
+    </row>
+    <row r="202" spans="1:37" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -46284,12 +46630,12 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="1"/>
-      <c r="K202" s="2"/>
+      <c r="K202" s="1"/>
       <c r="L202" s="2"/>
-      <c r="M202" s="1"/>
-      <c r="N202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="1"/>
       <c r="O202" s="2"/>
-      <c r="P202" s="1"/>
+      <c r="P202" s="2"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
@@ -46310,8 +46656,9 @@
       <c r="AH202" s="1"/>
       <c r="AI202" s="1"/>
       <c r="AJ202" s="1"/>
-    </row>
-    <row r="203" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK202" s="1"/>
+    </row>
+    <row r="203" spans="1:37" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -46322,12 +46669,12 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="1"/>
-      <c r="K203" s="2"/>
+      <c r="K203" s="1"/>
       <c r="L203" s="2"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="1"/>
       <c r="O203" s="2"/>
-      <c r="P203" s="1"/>
+      <c r="P203" s="2"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
@@ -46348,8 +46695,9 @@
       <c r="AH203" s="1"/>
       <c r="AI203" s="1"/>
       <c r="AJ203" s="1"/>
-    </row>
-    <row r="204" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK203" s="1"/>
+    </row>
+    <row r="204" spans="1:37" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -46360,12 +46708,12 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="1"/>
-      <c r="K204" s="2"/>
+      <c r="K204" s="1"/>
       <c r="L204" s="2"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="1"/>
       <c r="O204" s="2"/>
-      <c r="P204" s="1"/>
+      <c r="P204" s="2"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
@@ -46386,8 +46734,9 @@
       <c r="AH204" s="1"/>
       <c r="AI204" s="1"/>
       <c r="AJ204" s="1"/>
-    </row>
-    <row r="205" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK204" s="1"/>
+    </row>
+    <row r="205" spans="1:37" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -46398,12 +46747,12 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="1"/>
-      <c r="K205" s="2"/>
+      <c r="K205" s="1"/>
       <c r="L205" s="2"/>
-      <c r="M205" s="1"/>
-      <c r="N205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="1"/>
       <c r="O205" s="2"/>
-      <c r="P205" s="1"/>
+      <c r="P205" s="2"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
@@ -46424,8 +46773,9 @@
       <c r="AH205" s="1"/>
       <c r="AI205" s="1"/>
       <c r="AJ205" s="1"/>
-    </row>
-    <row r="206" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK205" s="1"/>
+    </row>
+    <row r="206" spans="1:37" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -46436,12 +46786,12 @@
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="1"/>
-      <c r="K206" s="2"/>
+      <c r="K206" s="1"/>
       <c r="L206" s="2"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="1"/>
       <c r="O206" s="2"/>
-      <c r="P206" s="1"/>
+      <c r="P206" s="2"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
@@ -46462,8 +46812,9 @@
       <c r="AH206" s="1"/>
       <c r="AI206" s="1"/>
       <c r="AJ206" s="1"/>
-    </row>
-    <row r="207" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK206" s="1"/>
+    </row>
+    <row r="207" spans="1:37" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -46474,12 +46825,12 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="1"/>
-      <c r="K207" s="2"/>
+      <c r="K207" s="1"/>
       <c r="L207" s="2"/>
-      <c r="M207" s="1"/>
-      <c r="N207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="1"/>
       <c r="O207" s="2"/>
-      <c r="P207" s="1"/>
+      <c r="P207" s="2"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
@@ -46500,8 +46851,9 @@
       <c r="AH207" s="1"/>
       <c r="AI207" s="1"/>
       <c r="AJ207" s="1"/>
-    </row>
-    <row r="208" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK207" s="1"/>
+    </row>
+    <row r="208" spans="1:37" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -46512,12 +46864,12 @@
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
       <c r="J208" s="1"/>
-      <c r="K208" s="2"/>
+      <c r="K208" s="1"/>
       <c r="L208" s="2"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="1"/>
       <c r="O208" s="2"/>
-      <c r="P208" s="1"/>
+      <c r="P208" s="2"/>
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
@@ -46538,8 +46890,9 @@
       <c r="AH208" s="1"/>
       <c r="AI208" s="1"/>
       <c r="AJ208" s="1"/>
-    </row>
-    <row r="209" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK208" s="1"/>
+    </row>
+    <row r="209" spans="1:37" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -46550,12 +46903,12 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="1"/>
-      <c r="K209" s="2"/>
+      <c r="K209" s="1"/>
       <c r="L209" s="2"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="1"/>
       <c r="O209" s="2"/>
-      <c r="P209" s="1"/>
+      <c r="P209" s="2"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
@@ -46576,8 +46929,9 @@
       <c r="AH209" s="1"/>
       <c r="AI209" s="1"/>
       <c r="AJ209" s="1"/>
-    </row>
-    <row r="210" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK209" s="1"/>
+    </row>
+    <row r="210" spans="1:37" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -46588,12 +46942,12 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="1"/>
-      <c r="K210" s="2"/>
+      <c r="K210" s="1"/>
       <c r="L210" s="2"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="1"/>
       <c r="O210" s="2"/>
-      <c r="P210" s="1"/>
+      <c r="P210" s="2"/>
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
@@ -46614,8 +46968,9 @@
       <c r="AH210" s="1"/>
       <c r="AI210" s="1"/>
       <c r="AJ210" s="1"/>
-    </row>
-    <row r="211" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK210" s="1"/>
+    </row>
+    <row r="211" spans="1:37" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -46626,12 +46981,12 @@
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
       <c r="J211" s="1"/>
-      <c r="K211" s="2"/>
+      <c r="K211" s="1"/>
       <c r="L211" s="2"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="1"/>
       <c r="O211" s="2"/>
-      <c r="P211" s="1"/>
+      <c r="P211" s="2"/>
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
@@ -46652,8 +47007,9 @@
       <c r="AH211" s="1"/>
       <c r="AI211" s="1"/>
       <c r="AJ211" s="1"/>
-    </row>
-    <row r="212" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK211" s="1"/>
+    </row>
+    <row r="212" spans="1:37" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -46664,12 +47020,12 @@
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
       <c r="J212" s="1"/>
-      <c r="K212" s="2"/>
+      <c r="K212" s="1"/>
       <c r="L212" s="2"/>
-      <c r="M212" s="1"/>
-      <c r="N212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="1"/>
       <c r="O212" s="2"/>
-      <c r="P212" s="1"/>
+      <c r="P212" s="2"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
@@ -46690,8 +47046,9 @@
       <c r="AH212" s="1"/>
       <c r="AI212" s="1"/>
       <c r="AJ212" s="1"/>
-    </row>
-    <row r="213" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK212" s="1"/>
+    </row>
+    <row r="213" spans="1:37" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -46702,12 +47059,12 @@
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
       <c r="J213" s="1"/>
-      <c r="K213" s="2"/>
+      <c r="K213" s="1"/>
       <c r="L213" s="2"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="1"/>
       <c r="O213" s="2"/>
-      <c r="P213" s="1"/>
+      <c r="P213" s="2"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
@@ -46728,8 +47085,9 @@
       <c r="AH213" s="1"/>
       <c r="AI213" s="1"/>
       <c r="AJ213" s="1"/>
-    </row>
-    <row r="214" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK213" s="1"/>
+    </row>
+    <row r="214" spans="1:37" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -46740,12 +47098,12 @@
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
       <c r="J214" s="1"/>
-      <c r="K214" s="2"/>
+      <c r="K214" s="1"/>
       <c r="L214" s="2"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="1"/>
       <c r="O214" s="2"/>
-      <c r="P214" s="1"/>
+      <c r="P214" s="2"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
@@ -46766,8 +47124,9 @@
       <c r="AH214" s="1"/>
       <c r="AI214" s="1"/>
       <c r="AJ214" s="1"/>
-    </row>
-    <row r="215" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK214" s="1"/>
+    </row>
+    <row r="215" spans="1:37" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -46778,12 +47137,12 @@
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
       <c r="J215" s="1"/>
-      <c r="K215" s="2"/>
+      <c r="K215" s="1"/>
       <c r="L215" s="2"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="1"/>
       <c r="O215" s="2"/>
-      <c r="P215" s="1"/>
+      <c r="P215" s="2"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
@@ -46804,8 +47163,9 @@
       <c r="AH215" s="1"/>
       <c r="AI215" s="1"/>
       <c r="AJ215" s="1"/>
-    </row>
-    <row r="216" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK215" s="1"/>
+    </row>
+    <row r="216" spans="1:37" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -46816,12 +47176,12 @@
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
       <c r="J216" s="1"/>
-      <c r="K216" s="2"/>
+      <c r="K216" s="1"/>
       <c r="L216" s="2"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="1"/>
       <c r="O216" s="2"/>
-      <c r="P216" s="1"/>
+      <c r="P216" s="2"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
@@ -46842,8 +47202,9 @@
       <c r="AH216" s="1"/>
       <c r="AI216" s="1"/>
       <c r="AJ216" s="1"/>
-    </row>
-    <row r="217" spans="1:36" ht="15.75" customHeight="1">
+      <c r="AK216" s="1"/>
+    </row>
+    <row r="217" spans="1:37" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -46854,12 +47215,12 @@
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
       <c r="J217" s="1"/>
-      <c r="K217" s="2"/>
+      <c r="K217" s="1"/>
       <c r="L217" s="2"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="1"/>
       <c r="O217" s="2"/>
-      <c r="P217" s="1"/>
+      <c r="P217" s="2"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
@@ -46880,14 +47241,15 @@
       <c r="AH217" s="1"/>
       <c r="AI217" s="1"/>
       <c r="AJ217" s="1"/>
-    </row>
-    <row r="218" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="219" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="220" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="221" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:36" ht="15.75" customHeight="1"/>
+      <c r="AK217" s="1"/>
+    </row>
+    <row r="218" spans="1:37" ht="15.75" customHeight="1"/>
+    <row r="219" spans="1:37" ht="15.75" customHeight="1"/>
+    <row r="220" spans="1:37" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:37" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:37" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:37" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:37" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -47643,22 +48005,23 @@
     <row r="977" ht="15.75" customHeight="1"/>
     <row r="978" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:S17">
+  <autoFilter ref="A7:T17">
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="B8:C12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="J8:J12"/>
+    <mergeCell ref="K8:K12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -871,10 +871,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나 확인
 및
 세미나 예약</t>
@@ -908,6 +904,10 @@
   </si>
   <si>
     <t>서희+형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2090,6 +2090,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,26 +2141,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2167,39 +2158,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2237,6 +2195,90 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2267,15 +2309,6 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2285,44 +2318,65 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2355,60 +2409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2629,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC986"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2680,19 +2680,19 @@
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1">
       <c r="A2" s="83"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="162"/>
       <c r="M2" s="83"/>
       <c r="N2" s="83"/>
       <c r="O2" s="83"/>
@@ -2713,17 +2713,17 @@
     </row>
     <row r="3" spans="1:29" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="83"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="164"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="165"/>
       <c r="M3" s="83"/>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
@@ -2839,19 +2839,19 @@
     </row>
     <row r="7" spans="1:29" ht="40.5" customHeight="1">
       <c r="A7" s="83"/>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
       <c r="M7" s="87"/>
       <c r="N7" s="83"/>
       <c r="O7" s="83"/>
@@ -2892,10 +2892,10 @@
       <c r="J8" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="169" t="s">
+      <c r="K8" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="170"/>
+      <c r="L8" s="171"/>
       <c r="M8" s="83"/>
       <c r="N8" s="83"/>
       <c r="O8" s="83"/>
@@ -2928,12 +2928,12 @@
         <v>141</v>
       </c>
       <c r="J9" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="K9" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="166"/>
+      <c r="L9" s="167"/>
       <c r="M9" s="87"/>
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
@@ -2964,8 +2964,8 @@
       <c r="H10" s="94"/>
       <c r="I10" s="27"/>
       <c r="J10" s="122"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
       <c r="M10" s="87"/>
       <c r="N10" s="83"/>
       <c r="O10" s="83"/>
@@ -2996,8 +2996,8 @@
       <c r="H11" s="94"/>
       <c r="I11" s="27"/>
       <c r="J11" s="122"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="167"/>
       <c r="M11" s="87"/>
       <c r="N11" s="83"/>
       <c r="O11" s="83"/>
@@ -3028,8 +3028,8 @@
       <c r="H12" s="94"/>
       <c r="I12" s="27"/>
       <c r="J12" s="122"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="167"/>
       <c r="M12" s="87"/>
       <c r="N12" s="83"/>
       <c r="O12" s="83"/>
@@ -3081,19 +3081,19 @@
     </row>
     <row r="14" spans="1:29" ht="40.5" customHeight="1">
       <c r="A14" s="83"/>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
       <c r="M14" s="87"/>
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
@@ -3125,12 +3125,12 @@
       <c r="D15" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
       <c r="I15" s="81" t="s">
         <v>84</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="AC15" s="83"/>
     </row>
     <row r="16" spans="1:29" ht="39" customHeight="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="156" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="114" t="s">
@@ -3201,7 +3201,7 @@
       <c r="AC16" s="83"/>
     </row>
     <row r="17" spans="1:29" ht="39" customHeight="1">
-      <c r="A17" s="155"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="137" t="s">
         <v>127</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="AC17" s="83"/>
     </row>
     <row r="18" spans="1:29" ht="39" customHeight="1">
-      <c r="A18" s="155"/>
+      <c r="A18" s="156"/>
       <c r="B18" s="111" t="s">
         <v>142</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="AC18" s="83"/>
     </row>
     <row r="19" spans="1:29" ht="39" customHeight="1">
-      <c r="A19" s="155"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="138" t="s">
         <v>143</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="AC19" s="83"/>
     </row>
     <row r="20" spans="1:29" ht="39" customHeight="1">
-      <c r="A20" s="155"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="108" t="s">
         <v>126</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="AC20" s="83"/>
     </row>
     <row r="21" spans="1:29" ht="39" customHeight="1">
-      <c r="A21" s="155"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="101" t="s">
         <v>125</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="AC21" s="83"/>
     </row>
     <row r="22" spans="1:29" ht="39" customHeight="1">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="157" t="s">
         <v>124</v>
       </c>
       <c r="B22" s="124" t="s">
@@ -3394,7 +3394,7 @@
       <c r="H22" s="127"/>
       <c r="I22" s="17"/>
       <c r="J22" s="128"/>
-      <c r="K22" s="167"/>
+      <c r="K22" s="168"/>
       <c r="L22" s="129"/>
       <c r="M22" s="83"/>
       <c r="N22" s="83"/>
@@ -3415,7 +3415,7 @@
       <c r="AC22" s="83"/>
     </row>
     <row r="23" spans="1:29" ht="39" customHeight="1">
-      <c r="A23" s="155"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="93" t="s">
         <v>123</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="H23" s="97"/>
       <c r="I23" s="17"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="167"/>
+      <c r="K23" s="168"/>
       <c r="L23" s="99"/>
       <c r="M23" s="83"/>
       <c r="N23" s="83"/>
@@ -3450,7 +3450,7 @@
       <c r="AC23" s="83"/>
     </row>
     <row r="24" spans="1:29" ht="39" customHeight="1">
-      <c r="A24" s="155"/>
+      <c r="A24" s="156"/>
       <c r="B24" s="98" t="s">
         <v>122</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="H24" s="97"/>
       <c r="I24" s="17"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="167"/>
+      <c r="K24" s="168"/>
       <c r="L24" s="94"/>
       <c r="M24" s="83"/>
       <c r="N24" s="83"/>
@@ -3485,7 +3485,7 @@
       <c r="AC24" s="83"/>
     </row>
     <row r="25" spans="1:29" ht="39" customHeight="1">
-      <c r="A25" s="155"/>
+      <c r="A25" s="156"/>
       <c r="B25" s="101" t="s">
         <v>121</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="H25" s="94"/>
       <c r="I25" s="17"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="167"/>
+      <c r="K25" s="168"/>
       <c r="L25" s="94"/>
       <c r="M25" s="83"/>
       <c r="N25" s="83"/>
@@ -3520,7 +3520,7 @@
       <c r="AC25" s="83"/>
     </row>
     <row r="26" spans="1:29" ht="39" customHeight="1">
-      <c r="A26" s="155"/>
+      <c r="A26" s="156"/>
       <c r="B26" s="139" t="s">
         <v>144</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="H26" s="89"/>
       <c r="I26" s="17"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="167"/>
+      <c r="K26" s="168"/>
       <c r="L26" s="90"/>
       <c r="M26" s="83"/>
       <c r="N26" s="83"/>
@@ -3555,7 +3555,7 @@
       <c r="AC26" s="83"/>
     </row>
     <row r="27" spans="1:29" ht="39" customHeight="1">
-      <c r="A27" s="155"/>
+      <c r="A27" s="156"/>
       <c r="B27" s="92" t="s">
         <v>59</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="H27" s="89"/>
       <c r="I27" s="17"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="168"/>
+      <c r="K27" s="169"/>
       <c r="L27" s="88"/>
       <c r="M27" s="83"/>
       <c r="N27" s="83"/>
@@ -10578,23 +10578,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="61"/>
       <c r="S2" s="1"/>
@@ -10618,21 +10618,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="63"/>
       <c r="S3" s="1"/>
@@ -10788,12 +10788,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
       <c r="J7" s="42" t="s">
         <v>80</v>
       </c>
@@ -10843,22 +10843,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="176"/>
-      <c r="B8" s="178" t="s">
+      <c r="A8" s="201"/>
+      <c r="B8" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="192" t="s">
+      <c r="D8" s="181"/>
+      <c r="E8" s="178" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="198" t="s">
+      <c r="J8" s="184" t="s">
         <v>104</v>
       </c>
       <c r="K8" s="58">
@@ -10893,16 +10893,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="193"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="179"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="199"/>
+      <c r="J9" s="185"/>
       <c r="K9" s="58">
         <v>2</v>
       </c>
@@ -10935,16 +10935,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="176"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="194"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="180"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="200"/>
+      <c r="J10" s="186"/>
       <c r="K10" s="58">
         <v>3</v>
       </c>
@@ -10981,20 +10981,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="177"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="178" t="s">
+      <c r="A11" s="190"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="192" t="s">
+      <c r="D11" s="181"/>
+      <c r="E11" s="178" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="198" t="s">
+      <c r="J11" s="184" t="s">
         <v>105</v>
       </c>
       <c r="K11" s="58">
@@ -11029,16 +11029,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="177"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="193"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="179"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="199"/>
+      <c r="J12" s="185"/>
       <c r="K12" s="58">
         <v>2</v>
       </c>
@@ -11071,16 +11071,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="177"/>
-      <c r="B13" s="179"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="194"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="180"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="200"/>
+      <c r="J13" s="186"/>
       <c r="K13" s="58">
         <v>3</v>
       </c>
@@ -11111,20 +11111,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="177"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="178" t="s">
+      <c r="A14" s="190"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="195"/>
-      <c r="E14" s="192" t="s">
+      <c r="D14" s="181"/>
+      <c r="E14" s="178" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="203" t="s">
+      <c r="J14" s="189" t="s">
         <v>106</v>
       </c>
       <c r="K14" s="58">
@@ -11159,16 +11159,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="177"/>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="193"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="179"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="199"/>
+      <c r="J15" s="185"/>
       <c r="K15" s="58">
         <v>2</v>
       </c>
@@ -11201,16 +11201,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="177"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="202"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="188"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="200"/>
+      <c r="J16" s="186"/>
       <c r="K16" s="58">
         <v>3</v>
       </c>
@@ -11247,22 +11247,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="178" t="s">
+      <c r="A17" s="201"/>
+      <c r="B17" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="177" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="190" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="181" t="s">
+      <c r="J17" s="202" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="58">
@@ -11295,16 +11295,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="184"/>
+      <c r="A18" s="201"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="191"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="182"/>
+      <c r="J18" s="203"/>
       <c r="K18" s="58">
         <v>2</v>
       </c>
@@ -11335,16 +11335,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="184"/>
+      <c r="A19" s="201"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="191"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="182"/>
+      <c r="J19" s="203"/>
       <c r="K19" s="58">
         <v>3</v>
       </c>
@@ -11375,16 +11375,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="176"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="184"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="191"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="46"/>
-      <c r="J20" s="182"/>
+      <c r="J20" s="203"/>
       <c r="K20" s="58">
         <v>4</v>
       </c>
@@ -11415,16 +11415,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="184"/>
+      <c r="A21" s="201"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="191"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="46"/>
-      <c r="J21" s="182"/>
+      <c r="J21" s="203"/>
       <c r="K21" s="58">
         <v>5</v>
       </c>
@@ -11455,16 +11455,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="187"/>
+      <c r="A22" s="201"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="192"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="47"/>
-      <c r="J22" s="183"/>
+      <c r="J22" s="204"/>
       <c r="K22" s="59">
         <v>6</v>
       </c>
@@ -11495,20 +11495,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="176"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="178" t="s">
+      <c r="A23" s="201"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="185"/>
-      <c r="E23" s="177" t="s">
+      <c r="D23" s="193"/>
+      <c r="E23" s="190" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="181" t="s">
+      <c r="J23" s="202" t="s">
         <v>108</v>
       </c>
       <c r="K23" s="59">
@@ -11541,16 +11541,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="184"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="191"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="182"/>
+      <c r="J24" s="203"/>
       <c r="K24" s="59">
         <v>2</v>
       </c>
@@ -11581,16 +11581,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="176"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="184"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="191"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="182"/>
+      <c r="J25" s="203"/>
       <c r="K25" s="59">
         <v>3</v>
       </c>
@@ -11621,16 +11621,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="184"/>
+      <c r="A26" s="201"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="191"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="182"/>
+      <c r="J26" s="203"/>
       <c r="K26" s="59">
         <v>4</v>
       </c>
@@ -11661,16 +11661,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="184"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="191"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="182"/>
+      <c r="J27" s="203"/>
       <c r="K27" s="59">
         <v>5</v>
       </c>
@@ -11701,16 +11701,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="176"/>
-      <c r="B28" s="179"/>
-      <c r="C28" s="179"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="184"/>
+      <c r="A28" s="201"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="191"/>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
       <c r="H28" s="71"/>
       <c r="I28" s="72"/>
-      <c r="J28" s="182"/>
+      <c r="J28" s="203"/>
       <c r="K28" s="59">
         <v>6</v>
       </c>
@@ -11741,20 +11741,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="176"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="178" t="s">
+      <c r="A29" s="201"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="177" t="s">
+      <c r="D29" s="193"/>
+      <c r="E29" s="190" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="181" t="s">
+      <c r="J29" s="202" t="s">
         <v>109</v>
       </c>
       <c r="K29" s="59">
@@ -11787,16 +11787,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="176"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="184"/>
+      <c r="A30" s="201"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="191"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="47"/>
-      <c r="J30" s="182"/>
+      <c r="J30" s="203"/>
       <c r="K30" s="59">
         <v>2</v>
       </c>
@@ -11827,16 +11827,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="176"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="184"/>
+      <c r="A31" s="201"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="191"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="47"/>
-      <c r="J31" s="182"/>
+      <c r="J31" s="203"/>
       <c r="K31" s="59">
         <v>3</v>
       </c>
@@ -11867,16 +11867,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="176"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="187"/>
+      <c r="A32" s="201"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="192"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="47"/>
-      <c r="J32" s="183"/>
+      <c r="J32" s="204"/>
       <c r="K32" s="59">
         <v>4</v>
       </c>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="172" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -11950,7 +11950,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="190"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -11990,7 +11990,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="190"/>
+      <c r="B35" s="173"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -12030,7 +12030,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="191"/>
+      <c r="B36" s="174"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -20228,6 +20228,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -20244,21 +20259,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20270,7 +20270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -20336,24 +20336,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="196" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -20377,22 +20377,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -20551,12 +20551,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -20609,27 +20609,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="228" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="230" t="s">
+      <c r="D8" s="213"/>
+      <c r="E8" s="216" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="198" t="s">
+      <c r="J8" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="198">
+      <c r="K8" s="184">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -20670,17 +20670,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="215"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="224"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="210"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -20719,17 +20719,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="176"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="224"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="210"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="220"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -20774,17 +20774,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="215"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="224"/>
+      <c r="A11" s="201"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="210"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="220"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
       <c r="L11" s="58">
         <v>4</v>
       </c>
@@ -20794,8 +20794,8 @@
       <c r="N11" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O11" s="204"/>
-      <c r="P11" s="205"/>
+      <c r="O11" s="218"/>
+      <c r="P11" s="219"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -20819,17 +20819,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="215"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="227"/>
-      <c r="E12" s="224"/>
+      <c r="A12" s="201"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="210"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="220"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
       <c r="L12" s="58">
         <v>5</v>
       </c>
@@ -20839,8 +20839,8 @@
       <c r="N12" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="O12" s="206"/>
-      <c r="P12" s="207"/>
+      <c r="O12" s="220"/>
+      <c r="P12" s="221"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -20864,17 +20864,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="176"/>
-      <c r="B13" s="215"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="224"/>
+      <c r="A13" s="201"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="210"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
       <c r="L13" s="58">
         <v>6</v>
       </c>
@@ -20884,8 +20884,8 @@
       <c r="N13" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O13" s="206"/>
-      <c r="P13" s="207"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="221"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -20909,17 +20909,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="176"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="225"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="217"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="221"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
       <c r="L14" s="58">
         <v>7</v>
       </c>
@@ -20929,8 +20929,8 @@
       <c r="N14" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O14" s="208"/>
-      <c r="P14" s="209"/>
+      <c r="O14" s="222"/>
+      <c r="P14" s="223"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -20954,8 +20954,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="176"/>
-      <c r="B15" s="216"/>
+      <c r="A15" s="201"/>
+      <c r="B15" s="208"/>
       <c r="C15" s="147" t="s">
         <v>171</v>
       </c>
@@ -21011,25 +21011,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="176"/>
-      <c r="B16" s="214" t="s">
+      <c r="A16" s="201"/>
+      <c r="B16" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="217" t="s">
+      <c r="C16" s="228" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="223" t="s">
+      <c r="D16" s="232"/>
+      <c r="E16" s="209" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="198" t="s">
+      <c r="J16" s="184" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="203">
+      <c r="K16" s="189">
         <v>3</v>
       </c>
       <c r="L16" s="58">
@@ -21070,17 +21070,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="224"/>
+      <c r="A17" s="201"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="210"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="199"/>
+      <c r="J17" s="211"/>
+      <c r="K17" s="185"/>
       <c r="L17" s="58">
         <v>2</v>
       </c>
@@ -21119,17 +21119,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="224"/>
+      <c r="A18" s="201"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="210"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="199"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="185"/>
       <c r="L18" s="58">
         <v>3</v>
       </c>
@@ -21168,21 +21168,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="217" t="s">
+      <c r="A19" s="201"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="228" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="227"/>
-      <c r="E19" s="224"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="210"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="198" t="s">
+      <c r="J19" s="184" t="s">
         <v>178</v>
       </c>
-      <c r="K19" s="199"/>
+      <c r="K19" s="185"/>
       <c r="L19" s="58">
         <v>4</v>
       </c>
@@ -21221,17 +21221,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="176"/>
-      <c r="B20" s="215"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="224"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="210"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="199"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="185"/>
       <c r="L20" s="58">
         <v>5</v>
       </c>
@@ -21276,13 +21276,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="176"/>
-      <c r="B21" s="215"/>
+      <c r="A21" s="201"/>
+      <c r="B21" s="207"/>
       <c r="C21" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="227"/>
-      <c r="E21" s="224"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="210"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -21290,7 +21290,7 @@
       <c r="J21" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="K21" s="199"/>
+      <c r="K21" s="185"/>
       <c r="L21" s="58">
         <v>6</v>
       </c>
@@ -21329,21 +21329,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="215"/>
-      <c r="C22" s="218" t="s">
+      <c r="A22" s="201"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="227"/>
-      <c r="E22" s="224"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="210"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="220" t="s">
+      <c r="J22" s="211" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="199"/>
+      <c r="K22" s="185"/>
       <c r="L22" s="58">
         <v>7</v>
       </c>
@@ -21382,17 +21382,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="176"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="225"/>
+      <c r="A23" s="201"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="217"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="186"/>
       <c r="L23" s="58">
         <v>8</v>
       </c>
@@ -21431,23 +21431,23 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="214" t="s">
+      <c r="A24" s="201"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="206" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="223" t="s">
+      <c r="D24" s="181"/>
+      <c r="E24" s="209" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="198" t="s">
+      <c r="J24" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="198">
+      <c r="K24" s="184">
         <v>2</v>
       </c>
       <c r="L24" s="58">
@@ -21488,17 +21488,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="176"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="224"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="210"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="220"/>
-      <c r="K25" s="220"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
       <c r="L25" s="58">
         <v>2</v>
       </c>
@@ -21537,17 +21537,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="176"/>
-      <c r="B26" s="231"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="224"/>
+      <c r="A26" s="201"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="210"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="221"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="212"/>
       <c r="L26" s="58">
         <v>3</v>
       </c>
@@ -21586,11 +21586,11 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="224"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="208"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="210"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -21639,27 +21639,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="176" t="s">
+      <c r="A28" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="214" t="s">
+      <c r="B28" s="206" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="222"/>
-      <c r="E28" s="177" t="s">
+      <c r="D28" s="231"/>
+      <c r="E28" s="190" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="46"/>
-      <c r="J28" s="181" t="s">
+      <c r="J28" s="202" t="s">
         <v>168</v>
       </c>
-      <c r="K28" s="198">
+      <c r="K28" s="184">
         <v>4</v>
       </c>
       <c r="L28" s="58">
@@ -21671,8 +21671,8 @@
       <c r="N28" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="O28" s="210"/>
-      <c r="P28" s="211"/>
+      <c r="O28" s="224"/>
+      <c r="P28" s="225"/>
       <c r="Q28" s="79"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -21696,19 +21696,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="176"/>
-      <c r="B29" s="215"/>
+      <c r="A29" s="201"/>
+      <c r="B29" s="207"/>
       <c r="C29" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="186"/>
-      <c r="E29" s="184"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="191"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="220"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="211"/>
       <c r="L29" s="58">
         <v>2</v>
       </c>
@@ -21718,8 +21718,8 @@
       <c r="N29" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="O29" s="212"/>
-      <c r="P29" s="213"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="227"/>
       <c r="Q29" s="79"/>
       <c r="R29" s="68"/>
       <c r="S29" s="2"/>
@@ -21743,19 +21743,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="176"/>
-      <c r="B30" s="216"/>
+      <c r="A30" s="201"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="188"/>
-      <c r="E30" s="187"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="192"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="221"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="212"/>
       <c r="L30" s="58">
         <v>3</v>
       </c>
@@ -21765,8 +21765,8 @@
       <c r="N30" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="O30" s="212"/>
-      <c r="P30" s="213"/>
+      <c r="O30" s="226"/>
+      <c r="P30" s="227"/>
       <c r="Q30" s="79"/>
       <c r="R30" s="68"/>
       <c r="S30" s="2"/>
@@ -21790,7 +21790,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="176"/>
+      <c r="A31" s="201"/>
       <c r="B31" s="146" t="s">
         <v>185</v>
       </c>
@@ -21820,8 +21820,8 @@
       <c r="N31" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="O31" s="212"/>
-      <c r="P31" s="213"/>
+      <c r="O31" s="226"/>
+      <c r="P31" s="227"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="68"/>
       <c r="S31" s="2"/>
@@ -30351,24 +30351,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="O11:P14"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -30384,6 +30366,24 @@
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
     <mergeCell ref="D16:D23"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="O11:P14"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -30461,24 +30461,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="258"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="248"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -30502,22 +30502,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="259"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="249"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -30676,12 +30676,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -30734,27 +30734,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="176" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="232" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="178" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="230" t="s">
+      <c r="A8" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="247" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="175" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="236"/>
+      <c r="E8" s="216" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="198" t="s">
-        <v>195</v>
-      </c>
-      <c r="K8" s="203">
+      <c r="J8" s="184" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="189">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -30801,17 +30801,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="224"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="210"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="244"/>
+      <c r="H9" s="155"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="199"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="185"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -30850,17 +30850,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="176"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="225"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="217"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="244"/>
+      <c r="H10" s="155"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="200"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="186"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -30899,23 +30899,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="246" t="s">
+      <c r="A11" s="201"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="233" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="223" t="s">
+      <c r="D11" s="181"/>
+      <c r="E11" s="209" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="244"/>
+      <c r="H11" s="155"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="198" t="s">
-        <v>196</v>
-      </c>
-      <c r="K11" s="203">
+      <c r="J11" s="184" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="189">
         <v>4</v>
       </c>
       <c r="L11" s="58">
@@ -30956,17 +30956,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="224"/>
+      <c r="A12" s="201"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="210"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="244"/>
+      <c r="H12" s="155"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="199"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="185"/>
       <c r="L12" s="58">
         <v>2</v>
       </c>
@@ -31005,17 +31005,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="176"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="245"/>
+      <c r="A13" s="201"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="237"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="200"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="186"/>
       <c r="L13" s="58">
         <v>3</v>
       </c>
@@ -31060,23 +31060,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="176"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="246" t="s">
+      <c r="A14" s="201"/>
+      <c r="B14" s="247"/>
+      <c r="C14" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="248"/>
-      <c r="E14" s="249" t="s">
+      <c r="D14" s="238"/>
+      <c r="E14" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="244"/>
-      <c r="J14" s="198" t="s">
-        <v>195</v>
-      </c>
-      <c r="K14" s="203">
+      <c r="I14" s="155"/>
+      <c r="J14" s="184" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="189">
         <v>2</v>
       </c>
       <c r="L14" s="58">
@@ -31117,17 +31117,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="176"/>
-      <c r="B15" s="232"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="252"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
+      <c r="A15" s="201"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="199"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="185"/>
       <c r="L15" s="58">
         <v>2</v>
       </c>
@@ -31137,7 +31137,7 @@
       <c r="N15" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="O15" s="260">
+      <c r="O15" s="245">
         <v>2</v>
       </c>
       <c r="P15" s="73">
@@ -31166,17 +31166,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="176"/>
-      <c r="B16" s="232"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="248"/>
-      <c r="E16" s="250"/>
+      <c r="A16" s="201"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="241"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="200"/>
+      <c r="J16" s="212"/>
+      <c r="K16" s="186"/>
       <c r="L16" s="58">
         <v>3</v>
       </c>
@@ -31186,7 +31186,7 @@
       <c r="N16" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="O16" s="261"/>
+      <c r="O16" s="246"/>
       <c r="P16" s="73">
         <v>0</v>
       </c>
@@ -31219,23 +31219,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="246" t="s">
+      <c r="A17" s="201"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185" t="s">
-        <v>199</v>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193" t="s">
+        <v>198</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="198" t="s">
-        <v>195</v>
-      </c>
-      <c r="K17" s="203">
+      <c r="J17" s="184" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="189">
         <v>3</v>
       </c>
       <c r="L17" s="58">
@@ -31276,17 +31276,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="232"/>
-      <c r="C18" s="251"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
+      <c r="A18" s="201"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="199"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="185"/>
       <c r="L18" s="58">
         <v>2</v>
       </c>
@@ -31296,7 +31296,7 @@
       <c r="N18" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="O18" s="260">
+      <c r="O18" s="245">
         <v>2</v>
       </c>
       <c r="P18" s="73">
@@ -31325,17 +31325,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
+      <c r="A19" s="201"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="200"/>
+      <c r="J19" s="212"/>
+      <c r="K19" s="186"/>
       <c r="L19" s="58">
         <v>3</v>
       </c>
@@ -31345,7 +31345,7 @@
       <c r="N19" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="O19" s="261"/>
+      <c r="O19" s="246"/>
       <c r="P19" s="73">
         <v>0</v>
       </c>
@@ -31372,27 +31372,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="176"/>
-      <c r="B20" s="232"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="247"/>
       <c r="C20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="254" t="s">
+      <c r="D20" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="255"/>
-      <c r="N20" s="255"/>
-      <c r="O20" s="255"/>
-      <c r="P20" s="255"/>
-      <c r="Q20" s="256"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="243"/>
+      <c r="J20" s="243"/>
+      <c r="K20" s="243"/>
+      <c r="L20" s="243"/>
+      <c r="M20" s="243"/>
+      <c r="N20" s="243"/>
+      <c r="O20" s="243"/>
+      <c r="P20" s="243"/>
+      <c r="Q20" s="244"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -31415,27 +31415,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="177" t="s">
+      <c r="A21" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="246" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="246" t="s">
+      <c r="B21" s="233" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="248"/>
-      <c r="E21" s="253" t="s">
+      <c r="D21" s="238"/>
+      <c r="E21" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="244"/>
-      <c r="J21" s="198" t="s">
-        <v>197</v>
-      </c>
-      <c r="K21" s="203">
+      <c r="I21" s="155"/>
+      <c r="J21" s="184" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="189">
         <v>5</v>
       </c>
       <c r="L21" s="58">
@@ -31476,17 +31476,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="184"/>
-      <c r="B22" s="251"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="252"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="199"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="211"/>
+      <c r="K22" s="185"/>
       <c r="L22" s="58">
         <v>2</v>
       </c>
@@ -31525,17 +31525,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="184"/>
-      <c r="B23" s="251"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
+      <c r="A23" s="191"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="238"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="220"/>
-      <c r="K23" s="199"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="185"/>
       <c r="L23" s="58">
         <v>3</v>
       </c>
@@ -31574,17 +31574,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="187"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="250"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="241"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="200"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="186"/>
       <c r="L24" s="58">
         <v>4</v>
       </c>
@@ -40107,17 +40107,13 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="D11:D13"/>
@@ -40134,13 +40130,17 @@
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="B8:B20"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -40217,24 +40217,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="196" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -40258,22 +40258,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -40432,12 +40432,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -40490,25 +40490,25 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="236"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="241" t="s">
+      <c r="C8" s="254"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="259" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="198" t="s">
+      <c r="J8" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="198">
+      <c r="K8" s="184">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -40551,17 +40551,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="237"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="242"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="260"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="220"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="211"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -40598,17 +40598,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="176"/>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="242"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="260"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="220"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="211"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -40645,17 +40645,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="176"/>
-      <c r="B11" s="237"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="242"/>
+      <c r="A11" s="201"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="260"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="220"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="211"/>
       <c r="L11" s="58">
         <v>4</v>
       </c>
@@ -40690,17 +40690,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="239"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="243"/>
+      <c r="A12" s="201"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="261"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="221"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="212"/>
       <c r="L12" s="58">
         <v>5</v>
       </c>
@@ -40735,7 +40735,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="176"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="44" t="s">
         <v>15</v>
       </c>
@@ -40798,8 +40798,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="176"/>
-      <c r="B14" s="234" t="s">
+      <c r="A14" s="201"/>
+      <c r="B14" s="252" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="45" t="s">
@@ -40861,8 +40861,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="176"/>
-      <c r="B15" s="231"/>
+      <c r="A15" s="201"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="45" t="s">
         <v>89</v>
       </c>
@@ -40916,7 +40916,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="176"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="44" t="s">
         <v>35</v>
       </c>
@@ -40975,7 +40975,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="176"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="45" t="s">
         <v>37</v>
       </c>
@@ -41034,8 +41034,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="233" t="s">
+      <c r="A18" s="201"/>
+      <c r="B18" s="251" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="44" t="s">
@@ -41089,8 +41089,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="233"/>
+      <c r="A19" s="201"/>
+      <c r="B19" s="251"/>
       <c r="C19" s="44" t="s">
         <v>97</v>
       </c>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="200">
   <si>
     <r>
       <rPr>
@@ -899,6 +904,10 @@
   </si>
   <si>
     <t>서희+형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2018,6 +2027,9 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2060,14 +2072,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2077,6 +2104,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2114,53 +2174,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2171,10 +2195,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2183,7 +2210,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2192,10 +2231,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2216,31 +2255,25 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,22 +2285,10 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2288,13 +2309,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2329,12 +2344,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2554,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2596,15 +2605,15 @@
       <c r="X1" s="83"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="148"/>
       <c r="I2" s="83"/>
       <c r="U2" s="83"/>
       <c r="V2" s="83"/>
@@ -2612,13 +2621,13 @@
       <c r="X2" s="83"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="83"/>
       <c r="U3" s="83"/>
       <c r="V3" s="83"/>
@@ -2670,15 +2679,15 @@
       <c r="X6" s="83"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" customHeight="1">
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="83"/>
       <c r="U7" s="87"/>
       <c r="V7" s="83"/>
@@ -2701,10 +2710,10 @@
       <c r="F8" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="155"/>
+      <c r="H8" s="156"/>
       <c r="U8" s="83"/>
       <c r="V8" s="83"/>
     </row>
@@ -2715,17 +2724,19 @@
       <c r="C9" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="93" t="s">
+        <v>199</v>
+      </c>
       <c r="E9" s="27" t="s">
         <v>140</v>
       </c>
       <c r="F9" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="151"/>
+      <c r="H9" s="152"/>
       <c r="U9" s="87"/>
       <c r="V9" s="83"/>
       <c r="W9" s="83"/>
@@ -2739,8 +2750,8 @@
       <c r="D10" s="93"/>
       <c r="E10" s="27"/>
       <c r="F10" s="113"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
       <c r="U10" s="87"/>
       <c r="V10" s="83"/>
       <c r="W10" s="83"/>
@@ -2754,8 +2765,8 @@
       <c r="D11" s="93"/>
       <c r="E11" s="27"/>
       <c r="F11" s="113"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
       <c r="U11" s="87"/>
       <c r="V11" s="83"/>
       <c r="W11" s="83"/>
@@ -2769,8 +2780,8 @@
       <c r="D12" s="93"/>
       <c r="E12" s="27"/>
       <c r="F12" s="113"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
       <c r="U12" s="87"/>
       <c r="V12" s="83"/>
       <c r="W12" s="83"/>
@@ -2796,14 +2807,14 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1">
       <c r="B14" s="83"/>
-      <c r="C14" s="246" t="s">
+      <c r="C14" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="247"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="142"/>
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
       <c r="K14" s="83"/>
@@ -2861,7 +2872,7 @@
       <c r="X15" s="83"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="143" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="105" t="s">
@@ -2894,7 +2905,7 @@
       <c r="X16" s="83"/>
     </row>
     <row r="17" spans="1:24" ht="24">
-      <c r="B17" s="142"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="123" t="s">
         <v>126</v>
       </c>
@@ -2925,7 +2936,7 @@
       <c r="X17" s="83"/>
     </row>
     <row r="18" spans="1:24" ht="36">
-      <c r="B18" s="142"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="103" t="s">
         <v>141</v>
       </c>
@@ -2954,7 +2965,7 @@
       <c r="X18" s="83"/>
     </row>
     <row r="19" spans="1:24" ht="24">
-      <c r="B19" s="142"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="124" t="s">
         <v>142</v>
       </c>
@@ -2983,7 +2994,7 @@
       <c r="X19" s="83"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B20" s="142"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="102" t="s">
         <v>125</v>
       </c>
@@ -3012,7 +3023,7 @@
       <c r="X20" s="83"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B21" s="142"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="99" t="s">
         <v>124</v>
       </c>
@@ -3030,7 +3041,7 @@
       <c r="X21" s="83"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="144" t="s">
         <v>123</v>
       </c>
       <c r="C22" s="115" t="s">
@@ -3041,7 +3052,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="117"/>
-      <c r="G22" s="152"/>
+      <c r="G22" s="153"/>
       <c r="H22" s="118"/>
       <c r="I22" s="83"/>
       <c r="U22" s="83"/>
@@ -3050,7 +3061,7 @@
       <c r="X22" s="83"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B23" s="142"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="92" t="s">
         <v>122</v>
       </c>
@@ -3059,7 +3070,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="152"/>
+      <c r="G23" s="153"/>
       <c r="H23" s="97"/>
       <c r="I23" s="83"/>
       <c r="U23" s="83"/>
@@ -3068,7 +3079,7 @@
       <c r="X23" s="83"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B24" s="142"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="96" t="s">
         <v>121</v>
       </c>
@@ -3077,7 +3088,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="152"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="93"/>
       <c r="I24" s="83"/>
       <c r="U24" s="83"/>
@@ -3086,7 +3097,7 @@
       <c r="X24" s="83"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B25" s="142"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="99" t="s">
         <v>120</v>
       </c>
@@ -3095,7 +3106,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="152"/>
+      <c r="G25" s="153"/>
       <c r="H25" s="93"/>
       <c r="I25" s="83"/>
       <c r="U25" s="83"/>
@@ -3104,7 +3115,7 @@
       <c r="X25" s="83"/>
     </row>
     <row r="26" spans="1:24" ht="24">
-      <c r="B26" s="142"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="125" t="s">
         <v>143</v>
       </c>
@@ -3113,7 +3124,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="152"/>
+      <c r="G26" s="153"/>
       <c r="H26" s="89"/>
       <c r="I26" s="83"/>
       <c r="U26" s="83"/>
@@ -3122,7 +3133,7 @@
       <c r="X26" s="83"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B27" s="142"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="91" t="s">
         <v>59</v>
       </c>
@@ -3131,7 +3142,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="153"/>
+      <c r="G27" s="154"/>
       <c r="H27" s="88"/>
       <c r="I27" s="83"/>
       <c r="U27" s="83"/>
@@ -9053,23 +9064,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="61"/>
       <c r="S2" s="1"/>
@@ -9093,21 +9104,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="63"/>
       <c r="S3" s="1"/>
@@ -9263,12 +9274,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="184" t="s">
+      <c r="F7" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="42" t="s">
         <v>80</v>
       </c>
@@ -9318,22 +9329,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="185"/>
-      <c r="B8" s="159" t="s">
+      <c r="A8" s="163"/>
+      <c r="B8" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="162" t="s">
+      <c r="D8" s="182"/>
+      <c r="E8" s="179" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="168" t="s">
+      <c r="J8" s="185" t="s">
         <v>104</v>
       </c>
       <c r="K8" s="58">
@@ -9368,16 +9379,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="163"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="180"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="169"/>
+      <c r="J9" s="186"/>
       <c r="K9" s="58">
         <v>2</v>
       </c>
@@ -9410,16 +9421,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="185"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="164"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="181"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="170"/>
+      <c r="J10" s="187"/>
       <c r="K10" s="58">
         <v>3</v>
       </c>
@@ -9456,20 +9467,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="174"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="159" t="s">
+      <c r="A11" s="164"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="165"/>
-      <c r="E11" s="162" t="s">
+      <c r="D11" s="182"/>
+      <c r="E11" s="179" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="168" t="s">
+      <c r="J11" s="185" t="s">
         <v>105</v>
       </c>
       <c r="K11" s="58">
@@ -9504,16 +9515,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="174"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="163"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="180"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="169"/>
+      <c r="J12" s="186"/>
       <c r="K12" s="58">
         <v>2</v>
       </c>
@@ -9546,16 +9557,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="174"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="164"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="181"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="170"/>
+      <c r="J13" s="187"/>
       <c r="K13" s="58">
         <v>3</v>
       </c>
@@ -9586,20 +9597,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="174"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="159" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="165"/>
-      <c r="E14" s="162" t="s">
+      <c r="D14" s="182"/>
+      <c r="E14" s="179" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="173" t="s">
+      <c r="J14" s="190" t="s">
         <v>106</v>
       </c>
       <c r="K14" s="58">
@@ -9634,16 +9645,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="174"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="163"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="180"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="169"/>
+      <c r="J15" s="186"/>
       <c r="K15" s="58">
         <v>2</v>
       </c>
@@ -9676,16 +9687,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="174"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="172"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="170"/>
+      <c r="J16" s="187"/>
       <c r="K16" s="58">
         <v>3</v>
       </c>
@@ -9722,22 +9733,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="185"/>
-      <c r="B17" s="159" t="s">
+      <c r="A17" s="163"/>
+      <c r="B17" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="174" t="s">
+      <c r="D17" s="172"/>
+      <c r="E17" s="164" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="168" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="58">
@@ -9770,16 +9781,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="185"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="175"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="171"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="187"/>
+      <c r="J18" s="169"/>
       <c r="K18" s="58">
         <v>2</v>
       </c>
@@ -9810,16 +9821,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="185"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="175"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="171"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="187"/>
+      <c r="J19" s="169"/>
       <c r="K19" s="58">
         <v>3</v>
       </c>
@@ -9850,16 +9861,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="185"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="175"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="171"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="46"/>
-      <c r="J20" s="187"/>
+      <c r="J20" s="169"/>
       <c r="K20" s="58">
         <v>4</v>
       </c>
@@ -9890,16 +9901,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="185"/>
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="175"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="171"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="46"/>
-      <c r="J21" s="187"/>
+      <c r="J21" s="169"/>
       <c r="K21" s="58">
         <v>5</v>
       </c>
@@ -9930,16 +9941,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="185"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="176"/>
+      <c r="A22" s="163"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="174"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="47"/>
-      <c r="J22" s="188"/>
+      <c r="J22" s="170"/>
       <c r="K22" s="59">
         <v>6</v>
       </c>
@@ -9970,20 +9981,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="185"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="159" t="s">
+      <c r="A23" s="163"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="174" t="s">
+      <c r="D23" s="172"/>
+      <c r="E23" s="164" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="186" t="s">
+      <c r="J23" s="168" t="s">
         <v>108</v>
       </c>
       <c r="K23" s="59">
@@ -10016,16 +10027,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="185"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="175"/>
+      <c r="A24" s="163"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="171"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="187"/>
+      <c r="J24" s="169"/>
       <c r="K24" s="59">
         <v>2</v>
       </c>
@@ -10056,16 +10067,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="185"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="175"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="171"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="187"/>
+      <c r="J25" s="169"/>
       <c r="K25" s="59">
         <v>3</v>
       </c>
@@ -10096,16 +10107,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="185"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="175"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="171"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="187"/>
+      <c r="J26" s="169"/>
       <c r="K26" s="59">
         <v>4</v>
       </c>
@@ -10136,16 +10147,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="185"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="175"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="171"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="187"/>
+      <c r="J27" s="169"/>
       <c r="K27" s="59">
         <v>5</v>
       </c>
@@ -10176,16 +10187,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="185"/>
-      <c r="B28" s="160"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="175"/>
+      <c r="A28" s="163"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="171"/>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
       <c r="H28" s="71"/>
       <c r="I28" s="72"/>
-      <c r="J28" s="187"/>
+      <c r="J28" s="169"/>
       <c r="K28" s="59">
         <v>6</v>
       </c>
@@ -10216,20 +10227,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="185"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="159" t="s">
+      <c r="A29" s="163"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="174" t="s">
+      <c r="D29" s="172"/>
+      <c r="E29" s="164" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="186" t="s">
+      <c r="J29" s="168" t="s">
         <v>109</v>
       </c>
       <c r="K29" s="59">
@@ -10262,16 +10273,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="185"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="175"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="171"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="47"/>
-      <c r="J30" s="187"/>
+      <c r="J30" s="169"/>
       <c r="K30" s="59">
         <v>2</v>
       </c>
@@ -10302,16 +10313,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="185"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="175"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="171"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="47"/>
-      <c r="J31" s="187"/>
+      <c r="J31" s="169"/>
       <c r="K31" s="59">
         <v>3</v>
       </c>
@@ -10342,16 +10353,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="185"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="176"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="174"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="47"/>
-      <c r="J32" s="188"/>
+      <c r="J32" s="170"/>
       <c r="K32" s="59">
         <v>4</v>
       </c>
@@ -10383,7 +10394,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="176" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10425,7 +10436,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="157"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10465,7 +10476,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="157"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10505,7 +10516,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="158"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18703,21 +18714,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18734,6 +18730,21 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18811,24 +18822,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -18852,22 +18863,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -19026,12 +19037,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="184" t="s">
+      <c r="F7" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -19084,27 +19095,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="195" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="198" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="200" t="s">
+      <c r="D8" s="210"/>
+      <c r="E8" s="211" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="168" t="s">
+      <c r="J8" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="168">
+      <c r="K8" s="185">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -19145,17 +19156,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="191"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="194"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="205"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -19194,17 +19205,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="185"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="194"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="205"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -19249,17 +19260,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="185"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="194"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="205"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
       <c r="L11" s="58">
         <v>4</v>
       </c>
@@ -19269,8 +19280,8 @@
       <c r="N11" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="O11" s="202"/>
-      <c r="P11" s="203"/>
+      <c r="O11" s="212"/>
+      <c r="P11" s="213"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19294,17 +19305,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="185"/>
-      <c r="B12" s="191"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="194"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="205"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
       <c r="L12" s="58">
         <v>5</v>
       </c>
@@ -19314,8 +19325,8 @@
       <c r="N12" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="O12" s="204"/>
-      <c r="P12" s="205"/>
+      <c r="O12" s="214"/>
+      <c r="P12" s="215"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19339,17 +19350,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="185"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="194"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="205"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
       <c r="L13" s="58">
         <v>6</v>
       </c>
@@ -19359,8 +19370,8 @@
       <c r="N13" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O13" s="204"/>
-      <c r="P13" s="205"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="215"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19384,17 +19395,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="185"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="201"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="206"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
       <c r="L14" s="58">
         <v>7</v>
       </c>
@@ -19404,8 +19415,8 @@
       <c r="N14" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O14" s="206"/>
-      <c r="P14" s="207"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="217"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19429,8 +19440,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="185"/>
-      <c r="B15" s="192"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="197"/>
       <c r="C15" s="133" t="s">
         <v>170</v>
       </c>
@@ -19486,25 +19497,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="185"/>
-      <c r="B16" s="190" t="s">
+      <c r="A16" s="163"/>
+      <c r="B16" s="195" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="198" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="193" t="s">
+      <c r="D16" s="207"/>
+      <c r="E16" s="204" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="168" t="s">
+      <c r="J16" s="185" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="173">
+      <c r="K16" s="190">
         <v>3</v>
       </c>
       <c r="L16" s="58">
@@ -19545,17 +19556,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="185"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="194"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="205"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="169"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="186"/>
       <c r="L17" s="58">
         <v>2</v>
       </c>
@@ -19594,17 +19605,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="185"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="194"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="205"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="169"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="58">
         <v>3</v>
       </c>
@@ -19643,21 +19654,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="185"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="212" t="s">
+      <c r="A19" s="163"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="194"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="205"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="168" t="s">
+      <c r="J19" s="185" t="s">
         <v>177</v>
       </c>
-      <c r="K19" s="169"/>
+      <c r="K19" s="186"/>
       <c r="L19" s="58">
         <v>4</v>
       </c>
@@ -19696,17 +19707,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="185"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="194"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="205"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="169"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="186"/>
       <c r="L20" s="58">
         <v>5</v>
       </c>
@@ -19751,13 +19762,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="185"/>
-      <c r="B21" s="191"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="196"/>
       <c r="C21" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="198"/>
-      <c r="E21" s="194"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="205"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19765,7 +19776,7 @@
       <c r="J21" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="169"/>
+      <c r="K21" s="186"/>
       <c r="L21" s="58">
         <v>6</v>
       </c>
@@ -19804,21 +19815,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="185"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="213" t="s">
+      <c r="A22" s="163"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="199" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="198"/>
-      <c r="E22" s="194"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="205"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="195" t="s">
+      <c r="J22" s="201" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="169"/>
+      <c r="K22" s="186"/>
       <c r="L22" s="58">
         <v>7</v>
       </c>
@@ -19857,17 +19868,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="185"/>
-      <c r="B23" s="192"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="201"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="206"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
       <c r="L23" s="58">
         <v>8</v>
       </c>
@@ -19906,23 +19917,23 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="185"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="190" t="s">
+      <c r="A24" s="163"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="165"/>
-      <c r="E24" s="193" t="s">
+      <c r="D24" s="182"/>
+      <c r="E24" s="204" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="168" t="s">
+      <c r="J24" s="185" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="168">
+      <c r="K24" s="185">
         <v>2</v>
       </c>
       <c r="L24" s="58">
@@ -19963,17 +19974,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="185"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="194"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="205"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="201"/>
       <c r="L25" s="58">
         <v>2</v>
       </c>
@@ -20012,17 +20023,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="185"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="194"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="205"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
       <c r="L26" s="58">
         <v>3</v>
       </c>
@@ -20061,11 +20072,11 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="185"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="194"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="205"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20114,27 +20125,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="190" t="s">
+      <c r="B28" s="195" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="215"/>
-      <c r="E28" s="174" t="s">
+      <c r="D28" s="203"/>
+      <c r="E28" s="164" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="46"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="168" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="168">
+      <c r="K28" s="185">
         <v>4</v>
       </c>
       <c r="L28" s="58">
@@ -20146,8 +20157,8 @@
       <c r="N28" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O28" s="208"/>
-      <c r="P28" s="209"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="192"/>
       <c r="Q28" s="79"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20171,19 +20182,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="185"/>
-      <c r="B29" s="191"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="196"/>
       <c r="C29" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="175"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="171"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="195"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="201"/>
       <c r="L29" s="58">
         <v>2</v>
       </c>
@@ -20193,8 +20204,8 @@
       <c r="N29" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="O29" s="210"/>
-      <c r="P29" s="211"/>
+      <c r="O29" s="193"/>
+      <c r="P29" s="194"/>
       <c r="Q29" s="79"/>
       <c r="R29" s="68"/>
       <c r="S29" s="2"/>
@@ -20218,19 +20229,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="185"/>
-      <c r="B30" s="192"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="197"/>
       <c r="C30" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="176"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="174"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="196"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="202"/>
       <c r="L30" s="58">
         <v>3</v>
       </c>
@@ -20240,8 +20251,8 @@
       <c r="N30" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O30" s="210"/>
-      <c r="P30" s="211"/>
+      <c r="O30" s="193"/>
+      <c r="P30" s="194"/>
       <c r="Q30" s="79"/>
       <c r="R30" s="68"/>
       <c r="S30" s="2"/>
@@ -20265,7 +20276,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="185"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="132" t="s">
         <v>184</v>
       </c>
@@ -20295,8 +20306,8 @@
       <c r="N31" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O31" s="210"/>
-      <c r="P31" s="211"/>
+      <c r="O31" s="193"/>
+      <c r="P31" s="194"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="68"/>
       <c r="S31" s="2"/>
@@ -28826,6 +28837,24 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="O11:P14"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28841,24 +28870,6 @@
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
     <mergeCell ref="D16:D23"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="O11:P14"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28936,24 +28947,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="232"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="219"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -28977,22 +28988,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="233"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="220"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -29151,12 +29162,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="184" t="s">
+      <c r="F7" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -29209,27 +29220,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="163" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="235" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="165" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="220"/>
-      <c r="E8" s="200" t="s">
+      <c r="D8" s="236"/>
+      <c r="E8" s="211" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="168" t="s">
+      <c r="J8" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="173">
+      <c r="K8" s="190">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -29276,17 +29287,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="194"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="205"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="141"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="169"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="186"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -29325,17 +29336,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="185"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="201"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="235"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="206"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="141"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="170"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="187"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -29374,23 +29385,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="185"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="217" t="s">
+      <c r="A11" s="163"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="165"/>
-      <c r="E11" s="193" t="s">
+      <c r="D11" s="182"/>
+      <c r="E11" s="204" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="141"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="168" t="s">
+      <c r="J11" s="185" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="173">
+      <c r="K11" s="190">
         <v>4</v>
       </c>
       <c r="L11" s="58">
@@ -29431,17 +29442,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="185"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="194"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="205"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="141"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="169"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="186"/>
       <c r="L12" s="58">
         <v>2</v>
       </c>
@@ -29480,17 +29491,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="185"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="221"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="228"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="170"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="187"/>
       <c r="L13" s="58">
         <v>3</v>
       </c>
@@ -29535,23 +29546,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="185"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="217" t="s">
+      <c r="A14" s="163"/>
+      <c r="B14" s="235"/>
+      <c r="C14" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="222"/>
-      <c r="E14" s="234" t="s">
+      <c r="D14" s="224"/>
+      <c r="E14" s="221" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="141"/>
       <c r="G14" s="141"/>
       <c r="H14" s="19"/>
       <c r="I14" s="141"/>
-      <c r="J14" s="168" t="s">
+      <c r="J14" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="K14" s="173">
+      <c r="K14" s="190">
         <v>2</v>
       </c>
       <c r="L14" s="58">
@@ -29592,17 +29603,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="185"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="224"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="222"/>
       <c r="F15" s="141"/>
       <c r="G15" s="141"/>
       <c r="H15" s="19"/>
       <c r="I15" s="141"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="169"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="186"/>
       <c r="L15" s="58">
         <v>2</v>
       </c>
@@ -29612,7 +29623,7 @@
       <c r="N15" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O15" s="229">
+      <c r="O15" s="233">
         <v>2</v>
       </c>
       <c r="P15" s="73">
@@ -29641,17 +29652,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="185"/>
-      <c r="B16" s="231"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="225"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="227"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="223"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="170"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="187"/>
       <c r="L16" s="58">
         <v>3</v>
       </c>
@@ -29661,7 +29672,7 @@
       <c r="N16" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O16" s="230"/>
+      <c r="O16" s="234"/>
       <c r="P16" s="73">
         <v>0</v>
       </c>
@@ -29694,23 +29705,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="185"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="217" t="s">
+      <c r="A17" s="163"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177" t="s">
+      <c r="D17" s="172"/>
+      <c r="E17" s="172" t="s">
         <v>198</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="168" t="s">
+      <c r="J17" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="173">
+      <c r="K17" s="190">
         <v>3</v>
       </c>
       <c r="L17" s="58">
@@ -29751,17 +29762,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="185"/>
-      <c r="B18" s="231"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="169"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="58">
         <v>2</v>
       </c>
@@ -29771,7 +29782,7 @@
       <c r="N18" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O18" s="229">
+      <c r="O18" s="233">
         <v>2</v>
       </c>
       <c r="P18" s="73">
@@ -29800,17 +29811,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="185"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="170"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="187"/>
       <c r="L19" s="58">
         <v>3</v>
       </c>
@@ -29820,7 +29831,7 @@
       <c r="N19" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="230"/>
+      <c r="O19" s="234"/>
       <c r="P19" s="73">
         <v>0</v>
       </c>
@@ -29847,27 +29858,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="185"/>
-      <c r="B20" s="231"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="226" t="s">
+      <c r="D20" s="230" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="227"/>
-      <c r="M20" s="227"/>
-      <c r="N20" s="227"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="227"/>
-      <c r="Q20" s="228"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="231"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="232"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29890,27 +29901,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="174" t="s">
+      <c r="A21" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="217" t="s">
+      <c r="B21" s="225" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="217" t="s">
+      <c r="C21" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="222"/>
-      <c r="E21" s="223" t="s">
+      <c r="D21" s="224"/>
+      <c r="E21" s="229" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="141"/>
       <c r="G21" s="141"/>
       <c r="H21" s="20"/>
       <c r="I21" s="141"/>
-      <c r="J21" s="168" t="s">
+      <c r="J21" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="173">
+      <c r="K21" s="190">
         <v>5</v>
       </c>
       <c r="L21" s="58">
@@ -29951,17 +29962,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="175"/>
-      <c r="B22" s="218"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="224"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="222"/>
       <c r="F22" s="141"/>
       <c r="G22" s="141"/>
       <c r="H22" s="20"/>
       <c r="I22" s="141"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="169"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="186"/>
       <c r="L22" s="58">
         <v>2</v>
       </c>
@@ -30000,17 +30011,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="175"/>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="224"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="222"/>
       <c r="F23" s="141"/>
       <c r="G23" s="141"/>
       <c r="H23" s="20"/>
       <c r="I23" s="141"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="169"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="186"/>
       <c r="L23" s="58">
         <v>3</v>
       </c>
@@ -30049,17 +30060,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="219"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="225"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="227"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="223"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="170"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="187"/>
       <c r="L24" s="58">
         <v>4</v>
       </c>
@@ -38582,6 +38593,26 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A20"/>
@@ -38593,29 +38624,9 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
     <mergeCell ref="D20:Q20"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38692,24 +38703,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -38733,22 +38744,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -38907,12 +38918,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="184" t="s">
+      <c r="F7" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -38965,25 +38976,25 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="243" t="s">
+      <c r="C8" s="240"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="245" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="168" t="s">
+      <c r="J8" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="168">
+      <c r="K8" s="185">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -39026,17 +39037,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="244"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="246"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="195"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="201"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -39073,17 +39084,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="185"/>
-      <c r="B10" s="239"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="244"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="241"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="246"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="195"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="201"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -39120,17 +39131,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="185"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="244"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="241"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="246"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="195"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="201"/>
       <c r="L11" s="58">
         <v>4</v>
       </c>
@@ -39165,17 +39176,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="185"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="245"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="247"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="196"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="202"/>
       <c r="L12" s="58">
         <v>5</v>
       </c>
@@ -39210,7 +39221,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="185"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="44" t="s">
         <v>15</v>
       </c>
@@ -39273,8 +39284,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="185"/>
-      <c r="B14" s="236" t="s">
+      <c r="A14" s="163"/>
+      <c r="B14" s="238" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="45" t="s">
@@ -39336,8 +39347,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="185"/>
-      <c r="B15" s="189"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="45" t="s">
         <v>89</v>
       </c>
@@ -39391,7 +39402,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="185"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="44" t="s">
         <v>35</v>
       </c>
@@ -39450,7 +39461,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="185"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="45" t="s">
         <v>37</v>
       </c>
@@ -39509,8 +39520,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="185"/>
-      <c r="B18" s="235" t="s">
+      <c r="A18" s="163"/>
+      <c r="B18" s="237" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="44" t="s">
@@ -39564,8 +39575,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="185"/>
-      <c r="B19" s="235"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="237"/>
       <c r="C19" s="44" t="s">
         <v>97</v>
       </c>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -908,6 +903,14 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2075,26 +2078,14 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2104,39 +2095,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2174,17 +2132,53 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,13 +2189,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2210,19 +2201,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,10 +2210,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2255,25 +2234,31 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2283,21 +2268,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2310,6 +2280,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2564,7 +2567,7 @@
   <dimension ref="A1:X986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -3030,7 +3033,9 @@
       <c r="D21" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>201</v>
+      </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="95"/>
@@ -9001,7 +9006,7 @@
   <dimension ref="A1:AJ991"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -9064,23 +9069,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="61"/>
       <c r="S2" s="1"/>
@@ -9104,21 +9109,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="63"/>
       <c r="S3" s="1"/>
@@ -9274,12 +9279,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="42" t="s">
         <v>80</v>
       </c>
@@ -9329,28 +9334,30 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="165" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="179" t="s">
+      <c r="D8" s="167"/>
+      <c r="E8" s="164" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="170" t="s">
         <v>104</v>
       </c>
       <c r="K8" s="58">
         <v>1</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="M8" s="24"/>
       <c r="N8" s="58">
         <v>1</v>
@@ -9379,16 +9386,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="180"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="165"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="186"/>
+      <c r="J9" s="171"/>
       <c r="K9" s="58">
         <v>2</v>
       </c>
@@ -9421,16 +9428,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="181"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="187"/>
+      <c r="J10" s="172"/>
       <c r="K10" s="58">
         <v>3</v>
       </c>
@@ -9467,20 +9474,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="165" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="179" t="s">
+      <c r="D11" s="167"/>
+      <c r="E11" s="164" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="185" t="s">
+      <c r="J11" s="170" t="s">
         <v>105</v>
       </c>
       <c r="K11" s="58">
@@ -9515,16 +9522,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="180"/>
+      <c r="A12" s="176"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="165"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="186"/>
+      <c r="J12" s="171"/>
       <c r="K12" s="58">
         <v>2</v>
       </c>
@@ -9557,16 +9564,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="181"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="187"/>
+      <c r="J13" s="172"/>
       <c r="K13" s="58">
         <v>3</v>
       </c>
@@ -9597,20 +9604,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="165" t="s">
+      <c r="A14" s="176"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="179" t="s">
+      <c r="D14" s="167"/>
+      <c r="E14" s="164" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="190" t="s">
+      <c r="J14" s="175" t="s">
         <v>106</v>
       </c>
       <c r="K14" s="58">
@@ -9645,16 +9652,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="180"/>
+      <c r="A15" s="176"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="165"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="186"/>
+      <c r="J15" s="171"/>
       <c r="K15" s="58">
         <v>2</v>
       </c>
@@ -9687,16 +9694,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="189"/>
+      <c r="A16" s="176"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="187"/>
+      <c r="J16" s="172"/>
       <c r="K16" s="58">
         <v>3</v>
       </c>
@@ -9733,22 +9740,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="165" t="s">
+      <c r="A17" s="187"/>
+      <c r="B17" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="164" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="176" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="168" t="s">
+      <c r="J17" s="188" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="58">
@@ -9781,16 +9788,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="171"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="177"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="169"/>
+      <c r="J18" s="189"/>
       <c r="K18" s="58">
         <v>2</v>
       </c>
@@ -9821,16 +9828,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="171"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="177"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="169"/>
+      <c r="J19" s="189"/>
       <c r="K19" s="58">
         <v>3</v>
       </c>
@@ -9861,16 +9868,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="171"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="177"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="46"/>
-      <c r="J20" s="169"/>
+      <c r="J20" s="189"/>
       <c r="K20" s="58">
         <v>4</v>
       </c>
@@ -9901,16 +9908,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="171"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="177"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="46"/>
-      <c r="J21" s="169"/>
+      <c r="J21" s="189"/>
       <c r="K21" s="58">
         <v>5</v>
       </c>
@@ -9941,16 +9948,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="174"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="178"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="47"/>
-      <c r="J22" s="170"/>
+      <c r="J22" s="190"/>
       <c r="K22" s="59">
         <v>6</v>
       </c>
@@ -9981,20 +9988,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="165" t="s">
+      <c r="A23" s="187"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="164" t="s">
+      <c r="D23" s="179"/>
+      <c r="E23" s="176" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="168" t="s">
+      <c r="J23" s="188" t="s">
         <v>108</v>
       </c>
       <c r="K23" s="59">
@@ -10027,16 +10034,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="171"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="177"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="169"/>
+      <c r="J24" s="189"/>
       <c r="K24" s="59">
         <v>2</v>
       </c>
@@ -10067,16 +10074,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="171"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="177"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="169"/>
+      <c r="J25" s="189"/>
       <c r="K25" s="59">
         <v>3</v>
       </c>
@@ -10107,16 +10114,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="171"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="177"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="169"/>
+      <c r="J26" s="189"/>
       <c r="K26" s="59">
         <v>4</v>
       </c>
@@ -10147,16 +10154,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="171"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="177"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="169"/>
+      <c r="J27" s="189"/>
       <c r="K27" s="59">
         <v>5</v>
       </c>
@@ -10187,16 +10194,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="171"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="177"/>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
       <c r="H28" s="71"/>
       <c r="I28" s="72"/>
-      <c r="J28" s="169"/>
+      <c r="J28" s="189"/>
       <c r="K28" s="59">
         <v>6</v>
       </c>
@@ -10227,20 +10234,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="165" t="s">
+      <c r="A29" s="187"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="164" t="s">
+      <c r="D29" s="179"/>
+      <c r="E29" s="176" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="168" t="s">
+      <c r="J29" s="188" t="s">
         <v>109</v>
       </c>
       <c r="K29" s="59">
@@ -10273,16 +10280,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="171"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="47"/>
-      <c r="J30" s="169"/>
+      <c r="J30" s="189"/>
       <c r="K30" s="59">
         <v>2</v>
       </c>
@@ -10313,16 +10320,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="163"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="171"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="177"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="47"/>
-      <c r="J31" s="169"/>
+      <c r="J31" s="189"/>
       <c r="K31" s="59">
         <v>3</v>
       </c>
@@ -10353,16 +10360,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="163"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="174"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="178"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="47"/>
-      <c r="J32" s="170"/>
+      <c r="J32" s="190"/>
       <c r="K32" s="59">
         <v>4</v>
       </c>
@@ -10394,7 +10401,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="158" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10436,7 +10443,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="177"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10476,7 +10483,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="177"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10516,7 +10523,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="178"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18714,6 +18721,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18730,21 +18752,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18822,24 +18829,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -18863,22 +18870,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -19037,12 +19044,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -19095,27 +19102,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="192" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="C8" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="211" t="s">
+      <c r="D8" s="199"/>
+      <c r="E8" s="202" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="170" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="185">
+      <c r="K8" s="170">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -19156,17 +19163,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="205"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -19205,17 +19212,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="205"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="196"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -19260,17 +19267,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="205"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="196"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
       <c r="L11" s="58">
         <v>4</v>
       </c>
@@ -19280,8 +19287,8 @@
       <c r="N11" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="O11" s="212"/>
-      <c r="P11" s="213"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="205"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19305,17 +19312,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="196"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="205"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="196"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
       <c r="L12" s="58">
         <v>5</v>
       </c>
@@ -19325,8 +19332,8 @@
       <c r="N12" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="O12" s="214"/>
-      <c r="P12" s="215"/>
+      <c r="O12" s="206"/>
+      <c r="P12" s="207"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19350,17 +19357,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="205"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="196"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
       <c r="L13" s="58">
         <v>6</v>
       </c>
@@ -19370,8 +19377,8 @@
       <c r="N13" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O13" s="214"/>
-      <c r="P13" s="215"/>
+      <c r="O13" s="206"/>
+      <c r="P13" s="207"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19395,17 +19402,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="206"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="203"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
       <c r="L14" s="58">
         <v>7</v>
       </c>
@@ -19415,8 +19422,8 @@
       <c r="N14" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O14" s="216"/>
-      <c r="P14" s="217"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="209"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19440,8 +19447,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="197"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="194"/>
       <c r="C15" s="133" t="s">
         <v>170</v>
       </c>
@@ -19497,25 +19504,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="195" t="s">
+      <c r="A16" s="187"/>
+      <c r="B16" s="192" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="207"/>
-      <c r="E16" s="204" t="s">
+      <c r="D16" s="218"/>
+      <c r="E16" s="195" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="185" t="s">
+      <c r="J16" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="190">
+      <c r="K16" s="175">
         <v>3</v>
       </c>
       <c r="L16" s="58">
@@ -19556,17 +19563,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="205"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="196"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="186"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="171"/>
       <c r="L17" s="58">
         <v>2</v>
       </c>
@@ -19605,17 +19612,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="205"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="196"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="186"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="171"/>
       <c r="L18" s="58">
         <v>3</v>
       </c>
@@ -19654,21 +19661,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="198" t="s">
+      <c r="A19" s="187"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="208"/>
-      <c r="E19" s="205"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="185" t="s">
+      <c r="J19" s="170" t="s">
         <v>177</v>
       </c>
-      <c r="K19" s="186"/>
+      <c r="K19" s="171"/>
       <c r="L19" s="58">
         <v>4</v>
       </c>
@@ -19707,17 +19714,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="205"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="196"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="186"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="171"/>
       <c r="L20" s="58">
         <v>5</v>
       </c>
@@ -19762,13 +19769,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="196"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="193"/>
       <c r="C21" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="208"/>
-      <c r="E21" s="205"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="196"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19776,7 +19783,7 @@
       <c r="J21" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="186"/>
+      <c r="K21" s="171"/>
       <c r="L21" s="58">
         <v>6</v>
       </c>
@@ -19815,21 +19822,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="199" t="s">
+      <c r="A22" s="187"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="215" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="208"/>
-      <c r="E22" s="205"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="196"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="201" t="s">
+      <c r="J22" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="186"/>
+      <c r="K22" s="171"/>
       <c r="L22" s="58">
         <v>7</v>
       </c>
@@ -19868,17 +19875,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="206"/>
+      <c r="A23" s="187"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="203"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="187"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="172"/>
       <c r="L23" s="58">
         <v>8</v>
       </c>
@@ -19917,23 +19924,23 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="218"/>
-      <c r="C24" s="195" t="s">
+      <c r="A24" s="187"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="192" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="204" t="s">
+      <c r="D24" s="167"/>
+      <c r="E24" s="195" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="185" t="s">
+      <c r="J24" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="185">
+      <c r="K24" s="170">
         <v>2</v>
       </c>
       <c r="L24" s="58">
@@ -19974,17 +19981,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="205"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="196"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="197"/>
       <c r="L25" s="58">
         <v>2</v>
       </c>
@@ -20023,17 +20030,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="218"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="205"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="196"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="198"/>
       <c r="L26" s="58">
         <v>3</v>
       </c>
@@ -20072,11 +20079,11 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="218"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="205"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="196"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20125,27 +20132,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="195" t="s">
+      <c r="B28" s="192" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="203"/>
-      <c r="E28" s="164" t="s">
+      <c r="D28" s="217"/>
+      <c r="E28" s="176" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="46"/>
-      <c r="J28" s="168" t="s">
+      <c r="J28" s="188" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="185">
+      <c r="K28" s="170">
         <v>4</v>
       </c>
       <c r="L28" s="58">
@@ -20157,8 +20164,8 @@
       <c r="N28" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O28" s="191"/>
-      <c r="P28" s="192"/>
+      <c r="O28" s="210"/>
+      <c r="P28" s="211"/>
       <c r="Q28" s="79"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20182,19 +20189,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="196"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="171"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="177"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="201"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="197"/>
       <c r="L29" s="58">
         <v>2</v>
       </c>
@@ -20204,8 +20211,8 @@
       <c r="N29" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="O29" s="193"/>
-      <c r="P29" s="194"/>
+      <c r="O29" s="212"/>
+      <c r="P29" s="213"/>
       <c r="Q29" s="79"/>
       <c r="R29" s="68"/>
       <c r="S29" s="2"/>
@@ -20229,19 +20236,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="197"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="194"/>
       <c r="C30" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="174"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="178"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="202"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="198"/>
       <c r="L30" s="58">
         <v>3</v>
       </c>
@@ -20251,8 +20258,8 @@
       <c r="N30" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O30" s="193"/>
-      <c r="P30" s="194"/>
+      <c r="O30" s="212"/>
+      <c r="P30" s="213"/>
       <c r="Q30" s="79"/>
       <c r="R30" s="68"/>
       <c r="S30" s="2"/>
@@ -20276,7 +20283,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="163"/>
+      <c r="A31" s="187"/>
       <c r="B31" s="132" t="s">
         <v>184</v>
       </c>
@@ -20306,8 +20313,8 @@
       <c r="N31" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O31" s="193"/>
-      <c r="P31" s="194"/>
+      <c r="O31" s="212"/>
+      <c r="P31" s="213"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="68"/>
       <c r="S31" s="2"/>
@@ -28837,24 +28844,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="O11:P14"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28870,6 +28859,24 @@
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
     <mergeCell ref="D16:D23"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="O11:P14"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28947,24 +28954,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="219"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="230"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -28988,22 +28995,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="220"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="231"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -29162,12 +29169,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -29220,27 +29227,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="236"/>
-      <c r="E8" s="211" t="s">
+      <c r="D8" s="225"/>
+      <c r="E8" s="202" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="190">
+      <c r="K8" s="175">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -29287,17 +29294,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="205"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="141"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="186"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="171"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -29336,17 +29343,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="235"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="206"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="203"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="141"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="187"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="172"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -29385,23 +29392,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="225" t="s">
+      <c r="A11" s="187"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="204" t="s">
+      <c r="D11" s="167"/>
+      <c r="E11" s="195" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="141"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="185" t="s">
+      <c r="J11" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="190">
+      <c r="K11" s="175">
         <v>4</v>
       </c>
       <c r="L11" s="58">
@@ -29442,17 +29449,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="205"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="196"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="141"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="186"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="171"/>
       <c r="L12" s="58">
         <v>2</v>
       </c>
@@ -29491,17 +29498,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="228"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="233"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="187"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="172"/>
       <c r="L13" s="58">
         <v>3</v>
       </c>
@@ -29546,23 +29553,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="235"/>
-      <c r="C14" s="225" t="s">
+      <c r="A14" s="187"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="219" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="221" t="s">
+      <c r="D14" s="226"/>
+      <c r="E14" s="232" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="141"/>
       <c r="G14" s="141"/>
       <c r="H14" s="19"/>
       <c r="I14" s="141"/>
-      <c r="J14" s="185" t="s">
+      <c r="J14" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="K14" s="190">
+      <c r="K14" s="175">
         <v>2</v>
       </c>
       <c r="L14" s="58">
@@ -29603,17 +29610,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="235"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="222"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="228"/>
       <c r="F15" s="141"/>
       <c r="G15" s="141"/>
       <c r="H15" s="19"/>
       <c r="I15" s="141"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="186"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="171"/>
       <c r="L15" s="58">
         <v>2</v>
       </c>
@@ -29623,7 +29630,7 @@
       <c r="N15" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O15" s="233">
+      <c r="O15" s="222">
         <v>2</v>
       </c>
       <c r="P15" s="73">
@@ -29652,17 +29659,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="235"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="223"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="229"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="187"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="172"/>
       <c r="L16" s="58">
         <v>3</v>
       </c>
@@ -29672,7 +29679,7 @@
       <c r="N16" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O16" s="234"/>
+      <c r="O16" s="223"/>
       <c r="P16" s="73">
         <v>0</v>
       </c>
@@ -29705,23 +29712,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="225" t="s">
+      <c r="A17" s="187"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="179" t="s">
         <v>198</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="185" t="s">
+      <c r="J17" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="190">
+      <c r="K17" s="175">
         <v>3</v>
       </c>
       <c r="L17" s="58">
@@ -29762,17 +29769,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="235"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="186"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="171"/>
       <c r="L18" s="58">
         <v>2</v>
       </c>
@@ -29782,7 +29789,7 @@
       <c r="N18" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O18" s="233">
+      <c r="O18" s="222">
         <v>2</v>
       </c>
       <c r="P18" s="73">
@@ -29811,17 +29818,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="187"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="172"/>
       <c r="L19" s="58">
         <v>3</v>
       </c>
@@ -29831,7 +29838,7 @@
       <c r="N19" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="234"/>
+      <c r="O19" s="223"/>
       <c r="P19" s="73">
         <v>0</v>
       </c>
@@ -29858,27 +29865,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="235"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="224"/>
       <c r="C20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="230" t="s">
+      <c r="D20" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="231"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="231"/>
-      <c r="Q20" s="232"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="235"/>
+      <c r="N20" s="235"/>
+      <c r="O20" s="235"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="236"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29901,27 +29908,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="225" t="s">
+      <c r="C21" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="224"/>
-      <c r="E21" s="229" t="s">
+      <c r="D21" s="226"/>
+      <c r="E21" s="227" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="141"/>
       <c r="G21" s="141"/>
       <c r="H21" s="20"/>
       <c r="I21" s="141"/>
-      <c r="J21" s="185" t="s">
+      <c r="J21" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="190">
+      <c r="K21" s="175">
         <v>5</v>
       </c>
       <c r="L21" s="58">
@@ -29962,17 +29969,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="171"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="222"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="228"/>
       <c r="F22" s="141"/>
       <c r="G22" s="141"/>
       <c r="H22" s="20"/>
       <c r="I22" s="141"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="186"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="171"/>
       <c r="L22" s="58">
         <v>2</v>
       </c>
@@ -30011,17 +30018,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="171"/>
-      <c r="B23" s="226"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="222"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="228"/>
       <c r="F23" s="141"/>
       <c r="G23" s="141"/>
       <c r="H23" s="20"/>
       <c r="I23" s="141"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="186"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="171"/>
       <c r="L23" s="58">
         <v>3</v>
       </c>
@@ -30060,17 +30067,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="174"/>
-      <c r="B24" s="227"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="223"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="229"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="187"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="172"/>
       <c r="L24" s="58">
         <v>4</v>
       </c>
@@ -38593,26 +38600,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A20"/>
@@ -38627,6 +38614,26 @@
     <mergeCell ref="D20:Q20"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="K14:K16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38703,24 +38710,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -38744,22 +38751,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -38918,12 +38925,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -38976,14 +38983,14 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="187" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="239" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="240"/>
-      <c r="D8" s="210"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="245" t="s">
         <v>43</v>
       </c>
@@ -38991,10 +38998,10 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="185">
+      <c r="K8" s="170">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -39037,17 +39044,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="163"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="241"/>
       <c r="C9" s="242"/>
-      <c r="D9" s="208"/>
+      <c r="D9" s="200"/>
       <c r="E9" s="246"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="197"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -39084,17 +39091,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="163"/>
+      <c r="A10" s="187"/>
       <c r="B10" s="241"/>
       <c r="C10" s="242"/>
-      <c r="D10" s="208"/>
+      <c r="D10" s="200"/>
       <c r="E10" s="246"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="197"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -39131,17 +39138,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="163"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="241"/>
       <c r="C11" s="242"/>
-      <c r="D11" s="208"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="246"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="197"/>
       <c r="L11" s="58">
         <v>4</v>
       </c>
@@ -39176,17 +39183,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="163"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="243"/>
       <c r="C12" s="244"/>
-      <c r="D12" s="209"/>
+      <c r="D12" s="201"/>
       <c r="E12" s="247"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="202"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="198"/>
       <c r="L12" s="58">
         <v>5</v>
       </c>
@@ -39221,7 +39228,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="163"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="44" t="s">
         <v>15</v>
       </c>
@@ -39284,7 +39291,7 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="163"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="238" t="s">
         <v>78</v>
       </c>
@@ -39347,8 +39354,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="218"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="191"/>
       <c r="C15" s="45" t="s">
         <v>89</v>
       </c>
@@ -39402,7 +39409,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="163"/>
+      <c r="A16" s="187"/>
       <c r="B16" s="44" t="s">
         <v>35</v>
       </c>
@@ -39461,7 +39468,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="163"/>
+      <c r="A17" s="187"/>
       <c r="B17" s="45" t="s">
         <v>37</v>
       </c>
@@ -39520,7 +39527,7 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="163"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="237" t="s">
         <v>79</v>
       </c>
@@ -39575,7 +39582,7 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="163"/>
+      <c r="A19" s="187"/>
       <c r="B19" s="237"/>
       <c r="C19" s="44" t="s">
         <v>97</v>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -908,6 +903,10 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 등록</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2075,26 +2074,14 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2104,39 +2091,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2174,17 +2128,53 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,13 +2185,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2210,19 +2197,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,10 +2206,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2255,25 +2230,31 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2283,21 +2264,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2310,6 +2276,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2563,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -9064,23 +9063,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="61"/>
       <c r="S2" s="1"/>
@@ -9104,21 +9103,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="63"/>
       <c r="S3" s="1"/>
@@ -9274,12 +9273,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="42" t="s">
         <v>80</v>
       </c>
@@ -9329,22 +9328,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="165" t="s">
+      <c r="A8" s="187"/>
+      <c r="B8" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="179" t="s">
+      <c r="D8" s="167"/>
+      <c r="E8" s="164" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="170" t="s">
         <v>104</v>
       </c>
       <c r="K8" s="58">
@@ -9379,16 +9378,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="180"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="165"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="186"/>
+      <c r="J9" s="171"/>
       <c r="K9" s="58">
         <v>2</v>
       </c>
@@ -9421,16 +9420,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="181"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="187"/>
+      <c r="J10" s="172"/>
       <c r="K10" s="58">
         <v>3</v>
       </c>
@@ -9467,20 +9466,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="165" t="s">
+      <c r="A11" s="176"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="179" t="s">
+      <c r="D11" s="167"/>
+      <c r="E11" s="164" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="185" t="s">
+      <c r="J11" s="170" t="s">
         <v>105</v>
       </c>
       <c r="K11" s="58">
@@ -9515,16 +9514,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="180"/>
+      <c r="A12" s="176"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="165"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="186"/>
+      <c r="J12" s="171"/>
       <c r="K12" s="58">
         <v>2</v>
       </c>
@@ -9557,16 +9556,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="181"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="187"/>
+      <c r="J13" s="172"/>
       <c r="K13" s="58">
         <v>3</v>
       </c>
@@ -9597,20 +9596,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="165" t="s">
+      <c r="A14" s="176"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="179" t="s">
+      <c r="D14" s="167"/>
+      <c r="E14" s="164" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="190" t="s">
+      <c r="J14" s="175" t="s">
         <v>106</v>
       </c>
       <c r="K14" s="58">
@@ -9645,16 +9644,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="180"/>
+      <c r="A15" s="176"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="165"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="186"/>
+      <c r="J15" s="171"/>
       <c r="K15" s="58">
         <v>2</v>
       </c>
@@ -9687,16 +9686,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="189"/>
+      <c r="A16" s="176"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="187"/>
+      <c r="J16" s="172"/>
       <c r="K16" s="58">
         <v>3</v>
       </c>
@@ -9733,22 +9732,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="165" t="s">
+      <c r="A17" s="187"/>
+      <c r="B17" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="164" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="176" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="168" t="s">
+      <c r="J17" s="188" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="58">
@@ -9781,16 +9780,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="171"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="177"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="169"/>
+      <c r="J18" s="189"/>
       <c r="K18" s="58">
         <v>2</v>
       </c>
@@ -9821,16 +9820,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="171"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="177"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="169"/>
+      <c r="J19" s="189"/>
       <c r="K19" s="58">
         <v>3</v>
       </c>
@@ -9861,16 +9860,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="171"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="177"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="46"/>
-      <c r="J20" s="169"/>
+      <c r="J20" s="189"/>
       <c r="K20" s="58">
         <v>4</v>
       </c>
@@ -9901,16 +9900,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="171"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="177"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="46"/>
-      <c r="J21" s="169"/>
+      <c r="J21" s="189"/>
       <c r="K21" s="58">
         <v>5</v>
       </c>
@@ -9941,16 +9940,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="174"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="178"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="47"/>
-      <c r="J22" s="170"/>
+      <c r="J22" s="190"/>
       <c r="K22" s="59">
         <v>6</v>
       </c>
@@ -9981,20 +9980,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="165" t="s">
+      <c r="A23" s="187"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="164" t="s">
+      <c r="D23" s="179"/>
+      <c r="E23" s="176" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="168" t="s">
+      <c r="J23" s="188" t="s">
         <v>108</v>
       </c>
       <c r="K23" s="59">
@@ -10027,16 +10026,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="171"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="177"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="169"/>
+      <c r="J24" s="189"/>
       <c r="K24" s="59">
         <v>2</v>
       </c>
@@ -10067,16 +10066,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="171"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="177"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="169"/>
+      <c r="J25" s="189"/>
       <c r="K25" s="59">
         <v>3</v>
       </c>
@@ -10107,16 +10106,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="171"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="177"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="169"/>
+      <c r="J26" s="189"/>
       <c r="K26" s="59">
         <v>4</v>
       </c>
@@ -10147,16 +10146,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="171"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="177"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="47"/>
-      <c r="J27" s="169"/>
+      <c r="J27" s="189"/>
       <c r="K27" s="59">
         <v>5</v>
       </c>
@@ -10187,16 +10186,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="171"/>
+      <c r="A28" s="187"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="177"/>
       <c r="F28" s="71"/>
       <c r="G28" s="71"/>
       <c r="H28" s="71"/>
       <c r="I28" s="72"/>
-      <c r="J28" s="169"/>
+      <c r="J28" s="189"/>
       <c r="K28" s="59">
         <v>6</v>
       </c>
@@ -10227,20 +10226,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="165" t="s">
+      <c r="A29" s="187"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="164" t="s">
+      <c r="D29" s="179"/>
+      <c r="E29" s="176" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="168" t="s">
+      <c r="J29" s="188" t="s">
         <v>109</v>
       </c>
       <c r="K29" s="59">
@@ -10273,16 +10272,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="171"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="47"/>
-      <c r="J30" s="169"/>
+      <c r="J30" s="189"/>
       <c r="K30" s="59">
         <v>2</v>
       </c>
@@ -10313,16 +10312,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="163"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="171"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="177"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="47"/>
-      <c r="J31" s="169"/>
+      <c r="J31" s="189"/>
       <c r="K31" s="59">
         <v>3</v>
       </c>
@@ -10353,16 +10352,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="163"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="174"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="178"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="47"/>
-      <c r="J32" s="170"/>
+      <c r="J32" s="190"/>
       <c r="K32" s="59">
         <v>4</v>
       </c>
@@ -10394,7 +10393,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="158" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10436,7 +10435,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="177"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10476,7 +10475,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="177"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10516,7 +10515,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="178"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18714,6 +18713,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18730,21 +18744,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18756,8 +18755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK990"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -18822,24 +18821,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -18863,22 +18862,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -19037,12 +19036,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -19095,27 +19094,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="192" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="198" t="s">
+      <c r="C8" s="214" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="211" t="s">
+      <c r="D8" s="199"/>
+      <c r="E8" s="202" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="170" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="185">
+      <c r="K8" s="170">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -19156,17 +19155,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="205"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -19205,22 +19204,22 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="205"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="196"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
       <c r="M10" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="74" t="s">
         <v>165</v>
@@ -19260,28 +19259,28 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="205"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="196"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
       <c r="L11" s="58">
         <v>4</v>
       </c>
       <c r="M11" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="O11" s="212"/>
-      <c r="P11" s="213"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="205"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19305,28 +19304,28 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="196"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="205"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="196"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
       <c r="L12" s="58">
         <v>5</v>
       </c>
       <c r="M12" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="O12" s="214"/>
-      <c r="P12" s="215"/>
+      <c r="O12" s="206"/>
+      <c r="P12" s="207"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19350,28 +19349,28 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="205"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="196"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
       <c r="L13" s="58">
         <v>6</v>
       </c>
       <c r="M13" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O13" s="214"/>
-      <c r="P13" s="215"/>
+      <c r="O13" s="206"/>
+      <c r="P13" s="207"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19395,28 +19394,28 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="206"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="203"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
       <c r="L14" s="58">
         <v>7</v>
       </c>
       <c r="M14" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="O14" s="216"/>
-      <c r="P14" s="217"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="209"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19440,8 +19439,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="197"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="194"/>
       <c r="C15" s="133" t="s">
         <v>170</v>
       </c>
@@ -19463,7 +19462,7 @@
         <v>8</v>
       </c>
       <c r="M15" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="74" t="s">
         <v>163</v>
@@ -19497,25 +19496,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="195" t="s">
+      <c r="A16" s="187"/>
+      <c r="B16" s="192" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="198" t="s">
+      <c r="C16" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="207"/>
-      <c r="E16" s="204" t="s">
+      <c r="D16" s="218"/>
+      <c r="E16" s="195" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="185" t="s">
+      <c r="J16" s="170" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="190">
+      <c r="K16" s="175">
         <v>3</v>
       </c>
       <c r="L16" s="58">
@@ -19556,17 +19555,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="205"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="196"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="186"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="171"/>
       <c r="L17" s="58">
         <v>2</v>
       </c>
@@ -19605,17 +19604,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="205"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="196"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="186"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="171"/>
       <c r="L18" s="58">
         <v>3</v>
       </c>
@@ -19654,21 +19653,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="198" t="s">
+      <c r="A19" s="187"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="208"/>
-      <c r="E19" s="205"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="185" t="s">
+      <c r="J19" s="170" t="s">
         <v>177</v>
       </c>
-      <c r="K19" s="186"/>
+      <c r="K19" s="171"/>
       <c r="L19" s="58">
         <v>4</v>
       </c>
@@ -19707,17 +19706,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="205"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="196"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="186"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="171"/>
       <c r="L20" s="58">
         <v>5</v>
       </c>
@@ -19762,13 +19761,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="196"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="193"/>
       <c r="C21" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="208"/>
-      <c r="E21" s="205"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="196"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19776,7 +19775,7 @@
       <c r="J21" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="186"/>
+      <c r="K21" s="171"/>
       <c r="L21" s="58">
         <v>6</v>
       </c>
@@ -19815,21 +19814,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="199" t="s">
+      <c r="A22" s="187"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="215" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="208"/>
-      <c r="E22" s="205"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="196"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="201" t="s">
+      <c r="J22" s="197" t="s">
         <v>179</v>
       </c>
-      <c r="K22" s="186"/>
+      <c r="K22" s="171"/>
       <c r="L22" s="58">
         <v>7</v>
       </c>
@@ -19868,17 +19867,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="206"/>
+      <c r="A23" s="187"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="203"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="187"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="172"/>
       <c r="L23" s="58">
         <v>8</v>
       </c>
@@ -19917,23 +19916,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="218"/>
-      <c r="C24" s="195" t="s">
+      <c r="A24" s="187"/>
+      <c r="B24" s="191" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="192" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="204" t="s">
+      <c r="D24" s="167"/>
+      <c r="E24" s="195" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="185" t="s">
+      <c r="J24" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="185">
+      <c r="K24" s="170">
         <v>2</v>
       </c>
       <c r="L24" s="58">
@@ -19974,17 +19975,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="205"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="196"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="197"/>
       <c r="L25" s="58">
         <v>2</v>
       </c>
@@ -20023,17 +20024,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="218"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="205"/>
+      <c r="A26" s="187"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="196"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="198"/>
       <c r="L26" s="58">
         <v>3</v>
       </c>
@@ -20072,11 +20073,11 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="218"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="205"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="196"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20125,27 +20126,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="195" t="s">
+      <c r="B28" s="192" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="203"/>
-      <c r="E28" s="164" t="s">
+      <c r="D28" s="217"/>
+      <c r="E28" s="176" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="46"/>
-      <c r="J28" s="168" t="s">
+      <c r="J28" s="188" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="185">
+      <c r="K28" s="170">
         <v>4</v>
       </c>
       <c r="L28" s="58">
@@ -20157,8 +20158,8 @@
       <c r="N28" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O28" s="191"/>
-      <c r="P28" s="192"/>
+      <c r="O28" s="210"/>
+      <c r="P28" s="211"/>
       <c r="Q28" s="79"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20182,19 +20183,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="196"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="171"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="177"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="201"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="197"/>
       <c r="L29" s="58">
         <v>2</v>
       </c>
@@ -20204,8 +20205,8 @@
       <c r="N29" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="O29" s="193"/>
-      <c r="P29" s="194"/>
+      <c r="O29" s="212"/>
+      <c r="P29" s="213"/>
       <c r="Q29" s="79"/>
       <c r="R29" s="68"/>
       <c r="S29" s="2"/>
@@ -20229,19 +20230,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="197"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="194"/>
       <c r="C30" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="174"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="178"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="202"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="198"/>
       <c r="L30" s="58">
         <v>3</v>
       </c>
@@ -20251,8 +20252,8 @@
       <c r="N30" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O30" s="193"/>
-      <c r="P30" s="194"/>
+      <c r="O30" s="212"/>
+      <c r="P30" s="213"/>
       <c r="Q30" s="79"/>
       <c r="R30" s="68"/>
       <c r="S30" s="2"/>
@@ -20276,7 +20277,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="163"/>
+      <c r="A31" s="187"/>
       <c r="B31" s="132" t="s">
         <v>184</v>
       </c>
@@ -20306,8 +20307,8 @@
       <c r="N31" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="O31" s="193"/>
-      <c r="P31" s="194"/>
+      <c r="O31" s="212"/>
+      <c r="P31" s="213"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="68"/>
       <c r="S31" s="2"/>
@@ -28837,24 +28838,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="O11:P14"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28870,6 +28853,24 @@
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
     <mergeCell ref="D16:D23"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="O11:P14"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28947,24 +28948,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="219"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="230"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -28988,22 +28989,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="220"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="231"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -29162,12 +29163,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -29220,27 +29221,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="187" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="236"/>
-      <c r="E8" s="211" t="s">
+      <c r="D8" s="225"/>
+      <c r="E8" s="202" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="190">
+      <c r="K8" s="175">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -29287,17 +29288,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="205"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="141"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="186"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="171"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -29336,17 +29337,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="235"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="206"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="203"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="141"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="187"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="172"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -29385,23 +29386,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="225" t="s">
+      <c r="A11" s="187"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="204" t="s">
+      <c r="D11" s="167"/>
+      <c r="E11" s="195" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="141"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="185" t="s">
+      <c r="J11" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="190">
+      <c r="K11" s="175">
         <v>4</v>
       </c>
       <c r="L11" s="58">
@@ -29442,17 +29443,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="205"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="196"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="141"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="186"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="171"/>
       <c r="L12" s="58">
         <v>2</v>
       </c>
@@ -29491,17 +29492,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="228"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="233"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="187"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="172"/>
       <c r="L13" s="58">
         <v>3</v>
       </c>
@@ -29546,23 +29547,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="235"/>
-      <c r="C14" s="225" t="s">
+      <c r="A14" s="187"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="219" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="221" t="s">
+      <c r="D14" s="226"/>
+      <c r="E14" s="232" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="141"/>
       <c r="G14" s="141"/>
       <c r="H14" s="19"/>
       <c r="I14" s="141"/>
-      <c r="J14" s="185" t="s">
+      <c r="J14" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="K14" s="190">
+      <c r="K14" s="175">
         <v>2</v>
       </c>
       <c r="L14" s="58">
@@ -29603,17 +29604,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="235"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="222"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="228"/>
       <c r="F15" s="141"/>
       <c r="G15" s="141"/>
       <c r="H15" s="19"/>
       <c r="I15" s="141"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="186"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="171"/>
       <c r="L15" s="58">
         <v>2</v>
       </c>
@@ -29623,7 +29624,7 @@
       <c r="N15" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O15" s="233">
+      <c r="O15" s="222">
         <v>2</v>
       </c>
       <c r="P15" s="73">
@@ -29652,17 +29653,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="235"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="223"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="229"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="187"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="172"/>
       <c r="L16" s="58">
         <v>3</v>
       </c>
@@ -29672,7 +29673,7 @@
       <c r="N16" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O16" s="234"/>
+      <c r="O16" s="223"/>
       <c r="P16" s="73">
         <v>0</v>
       </c>
@@ -29705,23 +29706,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="225" t="s">
+      <c r="A17" s="187"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="179" t="s">
         <v>198</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="185" t="s">
+      <c r="J17" s="170" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="190">
+      <c r="K17" s="175">
         <v>3</v>
       </c>
       <c r="L17" s="58">
@@ -29762,17 +29763,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="235"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="186"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="171"/>
       <c r="L18" s="58">
         <v>2</v>
       </c>
@@ -29782,7 +29783,7 @@
       <c r="N18" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O18" s="233">
+      <c r="O18" s="222">
         <v>2</v>
       </c>
       <c r="P18" s="73">
@@ -29811,17 +29812,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="187"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="172"/>
       <c r="L19" s="58">
         <v>3</v>
       </c>
@@ -29831,7 +29832,7 @@
       <c r="N19" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="234"/>
+      <c r="O19" s="223"/>
       <c r="P19" s="73">
         <v>0</v>
       </c>
@@ -29858,27 +29859,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="235"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="224"/>
       <c r="C20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="230" t="s">
+      <c r="D20" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="231"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="231"/>
-      <c r="Q20" s="232"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="235"/>
+      <c r="N20" s="235"/>
+      <c r="O20" s="235"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="236"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29901,27 +29902,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="225" t="s">
+      <c r="C21" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="224"/>
-      <c r="E21" s="229" t="s">
+      <c r="D21" s="226"/>
+      <c r="E21" s="227" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="141"/>
       <c r="G21" s="141"/>
       <c r="H21" s="20"/>
       <c r="I21" s="141"/>
-      <c r="J21" s="185" t="s">
+      <c r="J21" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="190">
+      <c r="K21" s="175">
         <v>5</v>
       </c>
       <c r="L21" s="58">
@@ -29962,17 +29963,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="171"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="222"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="228"/>
       <c r="F22" s="141"/>
       <c r="G22" s="141"/>
       <c r="H22" s="20"/>
       <c r="I22" s="141"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="186"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="171"/>
       <c r="L22" s="58">
         <v>2</v>
       </c>
@@ -30011,17 +30012,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="171"/>
-      <c r="B23" s="226"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="222"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="228"/>
       <c r="F23" s="141"/>
       <c r="G23" s="141"/>
       <c r="H23" s="20"/>
       <c r="I23" s="141"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="186"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="171"/>
       <c r="L23" s="58">
         <v>3</v>
       </c>
@@ -30060,17 +30061,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="174"/>
-      <c r="B24" s="227"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="223"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="229"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="187"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="172"/>
       <c r="L24" s="58">
         <v>4</v>
       </c>
@@ -38593,26 +38594,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A20"/>
@@ -38627,6 +38608,26 @@
     <mergeCell ref="D20:Q20"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="K14:K16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38703,24 +38704,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
       <c r="T2" s="1"/>
@@ -38744,22 +38745,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
       <c r="R3" s="62"/>
       <c r="S3" s="63"/>
       <c r="T3" s="1"/>
@@ -38918,12 +38919,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
       <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
@@ -38976,14 +38977,14 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="187" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="239" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="240"/>
-      <c r="D8" s="210"/>
+      <c r="D8" s="199"/>
       <c r="E8" s="245" t="s">
         <v>43</v>
       </c>
@@ -38991,10 +38992,10 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="185" t="s">
+      <c r="J8" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="185">
+      <c r="K8" s="170">
         <v>1</v>
       </c>
       <c r="L8" s="58">
@@ -39037,17 +39038,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="163"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="241"/>
       <c r="C9" s="242"/>
-      <c r="D9" s="208"/>
+      <c r="D9" s="200"/>
       <c r="E9" s="246"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="197"/>
       <c r="L9" s="58">
         <v>2</v>
       </c>
@@ -39084,17 +39085,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="163"/>
+      <c r="A10" s="187"/>
       <c r="B10" s="241"/>
       <c r="C10" s="242"/>
-      <c r="D10" s="208"/>
+      <c r="D10" s="200"/>
       <c r="E10" s="246"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="197"/>
       <c r="L10" s="58">
         <v>3</v>
       </c>
@@ -39131,17 +39132,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="163"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="241"/>
       <c r="C11" s="242"/>
-      <c r="D11" s="208"/>
+      <c r="D11" s="200"/>
       <c r="E11" s="246"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="197"/>
       <c r="L11" s="58">
         <v>4</v>
       </c>
@@ -39176,17 +39177,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="163"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="243"/>
       <c r="C12" s="244"/>
-      <c r="D12" s="209"/>
+      <c r="D12" s="201"/>
       <c r="E12" s="247"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="202"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="198"/>
       <c r="L12" s="58">
         <v>5</v>
       </c>
@@ -39221,7 +39222,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="163"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="44" t="s">
         <v>15</v>
       </c>
@@ -39284,7 +39285,7 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="163"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="238" t="s">
         <v>78</v>
       </c>
@@ -39347,8 +39348,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="218"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="191"/>
       <c r="C15" s="45" t="s">
         <v>89</v>
       </c>
@@ -39402,7 +39403,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="163"/>
+      <c r="A16" s="187"/>
       <c r="B16" s="44" t="s">
         <v>35</v>
       </c>
@@ -39461,7 +39462,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="163"/>
+      <c r="A17" s="187"/>
       <c r="B17" s="45" t="s">
         <v>37</v>
       </c>
@@ -39520,7 +39521,7 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="163"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="237" t="s">
         <v>79</v>
       </c>
@@ -39575,7 +39576,7 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="163"/>
+      <c r="A19" s="187"/>
       <c r="B19" s="237"/>
       <c r="C19" s="44" t="s">
         <v>97</v>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="204">
   <si>
     <r>
       <rPr>
@@ -364,10 +364,6 @@
   </si>
   <si>
     <t>현태</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나존 예약 및 세미나 등록</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -911,6 +907,18 @@
   </si>
   <si>
     <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약 및 세미나 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약 및 세미나 등록 폼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약 및 등록 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1624,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2044,6 +2052,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,26 +2100,14 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2118,39 +2117,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2188,17 +2154,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2209,13 +2217,22 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2224,19 +2241,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2245,10 +2250,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2269,25 +2274,31 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,7 +2310,31 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2317,19 +2352,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2358,18 +2381,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2631,15 +2642,15 @@
       <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="146" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="B2" s="147" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="81"/>
       <c r="U2" s="81"/>
       <c r="V2" s="81"/>
@@ -2647,13 +2658,13 @@
       <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="151"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="152"/>
       <c r="I3" s="81"/>
       <c r="U3" s="81"/>
       <c r="V3" s="81"/>
@@ -2705,15 +2716,15 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" customHeight="1">
-      <c r="B7" s="145" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
+      <c r="B7" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
       <c r="I7" s="81"/>
       <c r="U7" s="85"/>
       <c r="V7" s="81"/>
@@ -2725,44 +2736,44 @@
         <v>3</v>
       </c>
       <c r="C8" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="E8" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="F8" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="155" t="s">
+      <c r="G8" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="156"/>
+      <c r="H8" s="157"/>
       <c r="U8" s="81"/>
       <c r="V8" s="81"/>
     </row>
     <row r="9" spans="1:24" ht="25.5" customHeight="1">
       <c r="B9" s="120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="152" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="152"/>
+        <v>189</v>
+      </c>
+      <c r="G9" s="153" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="153"/>
       <c r="U9" s="85"/>
       <c r="V9" s="81"/>
       <c r="W9" s="81"/>
@@ -2770,14 +2781,14 @@
     </row>
     <row r="10" spans="1:24" ht="25.5" customHeight="1">
       <c r="B10" s="120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
       <c r="E10" s="27"/>
       <c r="F10" s="111"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
       <c r="U10" s="85"/>
       <c r="V10" s="81"/>
       <c r="W10" s="81"/>
@@ -2785,14 +2796,14 @@
     </row>
     <row r="11" spans="1:24" ht="25.5" customHeight="1">
       <c r="B11" s="120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="91"/>
       <c r="D11" s="91"/>
       <c r="E11" s="27"/>
       <c r="F11" s="111"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
       <c r="U11" s="85"/>
       <c r="V11" s="81"/>
       <c r="W11" s="81"/>
@@ -2800,14 +2811,14 @@
     </row>
     <row r="12" spans="1:24" ht="25.5" customHeight="1">
       <c r="B12" s="120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="91"/>
       <c r="D12" s="91"/>
       <c r="E12" s="27"/>
       <c r="F12" s="111"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
       <c r="U12" s="85"/>
       <c r="V12" s="81"/>
       <c r="W12" s="81"/>
@@ -2833,13 +2844,13 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1">
       <c r="B14" s="81"/>
-      <c r="C14" s="157" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
+      <c r="C14" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
       <c r="H14" s="134"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
@@ -2869,13 +2880,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="104" t="s">
         <v>7</v>
@@ -2898,17 +2909,17 @@
       <c r="X15" s="81"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="144" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="17"/>
@@ -2931,15 +2942,15 @@
       <c r="X16" s="81"/>
     </row>
     <row r="17" spans="1:24" ht="24">
-      <c r="B17" s="143"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="17"/>
@@ -2962,12 +2973,12 @@
       <c r="X17" s="81"/>
     </row>
     <row r="18" spans="1:24" ht="36">
-      <c r="B18" s="143"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="31"/>
@@ -2991,12 +3002,12 @@
       <c r="X18" s="81"/>
     </row>
     <row r="19" spans="1:24" ht="24">
-      <c r="B19" s="143"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="31"/>
@@ -3020,12 +3031,12 @@
       <c r="X19" s="81"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B20" s="143"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="27"/>
@@ -3049,15 +3060,15 @@
       <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B21" s="143"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -3069,18 +3080,18 @@
       <c r="X21" s="81"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B22" s="144" t="s">
-        <v>123</v>
+      <c r="B22" s="145" t="s">
+        <v>122</v>
       </c>
       <c r="C22" s="113" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="115"/>
-      <c r="G22" s="153"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="116"/>
       <c r="I22" s="81"/>
       <c r="U22" s="81"/>
@@ -3089,16 +3100,16 @@
       <c r="X22" s="81"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B23" s="143"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="153"/>
+      <c r="G23" s="154"/>
       <c r="H23" s="95"/>
       <c r="I23" s="81"/>
       <c r="U23" s="81"/>
@@ -3107,16 +3118,16 @@
       <c r="X23" s="81"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B24" s="143"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="153"/>
+      <c r="G24" s="154"/>
       <c r="H24" s="91"/>
       <c r="I24" s="81"/>
       <c r="U24" s="81"/>
@@ -3125,16 +3136,16 @@
       <c r="X24" s="81"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B25" s="143"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="153"/>
+      <c r="G25" s="154"/>
       <c r="H25" s="91"/>
       <c r="I25" s="81"/>
       <c r="U25" s="81"/>
@@ -3143,16 +3154,16 @@
       <c r="X25" s="81"/>
     </row>
     <row r="26" spans="1:24" ht="24">
-      <c r="B26" s="143"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="126" t="s">
         <v>143</v>
-      </c>
-      <c r="D26" s="126" t="s">
-        <v>144</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="153"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="87"/>
       <c r="I26" s="81"/>
       <c r="U26" s="81"/>
@@ -3161,16 +3172,16 @@
       <c r="X26" s="81"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B27" s="143"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="89" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="154"/>
+      <c r="G27" s="155"/>
       <c r="H27" s="86"/>
       <c r="I27" s="81"/>
       <c r="U27" s="81"/>
@@ -3333,7 +3344,7 @@
     <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="81"/>
       <c r="B37" s="84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="82"/>
       <c r="D37" s="82"/>
@@ -9092,23 +9103,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
+      <c r="B2" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9132,21 +9143,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9302,29 +9313,29 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
       <c r="J7" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>86</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>7</v>
@@ -9357,29 +9368,29 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="163"/>
-      <c r="B8" s="165" t="s">
+      <c r="A8" s="188"/>
+      <c r="B8" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="165" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="179" t="s">
+      <c r="C8" s="162" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="168"/>
+      <c r="E8" s="165" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="185" t="s">
-        <v>104</v>
+      <c r="J8" s="171" t="s">
+        <v>103</v>
       </c>
       <c r="K8" s="57">
         <v>1</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="57">
@@ -9409,16 +9420,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="180"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="186"/>
+      <c r="J9" s="172"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9451,16 +9462,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="181"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="167"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="187"/>
+      <c r="J10" s="173"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9497,21 +9508,21 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="165" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="179" t="s">
+      <c r="D11" s="168"/>
+      <c r="E11" s="165" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="185" t="s">
-        <v>105</v>
+      <c r="J11" s="171" t="s">
+        <v>104</v>
       </c>
       <c r="K11" s="57">
         <v>1</v>
@@ -9545,16 +9556,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="180"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="166"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="186"/>
+      <c r="J12" s="172"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9587,16 +9598,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="181"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="167"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="187"/>
+      <c r="J13" s="173"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9627,21 +9638,21 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="165" t="s">
+      <c r="A14" s="177"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="179" t="s">
+      <c r="D14" s="168"/>
+      <c r="E14" s="165" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="190" t="s">
-        <v>106</v>
+      <c r="J14" s="176" t="s">
+        <v>105</v>
       </c>
       <c r="K14" s="57">
         <v>1</v>
@@ -9675,16 +9686,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="180"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="166"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="186"/>
+      <c r="J15" s="172"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9717,16 +9728,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="189"/>
+      <c r="A16" s="177"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="175"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="187"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9763,23 +9774,23 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="165" t="s">
+      <c r="A17" s="188"/>
+      <c r="B17" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="164" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="177" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="168" t="s">
-        <v>107</v>
+      <c r="J17" s="189" t="s">
+        <v>106</v>
       </c>
       <c r="K17" s="57">
         <v>1</v>
@@ -9811,16 +9822,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="171"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="178"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="169"/>
+      <c r="J18" s="190"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9851,16 +9862,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="171"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="178"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="169"/>
+      <c r="J19" s="190"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9891,16 +9902,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="171"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="178"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="169"/>
+      <c r="J20" s="190"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -9931,16 +9942,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="171"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="178"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="169"/>
+      <c r="J21" s="190"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -9971,16 +9982,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="163"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="174"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="179"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="170"/>
+      <c r="J22" s="191"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -10011,21 +10022,21 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="163"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="165" t="s">
+      <c r="A23" s="188"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="164" t="s">
+      <c r="D23" s="180"/>
+      <c r="E23" s="177" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="168" t="s">
-        <v>108</v>
+      <c r="J23" s="189" t="s">
+        <v>107</v>
       </c>
       <c r="K23" s="58">
         <v>1</v>
@@ -10057,16 +10068,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="163"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="171"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="178"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="169"/>
+      <c r="J24" s="190"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -10097,16 +10108,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="163"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="171"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="178"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="169"/>
+      <c r="J25" s="190"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -10137,16 +10148,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="163"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="171"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="178"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="169"/>
+      <c r="J26" s="190"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10177,16 +10188,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="163"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="171"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="178"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="169"/>
+      <c r="J27" s="190"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10217,16 +10228,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="171"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="178"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="169"/>
+      <c r="J28" s="190"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10257,21 +10268,21 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="163"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="165" t="s">
+      <c r="A29" s="188"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="164" t="s">
+      <c r="D29" s="180"/>
+      <c r="E29" s="177" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="168" t="s">
-        <v>109</v>
+      <c r="J29" s="189" t="s">
+        <v>108</v>
       </c>
       <c r="K29" s="58">
         <v>1</v>
@@ -10303,16 +10314,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="163"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="171"/>
+      <c r="A30" s="188"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="178"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="169"/>
+      <c r="J30" s="190"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10343,16 +10354,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="163"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="171"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="178"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="169"/>
+      <c r="J31" s="190"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10383,16 +10394,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="163"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="174"/>
+      <c r="A32" s="188"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="179"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="170"/>
+      <c r="J32" s="191"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10424,7 +10435,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="159" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10466,7 +10477,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="177"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10506,7 +10517,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="177"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10546,7 +10557,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="178"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18744,6 +18755,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18760,21 +18786,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18786,8 +18797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -18852,24 +18863,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
+      <c r="B2" s="183" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18893,22 +18904,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19067,32 +19078,32 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="248" t="s">
+      <c r="F7" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="250"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="203"/>
       <c r="J7" s="136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L7" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="136" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="136" t="s">
         <v>85</v>
-      </c>
-      <c r="M7" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="136" t="s">
-        <v>86</v>
       </c>
       <c r="Q7" s="136" t="s">
         <v>7</v>
@@ -19125,27 +19136,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="164" t="s">
-        <v>114</v>
+      <c r="A8" s="177" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="195" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="221" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="198" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="211" t="s">
+      <c r="D8" s="206"/>
+      <c r="E8" s="209" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="185" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="185">
+      <c r="J8" s="171" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="171">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19155,7 +19166,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -19186,17 +19197,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="171"/>
+      <c r="A9" s="178"/>
       <c r="B9" s="196"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="205"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="199"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19204,7 +19215,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -19235,17 +19246,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="171"/>
+      <c r="A10" s="178"/>
       <c r="B10" s="196"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="205"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="199"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19253,7 +19264,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -19290,17 +19301,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="171"/>
+      <c r="A11" s="178"/>
       <c r="B11" s="196"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="205"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="199"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19308,10 +19319,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O11" s="212"/>
-      <c r="P11" s="213"/>
+        <v>161</v>
+      </c>
+      <c r="O11" s="211"/>
+      <c r="P11" s="212"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19335,17 +19346,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="171"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="196"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="205"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="199"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19353,10 +19364,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="O12" s="214"/>
-      <c r="P12" s="215"/>
+        <v>165</v>
+      </c>
+      <c r="O12" s="213"/>
+      <c r="P12" s="214"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19380,17 +19391,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="171"/>
+      <c r="A13" s="178"/>
       <c r="B13" s="196"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="205"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="199"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19398,10 +19409,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="O13" s="214"/>
-      <c r="P13" s="215"/>
+        <v>162</v>
+      </c>
+      <c r="O13" s="213"/>
+      <c r="P13" s="214"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19425,17 +19436,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="171"/>
+      <c r="A14" s="178"/>
       <c r="B14" s="196"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="206"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="210"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19443,10 +19454,10 @@
         <v>1</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="O14" s="216"/>
-      <c r="P14" s="217"/>
+        <v>162</v>
+      </c>
+      <c r="O14" s="215"/>
+      <c r="P14" s="216"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19470,21 +19481,21 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="171"/>
+      <c r="A15" s="178"/>
       <c r="B15" s="197"/>
       <c r="C15" s="141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
       <c r="J15" s="139" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="139">
         <v>1</v>
@@ -19496,7 +19507,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O15" s="57">
         <v>4</v>
@@ -19527,25 +19538,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="171"/>
+      <c r="A16" s="178"/>
       <c r="B16" s="195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="207"/>
-      <c r="E16" s="204" t="s">
+      <c r="D16" s="225"/>
+      <c r="E16" s="198" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="185" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" s="190">
+      <c r="J16" s="171" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="176">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19555,7 +19566,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O16" s="57">
         <v>1</v>
@@ -19586,17 +19597,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="171"/>
+      <c r="A17" s="178"/>
       <c r="B17" s="196"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="205"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="199"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="186"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="172"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19604,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O17" s="57">
         <v>2</v>
@@ -19635,17 +19646,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="171"/>
+      <c r="A18" s="178"/>
       <c r="B18" s="196"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="205"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="199"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="186"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19653,7 +19664,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O18" s="57">
         <v>3</v>
@@ -19684,21 +19695,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="171"/>
+      <c r="A19" s="178"/>
       <c r="B19" s="196"/>
-      <c r="C19" s="198" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="208"/>
-      <c r="E19" s="205"/>
+      <c r="C19" s="221" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="207"/>
+      <c r="E19" s="199"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="185" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="186"/>
+      <c r="J19" s="171" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="172"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19706,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O19" s="57">
         <v>4</v>
@@ -19737,17 +19748,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="171"/>
+      <c r="A20" s="178"/>
       <c r="B20" s="196"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="205"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="199"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="186"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="172"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19755,7 +19766,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O20" s="57">
         <v>5</v>
@@ -19792,21 +19803,21 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="171"/>
+      <c r="A21" s="178"/>
       <c r="B21" s="196"/>
       <c r="C21" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="208"/>
-      <c r="E21" s="205"/>
+        <v>173</v>
+      </c>
+      <c r="D21" s="207"/>
+      <c r="E21" s="199"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="16"/>
       <c r="J21" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" s="186"/>
+        <v>177</v>
+      </c>
+      <c r="K21" s="172"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19814,7 +19825,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O21" s="57">
         <v>6</v>
@@ -19845,21 +19856,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="171"/>
+      <c r="A22" s="178"/>
       <c r="B22" s="196"/>
-      <c r="C22" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="208"/>
-      <c r="E22" s="205"/>
+      <c r="C22" s="221" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="207"/>
+      <c r="E22" s="199"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="185" t="s">
-        <v>179</v>
-      </c>
-      <c r="K22" s="186"/>
+      <c r="J22" s="171" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="172"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19867,7 +19878,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O22" s="57">
         <v>7</v>
@@ -19898,17 +19909,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="171"/>
+      <c r="A23" s="178"/>
       <c r="B23" s="197"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="206"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="210"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="187"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="173"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19916,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O23" s="57">
         <v>8</v>
@@ -19947,33 +19958,35 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="171"/>
-      <c r="B24" s="238"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="192" t="s">
+        <v>201</v>
+      </c>
       <c r="C24" s="195" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="204" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="168"/>
+      <c r="E24" s="198" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="185" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" s="185">
+      <c r="J24" s="171" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="171">
         <v>2</v>
       </c>
       <c r="L24" s="57">
         <v>1</v>
       </c>
       <c r="M24" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O24" s="57">
         <v>1</v>
@@ -20004,25 +20017,25 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="171"/>
-      <c r="B25" s="218"/>
+      <c r="A25" s="178"/>
+      <c r="B25" s="193"/>
       <c r="C25" s="196"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="205"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="199"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
       <c r="M25" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O25" s="57">
         <v>2</v>
@@ -20053,25 +20066,25 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="171"/>
-      <c r="B26" s="218"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="205"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="199"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="205"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
       <c r="M26" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O26" s="57">
         <v>3</v>
@@ -20102,17 +20115,19 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="174"/>
-      <c r="B27" s="251"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="228"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="143" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="170"/>
+      <c r="E27" s="200"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="16"/>
       <c r="J27" s="139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K27" s="135">
         <v>2</v>
@@ -20121,10 +20136,10 @@
         <v>4</v>
       </c>
       <c r="M27" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O27" s="57">
         <v>4</v>
@@ -20155,27 +20170,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="177" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="195" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="203"/>
-      <c r="E28" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="224"/>
+      <c r="E28" s="177" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="168" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" s="185">
+      <c r="J28" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="171">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20185,10 +20200,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="O28" s="191"/>
-      <c r="P28" s="192"/>
+        <v>165</v>
+      </c>
+      <c r="O28" s="217"/>
+      <c r="P28" s="218"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20212,19 +20227,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="171"/>
+      <c r="A29" s="178"/>
       <c r="B29" s="196"/>
       <c r="C29" s="127" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="171"/>
+        <v>181</v>
+      </c>
+      <c r="D29" s="181"/>
+      <c r="E29" s="178"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="201"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="204"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20232,10 +20247,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="O29" s="193"/>
-      <c r="P29" s="194"/>
+        <v>162</v>
+      </c>
+      <c r="O29" s="219"/>
+      <c r="P29" s="220"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20259,19 +20274,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="171"/>
+      <c r="A30" s="178"/>
       <c r="B30" s="197"/>
       <c r="C30" s="138" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="174"/>
+        <v>182</v>
+      </c>
+      <c r="D30" s="182"/>
+      <c r="E30" s="179"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="202"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="205"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20279,10 +20294,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="O30" s="193"/>
-      <c r="P30" s="194"/>
+        <v>165</v>
+      </c>
+      <c r="O30" s="219"/>
+      <c r="P30" s="220"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20306,23 +20321,23 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="174"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="127" t="s">
         <v>184</v>
-      </c>
-      <c r="C31" s="127" t="s">
-        <v>185</v>
       </c>
       <c r="D31" s="142"/>
       <c r="E31" s="137" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="45"/>
       <c r="J31" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K31" s="55">
         <v>5</v>
@@ -20334,10 +20349,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="O31" s="193"/>
-      <c r="P31" s="194"/>
+        <v>165</v>
+      </c>
+      <c r="O31" s="219"/>
+      <c r="P31" s="220"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28867,24 +28882,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="O11:P14"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28900,6 +28897,24 @@
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
     <mergeCell ref="D16:D23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="O11:P14"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28977,24 +28992,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="219"/>
+      <c r="B2" s="183" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="235"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29018,22 +29033,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="220"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="236"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29192,35 +29207,35 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
       <c r="J7" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L7" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>86</v>
-      </c>
       <c r="Q7" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R7" s="23" t="s">
         <v>8</v>
@@ -29250,27 +29265,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="163" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="234" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="165" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="235"/>
-      <c r="E8" s="211" t="s">
+      <c r="A8" s="188" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="233" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="162" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="234"/>
+      <c r="E8" s="209" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="185" t="s">
-        <v>194</v>
-      </c>
-      <c r="K8" s="190">
+      <c r="J8" s="171" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="176">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29280,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -29317,17 +29332,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="205"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="199"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="186"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="172"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29335,7 +29350,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -29366,17 +29381,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="206"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="210"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="187"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="173"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29384,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -29415,23 +29430,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="234"/>
-      <c r="C11" s="225" t="s">
+      <c r="A11" s="188"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="204" t="s">
+      <c r="D11" s="168"/>
+      <c r="E11" s="198" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="185" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" s="190">
+      <c r="J11" s="171" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="176">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29441,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O11" s="57">
         <v>1</v>
@@ -29472,17 +29487,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="234"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="205"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="199"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="186"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="172"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29490,7 +29505,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O12" s="57">
         <v>2</v>
@@ -29521,17 +29536,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="234"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="228"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="200"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="187"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29539,7 +29554,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O13" s="57">
         <v>3</v>
@@ -29576,23 +29591,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="234"/>
-      <c r="C14" s="225" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="221" t="s">
+      <c r="D14" s="229"/>
+      <c r="E14" s="237" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="185" t="s">
-        <v>194</v>
-      </c>
-      <c r="K14" s="190">
+      <c r="J14" s="171" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="176">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29602,7 +29617,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14" s="57">
         <v>1</v>
@@ -29633,17 +29648,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="234"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="222"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="231"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="186"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="172"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29651,9 +29666,9 @@
         <v>0</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="O15" s="232">
+        <v>163</v>
+      </c>
+      <c r="O15" s="241">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29682,17 +29697,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="163"/>
-      <c r="B16" s="234"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="223"/>
+      <c r="A16" s="188"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="232"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="187"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29700,9 +29715,9 @@
         <v>0</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" s="233"/>
+        <v>163</v>
+      </c>
+      <c r="O16" s="242"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29735,23 +29750,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="225" t="s">
+      <c r="A17" s="188"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172" t="s">
-        <v>198</v>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180" t="s">
+        <v>197</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="185" t="s">
-        <v>194</v>
-      </c>
-      <c r="K17" s="190">
+      <c r="J17" s="171" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="176">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29761,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O17" s="57">
         <v>1</v>
@@ -29792,17 +29807,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="234"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="186"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29810,9 +29825,9 @@
         <v>0</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="O18" s="232">
+        <v>163</v>
+      </c>
+      <c r="O18" s="241">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29841,17 +29856,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="234"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="187"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="173"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29859,9 +29874,9 @@
         <v>0</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="O19" s="233"/>
+        <v>163</v>
+      </c>
+      <c r="O19" s="242"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29888,27 +29903,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="163"/>
-      <c r="B20" s="234"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="233"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="229" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="230"/>
-      <c r="M20" s="230"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="230"/>
-      <c r="P20" s="230"/>
-      <c r="Q20" s="231"/>
+      <c r="D20" s="238" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="239"/>
+      <c r="F20" s="239"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="239"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="239"/>
+      <c r="O20" s="239"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="240"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29931,27 +29946,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="225" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="225" t="s">
+      <c r="B21" s="226" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="224"/>
-      <c r="E21" s="236" t="s">
+      <c r="D21" s="229"/>
+      <c r="E21" s="230" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="K21" s="190">
+      <c r="J21" s="171" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="176">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -29961,7 +29976,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O21" s="57">
         <v>1</v>
@@ -29992,17 +30007,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="171"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="222"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="231"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="186"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="172"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30010,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O22" s="57">
         <v>2</v>
@@ -30041,17 +30056,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="171"/>
-      <c r="B23" s="226"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="224"/>
-      <c r="E23" s="222"/>
+      <c r="A23" s="178"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="231"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="186"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="172"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30059,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O23" s="57">
         <v>3</v>
@@ -30090,17 +30105,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="174"/>
-      <c r="B24" s="227"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="224"/>
-      <c r="E24" s="223"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="232"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="187"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="173"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -30108,7 +30123,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O24" s="57">
         <v>4</v>
@@ -38623,6 +38638,24 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="K17:K19"/>
@@ -38639,24 +38672,6 @@
     <mergeCell ref="B8:B20"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O18:O19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38733,24 +38748,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="158" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
+      <c r="B2" s="183" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38774,22 +38789,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38948,32 +38963,32 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
       <c r="J7" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" s="119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="42" t="s">
         <v>85</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>86</v>
       </c>
       <c r="Q7" s="42" t="s">
         <v>7</v>
@@ -39006,32 +39021,32 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="245" t="s">
+      <c r="C8" s="245"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="250" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="185" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="185">
+      <c r="J8" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="171">
         <v>1</v>
       </c>
       <c r="L8" s="57">
         <v>1</v>
       </c>
       <c r="M8" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N8" s="71"/>
       <c r="O8" s="57">
@@ -39067,25 +39082,25 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="241"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="246"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="251"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="204"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N9" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -39114,25 +39129,25 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="241"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="246"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="246"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="251"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="204"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
       <c r="M10" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N10" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -39161,22 +39176,22 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="163"/>
-      <c r="B11" s="241"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="246"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="251"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="204"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
       <c r="M11" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N11" s="71"/>
       <c r="O11" s="57">
@@ -39206,25 +39221,25 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="163"/>
-      <c r="B12" s="243"/>
-      <c r="C12" s="244"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="247"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="252"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="202"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="205"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
       <c r="M12" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N12" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O12" s="57"/>
       <c r="P12" s="17"/>
@@ -39251,7 +39266,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="163"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39267,7 +39282,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
       <c r="J13" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" s="31">
         <v>1</v>
@@ -39276,10 +39291,10 @@
         <v>1</v>
       </c>
       <c r="M13" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N13" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O13" s="57">
         <v>1</v>
@@ -39314,23 +39329,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="163"/>
-      <c r="B14" s="238" t="s">
-        <v>78</v>
+      <c r="A14" s="188"/>
+      <c r="B14" s="192" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
       <c r="J14" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="31">
         <v>2</v>
@@ -39339,10 +39354,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N14" s="129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O14" s="57">
         <v>1</v>
@@ -39377,21 +39392,21 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="163"/>
-      <c r="B15" s="218"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
       <c r="J15" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="31">
         <v>3</v>
@@ -39400,10 +39415,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N15" s="129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O15" s="57">
         <v>1</v>
@@ -39432,7 +39447,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="163"/>
+      <c r="A16" s="188"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39448,7 +39463,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
       <c r="J16" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="31">
         <v>3</v>
@@ -39457,10 +39472,10 @@
         <v>1</v>
       </c>
       <c r="M16" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N16" s="129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O16" s="57"/>
       <c r="P16" s="17"/>
@@ -39491,12 +39506,12 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="163"/>
+      <c r="A17" s="188"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37" t="s">
@@ -39507,7 +39522,7 @@
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
       <c r="J17" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="55">
         <v>4</v>
@@ -39516,10 +39531,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N17" s="129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O17" s="57"/>
       <c r="P17" s="17"/>
@@ -39550,12 +39565,12 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="163"/>
-      <c r="B18" s="237" t="s">
-        <v>79</v>
+      <c r="A18" s="188"/>
+      <c r="B18" s="243" t="s">
+        <v>78</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37" t="s">
@@ -39566,7 +39581,7 @@
       <c r="H18" s="32"/>
       <c r="I18" s="47"/>
       <c r="J18" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="54">
         <v>4</v>
@@ -39575,10 +39590,10 @@
         <v>1</v>
       </c>
       <c r="M18" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N18" s="129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="64"/>
@@ -39605,21 +39620,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="163"/>
-      <c r="B19" s="237"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="243"/>
       <c r="C19" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="47"/>
       <c r="J19" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="54">
         <v>4</v>
@@ -39628,10 +39643,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N19" s="129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="64"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="205">
   <si>
     <r>
       <rPr>
@@ -681,10 +686,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2020.04.04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2020.04.03</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -919,6 +920,14 @@
   </si>
   <si>
     <t>세미나존 예약 및 등록 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2100,14 +2109,26 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2117,6 +2138,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,59 +2208,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2217,13 +2229,40 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2235,25 +2274,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2274,56 +2298,23 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2337,6 +2328,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2346,11 +2355,11 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2600,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2762,13 +2771,13 @@
         <v>139</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>139</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="153" t="s">
         <v>138</v>
@@ -2950,7 +2959,7 @@
         <v>143</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="17"/>
@@ -3068,7 +3077,7 @@
         <v>118</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -9103,23 +9112,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9143,21 +9152,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9313,12 +9322,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9368,29 +9377,29 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="162" t="s">
+      <c r="A8" s="164"/>
+      <c r="B8" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="165" t="s">
+      <c r="D8" s="183"/>
+      <c r="E8" s="180" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="171" t="s">
+      <c r="J8" s="186" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
         <v>1</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="57">
@@ -9420,16 +9429,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="188"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="166"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="181"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="172"/>
+      <c r="J9" s="187"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9462,16 +9471,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="188"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="167"/>
+      <c r="A10" s="164"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="182"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="173"/>
+      <c r="J10" s="188"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9508,20 +9517,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="177"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="162" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="165" t="s">
+      <c r="D11" s="183"/>
+      <c r="E11" s="180" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="171" t="s">
+      <c r="J11" s="186" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
@@ -9556,16 +9565,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="177"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="166"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="181"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="172"/>
+      <c r="J12" s="187"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9598,16 +9607,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="177"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="167"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="182"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="173"/>
+      <c r="J13" s="188"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9638,20 +9647,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="177"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="162" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="168"/>
-      <c r="E14" s="165" t="s">
+      <c r="D14" s="183"/>
+      <c r="E14" s="180" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="176" t="s">
+      <c r="J14" s="191" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
@@ -9686,16 +9695,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="177"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="166"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="181"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="172"/>
+      <c r="J15" s="187"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9728,16 +9737,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="177"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="175"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="190"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="173"/>
+      <c r="J16" s="188"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9774,22 +9783,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="188"/>
-      <c r="B17" s="162" t="s">
+      <c r="A17" s="164"/>
+      <c r="B17" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="177" t="s">
+      <c r="D17" s="173"/>
+      <c r="E17" s="165" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="189" t="s">
+      <c r="J17" s="169" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
@@ -9822,16 +9831,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="188"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="178"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="172"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="190"/>
+      <c r="J18" s="170"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9862,16 +9871,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="188"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="178"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="172"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="190"/>
+      <c r="J19" s="170"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9902,16 +9911,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="188"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="178"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="172"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="190"/>
+      <c r="J20" s="170"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -9942,16 +9951,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="188"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="178"/>
+      <c r="A21" s="164"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="172"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="190"/>
+      <c r="J21" s="170"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -9982,16 +9991,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="188"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="179"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="175"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="191"/>
+      <c r="J22" s="171"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -10022,20 +10031,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="188"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="162" t="s">
+      <c r="A23" s="164"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="177" t="s">
+      <c r="D23" s="173"/>
+      <c r="E23" s="165" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="189" t="s">
+      <c r="J23" s="169" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
@@ -10068,16 +10077,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="188"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="178"/>
+      <c r="A24" s="164"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="172"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="190"/>
+      <c r="J24" s="170"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -10108,16 +10117,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="188"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="178"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="172"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="190"/>
+      <c r="J25" s="170"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -10148,16 +10157,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="188"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="178"/>
+      <c r="A26" s="164"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="172"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="190"/>
+      <c r="J26" s="170"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10188,16 +10197,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="188"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="178"/>
+      <c r="A27" s="164"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="172"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="190"/>
+      <c r="J27" s="170"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10228,16 +10237,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="188"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="178"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="172"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="190"/>
+      <c r="J28" s="170"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10268,20 +10277,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="188"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="162" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="177" t="s">
+      <c r="D29" s="173"/>
+      <c r="E29" s="165" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="189" t="s">
+      <c r="J29" s="169" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
@@ -10314,16 +10323,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="188"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="178"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="172"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="190"/>
+      <c r="J30" s="170"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10354,16 +10363,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="188"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="178"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="172"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="190"/>
+      <c r="J31" s="170"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10394,16 +10403,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="188"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="179"/>
+      <c r="A32" s="164"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="175"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="191"/>
+      <c r="J32" s="171"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10435,7 +10444,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="177" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10477,7 +10486,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="160"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10517,7 +10526,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="160"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10557,7 +10566,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="161"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18755,21 +18764,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18786,6 +18780,21 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18797,8 +18806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -18863,24 +18872,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18904,22 +18913,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19078,17 +19087,17 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="201" t="s">
+      <c r="F7" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="203"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="213"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
       <c r="K7" s="136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L7" s="136" t="s">
         <v>84</v>
@@ -19136,27 +19145,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="177" t="s">
+      <c r="A8" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="196" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="199" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="221" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="206"/>
-      <c r="E8" s="209" t="s">
+      <c r="D8" s="214"/>
+      <c r="E8" s="215" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="171" t="s">
+      <c r="J8" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="171">
+      <c r="K8" s="186">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19166,7 +19175,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -19197,17 +19206,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="178"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="199"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="206"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19215,7 +19224,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -19246,17 +19255,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="178"/>
-      <c r="B10" s="196"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="199"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="206"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19264,7 +19273,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -19301,17 +19310,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="178"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="199"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="206"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19319,10 +19328,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="211"/>
-      <c r="P11" s="212"/>
+        <v>160</v>
+      </c>
+      <c r="O11" s="216"/>
+      <c r="P11" s="217"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19346,17 +19355,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="178"/>
-      <c r="B12" s="196"/>
-      <c r="C12" s="222"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="199"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="206"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19364,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="O12" s="213"/>
-      <c r="P12" s="214"/>
+        <v>164</v>
+      </c>
+      <c r="O12" s="218"/>
+      <c r="P12" s="219"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19391,17 +19400,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="178"/>
-      <c r="B13" s="196"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="199"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="206"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19409,10 +19418,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13" s="213"/>
-      <c r="P13" s="214"/>
+        <v>161</v>
+      </c>
+      <c r="O13" s="218"/>
+      <c r="P13" s="219"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19436,17 +19445,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="178"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="210"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="207"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19454,10 +19463,10 @@
         <v>1</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O14" s="215"/>
-      <c r="P14" s="216"/>
+        <v>161</v>
+      </c>
+      <c r="O14" s="220"/>
+      <c r="P14" s="221"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19481,10 +19490,10 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="178"/>
-      <c r="B15" s="197"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="141" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="140" t="s">
@@ -19507,7 +19516,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O15" s="57">
         <v>4</v>
@@ -19538,25 +19547,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="178"/>
-      <c r="B16" s="195" t="s">
+      <c r="A16" s="172"/>
+      <c r="B16" s="196" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="199" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="221" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="225"/>
-      <c r="E16" s="198" t="s">
+      <c r="D16" s="208"/>
+      <c r="E16" s="205" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="171" t="s">
-        <v>175</v>
-      </c>
-      <c r="K16" s="176">
+      <c r="J16" s="186" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" s="191">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19566,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O16" s="57">
         <v>1</v>
@@ -19597,17 +19606,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="178"/>
-      <c r="B17" s="196"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="199"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="206"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="172"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19615,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O17" s="57">
         <v>2</v>
@@ -19646,17 +19655,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="178"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="207"/>
-      <c r="E18" s="199"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="206"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="172"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19664,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O18" s="57">
         <v>3</v>
@@ -19695,21 +19704,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="178"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="221" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="207"/>
-      <c r="E19" s="199"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="199" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="209"/>
+      <c r="E19" s="206"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="171" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" s="172"/>
+      <c r="J19" s="186" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="187"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19717,7 +19726,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O19" s="57">
         <v>4</v>
@@ -19748,17 +19757,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="178"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="199"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="206"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="172"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="187"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19766,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O20" s="57">
         <v>5</v>
@@ -19803,21 +19812,21 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="178"/>
-      <c r="B21" s="196"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="197"/>
       <c r="C21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="207"/>
-      <c r="E21" s="199"/>
+        <v>172</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="206"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="16"/>
       <c r="J21" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="K21" s="172"/>
+        <v>176</v>
+      </c>
+      <c r="K21" s="187"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19825,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="57">
         <v>6</v>
@@ -19856,21 +19865,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="178"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="221" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="207"/>
-      <c r="E22" s="199"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="199" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="209"/>
+      <c r="E22" s="206"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="171" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="172"/>
+      <c r="J22" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="187"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19878,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O22" s="57">
         <v>7</v>
@@ -19909,17 +19918,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="178"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="210"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="207"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="173"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="188"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19927,7 +19936,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O23" s="57">
         <v>8</v>
@@ -19958,25 +19967,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="178"/>
-      <c r="B24" s="192" t="s">
+      <c r="A24" s="172"/>
+      <c r="B24" s="222" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="195" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="198" t="s">
+      <c r="D24" s="183"/>
+      <c r="E24" s="205" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="171" t="s">
+      <c r="J24" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="171">
+      <c r="K24" s="186">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -19986,7 +19995,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O24" s="57">
         <v>1</v>
@@ -20017,17 +20026,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="178"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="199"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="206"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="202"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20035,7 +20044,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O25" s="57">
         <v>2</v>
@@ -20066,17 +20075,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="178"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="199"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="223"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="206"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="205"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="203"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20084,7 +20093,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O26" s="57">
         <v>3</v>
@@ -20115,19 +20124,19 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="194"/>
+      <c r="A27" s="175"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="143" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="200"/>
+        <v>202</v>
+      </c>
+      <c r="D27" s="185"/>
+      <c r="E27" s="225"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="16"/>
       <c r="J27" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K27" s="135">
         <v>2</v>
@@ -20139,7 +20148,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O27" s="57">
         <v>4</v>
@@ -20170,27 +20179,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="195" t="s">
+      <c r="B28" s="196" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="177" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="204"/>
+      <c r="E28" s="165" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="K28" s="171">
+      <c r="J28" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="186">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20200,10 +20209,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="O28" s="217"/>
-      <c r="P28" s="218"/>
+        <v>164</v>
+      </c>
+      <c r="O28" s="192"/>
+      <c r="P28" s="193"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20227,19 +20236,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="178"/>
-      <c r="B29" s="196"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="197"/>
       <c r="C29" s="127" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="178"/>
+        <v>180</v>
+      </c>
+      <c r="D29" s="174"/>
+      <c r="E29" s="172"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="204"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="202"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20247,10 +20256,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="O29" s="219"/>
-      <c r="P29" s="220"/>
+        <v>161</v>
+      </c>
+      <c r="O29" s="194"/>
+      <c r="P29" s="195"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20274,19 +20283,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="178"/>
-      <c r="B30" s="197"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="198"/>
       <c r="C30" s="138" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="179"/>
+        <v>181</v>
+      </c>
+      <c r="D30" s="176"/>
+      <c r="E30" s="175"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="205"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="203"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20294,10 +20303,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="O30" s="219"/>
-      <c r="P30" s="220"/>
+        <v>164</v>
+      </c>
+      <c r="O30" s="194"/>
+      <c r="P30" s="195"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20321,23 +20330,23 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="179"/>
+      <c r="A31" s="175"/>
       <c r="B31" s="127" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="127" t="s">
         <v>183</v>
-      </c>
-      <c r="C31" s="127" t="s">
-        <v>184</v>
       </c>
       <c r="D31" s="142"/>
       <c r="E31" s="137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="45"/>
       <c r="J31" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K31" s="55">
         <v>5</v>
@@ -20349,10 +20358,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="O31" s="219"/>
-      <c r="P31" s="220"/>
+        <v>164</v>
+      </c>
+      <c r="O31" s="194"/>
+      <c r="P31" s="195"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28882,6 +28891,23 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="O11:P14"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28898,23 +28924,6 @@
     <mergeCell ref="E16:E23"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="O11:P14"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28992,24 +29001,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="235"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="229"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29033,22 +29042,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="236"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="230"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29207,17 +29216,17 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
       <c r="K7" s="131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>84</v>
@@ -29235,7 +29244,7 @@
         <v>85</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R7" s="23" t="s">
         <v>8</v>
@@ -29265,27 +29274,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="188" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="233" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="162" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="209" t="s">
+      <c r="A8" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="242" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="166" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="228"/>
+      <c r="E8" s="215" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="171" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8" s="176">
+      <c r="J8" s="186" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="191">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29295,7 +29304,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -29332,17 +29341,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="188"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="199"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="242"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="206"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="172"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="187"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29350,7 +29359,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -29381,17 +29390,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="188"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="210"/>
+      <c r="A10" s="164"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="207"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="173"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="188"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29399,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -29430,23 +29439,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="188"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="226" t="s">
+      <c r="A11" s="164"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="235" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="198" t="s">
+      <c r="D11" s="183"/>
+      <c r="E11" s="205" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="171" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" s="176">
+      <c r="J11" s="186" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="191">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29456,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O11" s="57">
         <v>1</v>
@@ -29487,17 +29496,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="188"/>
-      <c r="B12" s="233"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="199"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="242"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="206"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="172"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29505,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" s="57">
         <v>2</v>
@@ -29536,17 +29545,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="188"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="200"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="225"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="173"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="188"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29554,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" s="57">
         <v>3</v>
@@ -29591,23 +29600,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="188"/>
-      <c r="B14" s="233"/>
-      <c r="C14" s="226" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="229"/>
-      <c r="E14" s="237" t="s">
+      <c r="D14" s="234"/>
+      <c r="E14" s="231" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="171" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="176">
+      <c r="J14" s="186" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="191">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29617,7 +29626,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" s="57">
         <v>1</v>
@@ -29648,17 +29657,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="188"/>
-      <c r="B15" s="233"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="231"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="236"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="232"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="172"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="187"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29666,9 +29675,9 @@
         <v>0</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="O15" s="241">
+        <v>162</v>
+      </c>
+      <c r="O15" s="226">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29697,17 +29706,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="188"/>
-      <c r="B16" s="233"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="232"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="233"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="173"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="188"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29715,9 +29724,9 @@
         <v>0</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="O16" s="242"/>
+        <v>162</v>
+      </c>
+      <c r="O16" s="227"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29750,23 +29759,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="188"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="226" t="s">
+      <c r="A17" s="164"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180" t="s">
-        <v>197</v>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173" t="s">
+        <v>196</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="171" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="176">
+      <c r="J17" s="186" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="191">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29776,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O17" s="57">
         <v>1</v>
@@ -29807,17 +29816,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="188"/>
-      <c r="B18" s="233"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="172"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29825,9 +29834,9 @@
         <v>0</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="O18" s="241">
+        <v>162</v>
+      </c>
+      <c r="O18" s="226">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29856,17 +29865,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="188"/>
-      <c r="B19" s="233"/>
-      <c r="C19" s="228"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="173"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="188"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29874,9 +29883,9 @@
         <v>0</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="O19" s="242"/>
+        <v>162</v>
+      </c>
+      <c r="O19" s="227"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29903,8 +29912,8 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="188"/>
-      <c r="B20" s="233"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="242"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
@@ -29946,27 +29955,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="177" t="s">
+      <c r="A21" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="226" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="226" t="s">
+      <c r="B21" s="235" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="235" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="229"/>
-      <c r="E21" s="230" t="s">
+      <c r="D21" s="234"/>
+      <c r="E21" s="241" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="171" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" s="176">
+      <c r="J21" s="186" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" s="191">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -29976,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O21" s="57">
         <v>1</v>
@@ -30007,17 +30016,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="178"/>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="231"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="236"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="232"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="172"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30025,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O22" s="57">
         <v>2</v>
@@ -30056,17 +30065,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="178"/>
-      <c r="B23" s="227"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="231"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="232"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="172"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="187"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30074,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O23" s="57">
         <v>3</v>
@@ -30105,17 +30114,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="228"/>
-      <c r="C24" s="228"/>
-      <c r="D24" s="229"/>
-      <c r="E24" s="232"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="237"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="233"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="173"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="188"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -30123,7 +30132,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O24" s="57">
         <v>4</v>
@@ -38638,25 +38647,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K8:K10"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="J17:J19"/>
@@ -38672,6 +38662,25 @@
     <mergeCell ref="B8:B20"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38683,8 +38692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK978"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -38748,24 +38757,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38789,22 +38798,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38963,12 +38972,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -39021,14 +39030,14 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="164" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="244" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="245"/>
-      <c r="D8" s="206"/>
+      <c r="D8" s="214"/>
       <c r="E8" s="250" t="s">
         <v>43</v>
       </c>
@@ -39036,10 +39045,10 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="171" t="s">
+      <c r="J8" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="171">
+      <c r="K8" s="186">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -39082,25 +39091,25 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="188"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="246"/>
       <c r="C9" s="247"/>
-      <c r="D9" s="207"/>
+      <c r="D9" s="209"/>
       <c r="E9" s="251"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="204"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="202"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="N9" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -39129,25 +39138,25 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="188"/>
+      <c r="A10" s="164"/>
       <c r="B10" s="246"/>
       <c r="C10" s="247"/>
-      <c r="D10" s="207"/>
+      <c r="D10" s="209"/>
       <c r="E10" s="251"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="204"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="202"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
       <c r="M10" s="71" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="N10" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -39176,17 +39185,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="188"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="246"/>
       <c r="C11" s="247"/>
-      <c r="D11" s="207"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="251"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="204"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="202"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39221,25 +39230,25 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="188"/>
+      <c r="A12" s="164"/>
       <c r="B12" s="248"/>
       <c r="C12" s="249"/>
-      <c r="D12" s="208"/>
+      <c r="D12" s="210"/>
       <c r="E12" s="252"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="205"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="203"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
       <c r="M12" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N12" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O12" s="57"/>
       <c r="P12" s="17"/>
@@ -39266,7 +39275,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="188"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39291,10 +39300,10 @@
         <v>1</v>
       </c>
       <c r="M13" s="71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N13" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O13" s="57">
         <v>1</v>
@@ -39329,8 +39338,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="188"/>
-      <c r="B14" s="192" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="222" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39354,10 +39363,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O14" s="57">
         <v>1</v>
@@ -39392,8 +39401,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="188"/>
-      <c r="B15" s="193"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="223"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39415,10 +39424,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N15" s="129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O15" s="57">
         <v>1</v>
@@ -39447,7 +39456,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="188"/>
+      <c r="A16" s="164"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39472,10 +39481,10 @@
         <v>1</v>
       </c>
       <c r="M16" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N16" s="129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O16" s="57"/>
       <c r="P16" s="17"/>
@@ -39506,7 +39515,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="188"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39531,10 +39540,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N17" s="129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O17" s="57"/>
       <c r="P17" s="17"/>
@@ -39565,7 +39574,7 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="188"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="243" t="s">
         <v>78</v>
       </c>
@@ -39590,10 +39599,10 @@
         <v>1</v>
       </c>
       <c r="M18" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N18" s="129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="64"/>
@@ -39620,7 +39629,7 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="188"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="243"/>
       <c r="C19" s="43" t="s">
         <v>96</v>
@@ -39643,10 +39652,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N19" s="129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="64"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="4"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -2109,26 +2104,14 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2138,39 +2121,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2208,44 +2158,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2253,16 +2218,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2274,10 +2230,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2298,16 +2278,67 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2324,42 +2355,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9112,23 +9107,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9152,21 +9147,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9322,12 +9317,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9377,22 +9372,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="164"/>
-      <c r="B8" s="166" t="s">
+      <c r="A8" s="188"/>
+      <c r="B8" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="180" t="s">
+      <c r="D8" s="168"/>
+      <c r="E8" s="165" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="171" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
@@ -9429,16 +9424,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="181"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="187"/>
+      <c r="J9" s="172"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9471,16 +9466,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="182"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="167"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="188"/>
+      <c r="J10" s="173"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9517,20 +9512,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="166" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="180" t="s">
+      <c r="D11" s="168"/>
+      <c r="E11" s="165" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="186" t="s">
+      <c r="J11" s="171" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
@@ -9565,16 +9560,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="181"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="166"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="187"/>
+      <c r="J12" s="172"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9607,16 +9602,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="182"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="167"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="188"/>
+      <c r="J13" s="173"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9647,20 +9642,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="166" t="s">
+      <c r="A14" s="177"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="180" t="s">
+      <c r="D14" s="168"/>
+      <c r="E14" s="165" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="191" t="s">
+      <c r="J14" s="176" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
@@ -9695,16 +9690,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="181"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="166"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="187"/>
+      <c r="J15" s="172"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9737,16 +9732,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="190"/>
+      <c r="A16" s="177"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="175"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="188"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9783,22 +9778,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="166" t="s">
+      <c r="A17" s="188"/>
+      <c r="B17" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="165" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="177" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="169" t="s">
+      <c r="J17" s="189" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
@@ -9831,16 +9826,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="172"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="178"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="170"/>
+      <c r="J18" s="190"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9871,16 +9866,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="172"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="178"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="170"/>
+      <c r="J19" s="190"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9911,16 +9906,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="172"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="178"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="170"/>
+      <c r="J20" s="190"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -9951,16 +9946,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="172"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="178"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="170"/>
+      <c r="J21" s="190"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -9991,16 +9986,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="175"/>
+      <c r="A22" s="188"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="179"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="171"/>
+      <c r="J22" s="191"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -10031,20 +10026,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="164"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="166" t="s">
+      <c r="A23" s="188"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="165" t="s">
+      <c r="D23" s="180"/>
+      <c r="E23" s="177" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="169" t="s">
+      <c r="J23" s="189" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
@@ -10077,16 +10072,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="164"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="172"/>
+      <c r="A24" s="188"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="178"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="170"/>
+      <c r="J24" s="190"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -10117,16 +10112,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="164"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="172"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="178"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="170"/>
+      <c r="J25" s="190"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -10157,16 +10152,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="164"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="172"/>
+      <c r="A26" s="188"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="178"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="170"/>
+      <c r="J26" s="190"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10197,16 +10192,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="164"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="172"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="178"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="170"/>
+      <c r="J27" s="190"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10237,16 +10232,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="164"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="172"/>
+      <c r="A28" s="188"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="178"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="170"/>
+      <c r="J28" s="190"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10277,20 +10272,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="164"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="166" t="s">
+      <c r="A29" s="188"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="165" t="s">
+      <c r="D29" s="180"/>
+      <c r="E29" s="177" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="169" t="s">
+      <c r="J29" s="189" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
@@ -10323,16 +10318,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="172"/>
+      <c r="A30" s="188"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="178"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="170"/>
+      <c r="J30" s="190"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10363,16 +10358,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="164"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="172"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="178"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="170"/>
+      <c r="J31" s="190"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10403,16 +10398,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="164"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="175"/>
+      <c r="A32" s="188"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="179"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="171"/>
+      <c r="J32" s="191"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10444,7 +10439,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="159" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10486,7 +10481,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="178"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10526,7 +10521,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="178"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10566,7 +10561,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="179"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18764,6 +18759,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18780,21 +18790,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18806,8 +18801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK990"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:K23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -18872,24 +18867,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="183" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18913,22 +18908,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19087,12 +19082,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="211" t="s">
+      <c r="F7" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="213"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="200"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
@@ -19145,27 +19140,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="215" t="s">
+      <c r="D8" s="203"/>
+      <c r="E8" s="206" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="186">
+      <c r="K8" s="171">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19206,17 +19201,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="206"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="209"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19255,17 +19250,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="172"/>
-      <c r="B10" s="197"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="206"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="209"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="196"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19310,17 +19305,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="172"/>
-      <c r="B11" s="197"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="206"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="196"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19330,8 +19325,8 @@
       <c r="N11" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O11" s="216"/>
-      <c r="P11" s="217"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="212"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19355,17 +19350,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="172"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="206"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="196"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19375,8 +19370,8 @@
       <c r="N12" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="O12" s="218"/>
-      <c r="P12" s="219"/>
+      <c r="O12" s="213"/>
+      <c r="P12" s="214"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19400,17 +19395,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="172"/>
-      <c r="B13" s="197"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="206"/>
+      <c r="A13" s="178"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="196"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19420,8 +19415,8 @@
       <c r="N13" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="218"/>
-      <c r="P13" s="219"/>
+      <c r="O13" s="213"/>
+      <c r="P13" s="214"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19445,17 +19440,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="172"/>
-      <c r="B14" s="197"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="210"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="205"/>
       <c r="E14" s="207"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19465,8 +19460,8 @@
       <c r="N14" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="220"/>
-      <c r="P14" s="221"/>
+      <c r="O14" s="215"/>
+      <c r="P14" s="216"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19490,8 +19485,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="172"/>
-      <c r="B15" s="198"/>
+      <c r="A15" s="178"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="141" t="s">
         <v>168</v>
       </c>
@@ -19547,32 +19542,32 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="172"/>
-      <c r="B16" s="196" t="s">
+      <c r="A16" s="178"/>
+      <c r="B16" s="208" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="208"/>
-      <c r="E16" s="205" t="s">
+      <c r="D16" s="225"/>
+      <c r="E16" s="195" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="186" t="s">
+      <c r="J16" s="171" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="191">
+      <c r="K16" s="176">
         <v>3</v>
       </c>
       <c r="L16" s="57">
         <v>1</v>
       </c>
       <c r="M16" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="72" t="s">
         <v>164</v>
@@ -19606,17 +19601,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="172"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="206"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="196"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="187"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="172"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19655,17 +19650,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="172"/>
-      <c r="B18" s="197"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="206"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="196"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="187"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19704,21 +19699,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="172"/>
-      <c r="B19" s="197"/>
-      <c r="C19" s="199" t="s">
+      <c r="A19" s="178"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="206"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="186" t="s">
+      <c r="J19" s="171" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="187"/>
+      <c r="K19" s="172"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19757,17 +19752,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="172"/>
-      <c r="B20" s="197"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="206"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="196"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="187"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="172"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19812,13 +19807,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="172"/>
-      <c r="B21" s="197"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="206"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="196"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19826,7 +19821,7 @@
       <c r="J21" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="187"/>
+      <c r="K21" s="172"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19865,21 +19860,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="199" t="s">
+      <c r="A22" s="178"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="221" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="209"/>
-      <c r="E22" s="206"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="196"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="171" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="172"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19918,17 +19913,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="198"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="210"/>
+      <c r="A23" s="178"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="205"/>
       <c r="E23" s="207"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="203"/>
-      <c r="K23" s="188"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="173"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19967,25 +19962,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="172"/>
-      <c r="B24" s="222" t="s">
+      <c r="A24" s="178"/>
+      <c r="B24" s="192" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="208" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="205" t="s">
+      <c r="D24" s="168"/>
+      <c r="E24" s="195" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="186" t="s">
+      <c r="J24" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="186">
+      <c r="K24" s="171">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -20026,17 +20021,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="223"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="206"/>
+      <c r="A25" s="178"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="196"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="202"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="201"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20075,17 +20070,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="172"/>
-      <c r="B26" s="223"/>
-      <c r="C26" s="198"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="206"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="196"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="203"/>
-      <c r="K26" s="203"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20124,13 +20119,13 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="175"/>
-      <c r="B27" s="224"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="194"/>
       <c r="C27" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="185"/>
-      <c r="E27" s="225"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="197"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20179,27 +20174,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="208" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="204"/>
-      <c r="E28" s="165" t="s">
+      <c r="D28" s="224"/>
+      <c r="E28" s="177" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="169" t="s">
+      <c r="J28" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="K28" s="186">
+      <c r="K28" s="171">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20211,8 +20206,8 @@
       <c r="N28" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O28" s="192"/>
-      <c r="P28" s="193"/>
+      <c r="O28" s="217"/>
+      <c r="P28" s="218"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20236,19 +20231,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="197"/>
+      <c r="A29" s="178"/>
+      <c r="B29" s="209"/>
       <c r="C29" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="172"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="178"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="202"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="201"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20258,8 +20253,8 @@
       <c r="N29" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="O29" s="194"/>
-      <c r="P29" s="195"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="220"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20283,19 +20278,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="172"/>
-      <c r="B30" s="198"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="210"/>
       <c r="C30" s="138" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="176"/>
-      <c r="E30" s="175"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="179"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="203"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="202"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20305,8 +20300,8 @@
       <c r="N30" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O30" s="194"/>
-      <c r="P30" s="195"/>
+      <c r="O30" s="219"/>
+      <c r="P30" s="220"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20330,7 +20325,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="175"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="127" t="s">
         <v>182</v>
       </c>
@@ -20360,8 +20355,8 @@
       <c r="N31" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O31" s="194"/>
-      <c r="P31" s="195"/>
+      <c r="O31" s="219"/>
+      <c r="P31" s="220"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28891,6 +28886,23 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="O11:P14"/>
+    <mergeCell ref="O28:P31"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="D16:D23"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
@@ -28907,23 +28919,6 @@
     <mergeCell ref="K8:K14"/>
     <mergeCell ref="K24:K26"/>
     <mergeCell ref="K16:K23"/>
-    <mergeCell ref="O11:P14"/>
-    <mergeCell ref="O28:P31"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29001,24 +28996,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="229"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="241"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29042,22 +29037,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="230"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="242"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29216,12 +29211,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -29274,27 +29269,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="188" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="233" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="162" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="228"/>
-      <c r="E8" s="215" t="s">
+      <c r="D8" s="240"/>
+      <c r="E8" s="206" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="191">
+      <c r="K8" s="176">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29341,17 +29336,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="242"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="206"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="187"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="172"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29390,17 +29385,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="242"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="185"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="170"/>
       <c r="E10" s="207"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="188"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="173"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29439,23 +29434,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="242"/>
-      <c r="C11" s="235" t="s">
+      <c r="A11" s="188"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="205" t="s">
+      <c r="D11" s="168"/>
+      <c r="E11" s="195" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="186" t="s">
+      <c r="J11" s="171" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="191">
+      <c r="K11" s="176">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29496,17 +29491,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="242"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="206"/>
+      <c r="A12" s="188"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="196"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="187"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="172"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29545,17 +29540,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="242"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="225"/>
+      <c r="A13" s="188"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="197"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="188"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="173"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29600,23 +29595,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="242"/>
-      <c r="C14" s="235" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="234"/>
-      <c r="E14" s="231" t="s">
+      <c r="D14" s="229"/>
+      <c r="E14" s="234" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="186" t="s">
+      <c r="J14" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="191">
+      <c r="K14" s="176">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29657,17 +29652,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="242"/>
-      <c r="C15" s="236"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="232"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="231"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="187"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="172"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29677,7 +29672,7 @@
       <c r="N15" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O15" s="226">
+      <c r="O15" s="238">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29706,17 +29701,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="242"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="233"/>
+      <c r="A16" s="188"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="232"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="188"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="173"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29726,7 +29721,7 @@
       <c r="N16" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O16" s="227"/>
+      <c r="O16" s="239"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29759,23 +29754,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="235" t="s">
+      <c r="A17" s="188"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="180" t="s">
         <v>196</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="191">
+      <c r="K17" s="176">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29816,17 +29811,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="242"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="187"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29836,7 +29831,7 @@
       <c r="N18" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="226">
+      <c r="O18" s="238">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29865,17 +29860,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="242"/>
-      <c r="C19" s="237"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="188"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="173"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29885,7 +29880,7 @@
       <c r="N19" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O19" s="227"/>
+      <c r="O19" s="239"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29912,27 +29907,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="242"/>
+      <c r="A20" s="188"/>
+      <c r="B20" s="233"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="238" t="s">
+      <c r="D20" s="235" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="239"/>
-      <c r="F20" s="239"/>
-      <c r="G20" s="239"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="239"/>
-      <c r="J20" s="239"/>
-      <c r="K20" s="239"/>
-      <c r="L20" s="239"/>
-      <c r="M20" s="239"/>
-      <c r="N20" s="239"/>
-      <c r="O20" s="239"/>
-      <c r="P20" s="239"/>
-      <c r="Q20" s="240"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="236"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="236"/>
+      <c r="L20" s="236"/>
+      <c r="M20" s="236"/>
+      <c r="N20" s="236"/>
+      <c r="O20" s="236"/>
+      <c r="P20" s="236"/>
+      <c r="Q20" s="237"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29955,27 +29950,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="165" t="s">
+      <c r="A21" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="235" t="s">
+      <c r="B21" s="226" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="235" t="s">
+      <c r="C21" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="234"/>
-      <c r="E21" s="241" t="s">
+      <c r="D21" s="229"/>
+      <c r="E21" s="230" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="186" t="s">
+      <c r="J21" s="171" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="191">
+      <c r="K21" s="176">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -30016,17 +30011,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="232"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="231"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="187"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="172"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30065,17 +30060,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="232"/>
+      <c r="A23" s="178"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="231"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="187"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="172"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30114,17 +30109,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="237"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="233"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="232"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="203"/>
-      <c r="K24" s="188"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="173"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -38647,6 +38642,24 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="J17:J19"/>
@@ -38663,24 +38676,6 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="A8:A20"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38692,7 +38687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -38757,24 +38752,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38798,22 +38793,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="186"/>
+      <c r="Q3" s="186"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38972,12 +38967,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -39030,14 +39025,14 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="188" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="244" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="245"/>
-      <c r="D8" s="214"/>
+      <c r="D8" s="203"/>
       <c r="E8" s="250" t="s">
         <v>43</v>
       </c>
@@ -39045,10 +39040,10 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="186">
+      <c r="K8" s="171">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -39091,17 +39086,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="164"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="246"/>
       <c r="C9" s="247"/>
-      <c r="D9" s="209"/>
+      <c r="D9" s="204"/>
       <c r="E9" s="251"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="202"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="201"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -39138,17 +39133,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="164"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="246"/>
       <c r="C10" s="247"/>
-      <c r="D10" s="209"/>
+      <c r="D10" s="204"/>
       <c r="E10" s="251"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="202"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="201"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -39185,17 +39180,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="164"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="246"/>
       <c r="C11" s="247"/>
-      <c r="D11" s="209"/>
+      <c r="D11" s="204"/>
       <c r="E11" s="251"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="202"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="201"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39230,17 +39225,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="164"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="248"/>
       <c r="C12" s="249"/>
-      <c r="D12" s="210"/>
+      <c r="D12" s="205"/>
       <c r="E12" s="252"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="203"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="202"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -39275,7 +39270,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="164"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39338,8 +39333,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="222" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="192" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39401,8 +39396,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="223"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39456,7 +39451,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="164"/>
+      <c r="A16" s="188"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39515,7 +39510,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="164"/>
+      <c r="A17" s="188"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39574,7 +39569,7 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="164"/>
+      <c r="A18" s="188"/>
       <c r="B18" s="243" t="s">
         <v>78</v>
       </c>
@@ -39629,7 +39624,7 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="164"/>
+      <c r="A19" s="188"/>
       <c r="B19" s="243"/>
       <c r="C19" s="43" t="s">
         <v>96</v>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="206">
   <si>
     <r>
       <rPr>
@@ -925,6 +930,10 @@
     <t>진행완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>50% 진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1055,7 +1064,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -1636,7 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2104,14 +2119,26 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2121,6 +2148,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,99 +2216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,37 +2266,64 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2350,11 +2344,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2384,6 +2399,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2604,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -3013,7 +3031,9 @@
       <c r="D19" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="253" t="s">
+        <v>205</v>
+      </c>
       <c r="F19" s="31"/>
       <c r="G19" s="17"/>
       <c r="H19" s="96"/>
@@ -9107,23 +9127,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9147,21 +9167,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9317,12 +9337,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9372,22 +9392,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="162" t="s">
+      <c r="A8" s="164"/>
+      <c r="B8" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="168"/>
-      <c r="E8" s="165" t="s">
+      <c r="D8" s="183"/>
+      <c r="E8" s="180" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="171" t="s">
+      <c r="J8" s="186" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
@@ -9424,16 +9444,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="188"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="166"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="181"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="172"/>
+      <c r="J9" s="187"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9466,16 +9486,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="188"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="167"/>
+      <c r="A10" s="164"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="182"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="173"/>
+      <c r="J10" s="188"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9512,20 +9532,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="177"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="162" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="165" t="s">
+      <c r="D11" s="183"/>
+      <c r="E11" s="180" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="171" t="s">
+      <c r="J11" s="186" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
@@ -9560,16 +9580,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="177"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="166"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="181"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="172"/>
+      <c r="J12" s="187"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9602,16 +9622,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="177"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="167"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="182"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="173"/>
+      <c r="J13" s="188"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9642,20 +9662,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="177"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="162" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="168"/>
-      <c r="E14" s="165" t="s">
+      <c r="D14" s="183"/>
+      <c r="E14" s="180" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="176" t="s">
+      <c r="J14" s="191" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
@@ -9690,16 +9710,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="177"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="166"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="181"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="172"/>
+      <c r="J15" s="187"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9732,16 +9752,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="177"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="175"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="190"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="173"/>
+      <c r="J16" s="188"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9778,22 +9798,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="188"/>
-      <c r="B17" s="162" t="s">
+      <c r="A17" s="164"/>
+      <c r="B17" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="177" t="s">
+      <c r="D17" s="173"/>
+      <c r="E17" s="165" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="189" t="s">
+      <c r="J17" s="169" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
@@ -9826,16 +9846,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="188"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="178"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="172"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="190"/>
+      <c r="J18" s="170"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9866,16 +9886,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="188"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="178"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="172"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="190"/>
+      <c r="J19" s="170"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9906,16 +9926,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="188"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="178"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="172"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="190"/>
+      <c r="J20" s="170"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -9946,16 +9966,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="188"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="178"/>
+      <c r="A21" s="164"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="172"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="190"/>
+      <c r="J21" s="170"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -9986,16 +10006,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="188"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="179"/>
+      <c r="A22" s="164"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="175"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="191"/>
+      <c r="J22" s="171"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -10026,20 +10046,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="188"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="162" t="s">
+      <c r="A23" s="164"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="177" t="s">
+      <c r="D23" s="173"/>
+      <c r="E23" s="165" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="189" t="s">
+      <c r="J23" s="169" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
@@ -10072,16 +10092,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="188"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="178"/>
+      <c r="A24" s="164"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="172"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="190"/>
+      <c r="J24" s="170"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -10112,16 +10132,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="188"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="178"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="172"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="190"/>
+      <c r="J25" s="170"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -10152,16 +10172,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="188"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="178"/>
+      <c r="A26" s="164"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="172"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="190"/>
+      <c r="J26" s="170"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10192,16 +10212,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="188"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="178"/>
+      <c r="A27" s="164"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="172"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="190"/>
+      <c r="J27" s="170"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10232,16 +10252,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="188"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="178"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="172"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="190"/>
+      <c r="J28" s="170"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10272,20 +10292,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="188"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="162" t="s">
+      <c r="A29" s="164"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="177" t="s">
+      <c r="D29" s="173"/>
+      <c r="E29" s="165" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="189" t="s">
+      <c r="J29" s="169" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
@@ -10318,16 +10338,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="188"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="178"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="172"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="190"/>
+      <c r="J30" s="170"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10358,16 +10378,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="188"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="178"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="172"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="190"/>
+      <c r="J31" s="170"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10398,16 +10418,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="188"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="179"/>
+      <c r="A32" s="164"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="175"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="191"/>
+      <c r="J32" s="171"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10439,7 +10459,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="177" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10481,7 +10501,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="160"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10521,7 +10541,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="160"/>
+      <c r="B35" s="178"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10561,7 +10581,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="161"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18759,21 +18779,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18790,6 +18795,21 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18801,8 +18821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -18867,24 +18887,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18908,22 +18928,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19082,12 +19102,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="198" t="s">
+      <c r="F7" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="200"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="223"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
@@ -19140,27 +19160,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="177" t="s">
+      <c r="A8" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="208" t="s">
+      <c r="B8" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="221" t="s">
+      <c r="C8" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="203"/>
-      <c r="E8" s="206" t="s">
+      <c r="D8" s="224"/>
+      <c r="E8" s="225" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="171" t="s">
+      <c r="J8" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="171">
+      <c r="K8" s="186">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19201,17 +19221,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="178"/>
-      <c r="B9" s="209"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="196"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="212"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="208"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19250,17 +19270,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="178"/>
-      <c r="B10" s="209"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="196"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="212"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="208"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19305,17 +19325,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="178"/>
-      <c r="B11" s="209"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="196"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="212"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19325,8 +19345,8 @@
       <c r="N11" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O11" s="211"/>
-      <c r="P11" s="212"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="196"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19350,17 +19370,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="178"/>
-      <c r="B12" s="209"/>
-      <c r="C12" s="222"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="196"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="212"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="208"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19370,8 +19390,8 @@
       <c r="N12" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="O12" s="213"/>
-      <c r="P12" s="214"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="198"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19395,17 +19415,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="178"/>
-      <c r="B13" s="209"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="196"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="212"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19415,8 +19435,8 @@
       <c r="N13" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="213"/>
-      <c r="P13" s="214"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="198"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19440,17 +19460,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="178"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="207"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="213"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
+      <c r="J14" s="209"/>
+      <c r="K14" s="209"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19460,8 +19480,8 @@
       <c r="N14" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="215"/>
-      <c r="P14" s="216"/>
+      <c r="O14" s="199"/>
+      <c r="P14" s="200"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19485,8 +19505,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="178"/>
-      <c r="B15" s="210"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="194"/>
       <c r="C15" s="141" t="s">
         <v>168</v>
       </c>
@@ -19542,25 +19562,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="178"/>
-      <c r="B16" s="208" t="s">
+      <c r="A16" s="172"/>
+      <c r="B16" s="192" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="221" t="s">
+      <c r="C16" s="205" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="225"/>
-      <c r="E16" s="195" t="s">
+      <c r="D16" s="214"/>
+      <c r="E16" s="211" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="171" t="s">
+      <c r="J16" s="186" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="176">
+      <c r="K16" s="191">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19601,17 +19621,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="178"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="196"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="212"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="172"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19650,17 +19670,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="178"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="196"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="212"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="172"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19699,21 +19719,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="178"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="221" t="s">
+      <c r="A19" s="172"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="205" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="196"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="212"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="171" t="s">
+      <c r="J19" s="186" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="172"/>
+      <c r="K19" s="187"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19752,17 +19772,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="178"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="196"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="212"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="172"/>
+      <c r="J20" s="209"/>
+      <c r="K20" s="187"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19807,13 +19827,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="178"/>
-      <c r="B21" s="209"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="193"/>
       <c r="C21" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="204"/>
-      <c r="E21" s="196"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="212"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19821,7 +19841,7 @@
       <c r="J21" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="172"/>
+      <c r="K21" s="187"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19860,21 +19880,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="178"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="221" t="s">
+      <c r="A22" s="172"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="205" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="204"/>
-      <c r="E22" s="196"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="212"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="171" t="s">
+      <c r="J22" s="186" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="172"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19913,17 +19933,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="178"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="207"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="213"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="173"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="188"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19962,25 +19982,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="178"/>
-      <c r="B24" s="192" t="s">
+      <c r="A24" s="172"/>
+      <c r="B24" s="217" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="208" t="s">
+      <c r="C24" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="195" t="s">
+      <c r="D24" s="183"/>
+      <c r="E24" s="211" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="171" t="s">
+      <c r="J24" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="171">
+      <c r="K24" s="186">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -20021,17 +20041,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="178"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="196"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="212"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="208"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20070,17 +20090,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="178"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="196"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="212"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="202"/>
+      <c r="J26" s="209"/>
+      <c r="K26" s="209"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20119,13 +20139,13 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="194"/>
+      <c r="A27" s="175"/>
+      <c r="B27" s="219"/>
       <c r="C27" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="197"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="220"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20174,27 +20194,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="208" t="s">
+      <c r="B28" s="192" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="177" t="s">
+      <c r="D28" s="210"/>
+      <c r="E28" s="165" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="189" t="s">
+      <c r="J28" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="K28" s="171">
+      <c r="K28" s="186">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20206,8 +20226,8 @@
       <c r="N28" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O28" s="217"/>
-      <c r="P28" s="218"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="202"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20231,19 +20251,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="178"/>
-      <c r="B29" s="209"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="178"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="172"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="201"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="208"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20253,8 +20273,8 @@
       <c r="N29" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="O29" s="219"/>
-      <c r="P29" s="220"/>
+      <c r="O29" s="203"/>
+      <c r="P29" s="204"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20278,19 +20298,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="178"/>
-      <c r="B30" s="210"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="194"/>
       <c r="C30" s="138" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="179"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="175"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="202"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="209"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20300,8 +20320,8 @@
       <c r="N30" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O30" s="219"/>
-      <c r="P30" s="220"/>
+      <c r="O30" s="203"/>
+      <c r="P30" s="204"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20325,7 +20345,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="179"/>
+      <c r="A31" s="175"/>
       <c r="B31" s="127" t="s">
         <v>182</v>
       </c>
@@ -20355,8 +20375,8 @@
       <c r="N31" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O31" s="219"/>
-      <c r="P31" s="220"/>
+      <c r="O31" s="203"/>
+      <c r="P31" s="204"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28886,6 +28906,23 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="O11:P14"/>
     <mergeCell ref="O28:P31"/>
@@ -28902,23 +28939,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28930,8 +28950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK983"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -28996,24 +29016,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="241"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="226"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29037,22 +29057,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="242"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="227"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29211,12 +29231,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -29269,34 +29289,34 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="233" t="s">
+      <c r="B8" s="242" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="240"/>
-      <c r="E8" s="206" t="s">
+      <c r="D8" s="233"/>
+      <c r="E8" s="225" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="171" t="s">
+      <c r="J8" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="176">
+      <c r="K8" s="191">
         <v>1</v>
       </c>
       <c r="L8" s="57">
         <v>1</v>
       </c>
       <c r="M8" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="72" t="s">
         <v>162</v>
@@ -29336,22 +29356,22 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="188"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="196"/>
+      <c r="A9" s="164"/>
+      <c r="B9" s="242"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="212"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="172"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="187"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
       <c r="M9" s="71">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N9" s="72" t="s">
         <v>162</v>
@@ -29385,22 +29405,22 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="188"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="207"/>
+      <c r="A10" s="164"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="213"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="173"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="188"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
       <c r="M10" s="71">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N10" s="72" t="s">
         <v>162</v>
@@ -29434,23 +29454,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="188"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="226" t="s">
+      <c r="A11" s="164"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="195" t="s">
+      <c r="D11" s="183"/>
+      <c r="E11" s="211" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="171" t="s">
+      <c r="J11" s="186" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="176">
+      <c r="K11" s="191">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29491,17 +29511,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="188"/>
-      <c r="B12" s="233"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="196"/>
+      <c r="A12" s="164"/>
+      <c r="B12" s="242"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="212"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="172"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29540,17 +29560,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="188"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="197"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="220"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="173"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="188"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29595,12 +29615,12 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="188"/>
-      <c r="B14" s="233"/>
-      <c r="C14" s="226" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="229"/>
+      <c r="D14" s="237"/>
       <c r="E14" s="234" t="s">
         <v>41</v>
       </c>
@@ -29608,17 +29628,17 @@
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="171" t="s">
+      <c r="J14" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="176">
+      <c r="K14" s="191">
         <v>2</v>
       </c>
       <c r="L14" s="57">
         <v>1</v>
       </c>
       <c r="M14" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="72" t="s">
         <v>162</v>
@@ -29652,27 +29672,27 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="188"/>
-      <c r="B15" s="233"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="231"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="235"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="172"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="187"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
       <c r="M15" s="71">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N15" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O15" s="238">
+      <c r="O15" s="231">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29701,17 +29721,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="188"/>
-      <c r="B16" s="233"/>
-      <c r="C16" s="228"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="232"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="236"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="173"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="188"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29721,7 +29741,7 @@
       <c r="N16" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O16" s="239"/>
+      <c r="O16" s="232"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29754,23 +29774,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="188"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="226" t="s">
+      <c r="A17" s="164"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="238" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="173"/>
+      <c r="E17" s="173" t="s">
         <v>196</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="171" t="s">
+      <c r="J17" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="176">
+      <c r="K17" s="191">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29811,17 +29831,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="188"/>
-      <c r="B18" s="233"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="172"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29831,7 +29851,7 @@
       <c r="N18" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="238">
+      <c r="O18" s="231">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29860,17 +29880,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="188"/>
-      <c r="B19" s="233"/>
-      <c r="C19" s="228"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="173"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="188"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29880,7 +29900,7 @@
       <c r="N19" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O19" s="239"/>
+      <c r="O19" s="232"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29907,27 +29927,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="188"/>
-      <c r="B20" s="233"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="242"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="235" t="s">
+      <c r="D20" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="236"/>
-      <c r="F20" s="236"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="236"/>
-      <c r="I20" s="236"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="236"/>
-      <c r="L20" s="236"/>
-      <c r="M20" s="236"/>
-      <c r="N20" s="236"/>
-      <c r="O20" s="236"/>
-      <c r="P20" s="236"/>
-      <c r="Q20" s="237"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="229"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="229"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="229"/>
+      <c r="M20" s="229"/>
+      <c r="N20" s="229"/>
+      <c r="O20" s="229"/>
+      <c r="P20" s="229"/>
+      <c r="Q20" s="230"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29950,27 +29970,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="177" t="s">
+      <c r="A21" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="226" t="s">
+      <c r="C21" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="229"/>
-      <c r="E21" s="230" t="s">
+      <c r="D21" s="237"/>
+      <c r="E21" s="241" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="171" t="s">
+      <c r="J21" s="186" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="176">
+      <c r="K21" s="191">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -30011,17 +30031,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="178"/>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="231"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="239"/>
+      <c r="C22" s="239"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="235"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="172"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30060,17 +30080,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="178"/>
-      <c r="B23" s="227"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="231"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="235"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="172"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="187"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30109,17 +30129,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="228"/>
-      <c r="C24" s="228"/>
-      <c r="D24" s="229"/>
-      <c r="E24" s="232"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="236"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="173"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="188"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -38642,6 +38662,24 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38658,24 +38696,6 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38752,24 +38772,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38793,22 +38813,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38967,12 +38987,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -39025,14 +39045,14 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="164" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="244" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="245"/>
-      <c r="D8" s="203"/>
+      <c r="D8" s="224"/>
       <c r="E8" s="250" t="s">
         <v>43</v>
       </c>
@@ -39040,10 +39060,10 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="171" t="s">
+      <c r="J8" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="171">
+      <c r="K8" s="186">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -39086,17 +39106,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="188"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="246"/>
       <c r="C9" s="247"/>
-      <c r="D9" s="204"/>
+      <c r="D9" s="215"/>
       <c r="E9" s="251"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="208"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -39133,17 +39153,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="188"/>
+      <c r="A10" s="164"/>
       <c r="B10" s="246"/>
       <c r="C10" s="247"/>
-      <c r="D10" s="204"/>
+      <c r="D10" s="215"/>
       <c r="E10" s="251"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="201"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="208"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -39180,17 +39200,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="188"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="246"/>
       <c r="C11" s="247"/>
-      <c r="D11" s="204"/>
+      <c r="D11" s="215"/>
       <c r="E11" s="251"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="201"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="208"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39225,17 +39245,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="188"/>
+      <c r="A12" s="164"/>
       <c r="B12" s="248"/>
       <c r="C12" s="249"/>
-      <c r="D12" s="205"/>
+      <c r="D12" s="216"/>
       <c r="E12" s="252"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="202"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="209"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -39270,7 +39290,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="188"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39333,8 +39353,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="188"/>
-      <c r="B14" s="192" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="217" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39396,8 +39416,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="188"/>
-      <c r="B15" s="193"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39451,7 +39471,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="188"/>
+      <c r="A16" s="164"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39510,7 +39530,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="188"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39569,7 +39589,7 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="188"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="243" t="s">
         <v>78</v>
       </c>
@@ -39624,7 +39644,7 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="188"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="243"/>
       <c r="C19" s="43" t="s">
         <v>96</v>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -2074,6 +2074,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2119,26 +2122,14 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2148,39 +2139,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2218,6 +2176,84 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2225,6 +2261,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2266,59 +2320,32 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2346,30 +2373,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2399,9 +2402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2664,15 +2664,15 @@
       <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
       <c r="I2" s="81"/>
       <c r="U2" s="81"/>
       <c r="V2" s="81"/>
@@ -2680,13 +2680,13 @@
       <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="153"/>
       <c r="I3" s="81"/>
       <c r="U3" s="81"/>
       <c r="V3" s="81"/>
@@ -2738,15 +2738,15 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" customHeight="1">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
       <c r="I7" s="81"/>
       <c r="U7" s="85"/>
       <c r="V7" s="81"/>
@@ -2769,10 +2769,10 @@
       <c r="F8" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="156" t="s">
+      <c r="G8" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="157"/>
+      <c r="H8" s="158"/>
       <c r="U8" s="81"/>
       <c r="V8" s="81"/>
     </row>
@@ -2792,10 +2792,10 @@
       <c r="F9" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="153" t="s">
+      <c r="G9" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="153"/>
+      <c r="H9" s="154"/>
       <c r="U9" s="85"/>
       <c r="V9" s="81"/>
       <c r="W9" s="81"/>
@@ -2809,8 +2809,8 @@
       <c r="D10" s="91"/>
       <c r="E10" s="27"/>
       <c r="F10" s="111"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
       <c r="U10" s="85"/>
       <c r="V10" s="81"/>
       <c r="W10" s="81"/>
@@ -2824,8 +2824,8 @@
       <c r="D11" s="91"/>
       <c r="E11" s="27"/>
       <c r="F11" s="111"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
       <c r="U11" s="85"/>
       <c r="V11" s="81"/>
       <c r="W11" s="81"/>
@@ -2839,8 +2839,8 @@
       <c r="D12" s="91"/>
       <c r="E12" s="27"/>
       <c r="F12" s="111"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
       <c r="U12" s="85"/>
       <c r="V12" s="81"/>
       <c r="W12" s="81"/>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1">
       <c r="B14" s="81"/>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="134"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
@@ -2931,7 +2931,7 @@
       <c r="X15" s="81"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="145" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="103" t="s">
@@ -2964,7 +2964,7 @@
       <c r="X16" s="81"/>
     </row>
     <row r="17" spans="1:24" ht="24">
-      <c r="B17" s="144"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="121" t="s">
         <v>125</v>
       </c>
@@ -2995,7 +2995,7 @@
       <c r="X17" s="81"/>
     </row>
     <row r="18" spans="1:24" ht="36">
-      <c r="B18" s="144"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="101" t="s">
         <v>140</v>
       </c>
@@ -3024,14 +3024,14 @@
       <c r="X18" s="81"/>
     </row>
     <row r="19" spans="1:24" ht="24">
-      <c r="B19" s="144"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="122" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="253" t="s">
+      <c r="E19" s="144" t="s">
         <v>205</v>
       </c>
       <c r="F19" s="31"/>
@@ -3055,7 +3055,7 @@
       <c r="X19" s="81"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B20" s="144"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="100" t="s">
         <v>124</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B21" s="144"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="97" t="s">
         <v>123</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="X21" s="81"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="146" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="113" t="s">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="115"/>
-      <c r="G22" s="154"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="116"/>
       <c r="I22" s="81"/>
       <c r="U22" s="81"/>
@@ -3124,7 +3124,7 @@
       <c r="X22" s="81"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B23" s="144"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="90" t="s">
         <v>121</v>
       </c>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="154"/>
+      <c r="G23" s="155"/>
       <c r="H23" s="95"/>
       <c r="I23" s="81"/>
       <c r="U23" s="81"/>
@@ -3142,7 +3142,7 @@
       <c r="X23" s="81"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B24" s="144"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="94" t="s">
         <v>120</v>
       </c>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="154"/>
+      <c r="G24" s="155"/>
       <c r="H24" s="91"/>
       <c r="I24" s="81"/>
       <c r="U24" s="81"/>
@@ -3160,7 +3160,7 @@
       <c r="X24" s="81"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B25" s="144"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="97" t="s">
         <v>119</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="154"/>
+      <c r="G25" s="155"/>
       <c r="H25" s="91"/>
       <c r="I25" s="81"/>
       <c r="U25" s="81"/>
@@ -3178,7 +3178,7 @@
       <c r="X25" s="81"/>
     </row>
     <row r="26" spans="1:24" ht="24">
-      <c r="B26" s="144"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="123" t="s">
         <v>142</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="154"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="87"/>
       <c r="I26" s="81"/>
       <c r="U26" s="81"/>
@@ -3196,7 +3196,7 @@
       <c r="X26" s="81"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B27" s="144"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="89" t="s">
         <v>59</v>
       </c>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="155"/>
+      <c r="G27" s="156"/>
       <c r="H27" s="86"/>
       <c r="I27" s="81"/>
       <c r="U27" s="81"/>
@@ -9127,23 +9127,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="184" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9167,21 +9167,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9337,12 +9337,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9392,22 +9392,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="164"/>
-      <c r="B8" s="166" t="s">
+      <c r="A8" s="189"/>
+      <c r="B8" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="180" t="s">
+      <c r="D8" s="169"/>
+      <c r="E8" s="166" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="172" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
@@ -9444,16 +9444,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="181"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="167"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="187"/>
+      <c r="J9" s="173"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9486,16 +9486,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="182"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="168"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="188"/>
+      <c r="J10" s="174"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9532,20 +9532,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="166" t="s">
+      <c r="A11" s="178"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="180" t="s">
+      <c r="D11" s="169"/>
+      <c r="E11" s="166" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="186" t="s">
+      <c r="J11" s="172" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
@@ -9580,16 +9580,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="181"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="167"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="187"/>
+      <c r="J12" s="173"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9622,16 +9622,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="182"/>
+      <c r="A13" s="178"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="168"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="188"/>
+      <c r="J13" s="174"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9662,20 +9662,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="166" t="s">
+      <c r="A14" s="178"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="183"/>
-      <c r="E14" s="180" t="s">
+      <c r="D14" s="169"/>
+      <c r="E14" s="166" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="191" t="s">
+      <c r="J14" s="177" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
@@ -9710,16 +9710,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="181"/>
+      <c r="A15" s="178"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="167"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="187"/>
+      <c r="J15" s="173"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9752,16 +9752,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="190"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="176"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="188"/>
+      <c r="J16" s="174"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9798,22 +9798,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="166" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="166" t="s">
+      <c r="C17" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="165" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="178" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="169" t="s">
+      <c r="J17" s="190" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
@@ -9846,16 +9846,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="172"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="179"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="170"/>
+      <c r="J18" s="191"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9886,16 +9886,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="172"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="170"/>
+      <c r="J19" s="191"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9926,16 +9926,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="172"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="179"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="170"/>
+      <c r="J20" s="191"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -9966,16 +9966,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="164"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="172"/>
+      <c r="A21" s="189"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="179"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="170"/>
+      <c r="J21" s="191"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -10006,16 +10006,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="164"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="175"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="180"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="171"/>
+      <c r="J22" s="192"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -10046,20 +10046,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="164"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="166" t="s">
+      <c r="A23" s="189"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="165" t="s">
+      <c r="D23" s="181"/>
+      <c r="E23" s="178" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="169" t="s">
+      <c r="J23" s="190" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
@@ -10092,16 +10092,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="164"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="172"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="179"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="170"/>
+      <c r="J24" s="191"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -10132,16 +10132,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="164"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="172"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="179"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="170"/>
+      <c r="J25" s="191"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -10172,16 +10172,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="164"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="172"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="179"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="170"/>
+      <c r="J26" s="191"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10212,16 +10212,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="164"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="172"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="179"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="170"/>
+      <c r="J27" s="191"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10252,16 +10252,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="164"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="172"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="179"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="170"/>
+      <c r="J28" s="191"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10292,20 +10292,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="164"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="166" t="s">
+      <c r="A29" s="189"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="165" t="s">
+      <c r="D29" s="181"/>
+      <c r="E29" s="178" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="169" t="s">
+      <c r="J29" s="190" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
@@ -10338,16 +10338,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="172"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="179"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="170"/>
+      <c r="J30" s="191"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10378,16 +10378,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="164"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="172"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="179"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="170"/>
+      <c r="J31" s="191"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10418,16 +10418,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="164"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="175"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="180"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="171"/>
+      <c r="J32" s="192"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="160" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10501,7 +10501,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="178"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10541,7 +10541,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="178"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="179"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18779,6 +18779,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18795,21 +18810,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18887,24 +18887,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="184" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18928,22 +18928,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19102,12 +19102,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="221" t="s">
+      <c r="F7" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="223"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="195"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
@@ -19160,27 +19160,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="204" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="224"/>
-      <c r="E8" s="225" t="s">
+      <c r="D8" s="198"/>
+      <c r="E8" s="201" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="186">
+      <c r="K8" s="172">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19221,17 +19221,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="212"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="202"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19270,17 +19270,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="172"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="212"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="202"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="208"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19325,17 +19325,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="172"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="212"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="202"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="208"/>
-      <c r="K11" s="208"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19345,8 +19345,8 @@
       <c r="N11" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O11" s="195"/>
-      <c r="P11" s="196"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="214"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19370,17 +19370,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="172"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="206"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="212"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="202"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="208"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19390,8 +19390,8 @@
       <c r="N12" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="O12" s="197"/>
-      <c r="P12" s="198"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="216"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19415,17 +19415,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="172"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="212"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="202"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19435,8 +19435,8 @@
       <c r="N13" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="O13" s="197"/>
-      <c r="P13" s="198"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="216"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19460,17 +19460,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="172"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="213"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="203"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="209"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19480,8 +19480,8 @@
       <c r="N14" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="199"/>
-      <c r="P14" s="200"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="218"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19505,8 +19505,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="172"/>
-      <c r="B15" s="194"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="206"/>
       <c r="C15" s="141" t="s">
         <v>168</v>
       </c>
@@ -19562,14 +19562,14 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="172"/>
-      <c r="B16" s="192" t="s">
+      <c r="A16" s="179"/>
+      <c r="B16" s="204" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="205" t="s">
+      <c r="C16" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="214"/>
+      <c r="D16" s="207"/>
       <c r="E16" s="211" t="s">
         <v>44</v>
       </c>
@@ -19577,10 +19577,10 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="186" t="s">
+      <c r="J16" s="172" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="191">
+      <c r="K16" s="177">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19621,17 +19621,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="172"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="212"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="202"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="187"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19670,17 +19670,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="172"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="207"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="212"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="202"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="187"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="173"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19719,21 +19719,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="172"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="205" t="s">
+      <c r="A19" s="179"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="215"/>
-      <c r="E19" s="212"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="202"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="186" t="s">
+      <c r="J19" s="172" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="187"/>
+      <c r="K19" s="173"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19772,17 +19772,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="172"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="212"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="205"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="202"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="187"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="173"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19827,13 +19827,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="172"/>
-      <c r="B21" s="193"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="205"/>
       <c r="C21" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="E21" s="212"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="202"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19841,7 +19841,7 @@
       <c r="J21" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="187"/>
+      <c r="K21" s="173"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19880,21 +19880,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="205" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="215"/>
-      <c r="E22" s="212"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="202"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="173"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19933,17 +19933,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="207"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="213"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="203"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="188"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="174"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19982,14 +19982,14 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="172"/>
-      <c r="B24" s="217" t="s">
+      <c r="A24" s="179"/>
+      <c r="B24" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="204" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="183"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="211" t="s">
         <v>44</v>
       </c>
@@ -19997,10 +19997,10 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="186" t="s">
+      <c r="J24" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="186">
+      <c r="K24" s="172">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -20041,17 +20041,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="212"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="202"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="208"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20090,17 +20090,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="172"/>
-      <c r="B26" s="218"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="212"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="202"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="209"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="197"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20139,13 +20139,13 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="175"/>
-      <c r="B27" s="219"/>
+      <c r="A27" s="180"/>
+      <c r="B27" s="210"/>
       <c r="C27" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="185"/>
-      <c r="E27" s="220"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="212"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20194,27 +20194,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="165" t="s">
+      <c r="A28" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="210"/>
-      <c r="E28" s="165" t="s">
+      <c r="D28" s="226"/>
+      <c r="E28" s="178" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="169" t="s">
+      <c r="J28" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="K28" s="186">
+      <c r="K28" s="172">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20226,8 +20226,8 @@
       <c r="N28" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O28" s="201"/>
-      <c r="P28" s="202"/>
+      <c r="O28" s="219"/>
+      <c r="P28" s="220"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20251,19 +20251,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="193"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="205"/>
       <c r="C29" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="172"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="179"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="208"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="196"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20273,8 +20273,8 @@
       <c r="N29" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="O29" s="203"/>
-      <c r="P29" s="204"/>
+      <c r="O29" s="221"/>
+      <c r="P29" s="222"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20298,19 +20298,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="172"/>
-      <c r="B30" s="194"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="206"/>
       <c r="C30" s="138" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="176"/>
-      <c r="E30" s="175"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="180"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="209"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="197"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20320,8 +20320,8 @@
       <c r="N30" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O30" s="203"/>
-      <c r="P30" s="204"/>
+      <c r="O30" s="221"/>
+      <c r="P30" s="222"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20345,7 +20345,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="175"/>
+      <c r="A31" s="180"/>
       <c r="B31" s="127" t="s">
         <v>182</v>
       </c>
@@ -20375,8 +20375,8 @@
       <c r="N31" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="O31" s="203"/>
-      <c r="P31" s="204"/>
+      <c r="O31" s="221"/>
+      <c r="P31" s="222"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28906,25 +28906,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="O11:P14"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28939,6 +28920,25 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="O11:P14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28951,7 +28951,7 @@
   <dimension ref="A1:AK983"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -29016,24 +29016,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="226"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="235"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29057,22 +29057,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="227"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="236"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29231,12 +29231,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -29289,27 +29289,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="189" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="234" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="233"/>
-      <c r="E8" s="225" t="s">
+      <c r="D8" s="242"/>
+      <c r="E8" s="201" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="172" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="191">
+      <c r="K8" s="177">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29356,17 +29356,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="242"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="212"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="202"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="187"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="173"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29405,17 +29405,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="242"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="213"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="203"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="188"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="174"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29454,12 +29454,12 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="242"/>
-      <c r="C11" s="238" t="s">
+      <c r="A11" s="189"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="227" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="183"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="211" t="s">
         <v>41</v>
       </c>
@@ -29467,10 +29467,10 @@
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="186" t="s">
+      <c r="J11" s="172" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="191">
+      <c r="K11" s="177">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29511,17 +29511,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="242"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="212"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="202"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="187"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="173"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29560,17 +29560,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="164"/>
-      <c r="B13" s="242"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="220"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="212"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="188"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="174"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29615,23 +29615,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="242"/>
-      <c r="C14" s="238" t="s">
+      <c r="A14" s="189"/>
+      <c r="B14" s="234"/>
+      <c r="C14" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="237"/>
-      <c r="E14" s="234" t="s">
+      <c r="D14" s="230"/>
+      <c r="E14" s="243" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="186" t="s">
+      <c r="J14" s="172" t="s">
         <v>192</v>
       </c>
-      <c r="K14" s="191">
+      <c r="K14" s="177">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29672,17 +29672,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="242"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="235"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="232"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="187"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="173"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29692,7 +29692,7 @@
       <c r="N15" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O15" s="231">
+      <c r="O15" s="240">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29721,17 +29721,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="164"/>
-      <c r="B16" s="242"/>
-      <c r="C16" s="240"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="236"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="234"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="233"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="188"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="174"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29741,7 +29741,7 @@
       <c r="N16" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O16" s="232"/>
+      <c r="O16" s="241"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29774,23 +29774,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="164"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="238" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="234"/>
+      <c r="C17" s="227" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="181" t="s">
         <v>196</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="172" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="191">
+      <c r="K17" s="177">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29831,17 +29831,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="242"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="234"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="187"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="173"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29851,7 +29851,7 @@
       <c r="N18" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O18" s="231">
+      <c r="O18" s="240">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29880,17 +29880,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="242"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="229"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="188"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="174"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29900,7 +29900,7 @@
       <c r="N19" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O19" s="232"/>
+      <c r="O19" s="241"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29927,27 +29927,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="164"/>
-      <c r="B20" s="242"/>
+      <c r="A20" s="189"/>
+      <c r="B20" s="234"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="228" t="s">
+      <c r="D20" s="237" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="229"/>
-      <c r="F20" s="229"/>
-      <c r="G20" s="229"/>
-      <c r="H20" s="229"/>
-      <c r="I20" s="229"/>
-      <c r="J20" s="229"/>
-      <c r="K20" s="229"/>
-      <c r="L20" s="229"/>
-      <c r="M20" s="229"/>
-      <c r="N20" s="229"/>
-      <c r="O20" s="229"/>
-      <c r="P20" s="229"/>
-      <c r="Q20" s="230"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="238"/>
+      <c r="H20" s="238"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="238"/>
+      <c r="O20" s="238"/>
+      <c r="P20" s="238"/>
+      <c r="Q20" s="239"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29970,27 +29970,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="165" t="s">
+      <c r="A21" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="238" t="s">
+      <c r="B21" s="227" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="238" t="s">
+      <c r="C21" s="227" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="237"/>
-      <c r="E21" s="241" t="s">
+      <c r="D21" s="230"/>
+      <c r="E21" s="231" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="186" t="s">
+      <c r="J21" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="191">
+      <c r="K21" s="177">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -30031,17 +30031,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="239"/>
-      <c r="C22" s="239"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="235"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="232"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="187"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="173"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30080,17 +30080,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="237"/>
-      <c r="E23" s="235"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="228"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="232"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="187"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="173"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30129,17 +30129,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="240"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="236"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="229"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="230"/>
+      <c r="E24" s="233"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="188"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="174"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -38662,24 +38662,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38696,6 +38678,24 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38772,24 +38772,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38813,22 +38813,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38987,12 +38987,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -39045,25 +39045,25 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="244" t="s">
+      <c r="B8" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="245"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="250" t="s">
+      <c r="C8" s="246"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="251" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="186">
+      <c r="K8" s="172">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -39106,17 +39106,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="164"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="251"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="252"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="208"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="196"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -39153,17 +39153,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="164"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="251"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="252"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="208"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="196"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -39200,17 +39200,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="164"/>
-      <c r="B11" s="246"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="251"/>
+      <c r="A11" s="189"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="252"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="208"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="196"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39245,17 +39245,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="164"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="252"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="249"/>
+      <c r="C12" s="250"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="253"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="209"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="197"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -39290,7 +39290,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="164"/>
+      <c r="A13" s="189"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39353,8 +39353,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="164"/>
-      <c r="B14" s="217" t="s">
+      <c r="A14" s="189"/>
+      <c r="B14" s="208" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39416,8 +39416,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="164"/>
-      <c r="B15" s="218"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39471,7 +39471,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="164"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39530,7 +39530,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="164"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39589,8 +39589,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="164"/>
-      <c r="B18" s="243" t="s">
+      <c r="A18" s="189"/>
+      <c r="B18" s="244" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -39644,8 +39644,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="164"/>
-      <c r="B19" s="243"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="244"/>
       <c r="C19" s="43" t="s">
         <v>96</v>
       </c>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="207">
   <si>
     <r>
       <rPr>
@@ -686,10 +686,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2020.04.03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2020.04.05</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -734,10 +730,6 @@
   </si>
   <si>
     <t>우선 순위</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -932,6 +924,19 @@
   </si>
   <si>
     <t>50% 진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>80% 진행중
+진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>90% 진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1651,7 +1656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2122,14 +2127,26 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2139,6 +2156,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2176,50 +2226,65 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2229,12 +2294,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2248,37 +2307,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2298,54 +2327,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2373,6 +2354,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2403,6 +2408,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2623,7 +2631,7 @@
   <dimension ref="A1:X986"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2784,13 +2792,13 @@
         <v>139</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>139</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G9" s="154" t="s">
         <v>138</v>
@@ -2940,8 +2948,8 @@
       <c r="D16" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>146</v>
+      <c r="E16" s="144" t="s">
+        <v>205</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="17"/>
@@ -2971,8 +2979,8 @@
       <c r="D17" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>159</v>
+      <c r="E17" s="254" t="s">
+        <v>204</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="17"/>
@@ -3032,7 +3040,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="144" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="17"/>
@@ -3092,7 +3100,7 @@
         <v>118</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -9127,23 +9135,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9167,21 +9175,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9337,12 +9345,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="188" t="s">
+      <c r="F7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9392,29 +9400,29 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="163" t="s">
+      <c r="A8" s="165"/>
+      <c r="B8" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="166" t="s">
+      <c r="D8" s="184"/>
+      <c r="E8" s="181" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="172" t="s">
+      <c r="J8" s="187" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
         <v>1</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="57">
@@ -9444,16 +9452,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="189"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="167"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="182"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="173"/>
+      <c r="J9" s="188"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9486,16 +9494,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="189"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="168"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="183"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="174"/>
+      <c r="J10" s="189"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9532,20 +9540,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="178"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="163" t="s">
+      <c r="A11" s="166"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="169"/>
-      <c r="E11" s="166" t="s">
+      <c r="D11" s="184"/>
+      <c r="E11" s="181" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="172" t="s">
+      <c r="J11" s="187" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
@@ -9580,16 +9588,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="178"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="167"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="182"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="173"/>
+      <c r="J12" s="188"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9622,16 +9630,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="178"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="168"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="183"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="174"/>
+      <c r="J13" s="189"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9662,20 +9670,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="178"/>
-      <c r="B14" s="164"/>
-      <c r="C14" s="163" t="s">
+      <c r="A14" s="166"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="169"/>
-      <c r="E14" s="166" t="s">
+      <c r="D14" s="184"/>
+      <c r="E14" s="181" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="177" t="s">
+      <c r="J14" s="192" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
@@ -9710,16 +9718,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="178"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="167"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="182"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="173"/>
+      <c r="J15" s="188"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9752,16 +9760,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="178"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="191"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="174"/>
+      <c r="J16" s="189"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9798,22 +9806,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="189"/>
-      <c r="B17" s="163" t="s">
+      <c r="A17" s="165"/>
+      <c r="B17" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="178" t="s">
+      <c r="D17" s="174"/>
+      <c r="E17" s="166" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="190" t="s">
+      <c r="J17" s="170" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
@@ -9846,16 +9854,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="189"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="179"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="173"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="191"/>
+      <c r="J18" s="171"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9886,16 +9894,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="189"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="179"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="173"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="191"/>
+      <c r="J19" s="171"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9926,16 +9934,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="189"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="179"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="173"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="191"/>
+      <c r="J20" s="171"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -9966,16 +9974,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="189"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="179"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="173"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="191"/>
+      <c r="J21" s="171"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -10006,16 +10014,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="189"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="180"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="176"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="192"/>
+      <c r="J22" s="172"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -10046,20 +10054,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="189"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="163" t="s">
+      <c r="A23" s="165"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="181"/>
-      <c r="E23" s="178" t="s">
+      <c r="D23" s="174"/>
+      <c r="E23" s="166" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="190" t="s">
+      <c r="J23" s="170" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
@@ -10092,16 +10100,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="189"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="179"/>
+      <c r="A24" s="165"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="173"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="191"/>
+      <c r="J24" s="171"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -10132,16 +10140,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="189"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="179"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="173"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="191"/>
+      <c r="J25" s="171"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -10172,16 +10180,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="189"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="179"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="173"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="191"/>
+      <c r="J26" s="171"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10212,16 +10220,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="189"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="179"/>
+      <c r="A27" s="165"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="173"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="191"/>
+      <c r="J27" s="171"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10252,16 +10260,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="189"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="179"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="173"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="191"/>
+      <c r="J28" s="171"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10292,20 +10300,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="189"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="163" t="s">
+      <c r="A29" s="165"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="178" t="s">
+      <c r="D29" s="174"/>
+      <c r="E29" s="166" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="190" t="s">
+      <c r="J29" s="170" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
@@ -10338,16 +10346,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="189"/>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="179"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="173"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="191"/>
+      <c r="J30" s="171"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10378,16 +10386,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="189"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="179"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="173"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="191"/>
+      <c r="J31" s="171"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10418,16 +10426,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="189"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="180"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="176"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="192"/>
+      <c r="J32" s="172"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10459,7 +10467,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="160" t="s">
+      <c r="B33" s="178" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10501,7 +10509,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="161"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10541,7 +10549,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="161"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10581,7 +10589,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="162"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18779,21 +18787,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18810,6 +18803,21 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18887,24 +18895,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18928,22 +18936,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19102,17 +19110,17 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="193" t="s">
+      <c r="F7" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="195"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="215"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
       <c r="K7" s="136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L7" s="136" t="s">
         <v>84</v>
@@ -19160,27 +19168,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="178" t="s">
+      <c r="A8" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="204" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="223" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="201" t="s">
+      <c r="B8" s="197" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="200" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="216"/>
+      <c r="E8" s="219" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="172" t="s">
+      <c r="J8" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="172">
+      <c r="K8" s="187">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19190,7 +19198,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -19221,17 +19229,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="179"/>
-      <c r="B9" s="205"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="202"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="207"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="196"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19239,7 +19247,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -19270,17 +19278,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="205"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="202"/>
+      <c r="A10" s="173"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="207"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19288,7 +19296,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -19325,17 +19333,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="205"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="202"/>
+      <c r="A11" s="173"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="207"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19343,10 +19351,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11" s="213"/>
-      <c r="P11" s="214"/>
+        <v>158</v>
+      </c>
+      <c r="O11" s="221"/>
+      <c r="P11" s="222"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19370,17 +19378,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="205"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="202"/>
+      <c r="A12" s="173"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="207"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19388,10 +19396,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="O12" s="215"/>
-      <c r="P12" s="216"/>
+        <v>162</v>
+      </c>
+      <c r="O12" s="223"/>
+      <c r="P12" s="224"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19415,17 +19423,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="179"/>
-      <c r="B13" s="205"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="202"/>
+      <c r="A13" s="173"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="207"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="203"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19433,10 +19441,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="O13" s="215"/>
-      <c r="P13" s="216"/>
+        <v>159</v>
+      </c>
+      <c r="O13" s="223"/>
+      <c r="P13" s="224"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19460,17 +19468,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="205"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="203"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="208"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19478,10 +19486,10 @@
         <v>1</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="O14" s="217"/>
-      <c r="P14" s="218"/>
+        <v>159</v>
+      </c>
+      <c r="O14" s="225"/>
+      <c r="P14" s="226"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19505,10 +19513,10 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="179"/>
-      <c r="B15" s="206"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="141" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="140" t="s">
@@ -19531,7 +19539,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O15" s="57">
         <v>4</v>
@@ -19562,25 +19570,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="179"/>
-      <c r="B16" s="204" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="223" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="207"/>
-      <c r="E16" s="211" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="197" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="200" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="220"/>
+      <c r="E16" s="206" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="172" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" s="177">
+      <c r="J16" s="187" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="192">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19590,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O16" s="57">
         <v>1</v>
@@ -19621,17 +19629,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="179"/>
-      <c r="B17" s="205"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="202"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="207"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="173"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19639,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O17" s="57">
         <v>2</v>
@@ -19670,17 +19678,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="179"/>
-      <c r="B18" s="205"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="202"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="207"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="173"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="188"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19688,7 +19696,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O18" s="57">
         <v>3</v>
@@ -19719,21 +19727,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="179"/>
-      <c r="B19" s="205"/>
-      <c r="C19" s="223" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="199"/>
-      <c r="E19" s="202"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="200" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="217"/>
+      <c r="E19" s="207"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="172" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="173"/>
+      <c r="J19" s="187" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="188"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19741,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O19" s="57">
         <v>4</v>
@@ -19772,17 +19780,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="179"/>
-      <c r="B20" s="205"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="202"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="207"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="173"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="188"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19790,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O20" s="57">
         <v>5</v>
@@ -19827,21 +19835,21 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="179"/>
-      <c r="B21" s="205"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="199"/>
-      <c r="E21" s="202"/>
+        <v>170</v>
+      </c>
+      <c r="D21" s="217"/>
+      <c r="E21" s="207"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="16"/>
       <c r="J21" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="173"/>
+        <v>174</v>
+      </c>
+      <c r="K21" s="188"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19849,7 +19857,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O21" s="57">
         <v>6</v>
@@ -19880,21 +19888,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="205"/>
-      <c r="C22" s="223" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="199"/>
-      <c r="E22" s="202"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="200" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="217"/>
+      <c r="E22" s="207"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="173"/>
+      <c r="J22" s="187" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" s="188"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19902,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O22" s="57">
         <v>7</v>
@@ -19933,17 +19941,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="179"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="203"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="208"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="174"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="189"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19951,7 +19959,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O23" s="57">
         <v>8</v>
@@ -19982,25 +19990,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="208" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="204" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="211" t="s">
+      <c r="A24" s="173"/>
+      <c r="B24" s="209" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="197" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="184"/>
+      <c r="E24" s="206" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="172" t="s">
+      <c r="J24" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="172">
+      <c r="K24" s="187">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -20010,7 +20018,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O24" s="57">
         <v>1</v>
@@ -20041,17 +20049,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="179"/>
-      <c r="B25" s="209"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="202"/>
+      <c r="A25" s="173"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="207"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="196"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="203"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20059,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O25" s="57">
         <v>2</v>
@@ -20090,17 +20098,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="209"/>
-      <c r="C26" s="206"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="202"/>
+      <c r="A26" s="173"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="207"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="197"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20108,7 +20116,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O26" s="57">
         <v>3</v>
@@ -20139,19 +20147,19 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="180"/>
-      <c r="B27" s="210"/>
+      <c r="A27" s="176"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="143" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="171"/>
+        <v>200</v>
+      </c>
+      <c r="D27" s="186"/>
       <c r="E27" s="212"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="16"/>
       <c r="J27" s="139" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K27" s="135">
         <v>2</v>
@@ -20163,7 +20171,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O27" s="57">
         <v>4</v>
@@ -20194,27 +20202,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="204" t="s">
+      <c r="B28" s="197" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="226"/>
-      <c r="E28" s="178" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="205"/>
+      <c r="E28" s="166" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="190" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="172">
+      <c r="J28" s="170" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="187">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20224,10 +20232,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="O28" s="219"/>
-      <c r="P28" s="220"/>
+        <v>162</v>
+      </c>
+      <c r="O28" s="193"/>
+      <c r="P28" s="194"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20251,19 +20259,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="179"/>
-      <c r="B29" s="205"/>
+      <c r="A29" s="173"/>
+      <c r="B29" s="198"/>
       <c r="C29" s="127" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="179"/>
+        <v>178</v>
+      </c>
+      <c r="D29" s="175"/>
+      <c r="E29" s="173"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="196"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="203"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20271,10 +20279,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="O29" s="221"/>
-      <c r="P29" s="222"/>
+        <v>159</v>
+      </c>
+      <c r="O29" s="195"/>
+      <c r="P29" s="196"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20298,19 +20306,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="179"/>
-      <c r="B30" s="206"/>
+      <c r="A30" s="173"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="138" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="180"/>
+        <v>179</v>
+      </c>
+      <c r="D30" s="177"/>
+      <c r="E30" s="176"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="197"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="204"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20318,10 +20326,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="O30" s="221"/>
-      <c r="P30" s="222"/>
+        <v>162</v>
+      </c>
+      <c r="O30" s="195"/>
+      <c r="P30" s="196"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20345,23 +20353,23 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="180"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="127" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C31" s="127" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D31" s="142"/>
       <c r="E31" s="137" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="45"/>
       <c r="J31" s="55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K31" s="55">
         <v>5</v>
@@ -20373,10 +20381,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="O31" s="221"/>
-      <c r="P31" s="222"/>
+        <v>162</v>
+      </c>
+      <c r="O31" s="195"/>
+      <c r="P31" s="196"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28906,6 +28914,25 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="O11:P14"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28920,25 +28947,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="O11:P14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28950,7 +28958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -29016,24 +29024,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="235"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="227"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29057,22 +29065,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="236"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="228"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29231,17 +29239,17 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="188" t="s">
+      <c r="F7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
       <c r="K7" s="131" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>84</v>
@@ -29259,7 +29267,7 @@
         <v>85</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R7" s="23" t="s">
         <v>8</v>
@@ -29289,27 +29297,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="189" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="234" t="s">
+      <c r="A8" s="165" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="243" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="242"/>
-      <c r="E8" s="201" t="s">
+      <c r="D8" s="234"/>
+      <c r="E8" s="219" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="172" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="177">
+      <c r="J8" s="187" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="192">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29319,7 +29327,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -29356,17 +29364,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="189"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="202"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="207"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="173"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="188"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29374,7 +29382,7 @@
         <v>0.9</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -29405,17 +29413,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="189"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="203"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="208"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="174"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="189"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29423,7 +29431,7 @@
         <v>0.9</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -29454,23 +29462,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="189"/>
-      <c r="B11" s="234"/>
-      <c r="C11" s="227" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="239" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="169"/>
-      <c r="E11" s="211" t="s">
+      <c r="D11" s="184"/>
+      <c r="E11" s="206" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="172" t="s">
-        <v>193</v>
-      </c>
-      <c r="K11" s="177">
+      <c r="J11" s="187" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="192">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29480,7 +29488,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O11" s="57">
         <v>1</v>
@@ -29511,17 +29519,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="189"/>
-      <c r="B12" s="234"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="202"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="207"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="173"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="188"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29529,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O12" s="57">
         <v>2</v>
@@ -29560,17 +29568,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="189"/>
-      <c r="B13" s="234"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="175"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="243"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="190"/>
       <c r="E13" s="212"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="174"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="189"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29578,7 +29586,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O13" s="57">
         <v>3</v>
@@ -29615,23 +29623,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="189"/>
-      <c r="B14" s="234"/>
-      <c r="C14" s="227" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="239" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="230"/>
-      <c r="E14" s="243" t="s">
+      <c r="D14" s="238"/>
+      <c r="E14" s="235" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="172" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="177">
+      <c r="J14" s="187" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="192">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29641,7 +29649,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O14" s="57">
         <v>1</v>
@@ -29672,17 +29680,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="189"/>
-      <c r="B15" s="234"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="232"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="243"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="236"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="173"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="188"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29690,9 +29698,9 @@
         <v>0.8</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15" s="240">
+        <v>160</v>
+      </c>
+      <c r="O15" s="232">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29721,17 +29729,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="189"/>
-      <c r="B16" s="234"/>
-      <c r="C16" s="229"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="233"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="243"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="237"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="174"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="189"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29739,9 +29747,9 @@
         <v>0</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O16" s="241"/>
+        <v>160</v>
+      </c>
+      <c r="O16" s="233"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29774,23 +29782,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="189"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="227" t="s">
+      <c r="A17" s="165"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="239" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181" t="s">
-        <v>196</v>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174" t="s">
+        <v>194</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="172" t="s">
-        <v>192</v>
-      </c>
-      <c r="K17" s="177">
+      <c r="J17" s="187" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="192">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29800,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O17" s="57">
         <v>1</v>
@@ -29831,17 +29839,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="189"/>
-      <c r="B18" s="234"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="243"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="173"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="188"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29849,9 +29857,9 @@
         <v>0</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O18" s="240">
+        <v>160</v>
+      </c>
+      <c r="O18" s="232">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29880,17 +29888,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="189"/>
-      <c r="B19" s="234"/>
-      <c r="C19" s="229"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
+      <c r="A19" s="165"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="174"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="189"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29898,9 +29906,9 @@
         <v>0</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O19" s="241"/>
+        <v>160</v>
+      </c>
+      <c r="O19" s="233"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29927,27 +29935,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="189"/>
-      <c r="B20" s="234"/>
+      <c r="A20" s="165"/>
+      <c r="B20" s="243"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="237" t="s">
+      <c r="D20" s="229" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="238"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="238"/>
-      <c r="O20" s="238"/>
-      <c r="P20" s="238"/>
-      <c r="Q20" s="239"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="230"/>
+      <c r="M20" s="230"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="230"/>
+      <c r="P20" s="230"/>
+      <c r="Q20" s="231"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29970,27 +29978,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="227" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="227" t="s">
+      <c r="B21" s="239" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="239" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="230"/>
-      <c r="E21" s="231" t="s">
+      <c r="D21" s="238"/>
+      <c r="E21" s="242" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="172" t="s">
-        <v>194</v>
-      </c>
-      <c r="K21" s="177">
+      <c r="J21" s="187" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="192">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -30000,7 +30008,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O21" s="57">
         <v>1</v>
@@ -30031,17 +30039,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="228"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="232"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="240"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="236"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="173"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="188"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30049,7 +30057,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O22" s="57">
         <v>2</v>
@@ -30080,17 +30088,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="179"/>
-      <c r="B23" s="228"/>
-      <c r="C23" s="228"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="232"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="240"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="238"/>
+      <c r="E23" s="236"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="173"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="188"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30098,7 +30106,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O23" s="57">
         <v>3</v>
@@ -30129,17 +30137,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="180"/>
-      <c r="B24" s="229"/>
-      <c r="C24" s="229"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="233"/>
+      <c r="A24" s="176"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="237"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="174"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="189"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -30147,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O24" s="57">
         <v>4</v>
@@ -38662,6 +38670,24 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38678,24 +38704,6 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38707,8 +38715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK978"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -38772,24 +38780,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38813,22 +38821,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38987,12 +38995,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="188" t="s">
+      <c r="F7" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -39045,14 +39053,14 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="165" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="245" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="246"/>
-      <c r="D8" s="198"/>
+      <c r="D8" s="216"/>
       <c r="E8" s="251" t="s">
         <v>43</v>
       </c>
@@ -39060,10 +39068,10 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="172" t="s">
+      <c r="J8" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="172">
+      <c r="K8" s="187">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -39106,25 +39114,25 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="189"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="247"/>
       <c r="C9" s="248"/>
-      <c r="D9" s="199"/>
+      <c r="D9" s="217"/>
       <c r="E9" s="252"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="196"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="203"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N9" s="129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -39153,25 +39161,25 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="189"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="247"/>
       <c r="C10" s="248"/>
-      <c r="D10" s="199"/>
+      <c r="D10" s="217"/>
       <c r="E10" s="252"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="196"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="203"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
       <c r="M10" s="71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N10" s="129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -39200,17 +39208,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="189"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="247"/>
       <c r="C11" s="248"/>
-      <c r="D11" s="199"/>
+      <c r="D11" s="217"/>
       <c r="E11" s="252"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="196"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="203"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39245,25 +39253,25 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="189"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="249"/>
       <c r="C12" s="250"/>
-      <c r="D12" s="200"/>
+      <c r="D12" s="218"/>
       <c r="E12" s="253"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="197"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="204"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
       <c r="M12" s="71" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="N12" s="129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O12" s="57"/>
       <c r="P12" s="17"/>
@@ -39290,7 +39298,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="189"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39318,7 +39326,7 @@
         <v>146</v>
       </c>
       <c r="N13" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O13" s="57">
         <v>1</v>
@@ -39353,8 +39361,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="189"/>
-      <c r="B14" s="208" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="209" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39378,10 +39386,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N14" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O14" s="57">
         <v>1</v>
@@ -39416,8 +39424,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="189"/>
-      <c r="B15" s="209"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39439,10 +39447,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N15" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O15" s="57">
         <v>1</v>
@@ -39471,7 +39479,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="189"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39496,10 +39504,10 @@
         <v>1</v>
       </c>
       <c r="M16" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N16" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O16" s="57"/>
       <c r="P16" s="17"/>
@@ -39530,7 +39538,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="189"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39555,10 +39563,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N17" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O17" s="57"/>
       <c r="P17" s="17"/>
@@ -39589,7 +39597,7 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="189"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="244" t="s">
         <v>78</v>
       </c>
@@ -39614,10 +39622,10 @@
         <v>1</v>
       </c>
       <c r="M18" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N18" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="64"/>
@@ -39644,7 +39652,7 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="189"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="244"/>
       <c r="C19" s="43" t="s">
         <v>96</v>
@@ -39667,10 +39675,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N19" s="129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="64"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="4"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="211">
   <si>
     <r>
       <rPr>
@@ -851,10 +846,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나 확인
 및
 세미나 예약</t>
@@ -895,14 +886,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>구현중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나존 예약 및 세미나 등록</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -933,6 +916,34 @@
   </si>
   <si>
     <t>90% 진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 예정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30% 진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 사항 발생시 즉시 공유 합시다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1656,7 +1667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2082,6 +2093,12 @@
     <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,26 +2144,14 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,39 +2161,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2226,65 +2198,50 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2294,6 +2251,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2305,6 +2268,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2326,6 +2304,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2354,30 +2395,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2409,8 +2426,17 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2630,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2672,15 +2698,15 @@
       <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="150"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="81"/>
       <c r="U2" s="81"/>
       <c r="V2" s="81"/>
@@ -2688,13 +2714,13 @@
       <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="81"/>
       <c r="U3" s="81"/>
       <c r="V3" s="81"/>
@@ -2746,15 +2772,15 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" customHeight="1">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
       <c r="I7" s="81"/>
       <c r="U7" s="85"/>
       <c r="V7" s="81"/>
@@ -2777,10 +2803,10 @@
       <c r="F8" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="157" t="s">
+      <c r="G8" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="158"/>
+      <c r="H8" s="160"/>
       <c r="U8" s="81"/>
       <c r="V8" s="81"/>
     </row>
@@ -2792,18 +2818,18 @@
         <v>139</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>139</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="154"/>
+      <c r="H9" s="156"/>
       <c r="U9" s="85"/>
       <c r="V9" s="81"/>
       <c r="W9" s="81"/>
@@ -2814,11 +2840,17 @@
         <v>131</v>
       </c>
       <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
+      <c r="D10" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="145" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
       <c r="U10" s="85"/>
       <c r="V10" s="81"/>
       <c r="W10" s="81"/>
@@ -2828,12 +2860,16 @@
       <c r="B11" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
+      <c r="C11" s="257" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="258"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="156" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="156"/>
       <c r="U11" s="85"/>
       <c r="V11" s="81"/>
       <c r="W11" s="81"/>
@@ -2843,12 +2879,20 @@
       <c r="B12" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
+      <c r="C12" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
       <c r="U12" s="85"/>
       <c r="V12" s="81"/>
       <c r="W12" s="81"/>
@@ -2874,13 +2918,13 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1">
       <c r="B14" s="81"/>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="161" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
       <c r="H14" s="134"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
@@ -2939,7 +2983,7 @@
       <c r="X15" s="81"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="103" t="s">
@@ -2949,7 +2993,7 @@
         <v>116</v>
       </c>
       <c r="E16" s="144" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="17"/>
@@ -2972,15 +3016,15 @@
       <c r="X16" s="81"/>
     </row>
     <row r="17" spans="1:24" ht="24">
-      <c r="B17" s="145"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="121" t="s">
         <v>125</v>
       </c>
       <c r="D17" s="125" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="254" t="s">
-        <v>204</v>
+      <c r="E17" s="146" t="s">
+        <v>201</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="17"/>
@@ -3003,7 +3047,7 @@
       <c r="X17" s="81"/>
     </row>
     <row r="18" spans="1:24" ht="36">
-      <c r="B18" s="145"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="101" t="s">
         <v>140</v>
       </c>
@@ -3032,7 +3076,7 @@
       <c r="X18" s="81"/>
     </row>
     <row r="19" spans="1:24" ht="24">
-      <c r="B19" s="145"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="122" t="s">
         <v>141</v>
       </c>
@@ -3040,7 +3084,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="144" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="17"/>
@@ -3063,7 +3107,7 @@
       <c r="X19" s="81"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B20" s="145"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="100" t="s">
         <v>124</v>
       </c>
@@ -3092,15 +3136,15 @@
       <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B21" s="145"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="97" t="s">
         <v>123</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>197</v>
+      <c r="E21" s="144" t="s">
+        <v>205</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -3112,7 +3156,7 @@
       <c r="X21" s="81"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="148" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="113" t="s">
@@ -3123,7 +3167,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="115"/>
-      <c r="G22" s="155"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="116"/>
       <c r="I22" s="81"/>
       <c r="U22" s="81"/>
@@ -3132,7 +3176,7 @@
       <c r="X22" s="81"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B23" s="145"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="90" t="s">
         <v>121</v>
       </c>
@@ -3141,7 +3185,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="155"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="95"/>
       <c r="I23" s="81"/>
       <c r="U23" s="81"/>
@@ -3150,7 +3194,7 @@
       <c r="X23" s="81"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B24" s="145"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="94" t="s">
         <v>120</v>
       </c>
@@ -3159,7 +3203,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="155"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="91"/>
       <c r="I24" s="81"/>
       <c r="U24" s="81"/>
@@ -3168,7 +3212,7 @@
       <c r="X24" s="81"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B25" s="145"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="97" t="s">
         <v>119</v>
       </c>
@@ -3177,7 +3221,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="155"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="91"/>
       <c r="I25" s="81"/>
       <c r="U25" s="81"/>
@@ -3186,7 +3230,7 @@
       <c r="X25" s="81"/>
     </row>
     <row r="26" spans="1:24" ht="24">
-      <c r="B26" s="145"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="123" t="s">
         <v>142</v>
       </c>
@@ -3195,7 +3239,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="155"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="87"/>
       <c r="I26" s="81"/>
       <c r="U26" s="81"/>
@@ -3204,7 +3248,7 @@
       <c r="X26" s="81"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B27" s="145"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="89" t="s">
         <v>59</v>
       </c>
@@ -3213,7 +3257,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="156"/>
+      <c r="G27" s="158"/>
       <c r="H27" s="86"/>
       <c r="I27" s="81"/>
       <c r="U27" s="81"/>
@@ -9048,7 +9092,7 @@
     <row r="986" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="B15:H24"/>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B7:H7"/>
@@ -9060,6 +9104,7 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9072,7 +9117,7 @@
   <dimension ref="A1:AJ991"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -9135,23 +9180,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9175,21 +9220,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9345,12 +9390,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9400,29 +9445,29 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="165"/>
-      <c r="B8" s="167" t="s">
+      <c r="A8" s="191"/>
+      <c r="B8" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="184"/>
-      <c r="E8" s="181" t="s">
+      <c r="D8" s="171"/>
+      <c r="E8" s="168" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="187" t="s">
+      <c r="J8" s="174" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
         <v>1</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>196</v>
+      <c r="L8" s="71">
+        <v>0.8</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="57">
@@ -9452,20 +9497,22 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="182"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="169"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="188"/>
+      <c r="J9" s="175"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="71">
+        <v>0.3</v>
+      </c>
       <c r="M9" s="24"/>
       <c r="N9" s="57">
         <v>2</v>
@@ -9494,20 +9541,22 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="165"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="183"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="170"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="189"/>
+      <c r="J10" s="176"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="71" t="s">
+        <v>204</v>
+      </c>
       <c r="M10" s="31"/>
       <c r="N10" s="57"/>
       <c r="O10" s="17"/>
@@ -9540,26 +9589,26 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="166"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="167" t="s">
+      <c r="A11" s="180"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="181" t="s">
+      <c r="D11" s="171"/>
+      <c r="E11" s="168" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="187" t="s">
+      <c r="J11" s="174" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
         <v>1</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="31"/>
       <c r="N11" s="57">
         <v>1</v>
@@ -9588,20 +9637,20 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="166"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="182"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="169"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="188"/>
+      <c r="J12" s="175"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="31"/>
       <c r="N12" s="57">
         <v>2</v>
@@ -9630,20 +9679,20 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="166"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="183"/>
+      <c r="A13" s="180"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="170"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="189"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="31"/>
       <c r="N13" s="57"/>
       <c r="O13" s="17"/>
@@ -9670,26 +9719,26 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="166"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="167" t="s">
+      <c r="A14" s="180"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="184"/>
-      <c r="E14" s="181" t="s">
+      <c r="D14" s="171"/>
+      <c r="E14" s="168" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="192" t="s">
+      <c r="J14" s="179" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
         <v>1</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="31"/>
       <c r="N14" s="57">
         <v>1</v>
@@ -9718,20 +9767,20 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="166"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="182"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="169"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="188"/>
+      <c r="J15" s="175"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="31"/>
       <c r="N15" s="57">
         <v>2</v>
@@ -9760,20 +9809,20 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="166"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="191"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="178"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="189"/>
+      <c r="J16" s="176"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="31"/>
       <c r="N16" s="57"/>
       <c r="O16" s="17"/>
@@ -9806,28 +9855,28 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="167" t="s">
+      <c r="A17" s="191"/>
+      <c r="B17" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="166" t="s">
+      <c r="D17" s="183"/>
+      <c r="E17" s="180" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="170" t="s">
+      <c r="J17" s="192" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
         <v>1</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="71"/>
       <c r="M17" s="31"/>
       <c r="N17" s="57"/>
       <c r="O17" s="17"/>
@@ -9854,20 +9903,20 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="165"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="173"/>
+      <c r="A18" s="191"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="181"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="171"/>
+      <c r="J18" s="193"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="71"/>
       <c r="M18" s="31"/>
       <c r="N18" s="57"/>
       <c r="O18" s="17"/>
@@ -9894,20 +9943,20 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="173"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="181"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="171"/>
+      <c r="J19" s="193"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="71"/>
       <c r="M19" s="31"/>
       <c r="N19" s="57"/>
       <c r="O19" s="17"/>
@@ -9934,20 +9983,20 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="165"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="173"/>
+      <c r="A20" s="191"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="181"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="171"/>
+      <c r="J20" s="193"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="71"/>
       <c r="M20" s="31"/>
       <c r="N20" s="57"/>
       <c r="O20" s="17"/>
@@ -9974,20 +10023,20 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="165"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="173"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="181"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="171"/>
+      <c r="J21" s="193"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="71"/>
       <c r="M21" s="31"/>
       <c r="N21" s="57"/>
       <c r="O21" s="17"/>
@@ -10014,20 +10063,20 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="165"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="176"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="182"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="172"/>
+      <c r="J22" s="194"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
-      <c r="L22" s="27"/>
+      <c r="L22" s="256"/>
       <c r="M22" s="27"/>
       <c r="N22" s="58"/>
       <c r="O22" s="27"/>
@@ -10054,26 +10103,26 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="167" t="s">
+      <c r="A23" s="191"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="174"/>
-      <c r="E23" s="166" t="s">
+      <c r="D23" s="183"/>
+      <c r="E23" s="180" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="170" t="s">
+      <c r="J23" s="192" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
         <v>1</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="256"/>
       <c r="M23" s="27"/>
       <c r="N23" s="58"/>
       <c r="O23" s="27"/>
@@ -10100,20 +10149,20 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="165"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="173"/>
+      <c r="A24" s="191"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="181"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="171"/>
+      <c r="J24" s="193"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
-      <c r="L24" s="27"/>
+      <c r="L24" s="256"/>
       <c r="M24" s="27"/>
       <c r="N24" s="58"/>
       <c r="O24" s="27"/>
@@ -10140,20 +10189,20 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="165"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="173"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="181"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="171"/>
+      <c r="J25" s="193"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
-      <c r="L25" s="27"/>
+      <c r="L25" s="256"/>
       <c r="M25" s="27"/>
       <c r="N25" s="58"/>
       <c r="O25" s="27"/>
@@ -10180,20 +10229,20 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="165"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="173"/>
+      <c r="A26" s="191"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="181"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="171"/>
+      <c r="J26" s="193"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
-      <c r="L26" s="27"/>
+      <c r="L26" s="256"/>
       <c r="M26" s="27"/>
       <c r="N26" s="58"/>
       <c r="O26" s="27"/>
@@ -10220,20 +10269,20 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="165"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="173"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="181"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="171"/>
+      <c r="J27" s="193"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
-      <c r="L27" s="27"/>
+      <c r="L27" s="256"/>
       <c r="M27" s="27"/>
       <c r="N27" s="58"/>
       <c r="O27" s="27"/>
@@ -10260,20 +10309,20 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="165"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="173"/>
+      <c r="A28" s="191"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="181"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="171"/>
+      <c r="J28" s="193"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
-      <c r="L28" s="27"/>
+      <c r="L28" s="256"/>
       <c r="M28" s="27"/>
       <c r="N28" s="58"/>
       <c r="O28" s="27"/>
@@ -10300,26 +10349,26 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="165"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="167" t="s">
+      <c r="A29" s="191"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="166" t="s">
+      <c r="D29" s="183"/>
+      <c r="E29" s="180" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="170" t="s">
+      <c r="J29" s="192" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
         <v>1</v>
       </c>
-      <c r="L29" s="27"/>
+      <c r="L29" s="256"/>
       <c r="M29" s="27"/>
       <c r="N29" s="58"/>
       <c r="O29" s="27"/>
@@ -10346,20 +10395,20 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="165"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="173"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="181"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="171"/>
+      <c r="J30" s="193"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
-      <c r="L30" s="27"/>
+      <c r="L30" s="256"/>
       <c r="M30" s="27"/>
       <c r="N30" s="58"/>
       <c r="O30" s="27"/>
@@ -10386,20 +10435,20 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="165"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="173"/>
+      <c r="A31" s="191"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="181"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="171"/>
+      <c r="J31" s="193"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
-      <c r="L31" s="27"/>
+      <c r="L31" s="256"/>
       <c r="M31" s="27"/>
       <c r="N31" s="58"/>
       <c r="O31" s="27"/>
@@ -10426,20 +10475,20 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="165"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="176"/>
+      <c r="A32" s="191"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="182"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="172"/>
+      <c r="J32" s="194"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
-      <c r="L32" s="27"/>
+      <c r="L32" s="256"/>
       <c r="M32" s="27"/>
       <c r="N32" s="58"/>
       <c r="O32" s="27"/>
@@ -10467,7 +10516,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="162" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10509,7 +10558,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="179"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10549,7 +10598,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="179"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10589,7 +10638,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="180"/>
+      <c r="B36" s="164"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18787,6 +18836,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18803,21 +18867,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18895,24 +18944,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18936,22 +18985,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19110,12 +19159,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="213" t="s">
+      <c r="F7" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="215"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
@@ -19168,27 +19217,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="200" t="s">
+      <c r="C8" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="216"/>
-      <c r="E8" s="219" t="s">
+      <c r="D8" s="200"/>
+      <c r="E8" s="203" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="187" t="s">
+      <c r="J8" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="187">
+      <c r="K8" s="174">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19229,17 +19278,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="173"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="207"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="204"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19278,17 +19327,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="173"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="207"/>
+      <c r="A10" s="181"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="204"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19333,17 +19382,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="173"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="207"/>
+      <c r="A11" s="181"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="204"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19353,8 +19402,8 @@
       <c r="N11" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="221"/>
-      <c r="P11" s="222"/>
+      <c r="O11" s="210"/>
+      <c r="P11" s="211"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19378,17 +19427,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="173"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="207"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="204"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="203"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19398,8 +19447,8 @@
       <c r="N12" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O12" s="223"/>
-      <c r="P12" s="224"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="213"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19423,17 +19472,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="173"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="207"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="204"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19443,8 +19492,8 @@
       <c r="N13" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="O13" s="223"/>
-      <c r="P13" s="224"/>
+      <c r="O13" s="212"/>
+      <c r="P13" s="213"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19468,17 +19517,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="173"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="208"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="205"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="199"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19488,8 +19537,8 @@
       <c r="N14" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="O14" s="225"/>
-      <c r="P14" s="226"/>
+      <c r="O14" s="214"/>
+      <c r="P14" s="215"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19513,8 +19562,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="173"/>
-      <c r="B15" s="199"/>
+      <c r="A15" s="181"/>
+      <c r="B15" s="208"/>
       <c r="C15" s="141" t="s">
         <v>166</v>
       </c>
@@ -19570,25 +19619,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="173"/>
-      <c r="B16" s="197" t="s">
+      <c r="A16" s="181"/>
+      <c r="B16" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="200" t="s">
+      <c r="C16" s="225" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="220"/>
-      <c r="E16" s="206" t="s">
+      <c r="D16" s="209"/>
+      <c r="E16" s="219" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="187" t="s">
+      <c r="J16" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="192">
+      <c r="K16" s="179">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19629,17 +19678,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="173"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="207"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="204"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="188"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="175"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19678,17 +19727,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="173"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="207"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="204"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="188"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="175"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19727,21 +19776,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="173"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="200" t="s">
+      <c r="A19" s="181"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="225" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="217"/>
-      <c r="E19" s="207"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="204"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="187" t="s">
+      <c r="J19" s="174" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="188"/>
+      <c r="K19" s="175"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19780,17 +19829,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="173"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="207"/>
+      <c r="A20" s="181"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="204"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="188"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="175"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19835,13 +19884,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="173"/>
-      <c r="B21" s="198"/>
+      <c r="A21" s="181"/>
+      <c r="B21" s="207"/>
       <c r="C21" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="217"/>
-      <c r="E21" s="207"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="204"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19849,7 +19898,7 @@
       <c r="J21" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K21" s="188"/>
+      <c r="K21" s="175"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19888,21 +19937,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="173"/>
-      <c r="B22" s="198"/>
-      <c r="C22" s="200" t="s">
+      <c r="A22" s="181"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="217"/>
-      <c r="E22" s="207"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="204"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="K22" s="188"/>
+      <c r="K22" s="175"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19941,17 +19990,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="173"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="208"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="205"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="189"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="176"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19990,25 +20039,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="173"/>
-      <c r="B24" s="209" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="197" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="206" t="s">
+      <c r="A24" s="181"/>
+      <c r="B24" s="216" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="206" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="171"/>
+      <c r="E24" s="219" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="187" t="s">
+      <c r="J24" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="187">
+      <c r="K24" s="174">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -20049,17 +20098,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="173"/>
-      <c r="B25" s="210"/>
-      <c r="C25" s="198"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="207"/>
+      <c r="A25" s="181"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="204"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="203"/>
-      <c r="K25" s="203"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20098,17 +20147,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="173"/>
-      <c r="B26" s="210"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="207"/>
+      <c r="A26" s="181"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="204"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="204"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="199"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20147,13 +20196,13 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="211"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="218"/>
       <c r="C27" s="143" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="186"/>
-      <c r="E27" s="212"/>
+        <v>197</v>
+      </c>
+      <c r="D27" s="173"/>
+      <c r="E27" s="220"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20202,27 +20251,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="197" t="s">
+      <c r="B28" s="206" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="205"/>
-      <c r="E28" s="166" t="s">
+      <c r="D28" s="228"/>
+      <c r="E28" s="180" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="170" t="s">
+      <c r="J28" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="187">
+      <c r="K28" s="174">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20234,8 +20283,8 @@
       <c r="N28" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O28" s="193"/>
-      <c r="P28" s="194"/>
+      <c r="O28" s="221"/>
+      <c r="P28" s="222"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20259,19 +20308,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="173"/>
-      <c r="B29" s="198"/>
+      <c r="A29" s="181"/>
+      <c r="B29" s="207"/>
       <c r="C29" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="E29" s="173"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="181"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="203"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="198"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20281,8 +20330,8 @@
       <c r="N29" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="O29" s="195"/>
-      <c r="P29" s="196"/>
+      <c r="O29" s="223"/>
+      <c r="P29" s="224"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20306,19 +20355,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="173"/>
-      <c r="B30" s="199"/>
+      <c r="A30" s="181"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="138" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="176"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="182"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="204"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="199"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20328,8 +20377,8 @@
       <c r="N30" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O30" s="195"/>
-      <c r="P30" s="196"/>
+      <c r="O30" s="223"/>
+      <c r="P30" s="224"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20353,7 +20402,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="176"/>
+      <c r="A31" s="182"/>
       <c r="B31" s="127" t="s">
         <v>180</v>
       </c>
@@ -20383,8 +20432,8 @@
       <c r="N31" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O31" s="195"/>
-      <c r="P31" s="196"/>
+      <c r="O31" s="223"/>
+      <c r="P31" s="224"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28914,6 +28963,25 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="O28:P31"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A27"/>
@@ -28928,25 +28996,6 @@
     <mergeCell ref="K16:K23"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="O11:P14"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="O28:P31"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="E16:E23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29024,24 +29073,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="227"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="237"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29065,22 +29114,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="228"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="238"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29239,12 +29288,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -29297,27 +29346,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="165" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="243" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="167" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="219" t="s">
+      <c r="A8" s="191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="232" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="244"/>
+      <c r="E8" s="203" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="187" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="192">
+      <c r="J8" s="174" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="179">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29364,17 +29413,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="243"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="207"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="204"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="188"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="175"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29413,17 +29462,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="165"/>
-      <c r="B10" s="243"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="208"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="205"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="189"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="176"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29462,23 +29511,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="243"/>
-      <c r="C11" s="239" t="s">
+      <c r="A11" s="191"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="229" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="206" t="s">
+      <c r="D11" s="171"/>
+      <c r="E11" s="219" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="187" t="s">
-        <v>191</v>
-      </c>
-      <c r="K11" s="192">
+      <c r="J11" s="174" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="179">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29519,17 +29568,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="243"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="207"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="204"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="188"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="175"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29568,17 +29617,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="243"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="212"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="220"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="189"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29623,23 +29672,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="243"/>
-      <c r="C14" s="239" t="s">
+      <c r="A14" s="191"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="238"/>
-      <c r="E14" s="235" t="s">
+      <c r="D14" s="233"/>
+      <c r="E14" s="245" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="187" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="192">
+      <c r="J14" s="174" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="179">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29680,17 +29729,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="243"/>
-      <c r="C15" s="240"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="236"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="235"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="188"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="175"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29700,7 +29749,7 @@
       <c r="N15" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O15" s="232">
+      <c r="O15" s="242">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29729,17 +29778,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="243"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="237"/>
+      <c r="A16" s="191"/>
+      <c r="B16" s="232"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="236"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="189"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29749,7 +29798,7 @@
       <c r="N16" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O16" s="233"/>
+      <c r="O16" s="243"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29782,23 +29831,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="243"/>
-      <c r="C17" s="239" t="s">
+      <c r="A17" s="191"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="229" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174" t="s">
-        <v>194</v>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183" t="s">
+        <v>193</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="187" t="s">
-        <v>190</v>
-      </c>
-      <c r="K17" s="192">
+      <c r="J17" s="174" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="179">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29839,17 +29888,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="165"/>
-      <c r="B18" s="243"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
+      <c r="A18" s="191"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="188"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="175"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29859,7 +29908,7 @@
       <c r="N18" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O18" s="232">
+      <c r="O18" s="242">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29888,17 +29937,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="189"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="176"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29908,7 +29957,7 @@
       <c r="N19" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O19" s="233"/>
+      <c r="O19" s="243"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29935,27 +29984,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="165"/>
-      <c r="B20" s="243"/>
+      <c r="A20" s="191"/>
+      <c r="B20" s="232"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="229" t="s">
+      <c r="D20" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="230"/>
-      <c r="M20" s="230"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="230"/>
-      <c r="P20" s="230"/>
-      <c r="Q20" s="231"/>
+      <c r="E20" s="240"/>
+      <c r="F20" s="240"/>
+      <c r="G20" s="240"/>
+      <c r="H20" s="240"/>
+      <c r="I20" s="240"/>
+      <c r="J20" s="240"/>
+      <c r="K20" s="240"/>
+      <c r="L20" s="240"/>
+      <c r="M20" s="240"/>
+      <c r="N20" s="240"/>
+      <c r="O20" s="240"/>
+      <c r="P20" s="240"/>
+      <c r="Q20" s="241"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29978,27 +30027,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="166" t="s">
+      <c r="A21" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="239" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="239" t="s">
+      <c r="B21" s="229" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="229" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="238"/>
-      <c r="E21" s="242" t="s">
+      <c r="D21" s="233"/>
+      <c r="E21" s="234" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="187" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" s="192">
+      <c r="J21" s="174" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" s="179">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -30039,17 +30088,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="173"/>
-      <c r="B22" s="240"/>
-      <c r="C22" s="240"/>
-      <c r="D22" s="238"/>
-      <c r="E22" s="236"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="235"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="203"/>
-      <c r="K22" s="188"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="175"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30088,17 +30137,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="173"/>
-      <c r="B23" s="240"/>
-      <c r="C23" s="240"/>
-      <c r="D23" s="238"/>
-      <c r="E23" s="236"/>
+      <c r="A23" s="181"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="235"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="203"/>
-      <c r="K23" s="188"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="175"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30137,17 +30186,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="176"/>
-      <c r="B24" s="241"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="238"/>
-      <c r="E24" s="237"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="236"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="189"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="176"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -38670,24 +38719,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38704,6 +38735,24 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38715,7 +38764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -38780,24 +38829,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38821,22 +38870,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38995,12 +39044,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -39053,25 +39102,25 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="245" t="s">
+      <c r="B8" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="251" t="s">
+      <c r="C8" s="248"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="253" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="187" t="s">
+      <c r="J8" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="187">
+      <c r="K8" s="174">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -39114,22 +39163,22 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="252"/>
+      <c r="A9" s="191"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="254"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="203"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="198"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N9" s="129" t="s">
         <v>154</v>
@@ -39161,22 +39210,22 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="165"/>
-      <c r="B10" s="247"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="252"/>
+      <c r="A10" s="191"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="250"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="254"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="203"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="198"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
       <c r="M10" s="71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N10" s="129" t="s">
         <v>154</v>
@@ -39208,17 +39257,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="247"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="252"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="250"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="254"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="203"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="198"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39253,22 +39302,22 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="250"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="253"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="255"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="204"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="199"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
       <c r="M12" s="71" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N12" s="129" t="s">
         <v>154</v>
@@ -39298,7 +39347,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="165"/>
+      <c r="A13" s="191"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39361,8 +39410,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="209" t="s">
+      <c r="A14" s="191"/>
+      <c r="B14" s="216" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39424,8 +39473,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="210"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="217"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39479,7 +39528,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="165"/>
+      <c r="A16" s="191"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39538,7 +39587,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="165"/>
+      <c r="A17" s="191"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39597,8 +39646,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="165"/>
-      <c r="B18" s="244" t="s">
+      <c r="A18" s="191"/>
+      <c r="B18" s="246" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -39652,8 +39701,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="244"/>
+      <c r="A19" s="191"/>
+      <c r="B19" s="246"/>
       <c r="C19" s="43" t="s">
         <v>96</v>
       </c>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="213">
   <si>
     <r>
       <rPr>
@@ -595,10 +595,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>웹 구현</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ERD 설계</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -910,15 +906,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>80% 진행중
-진행중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>90% 진행중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -948,6 +935,26 @@
   </si>
   <si>
     <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹/앱 구현</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2090,14 +2097,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2144,14 +2148,35 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2161,6 +2186,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2198,50 +2256,65 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,12 +2324,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2268,21 +2335,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2304,69 +2356,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2395,6 +2384,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2426,16 +2439,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2657,7 +2664,7 @@
   <dimension ref="A1:X986"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2698,15 +2705,15 @@
       <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="152"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
       <c r="I2" s="81"/>
       <c r="U2" s="81"/>
       <c r="V2" s="81"/>
@@ -2714,13 +2721,13 @@
       <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
       <c r="I3" s="81"/>
       <c r="U3" s="81"/>
       <c r="V3" s="81"/>
@@ -2772,15 +2779,15 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" customHeight="1">
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
       <c r="I7" s="81"/>
       <c r="U7" s="85"/>
       <c r="V7" s="81"/>
@@ -2792,44 +2799,44 @@
         <v>3</v>
       </c>
       <c r="C8" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="E8" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="F8" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="112" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="160"/>
+      <c r="H8" s="159"/>
       <c r="U8" s="81"/>
       <c r="V8" s="81"/>
     </row>
     <row r="9" spans="1:24" ht="25.5" customHeight="1">
       <c r="B9" s="120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="156" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="156"/>
+        <v>203</v>
+      </c>
+      <c r="G9" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="155"/>
       <c r="U9" s="85"/>
       <c r="V9" s="81"/>
       <c r="W9" s="81"/>
@@ -2837,20 +2844,20 @@
     </row>
     <row r="10" spans="1:24" ht="25.5" customHeight="1">
       <c r="B10" s="120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="145" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
+        <v>204</v>
+      </c>
+      <c r="F10" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
       <c r="U10" s="85"/>
       <c r="V10" s="81"/>
       <c r="W10" s="81"/>
@@ -2858,18 +2865,18 @@
     </row>
     <row r="11" spans="1:24" ht="25.5" customHeight="1">
       <c r="B11" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="257" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="258"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="156" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="156"/>
+        <v>132</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="155" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="155"/>
       <c r="U11" s="85"/>
       <c r="V11" s="81"/>
       <c r="W11" s="81"/>
@@ -2877,22 +2884,22 @@
     </row>
     <row r="12" spans="1:24" ht="25.5" customHeight="1">
       <c r="B12" s="120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F12" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
+        <v>206</v>
+      </c>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
       <c r="U12" s="85"/>
       <c r="V12" s="81"/>
       <c r="W12" s="81"/>
@@ -2918,13 +2925,13 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1">
       <c r="B14" s="81"/>
-      <c r="C14" s="161" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
+      <c r="C14" s="160" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
       <c r="H14" s="134"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
@@ -2983,7 +2990,7 @@
       <c r="X15" s="81"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="146" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="103" t="s">
@@ -2992,11 +2999,15 @@
       <c r="D16" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="144" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="71">
+        <v>0</v>
+      </c>
       <c r="H16" s="118"/>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
@@ -3016,18 +3027,22 @@
       <c r="X16" s="81"/>
     </row>
     <row r="17" spans="1:24" ht="24">
-      <c r="B17" s="147"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="121" t="s">
         <v>125</v>
       </c>
       <c r="D17" s="125" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="146" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="E17" s="258" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="71">
+        <v>0</v>
+      </c>
       <c r="H17" s="102"/>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
@@ -3047,16 +3062,22 @@
       <c r="X17" s="81"/>
     </row>
     <row r="18" spans="1:24" ht="36">
-      <c r="B18" s="147"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="E18" s="71">
+        <v>0.66</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="71">
+        <v>0</v>
+      </c>
       <c r="H18" s="96"/>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
@@ -3076,18 +3097,20 @@
       <c r="X18" s="81"/>
     </row>
     <row r="19" spans="1:24" ht="24">
-      <c r="B19" s="147"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="144" t="s">
-        <v>200</v>
+        <v>143</v>
+      </c>
+      <c r="E19" s="259" t="s">
+        <v>199</v>
       </c>
       <c r="F19" s="31"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="71">
+        <v>0</v>
+      </c>
       <c r="H19" s="96"/>
       <c r="I19" s="81"/>
       <c r="J19" s="81"/>
@@ -3107,16 +3130,18 @@
       <c r="X19" s="81"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B20" s="147"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="100" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="17"/>
+        <v>133</v>
+      </c>
+      <c r="E20" s="71"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="145">
+        <v>0</v>
+      </c>
       <c r="H20" s="96"/>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
@@ -3136,18 +3161,20 @@
       <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B21" s="147"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="97" t="s">
         <v>123</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="144" t="s">
-        <v>205</v>
+      <c r="E21" s="259" t="s">
+        <v>202</v>
       </c>
       <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="G21" s="145">
+        <v>0</v>
+      </c>
       <c r="H21" s="93"/>
       <c r="I21" s="81"/>
       <c r="U21" s="81"/>
@@ -3156,7 +3183,7 @@
       <c r="X21" s="81"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="147" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="113" t="s">
@@ -3165,9 +3192,13 @@
       <c r="D22" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="157"/>
+      <c r="E22" s="71">
+        <v>0</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="156"/>
       <c r="H22" s="116"/>
       <c r="I22" s="81"/>
       <c r="U22" s="81"/>
@@ -3176,16 +3207,20 @@
       <c r="X22" s="81"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B23" s="147"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="90" t="s">
         <v>121</v>
       </c>
       <c r="D23" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="157"/>
+      <c r="E23" s="71">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="156"/>
       <c r="H23" s="95"/>
       <c r="I23" s="81"/>
       <c r="U23" s="81"/>
@@ -3194,16 +3229,20 @@
       <c r="X23" s="81"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B24" s="147"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="94" t="s">
         <v>120</v>
       </c>
       <c r="D24" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="157"/>
+      <c r="E24" s="71">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="156"/>
       <c r="H24" s="91"/>
       <c r="I24" s="81"/>
       <c r="U24" s="81"/>
@@ -3212,16 +3251,16 @@
       <c r="X24" s="81"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B25" s="147"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="97" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="157"/>
+      <c r="G25" s="156"/>
       <c r="H25" s="91"/>
       <c r="I25" s="81"/>
       <c r="U25" s="81"/>
@@ -3230,16 +3269,20 @@
       <c r="X25" s="81"/>
     </row>
     <row r="26" spans="1:24" ht="24">
-      <c r="B26" s="147"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="126" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="126" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="157"/>
+      <c r="E26" s="71">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="156"/>
       <c r="H26" s="87"/>
       <c r="I26" s="81"/>
       <c r="U26" s="81"/>
@@ -3248,16 +3291,16 @@
       <c r="X26" s="81"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B27" s="147"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="89" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="158"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="86"/>
       <c r="I27" s="81"/>
       <c r="U27" s="81"/>
@@ -9180,23 +9223,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9220,21 +9263,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9390,12 +9433,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9445,22 +9488,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="191"/>
-      <c r="B8" s="165" t="s">
+      <c r="A8" s="169"/>
+      <c r="B8" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="168" t="s">
+      <c r="D8" s="188"/>
+      <c r="E8" s="185" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="191" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
@@ -9497,16 +9540,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="169"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="175"/>
+      <c r="J9" s="192"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9541,21 +9584,21 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="170"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="187"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="176"/>
+      <c r="J10" s="193"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
       <c r="L10" s="71" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M10" s="31"/>
       <c r="N10" s="57"/>
@@ -9589,20 +9632,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="165" t="s">
+      <c r="A11" s="170"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="171"/>
-      <c r="E11" s="168" t="s">
+      <c r="D11" s="188"/>
+      <c r="E11" s="185" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="174" t="s">
+      <c r="J11" s="191" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
@@ -9637,16 +9680,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="180"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="169"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="175"/>
+      <c r="J12" s="192"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9679,16 +9722,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="180"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="170"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="187"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="176"/>
+      <c r="J13" s="193"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9719,20 +9762,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="180"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="165" t="s">
+      <c r="A14" s="170"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="168" t="s">
+      <c r="D14" s="188"/>
+      <c r="E14" s="185" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="179" t="s">
+      <c r="J14" s="196" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
@@ -9767,16 +9810,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="169"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="186"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="175"/>
+      <c r="J15" s="192"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9809,16 +9852,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="180"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="195"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="176"/>
+      <c r="J16" s="193"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9855,22 +9898,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="191"/>
-      <c r="B17" s="165" t="s">
+      <c r="A17" s="169"/>
+      <c r="B17" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="178"/>
+      <c r="E17" s="170" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="192" t="s">
+      <c r="J17" s="174" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
@@ -9903,16 +9946,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="191"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="181"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="177"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="193"/>
+      <c r="J18" s="175"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9943,16 +9986,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="191"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="181"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="177"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="193"/>
+      <c r="J19" s="175"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9983,16 +10026,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="191"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="181"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="177"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="193"/>
+      <c r="J20" s="175"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -10023,16 +10066,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="191"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="181"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="177"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="193"/>
+      <c r="J21" s="175"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -10063,20 +10106,20 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="191"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="182"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="180"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="194"/>
+      <c r="J22" s="176"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
-      <c r="L22" s="256"/>
+      <c r="L22" s="145"/>
       <c r="M22" s="27"/>
       <c r="N22" s="58"/>
       <c r="O22" s="27"/>
@@ -10103,26 +10146,26 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="191"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="165" t="s">
+      <c r="A23" s="169"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="180" t="s">
+      <c r="D23" s="178"/>
+      <c r="E23" s="170" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="192" t="s">
+      <c r="J23" s="174" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
         <v>1</v>
       </c>
-      <c r="L23" s="256"/>
+      <c r="L23" s="145"/>
       <c r="M23" s="27"/>
       <c r="N23" s="58"/>
       <c r="O23" s="27"/>
@@ -10149,20 +10192,20 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="191"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="181"/>
+      <c r="A24" s="169"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="177"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="193"/>
+      <c r="J24" s="175"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
-      <c r="L24" s="256"/>
+      <c r="L24" s="145"/>
       <c r="M24" s="27"/>
       <c r="N24" s="58"/>
       <c r="O24" s="27"/>
@@ -10189,20 +10232,20 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="191"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="181"/>
+      <c r="A25" s="169"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="177"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="193"/>
+      <c r="J25" s="175"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
-      <c r="L25" s="256"/>
+      <c r="L25" s="145"/>
       <c r="M25" s="27"/>
       <c r="N25" s="58"/>
       <c r="O25" s="27"/>
@@ -10229,20 +10272,20 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="191"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="181"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="177"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="193"/>
+      <c r="J26" s="175"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
-      <c r="L26" s="256"/>
+      <c r="L26" s="145"/>
       <c r="M26" s="27"/>
       <c r="N26" s="58"/>
       <c r="O26" s="27"/>
@@ -10269,20 +10312,20 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="191"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="181"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="177"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="193"/>
+      <c r="J27" s="175"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
-      <c r="L27" s="256"/>
+      <c r="L27" s="145"/>
       <c r="M27" s="27"/>
       <c r="N27" s="58"/>
       <c r="O27" s="27"/>
@@ -10309,20 +10352,20 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="191"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="181"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="177"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="193"/>
+      <c r="J28" s="175"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
-      <c r="L28" s="256"/>
+      <c r="L28" s="145"/>
       <c r="M28" s="27"/>
       <c r="N28" s="58"/>
       <c r="O28" s="27"/>
@@ -10349,26 +10392,26 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="191"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="165" t="s">
+      <c r="A29" s="169"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="180" t="s">
+      <c r="D29" s="178"/>
+      <c r="E29" s="170" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="192" t="s">
+      <c r="J29" s="174" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
         <v>1</v>
       </c>
-      <c r="L29" s="256"/>
+      <c r="L29" s="145"/>
       <c r="M29" s="27"/>
       <c r="N29" s="58"/>
       <c r="O29" s="27"/>
@@ -10395,20 +10438,20 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="191"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="181"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="177"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="193"/>
+      <c r="J30" s="175"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
-      <c r="L30" s="256"/>
+      <c r="L30" s="145"/>
       <c r="M30" s="27"/>
       <c r="N30" s="58"/>
       <c r="O30" s="27"/>
@@ -10435,20 +10478,20 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="191"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="181"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="177"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="193"/>
+      <c r="J31" s="175"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
-      <c r="L31" s="256"/>
+      <c r="L31" s="145"/>
       <c r="M31" s="27"/>
       <c r="N31" s="58"/>
       <c r="O31" s="27"/>
@@ -10475,20 +10518,20 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="191"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="182"/>
+      <c r="A32" s="169"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="180"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="194"/>
+      <c r="J32" s="176"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
-      <c r="L32" s="256"/>
+      <c r="L32" s="145"/>
       <c r="M32" s="27"/>
       <c r="N32" s="58"/>
       <c r="O32" s="27"/>
@@ -10516,7 +10559,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="182" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10558,7 +10601,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="163"/>
+      <c r="B34" s="183"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10598,7 +10641,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="163"/>
+      <c r="B35" s="183"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10638,7 +10681,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="164"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18836,21 +18879,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18867,6 +18895,21 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18879,7 +18922,7 @@
   <dimension ref="A1:AK990"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="K24" sqref="K24:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -18944,24 +18987,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18985,22 +19028,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19159,17 +19202,17 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="195" t="s">
+      <c r="F7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="219"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
       <c r="K7" s="136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L7" s="136" t="s">
         <v>84</v>
@@ -19217,27 +19260,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="201" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="204" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="225" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="200"/>
-      <c r="E8" s="203" t="s">
+      <c r="D8" s="220"/>
+      <c r="E8" s="223" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="174">
+      <c r="K8" s="191">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19247,7 +19290,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -19278,17 +19321,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="204"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19296,7 +19339,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -19327,17 +19370,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="181"/>
-      <c r="B10" s="207"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="204"/>
+      <c r="A10" s="177"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="211"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="207"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19345,7 +19388,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -19382,17 +19425,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="181"/>
-      <c r="B11" s="207"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="204"/>
+      <c r="A11" s="177"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="211"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="207"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19400,10 +19443,10 @@
         <v>1</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="O11" s="210"/>
-      <c r="P11" s="211"/>
+        <v>157</v>
+      </c>
+      <c r="O11" s="225"/>
+      <c r="P11" s="226"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19427,17 +19470,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="181"/>
-      <c r="B12" s="207"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="204"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="211"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="207"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19445,10 +19488,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="O12" s="212"/>
-      <c r="P12" s="213"/>
+        <v>161</v>
+      </c>
+      <c r="O12" s="227"/>
+      <c r="P12" s="228"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19472,17 +19515,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="181"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="226"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="204"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="211"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="207"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19490,10 +19533,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="O13" s="212"/>
-      <c r="P13" s="213"/>
+        <v>158</v>
+      </c>
+      <c r="O13" s="227"/>
+      <c r="P13" s="228"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19517,17 +19560,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="181"/>
-      <c r="B14" s="207"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="205"/>
+      <c r="A14" s="177"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="212"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="208"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19535,10 +19578,10 @@
         <v>1</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="O14" s="214"/>
-      <c r="P14" s="215"/>
+        <v>158</v>
+      </c>
+      <c r="O14" s="229"/>
+      <c r="P14" s="230"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19562,10 +19605,10 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="181"/>
-      <c r="B15" s="208"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="140" t="s">
@@ -19588,7 +19631,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O15" s="57">
         <v>4</v>
@@ -19619,25 +19662,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="181"/>
-      <c r="B16" s="206" t="s">
+      <c r="A16" s="177"/>
+      <c r="B16" s="201" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="204" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="225" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="219" t="s">
+      <c r="D16" s="224"/>
+      <c r="E16" s="210" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="174" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="179">
+      <c r="J16" s="191" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="196">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19647,7 +19690,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O16" s="57">
         <v>1</v>
@@ -19678,25 +19721,25 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="181"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="204"/>
+      <c r="A17" s="177"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="211"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="175"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="192"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
       <c r="M17" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O17" s="57">
         <v>2</v>
@@ -19727,25 +19770,25 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="181"/>
-      <c r="B18" s="207"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="204"/>
+      <c r="A18" s="177"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="211"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="175"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="192"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
       <c r="M18" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O18" s="57">
         <v>3</v>
@@ -19776,21 +19819,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="181"/>
-      <c r="B19" s="207"/>
-      <c r="C19" s="225" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="201"/>
-      <c r="E19" s="204"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="204" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="221"/>
+      <c r="E19" s="211"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="174" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="175"/>
+      <c r="J19" s="191" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="192"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19798,7 +19841,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O19" s="57">
         <v>4</v>
@@ -19829,17 +19872,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="181"/>
-      <c r="B20" s="207"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="204"/>
+      <c r="A20" s="177"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="211"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="175"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="192"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19847,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O20" s="57">
         <v>5</v>
@@ -19884,21 +19927,21 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="181"/>
-      <c r="B21" s="207"/>
+      <c r="A21" s="177"/>
+      <c r="B21" s="202"/>
       <c r="C21" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="204"/>
+        <v>169</v>
+      </c>
+      <c r="D21" s="221"/>
+      <c r="E21" s="211"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="16"/>
       <c r="J21" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" s="175"/>
+        <v>173</v>
+      </c>
+      <c r="K21" s="192"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19906,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O21" s="57">
         <v>6</v>
@@ -19937,21 +19980,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="181"/>
-      <c r="B22" s="207"/>
-      <c r="C22" s="225" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="204"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="204" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="221"/>
+      <c r="E22" s="211"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="174" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" s="175"/>
+      <c r="J22" s="191" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="192"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19959,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O22" s="57">
         <v>7</v>
@@ -19990,17 +20033,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="181"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="205"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="212"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="176"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="193"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -20008,7 +20051,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O23" s="57">
         <v>8</v>
@@ -20039,25 +20082,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="181"/>
-      <c r="B24" s="216" t="s">
+      <c r="A24" s="177"/>
+      <c r="B24" s="213" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="206" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="219" t="s">
+      <c r="D24" s="188"/>
+      <c r="E24" s="210" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="174" t="s">
+      <c r="J24" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="174">
+      <c r="K24" s="191">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -20067,7 +20110,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O24" s="57">
         <v>1</v>
@@ -20098,17 +20141,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="181"/>
-      <c r="B25" s="217"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="204"/>
+      <c r="A25" s="177"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="211"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="198"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="207"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20116,7 +20159,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O25" s="57">
         <v>2</v>
@@ -20147,17 +20190,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="181"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="204"/>
+      <c r="A26" s="177"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="211"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="199"/>
+      <c r="J26" s="208"/>
+      <c r="K26" s="208"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20165,7 +20208,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O26" s="57">
         <v>3</v>
@@ -20196,19 +20239,19 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="182"/>
-      <c r="B27" s="218"/>
+      <c r="A27" s="180"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="143" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" s="173"/>
-      <c r="E27" s="220"/>
+        <v>196</v>
+      </c>
+      <c r="D27" s="190"/>
+      <c r="E27" s="216"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="16"/>
       <c r="J27" s="139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K27" s="135">
         <v>2</v>
@@ -20220,7 +20263,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O27" s="57">
         <v>4</v>
@@ -20251,27 +20294,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="180" t="s">
+      <c r="A28" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="206" t="s">
+      <c r="B28" s="201" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="228"/>
-      <c r="E28" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="209"/>
+      <c r="E28" s="170" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="192" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="174">
+      <c r="J28" s="174" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="191">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20281,10 +20324,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="O28" s="221"/>
-      <c r="P28" s="222"/>
+        <v>161</v>
+      </c>
+      <c r="O28" s="197"/>
+      <c r="P28" s="198"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20308,19 +20351,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="181"/>
-      <c r="B29" s="207"/>
+      <c r="A29" s="177"/>
+      <c r="B29" s="202"/>
       <c r="C29" s="127" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="184"/>
-      <c r="E29" s="181"/>
+        <v>177</v>
+      </c>
+      <c r="D29" s="179"/>
+      <c r="E29" s="177"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="198"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="207"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20328,10 +20371,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="O29" s="223"/>
-      <c r="P29" s="224"/>
+        <v>158</v>
+      </c>
+      <c r="O29" s="199"/>
+      <c r="P29" s="200"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20355,19 +20398,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="181"/>
-      <c r="B30" s="208"/>
+      <c r="A30" s="177"/>
+      <c r="B30" s="203"/>
       <c r="C30" s="138" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="182"/>
+        <v>178</v>
+      </c>
+      <c r="D30" s="181"/>
+      <c r="E30" s="180"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="199"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="208"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20375,10 +20418,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="O30" s="223"/>
-      <c r="P30" s="224"/>
+        <v>161</v>
+      </c>
+      <c r="O30" s="199"/>
+      <c r="P30" s="200"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20402,23 +20445,23 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="182"/>
+      <c r="A31" s="180"/>
       <c r="B31" s="127" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="127" t="s">
         <v>180</v>
-      </c>
-      <c r="C31" s="127" t="s">
-        <v>181</v>
       </c>
       <c r="D31" s="142"/>
       <c r="E31" s="137" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="45"/>
       <c r="J31" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K31" s="55">
         <v>5</v>
@@ -20430,10 +20473,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="O31" s="223"/>
-      <c r="P31" s="224"/>
+        <v>161</v>
+      </c>
+      <c r="O31" s="199"/>
+      <c r="P31" s="200"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28963,6 +29006,25 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="O11:P14"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28977,25 +29039,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="O11:P14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29073,24 +29116,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="237"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="231"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29114,22 +29157,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="238"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="232"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29288,17 +29331,17 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
       <c r="K7" s="131" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>84</v>
@@ -29316,7 +29359,7 @@
         <v>85</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R7" s="23" t="s">
         <v>8</v>
@@ -29346,27 +29389,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="191" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="232" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="165" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="244"/>
-      <c r="E8" s="203" t="s">
+      <c r="A8" s="169" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="247" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="171" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="238"/>
+      <c r="E8" s="223" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="174" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="179">
+      <c r="J8" s="191" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="196">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29376,7 +29419,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -29413,17 +29456,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="204"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="175"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="192"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29431,7 +29474,7 @@
         <v>0.9</v>
       </c>
       <c r="N9" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -29462,17 +29505,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="205"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="212"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="176"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="193"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29480,7 +29523,7 @@
         <v>0.9</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -29511,23 +29554,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="191"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="229" t="s">
+      <c r="A11" s="169"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="171"/>
-      <c r="E11" s="219" t="s">
+      <c r="D11" s="188"/>
+      <c r="E11" s="210" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="174" t="s">
-        <v>190</v>
-      </c>
-      <c r="K11" s="179">
+      <c r="J11" s="191" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="196">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29537,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O11" s="57">
         <v>1</v>
@@ -29568,17 +29611,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="191"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="204"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="211"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="175"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="192"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29586,7 +29629,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O12" s="57">
         <v>2</v>
@@ -29617,17 +29660,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="191"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="220"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="216"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="176"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="193"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29635,7 +29678,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O13" s="57">
         <v>3</v>
@@ -29672,23 +29715,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="191"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="229" t="s">
+      <c r="A14" s="169"/>
+      <c r="B14" s="247"/>
+      <c r="C14" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="233"/>
-      <c r="E14" s="245" t="s">
+      <c r="D14" s="242"/>
+      <c r="E14" s="239" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="174" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="179">
+      <c r="J14" s="191" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="196">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29698,7 +29741,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O14" s="57">
         <v>1</v>
@@ -29729,17 +29772,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="191"/>
-      <c r="B15" s="232"/>
-      <c r="C15" s="230"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="235"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="240"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="175"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="192"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29747,9 +29790,9 @@
         <v>0.8</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="O15" s="242">
+        <v>159</v>
+      </c>
+      <c r="O15" s="236">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29778,17 +29821,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="191"/>
-      <c r="B16" s="232"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="236"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="241"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="176"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="193"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29796,9 +29839,9 @@
         <v>0</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="O16" s="243"/>
+        <v>159</v>
+      </c>
+      <c r="O16" s="237"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29831,23 +29874,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="191"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="229" t="s">
+      <c r="A17" s="169"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183" t="s">
-        <v>193</v>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178" t="s">
+        <v>192</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="174" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="179">
+      <c r="J17" s="191" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="196">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29857,7 +29900,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O17" s="57">
         <v>1</v>
@@ -29888,17 +29931,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="191"/>
-      <c r="B18" s="232"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="175"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="192"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29906,9 +29949,9 @@
         <v>0</v>
       </c>
       <c r="N18" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="O18" s="242">
+        <v>159</v>
+      </c>
+      <c r="O18" s="236">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29937,17 +29980,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="191"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="176"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="193"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29955,9 +29998,9 @@
         <v>0</v>
       </c>
       <c r="N19" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="O19" s="243"/>
+        <v>159</v>
+      </c>
+      <c r="O19" s="237"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29984,27 +30027,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="191"/>
-      <c r="B20" s="232"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="247"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="239" t="s">
+      <c r="D20" s="233" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="240"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="240"/>
-      <c r="M20" s="240"/>
-      <c r="N20" s="240"/>
-      <c r="O20" s="240"/>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="241"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="235"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -30027,27 +30070,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="229" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="229" t="s">
+      <c r="B21" s="243" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="233"/>
-      <c r="E21" s="234" t="s">
+      <c r="D21" s="242"/>
+      <c r="E21" s="246" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="174" t="s">
-        <v>191</v>
-      </c>
-      <c r="K21" s="179">
+      <c r="J21" s="191" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="196">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -30057,7 +30100,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O21" s="57">
         <v>1</v>
@@ -30088,17 +30131,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="181"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="235"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="244"/>
+      <c r="C22" s="244"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="240"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="175"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="192"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30106,7 +30149,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O22" s="57">
         <v>2</v>
@@ -30137,17 +30180,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="181"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="235"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="244"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="240"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="175"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="192"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30155,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O23" s="57">
         <v>3</v>
@@ -30186,17 +30229,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="182"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="236"/>
+      <c r="A24" s="180"/>
+      <c r="B24" s="245"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="241"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="176"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="193"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -30204,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O24" s="57">
         <v>4</v>
@@ -38719,6 +38762,24 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38735,24 +38796,6 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38829,24 +38872,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38870,22 +38913,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -39044,17 +39087,17 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
       <c r="K7" s="119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" s="42" t="s">
         <v>84</v>
@@ -39102,32 +39145,32 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="247" t="s">
+      <c r="B8" s="249" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="248"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="253" t="s">
+      <c r="C8" s="250"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="255" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="174">
+      <c r="K8" s="191">
         <v>1</v>
       </c>
       <c r="L8" s="57">
         <v>1</v>
       </c>
       <c r="M8" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N8" s="71"/>
       <c r="O8" s="57">
@@ -39163,25 +39206,25 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="254"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="256"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="198"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="207"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N9" s="129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O9" s="57">
         <v>2</v>
@@ -39210,25 +39253,25 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="250"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="254"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="256"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="198"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="207"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
       <c r="M10" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N10" s="129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O10" s="57">
         <v>3</v>
@@ -39257,22 +39300,22 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="191"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="254"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="256"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="198"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="207"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
       <c r="M11" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N11" s="71"/>
       <c r="O11" s="57">
@@ -39302,25 +39345,25 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="191"/>
-      <c r="B12" s="251"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="255"/>
+      <c r="A12" s="169"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="257"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="199"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="208"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
       <c r="M12" s="71" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N12" s="129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O12" s="57"/>
       <c r="P12" s="17"/>
@@ -39347,7 +39390,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="191"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39372,10 +39415,10 @@
         <v>1</v>
       </c>
       <c r="M13" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N13" s="71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O13" s="57">
         <v>1</v>
@@ -39410,8 +39453,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="191"/>
-      <c r="B14" s="216" t="s">
+      <c r="A14" s="169"/>
+      <c r="B14" s="213" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39435,10 +39478,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N14" s="129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O14" s="57">
         <v>1</v>
@@ -39473,8 +39516,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="191"/>
-      <c r="B15" s="217"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39496,10 +39539,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N15" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O15" s="57">
         <v>1</v>
@@ -39528,7 +39571,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="191"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39553,10 +39596,10 @@
         <v>1</v>
       </c>
       <c r="M16" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N16" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O16" s="57"/>
       <c r="P16" s="17"/>
@@ -39587,7 +39630,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="191"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39612,10 +39655,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N17" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O17" s="57"/>
       <c r="P17" s="17"/>
@@ -39646,8 +39689,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="191"/>
-      <c r="B18" s="246" t="s">
+      <c r="A18" s="169"/>
+      <c r="B18" s="248" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -39671,10 +39714,10 @@
         <v>1</v>
       </c>
       <c r="M18" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N18" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="64"/>
@@ -39701,8 +39744,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="191"/>
-      <c r="B19" s="246"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="248"/>
       <c r="C19" s="43" t="s">
         <v>96</v>
       </c>
@@ -39724,10 +39767,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N19" s="129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="64"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610"/>
   </bookViews>
@@ -906,10 +911,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>50% 진행중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>80% 진행중
 진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -948,6 +949,10 @@
   </si>
   <si>
     <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50% 진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2099,6 +2104,9 @@
     <xf numFmtId="176" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2144,14 +2152,35 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2161,6 +2190,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2198,50 +2260,65 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,12 +2328,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2268,21 +2339,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2304,69 +2360,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2396,6 +2389,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2424,18 +2441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2656,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2698,15 +2703,15 @@
       <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="81"/>
       <c r="U2" s="81"/>
       <c r="V2" s="81"/>
@@ -2714,13 +2719,13 @@
       <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="155"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
       <c r="I3" s="81"/>
       <c r="U3" s="81"/>
       <c r="V3" s="81"/>
@@ -2772,15 +2777,15 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" customHeight="1">
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
       <c r="I7" s="81"/>
       <c r="U7" s="85"/>
       <c r="V7" s="81"/>
@@ -2803,10 +2808,10 @@
       <c r="F8" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="160"/>
+      <c r="H8" s="161"/>
       <c r="U8" s="81"/>
       <c r="V8" s="81"/>
     </row>
@@ -2824,12 +2829,12 @@
         <v>139</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="156" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="156"/>
+      <c r="H9" s="157"/>
       <c r="U9" s="85"/>
       <c r="V9" s="81"/>
       <c r="W9" s="81"/>
@@ -2841,16 +2846,16 @@
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" s="145" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
+        <v>206</v>
+      </c>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
       <c r="U10" s="85"/>
       <c r="V10" s="81"/>
       <c r="W10" s="81"/>
@@ -2860,16 +2865,16 @@
       <c r="B11" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="157" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="258"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="156" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="156"/>
+      <c r="H11" s="157"/>
       <c r="U11" s="85"/>
       <c r="V11" s="81"/>
       <c r="W11" s="81"/>
@@ -2880,19 +2885,19 @@
         <v>132</v>
       </c>
       <c r="C12" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="91" t="s">
-        <v>210</v>
-      </c>
       <c r="E12" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F12" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
+        <v>208</v>
+      </c>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
       <c r="U12" s="85"/>
       <c r="V12" s="81"/>
       <c r="W12" s="81"/>
@@ -2918,13 +2923,13 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1">
       <c r="B14" s="81"/>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
       <c r="H14" s="134"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
@@ -2983,7 +2988,7 @@
       <c r="X15" s="81"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="148" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="103" t="s">
@@ -2993,7 +2998,7 @@
         <v>116</v>
       </c>
       <c r="E16" s="144" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="17"/>
@@ -3016,7 +3021,7 @@
       <c r="X16" s="81"/>
     </row>
     <row r="17" spans="1:24" ht="24">
-      <c r="B17" s="147"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="121" t="s">
         <v>125</v>
       </c>
@@ -3024,7 +3029,7 @@
         <v>143</v>
       </c>
       <c r="E17" s="146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="17"/>
@@ -3047,7 +3052,7 @@
       <c r="X17" s="81"/>
     </row>
     <row r="18" spans="1:24" ht="36">
-      <c r="B18" s="147"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="101" t="s">
         <v>140</v>
       </c>
@@ -3076,7 +3081,7 @@
       <c r="X18" s="81"/>
     </row>
     <row r="19" spans="1:24" ht="24">
-      <c r="B19" s="147"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="122" t="s">
         <v>141</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="144" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="17"/>
@@ -3107,7 +3112,7 @@
       <c r="X19" s="81"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B20" s="147"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="100" t="s">
         <v>124</v>
       </c>
@@ -3136,7 +3141,7 @@
       <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B21" s="147"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="97" t="s">
         <v>123</v>
       </c>
@@ -3144,7 +3149,7 @@
         <v>118</v>
       </c>
       <c r="E21" s="144" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -3156,7 +3161,7 @@
       <c r="X21" s="81"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="149" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="113" t="s">
@@ -3167,7 +3172,7 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="115"/>
-      <c r="G22" s="157"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="116"/>
       <c r="I22" s="81"/>
       <c r="U22" s="81"/>
@@ -3176,7 +3181,7 @@
       <c r="X22" s="81"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B23" s="147"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="90" t="s">
         <v>121</v>
       </c>
@@ -3185,7 +3190,7 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="157"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="95"/>
       <c r="I23" s="81"/>
       <c r="U23" s="81"/>
@@ -3194,7 +3199,7 @@
       <c r="X23" s="81"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B24" s="147"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="94" t="s">
         <v>120</v>
       </c>
@@ -3203,7 +3208,7 @@
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="157"/>
+      <c r="G24" s="158"/>
       <c r="H24" s="91"/>
       <c r="I24" s="81"/>
       <c r="U24" s="81"/>
@@ -3212,7 +3217,7 @@
       <c r="X24" s="81"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B25" s="147"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="97" t="s">
         <v>119</v>
       </c>
@@ -3221,7 +3226,7 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="157"/>
+      <c r="G25" s="158"/>
       <c r="H25" s="91"/>
       <c r="I25" s="81"/>
       <c r="U25" s="81"/>
@@ -3230,7 +3235,7 @@
       <c r="X25" s="81"/>
     </row>
     <row r="26" spans="1:24" ht="24">
-      <c r="B26" s="147"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="123" t="s">
         <v>142</v>
       </c>
@@ -3239,7 +3244,7 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="157"/>
+      <c r="G26" s="158"/>
       <c r="H26" s="87"/>
       <c r="I26" s="81"/>
       <c r="U26" s="81"/>
@@ -3248,7 +3253,7 @@
       <c r="X26" s="81"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B27" s="147"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="89" t="s">
         <v>59</v>
       </c>
@@ -3257,7 +3262,7 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="158"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="86"/>
       <c r="I27" s="81"/>
       <c r="U27" s="81"/>
@@ -9180,23 +9185,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9220,21 +9225,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9390,12 +9395,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9445,22 +9450,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="191"/>
-      <c r="B8" s="165" t="s">
+      <c r="A8" s="171"/>
+      <c r="B8" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="168" t="s">
+      <c r="D8" s="190"/>
+      <c r="E8" s="187" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="193" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
@@ -9497,16 +9502,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="169"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="188"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="175"/>
+      <c r="J9" s="194"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9541,21 +9546,21 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="170"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="189"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="176"/>
+      <c r="J10" s="195"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
       <c r="L10" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M10" s="31"/>
       <c r="N10" s="57"/>
@@ -9589,20 +9594,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="180"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="165" t="s">
+      <c r="A11" s="172"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="171"/>
-      <c r="E11" s="168" t="s">
+      <c r="D11" s="190"/>
+      <c r="E11" s="187" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="174" t="s">
+      <c r="J11" s="193" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
@@ -9637,16 +9642,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="180"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="169"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="188"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="175"/>
+      <c r="J12" s="194"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9679,16 +9684,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="180"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="170"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="189"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="176"/>
+      <c r="J13" s="195"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9719,20 +9724,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="180"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="165" t="s">
+      <c r="A14" s="172"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="168" t="s">
+      <c r="D14" s="190"/>
+      <c r="E14" s="187" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="179" t="s">
+      <c r="J14" s="198" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
@@ -9767,16 +9772,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="180"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="169"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="188"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="175"/>
+      <c r="J15" s="194"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9809,16 +9814,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="180"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="176"/>
+      <c r="J16" s="195"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9855,22 +9860,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="191"/>
-      <c r="B17" s="165" t="s">
+      <c r="A17" s="171"/>
+      <c r="B17" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="172" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="192" t="s">
+      <c r="J17" s="176" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
@@ -9903,16 +9908,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="191"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="181"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="179"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="193"/>
+      <c r="J18" s="177"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9943,16 +9948,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="191"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="181"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="193"/>
+      <c r="J19" s="177"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9983,16 +9988,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="191"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="181"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="179"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="193"/>
+      <c r="J20" s="177"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -10023,16 +10028,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="191"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="181"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="179"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="193"/>
+      <c r="J21" s="177"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -10063,20 +10068,20 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="191"/>
-      <c r="B22" s="166"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="185"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="183"/>
       <c r="E22" s="182"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="194"/>
+      <c r="J22" s="178"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
-      <c r="L22" s="256"/>
+      <c r="L22" s="147"/>
       <c r="M22" s="27"/>
       <c r="N22" s="58"/>
       <c r="O22" s="27"/>
@@ -10103,26 +10108,26 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="191"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="165" t="s">
+      <c r="A23" s="171"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="180" t="s">
+      <c r="D23" s="180"/>
+      <c r="E23" s="172" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="192" t="s">
+      <c r="J23" s="176" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
         <v>1</v>
       </c>
-      <c r="L23" s="256"/>
+      <c r="L23" s="147"/>
       <c r="M23" s="27"/>
       <c r="N23" s="58"/>
       <c r="O23" s="27"/>
@@ -10149,20 +10154,20 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="191"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="181"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="179"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="193"/>
+      <c r="J24" s="177"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
-      <c r="L24" s="256"/>
+      <c r="L24" s="147"/>
       <c r="M24" s="27"/>
       <c r="N24" s="58"/>
       <c r="O24" s="27"/>
@@ -10189,20 +10194,20 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="191"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="181"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="174"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="179"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="193"/>
+      <c r="J25" s="177"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
-      <c r="L25" s="256"/>
+      <c r="L25" s="147"/>
       <c r="M25" s="27"/>
       <c r="N25" s="58"/>
       <c r="O25" s="27"/>
@@ -10229,20 +10234,20 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="191"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="181"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="179"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="193"/>
+      <c r="J26" s="177"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
-      <c r="L26" s="256"/>
+      <c r="L26" s="147"/>
       <c r="M26" s="27"/>
       <c r="N26" s="58"/>
       <c r="O26" s="27"/>
@@ -10269,20 +10274,20 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="191"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="181"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="179"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="193"/>
+      <c r="J27" s="177"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
-      <c r="L27" s="256"/>
+      <c r="L27" s="147"/>
       <c r="M27" s="27"/>
       <c r="N27" s="58"/>
       <c r="O27" s="27"/>
@@ -10309,20 +10314,20 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="191"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="181"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="179"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="193"/>
+      <c r="J28" s="177"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
-      <c r="L28" s="256"/>
+      <c r="L28" s="147"/>
       <c r="M28" s="27"/>
       <c r="N28" s="58"/>
       <c r="O28" s="27"/>
@@ -10349,26 +10354,26 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="191"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="165" t="s">
+      <c r="A29" s="171"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="180" t="s">
+      <c r="D29" s="180"/>
+      <c r="E29" s="172" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="192" t="s">
+      <c r="J29" s="176" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
         <v>1</v>
       </c>
-      <c r="L29" s="256"/>
+      <c r="L29" s="147"/>
       <c r="M29" s="27"/>
       <c r="N29" s="58"/>
       <c r="O29" s="27"/>
@@ -10395,20 +10400,20 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="191"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="181"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="179"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="193"/>
+      <c r="J30" s="177"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
-      <c r="L30" s="256"/>
+      <c r="L30" s="147"/>
       <c r="M30" s="27"/>
       <c r="N30" s="58"/>
       <c r="O30" s="27"/>
@@ -10435,20 +10440,20 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="191"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="181"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="179"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="193"/>
+      <c r="J31" s="177"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
-      <c r="L31" s="256"/>
+      <c r="L31" s="147"/>
       <c r="M31" s="27"/>
       <c r="N31" s="58"/>
       <c r="O31" s="27"/>
@@ -10475,20 +10480,20 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="191"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="185"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="183"/>
       <c r="E32" s="182"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="194"/>
+      <c r="J32" s="178"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
-      <c r="L32" s="256"/>
+      <c r="L32" s="147"/>
       <c r="M32" s="27"/>
       <c r="N32" s="58"/>
       <c r="O32" s="27"/>
@@ -10516,7 +10521,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="184" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10558,7 +10563,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="163"/>
+      <c r="B34" s="185"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10598,7 +10603,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="163"/>
+      <c r="B35" s="185"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10638,7 +10643,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="164"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18836,21 +18841,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18867,6 +18857,21 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18944,24 +18949,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18985,22 +18990,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19159,12 +19164,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="195" t="s">
+      <c r="F7" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="221"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
@@ -19217,27 +19222,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="203" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="206" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="200"/>
-      <c r="E8" s="203" t="s">
+      <c r="D8" s="222"/>
+      <c r="E8" s="225" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="174">
+      <c r="K8" s="193">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19278,17 +19283,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="204"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="213"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19327,17 +19332,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="181"/>
-      <c r="B10" s="207"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="204"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="213"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
+      <c r="J10" s="209"/>
+      <c r="K10" s="209"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19382,17 +19387,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="181"/>
-      <c r="B11" s="207"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="204"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="213"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19402,8 +19407,8 @@
       <c r="N11" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="210"/>
-      <c r="P11" s="211"/>
+      <c r="O11" s="227"/>
+      <c r="P11" s="228"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19427,17 +19432,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="181"/>
-      <c r="B12" s="207"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="204"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="213"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="209"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19447,8 +19452,8 @@
       <c r="N12" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="O12" s="212"/>
-      <c r="P12" s="213"/>
+      <c r="O12" s="229"/>
+      <c r="P12" s="230"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19472,17 +19477,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="181"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="226"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="204"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="213"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19492,8 +19497,8 @@
       <c r="N13" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="O13" s="212"/>
-      <c r="P13" s="213"/>
+      <c r="O13" s="229"/>
+      <c r="P13" s="230"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19517,17 +19522,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="181"/>
-      <c r="B14" s="207"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="205"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="214"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="210"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19537,8 +19542,8 @@
       <c r="N14" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="O14" s="214"/>
-      <c r="P14" s="215"/>
+      <c r="O14" s="231"/>
+      <c r="P14" s="232"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19562,8 +19567,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="181"/>
-      <c r="B15" s="208"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="141" t="s">
         <v>166</v>
       </c>
@@ -19619,25 +19624,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="181"/>
-      <c r="B16" s="206" t="s">
+      <c r="A16" s="179"/>
+      <c r="B16" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="225" t="s">
+      <c r="C16" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="209"/>
-      <c r="E16" s="219" t="s">
+      <c r="D16" s="226"/>
+      <c r="E16" s="212" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="174" t="s">
+      <c r="J16" s="193" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="179">
+      <c r="K16" s="198">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19678,17 +19683,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="181"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="204"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="213"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="175"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="194"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19727,17 +19732,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="181"/>
-      <c r="B18" s="207"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="204"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="213"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="175"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="194"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19776,21 +19781,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="181"/>
-      <c r="B19" s="207"/>
-      <c r="C19" s="225" t="s">
+      <c r="A19" s="179"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="201"/>
-      <c r="E19" s="204"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="213"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="174" t="s">
+      <c r="J19" s="193" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="175"/>
+      <c r="K19" s="194"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19829,17 +19834,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="181"/>
-      <c r="B20" s="207"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="204"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="213"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="175"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="194"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19884,13 +19889,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="181"/>
-      <c r="B21" s="207"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="204"/>
       <c r="C21" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="204"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="213"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19898,7 +19903,7 @@
       <c r="J21" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="K21" s="175"/>
+      <c r="K21" s="194"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19937,21 +19942,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="181"/>
-      <c r="B22" s="207"/>
-      <c r="C22" s="225" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="206" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="204"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="213"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="174" t="s">
+      <c r="J22" s="193" t="s">
         <v>175</v>
       </c>
-      <c r="K22" s="175"/>
+      <c r="K22" s="194"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19990,17 +19995,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="181"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="205"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="214"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="176"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="195"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -20039,25 +20044,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="181"/>
-      <c r="B24" s="216" t="s">
+      <c r="A24" s="179"/>
+      <c r="B24" s="215" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="203" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="219" t="s">
+      <c r="D24" s="190"/>
+      <c r="E24" s="212" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="174" t="s">
+      <c r="J24" s="193" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="174">
+      <c r="K24" s="193">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -20098,17 +20103,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="181"/>
-      <c r="B25" s="217"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="204"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="213"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="198"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="209"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20147,17 +20152,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="181"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="204"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="213"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="199"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="210"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20197,12 +20202,12 @@
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="218"/>
+      <c r="B27" s="217"/>
       <c r="C27" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="173"/>
-      <c r="E27" s="220"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="218"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20251,27 +20256,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="180" t="s">
+      <c r="A28" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="206" t="s">
+      <c r="B28" s="203" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="228"/>
-      <c r="E28" s="180" t="s">
+      <c r="D28" s="211"/>
+      <c r="E28" s="172" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="192" t="s">
+      <c r="J28" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="174">
+      <c r="K28" s="193">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20283,8 +20288,8 @@
       <c r="N28" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O28" s="221"/>
-      <c r="P28" s="222"/>
+      <c r="O28" s="199"/>
+      <c r="P28" s="200"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20308,19 +20313,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="181"/>
-      <c r="B29" s="207"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="204"/>
       <c r="C29" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="184"/>
-      <c r="E29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="179"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="198"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="209"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20330,8 +20335,8 @@
       <c r="N29" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="O29" s="223"/>
-      <c r="P29" s="224"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="202"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20355,19 +20360,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="181"/>
-      <c r="B30" s="208"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="205"/>
       <c r="C30" s="138" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="185"/>
+      <c r="D30" s="183"/>
       <c r="E30" s="182"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="199"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="210"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20377,8 +20382,8 @@
       <c r="N30" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O30" s="223"/>
-      <c r="P30" s="224"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="202"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20432,8 +20437,8 @@
       <c r="N31" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O31" s="223"/>
-      <c r="P31" s="224"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="202"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28963,6 +28968,25 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A27"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="J8:J14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="K8:K14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K23"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="O11:P14"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="O28:P31"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C8:C14"/>
@@ -28977,25 +29001,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="E16:E23"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A27"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="K8:K14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K23"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="O11:P14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29007,8 +29012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK983"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -29073,24 +29078,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="166" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="237"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="233"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29114,22 +29119,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="238"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="234"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29288,12 +29293,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -29346,27 +29351,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="249" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="173" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="244"/>
-      <c r="E8" s="203" t="s">
+      <c r="D8" s="240"/>
+      <c r="E8" s="225" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="179">
+      <c r="K8" s="198">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29413,17 +29418,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="204"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="213"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="175"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="194"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29462,17 +29467,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="205"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="214"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="176"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="195"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29511,23 +29516,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="191"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="229" t="s">
+      <c r="A11" s="171"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="245" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="171"/>
-      <c r="E11" s="219" t="s">
+      <c r="D11" s="190"/>
+      <c r="E11" s="212" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="174" t="s">
+      <c r="J11" s="193" t="s">
         <v>190</v>
       </c>
-      <c r="K11" s="179">
+      <c r="K11" s="198">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29568,17 +29573,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="191"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="204"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="249"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="213"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="175"/>
+      <c r="J12" s="209"/>
+      <c r="K12" s="194"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29617,17 +29622,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="191"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="220"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="249"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="218"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="176"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="195"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29672,23 +29677,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="191"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="229" t="s">
+      <c r="A14" s="171"/>
+      <c r="B14" s="249"/>
+      <c r="C14" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="233"/>
-      <c r="E14" s="245" t="s">
+      <c r="D14" s="244"/>
+      <c r="E14" s="241" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="174" t="s">
+      <c r="J14" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="179">
+      <c r="K14" s="198">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29729,27 +29734,27 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="191"/>
-      <c r="B15" s="232"/>
-      <c r="C15" s="230"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="235"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="249"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="242"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="175"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="194"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
       <c r="M15" s="71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N15" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O15" s="242">
+      <c r="O15" s="238">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29778,27 +29783,27 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="191"/>
-      <c r="B16" s="232"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="236"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="249"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="243"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="176"/>
+      <c r="J16" s="210"/>
+      <c r="K16" s="195"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
       <c r="M16" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O16" s="243"/>
+      <c r="O16" s="239"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29831,30 +29836,30 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="191"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="229" t="s">
+      <c r="A17" s="171"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="245" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="180" t="s">
         <v>193</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="174" t="s">
+      <c r="J17" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="K17" s="179">
+      <c r="K17" s="198">
         <v>3</v>
       </c>
       <c r="L17" s="57">
         <v>1</v>
       </c>
       <c r="M17" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="72" t="s">
         <v>160</v>
@@ -29888,27 +29893,27 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="191"/>
-      <c r="B18" s="232"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="249"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="175"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="194"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
       <c r="M18" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O18" s="242">
+      <c r="O18" s="238">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29937,27 +29942,27 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="191"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="247"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="176"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="195"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
       <c r="M19" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="O19" s="243"/>
+      <c r="O19" s="239"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29984,27 +29989,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="191"/>
-      <c r="B20" s="232"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="249"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="239" t="s">
+      <c r="D20" s="235" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="240"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="240"/>
-      <c r="M20" s="240"/>
-      <c r="N20" s="240"/>
-      <c r="O20" s="240"/>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="241"/>
+      <c r="E20" s="236"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="236"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="236"/>
+      <c r="L20" s="236"/>
+      <c r="M20" s="236"/>
+      <c r="N20" s="236"/>
+      <c r="O20" s="236"/>
+      <c r="P20" s="236"/>
+      <c r="Q20" s="237"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -30027,27 +30032,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="245" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="229" t="s">
+      <c r="C21" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="233"/>
-      <c r="E21" s="234" t="s">
+      <c r="D21" s="244"/>
+      <c r="E21" s="248" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="193" t="s">
         <v>191</v>
       </c>
-      <c r="K21" s="179">
+      <c r="K21" s="198">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -30088,17 +30093,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="181"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="235"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="175"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="194"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30137,17 +30142,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="181"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="235"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="242"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="175"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="194"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30187,16 +30192,16 @@
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
       <c r="A24" s="182"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="236"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="243"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="176"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="195"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -38719,6 +38724,24 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38735,24 +38758,6 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38829,24 +38834,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38870,22 +38875,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -39044,12 +39049,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -39102,25 +39107,25 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="247" t="s">
+      <c r="B8" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="248"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="253" t="s">
+      <c r="C8" s="252"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="257" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="174" t="s">
+      <c r="J8" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="174">
+      <c r="K8" s="193">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -39163,17 +39168,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="191"/>
-      <c r="B9" s="249"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="254"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="258"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="198"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="209"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -39210,17 +39215,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="250"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="254"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="258"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="198"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="209"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -39257,17 +39262,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="191"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="254"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="258"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="198"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="209"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39302,22 +39307,22 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="191"/>
-      <c r="B12" s="251"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="255"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="259"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="199"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="210"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
       <c r="M12" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N12" s="129" t="s">
         <v>154</v>
@@ -39347,7 +39352,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="191"/>
+      <c r="A13" s="171"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39410,8 +39415,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="191"/>
-      <c r="B14" s="216" t="s">
+      <c r="A14" s="171"/>
+      <c r="B14" s="215" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39473,8 +39478,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="191"/>
-      <c r="B15" s="217"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39528,7 +39533,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="191"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39587,7 +39592,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="191"/>
+      <c r="A17" s="171"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39646,8 +39651,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="191"/>
-      <c r="B18" s="246" t="s">
+      <c r="A18" s="171"/>
+      <c r="B18" s="250" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -39701,8 +39706,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="191"/>
-      <c r="B19" s="246"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="250"/>
       <c r="C19" s="43" t="s">
         <v>96</v>
       </c>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -2103,6 +2108,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2157,26 +2168,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2186,39 +2185,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2256,65 +2222,50 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2324,6 +2275,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2335,6 +2292,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2356,6 +2328,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2385,30 +2420,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2437,12 +2448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2663,7 +2668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2705,15 +2710,15 @@
       <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="151"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="81"/>
       <c r="U2" s="81"/>
       <c r="V2" s="81"/>
@@ -2721,13 +2726,13 @@
       <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="154"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
       <c r="I3" s="81"/>
       <c r="U3" s="81"/>
       <c r="V3" s="81"/>
@@ -2779,15 +2784,15 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" customHeight="1">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
       <c r="I7" s="81"/>
       <c r="U7" s="85"/>
       <c r="V7" s="81"/>
@@ -2810,10 +2815,10 @@
       <c r="F8" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="158" t="s">
+      <c r="G8" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="159"/>
+      <c r="H8" s="161"/>
       <c r="U8" s="81"/>
       <c r="V8" s="81"/>
     </row>
@@ -2833,10 +2838,10 @@
       <c r="F9" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="155"/>
+      <c r="H9" s="157"/>
       <c r="U9" s="85"/>
       <c r="V9" s="81"/>
       <c r="W9" s="81"/>
@@ -2856,8 +2861,8 @@
       <c r="F10" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
       <c r="U10" s="85"/>
       <c r="V10" s="81"/>
       <c r="W10" s="81"/>
@@ -2867,16 +2872,16 @@
       <c r="B11" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="163" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="155" t="s">
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="H11" s="155"/>
+      <c r="H11" s="157"/>
       <c r="U11" s="85"/>
       <c r="V11" s="81"/>
       <c r="W11" s="81"/>
@@ -2898,8 +2903,8 @@
       <c r="F12" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
       <c r="U12" s="85"/>
       <c r="V12" s="81"/>
       <c r="W12" s="81"/>
@@ -2925,13 +2930,13 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1">
       <c r="B14" s="81"/>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
       <c r="H14" s="134"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
@@ -2990,7 +2995,7 @@
       <c r="X15" s="81"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="148" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="103" t="s">
@@ -3027,14 +3032,14 @@
       <c r="X16" s="81"/>
     </row>
     <row r="17" spans="1:24" ht="24">
-      <c r="B17" s="146"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="121" t="s">
         <v>125</v>
       </c>
       <c r="D17" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="258" t="s">
+      <c r="E17" s="146" t="s">
         <v>209</v>
       </c>
       <c r="F17" s="24" t="s">
@@ -3062,7 +3067,7 @@
       <c r="X17" s="81"/>
     </row>
     <row r="18" spans="1:24" ht="36">
-      <c r="B18" s="146"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="101" t="s">
         <v>139</v>
       </c>
@@ -3097,14 +3102,14 @@
       <c r="X18" s="81"/>
     </row>
     <row r="19" spans="1:24" ht="24">
-      <c r="B19" s="146"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="122" t="s">
         <v>140</v>
       </c>
       <c r="D19" s="124" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="259" t="s">
+      <c r="E19" s="147" t="s">
         <v>199</v>
       </c>
       <c r="F19" s="31"/>
@@ -3130,7 +3135,7 @@
       <c r="X19" s="81"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B20" s="146"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="100" t="s">
         <v>124</v>
       </c>
@@ -3161,14 +3166,14 @@
       <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B21" s="146"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="97" t="s">
         <v>123</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="259" t="s">
+      <c r="E21" s="147" t="s">
         <v>202</v>
       </c>
       <c r="F21" s="27"/>
@@ -3183,7 +3188,7 @@
       <c r="X21" s="81"/>
     </row>
     <row r="22" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="149" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="113" t="s">
@@ -3198,7 +3203,7 @@
       <c r="F22" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="G22" s="156"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="116"/>
       <c r="I22" s="81"/>
       <c r="U22" s="81"/>
@@ -3207,7 +3212,7 @@
       <c r="X22" s="81"/>
     </row>
     <row r="23" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B23" s="146"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="90" t="s">
         <v>121</v>
       </c>
@@ -3220,7 +3225,7 @@
       <c r="F23" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="G23" s="156"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="95"/>
       <c r="I23" s="81"/>
       <c r="U23" s="81"/>
@@ -3229,7 +3234,7 @@
       <c r="X23" s="81"/>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B24" s="146"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="94" t="s">
         <v>120</v>
       </c>
@@ -3242,7 +3247,7 @@
       <c r="F24" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="G24" s="156"/>
+      <c r="G24" s="158"/>
       <c r="H24" s="91"/>
       <c r="I24" s="81"/>
       <c r="U24" s="81"/>
@@ -3251,7 +3256,7 @@
       <c r="X24" s="81"/>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B25" s="146"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="97" t="s">
         <v>119</v>
       </c>
@@ -3260,7 +3265,7 @@
       </c>
       <c r="E25" s="71"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="156"/>
+      <c r="G25" s="158"/>
       <c r="H25" s="91"/>
       <c r="I25" s="81"/>
       <c r="U25" s="81"/>
@@ -3269,7 +3274,7 @@
       <c r="X25" s="81"/>
     </row>
     <row r="26" spans="1:24" ht="24">
-      <c r="B26" s="146"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="123" t="s">
         <v>141</v>
       </c>
@@ -3282,7 +3287,7 @@
       <c r="F26" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="G26" s="156"/>
+      <c r="G26" s="158"/>
       <c r="H26" s="87"/>
       <c r="I26" s="81"/>
       <c r="U26" s="81"/>
@@ -3291,7 +3296,7 @@
       <c r="X26" s="81"/>
     </row>
     <row r="27" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B27" s="146"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="89" t="s">
         <v>59</v>
       </c>
@@ -3300,7 +3305,7 @@
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="157"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="86"/>
       <c r="I27" s="81"/>
       <c r="U27" s="81"/>
@@ -9223,23 +9228,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="190" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9263,21 +9268,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9433,12 +9438,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
       <c r="J7" s="41" t="s">
         <v>79</v>
       </c>
@@ -9488,22 +9493,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="171" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="185" t="s">
+      <c r="D8" s="175"/>
+      <c r="E8" s="172" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="191" t="s">
+      <c r="J8" s="178" t="s">
         <v>103</v>
       </c>
       <c r="K8" s="57">
@@ -9540,16 +9545,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="169"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="186"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="173"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="192"/>
+      <c r="J9" s="179"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9584,16 +9589,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="187"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="174"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="193"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9632,20 +9637,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="170"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="171" t="s">
+      <c r="A11" s="184"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="188"/>
-      <c r="E11" s="185" t="s">
+      <c r="D11" s="175"/>
+      <c r="E11" s="172" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="191" t="s">
+      <c r="J11" s="178" t="s">
         <v>104</v>
       </c>
       <c r="K11" s="57">
@@ -9680,16 +9685,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="170"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="186"/>
+      <c r="A12" s="184"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="173"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="192"/>
+      <c r="J12" s="179"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9722,16 +9727,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="170"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="187"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="174"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="193"/>
+      <c r="J13" s="180"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9762,20 +9767,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="170"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="171" t="s">
+      <c r="A14" s="184"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="188"/>
-      <c r="E14" s="185" t="s">
+      <c r="D14" s="175"/>
+      <c r="E14" s="172" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="196" t="s">
+      <c r="J14" s="183" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="57">
@@ -9810,16 +9815,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="170"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="186"/>
+      <c r="A15" s="184"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="173"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="192"/>
+      <c r="J15" s="179"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9852,16 +9857,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="170"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="195"/>
+      <c r="A16" s="184"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="182"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="193"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9898,22 +9903,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="169"/>
-      <c r="B17" s="171" t="s">
+      <c r="A17" s="195"/>
+      <c r="B17" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="170" t="s">
+      <c r="D17" s="187"/>
+      <c r="E17" s="184" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="174" t="s">
+      <c r="J17" s="196" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="57">
@@ -9946,16 +9951,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="177"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="185"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="175"/>
+      <c r="J18" s="197"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9986,16 +9991,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="169"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="177"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="185"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="175"/>
+      <c r="J19" s="197"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -10026,16 +10031,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="177"/>
+      <c r="A20" s="195"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="185"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="175"/>
+      <c r="J20" s="197"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -10066,16 +10071,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="169"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="177"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="185"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="175"/>
+      <c r="J21" s="197"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -10106,16 +10111,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="180"/>
+      <c r="A22" s="195"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="186"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="176"/>
+      <c r="J22" s="198"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -10146,20 +10151,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="169"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="171" t="s">
+      <c r="A23" s="195"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="170" t="s">
+      <c r="D23" s="187"/>
+      <c r="E23" s="184" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="174" t="s">
+      <c r="J23" s="196" t="s">
         <v>107</v>
       </c>
       <c r="K23" s="58">
@@ -10192,16 +10197,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="177"/>
+      <c r="A24" s="195"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="185"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="175"/>
+      <c r="J24" s="197"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -10232,16 +10237,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="169"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="177"/>
+      <c r="A25" s="195"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="185"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="175"/>
+      <c r="J25" s="197"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -10272,16 +10277,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="169"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="177"/>
+      <c r="A26" s="195"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="185"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="175"/>
+      <c r="J26" s="197"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10312,16 +10317,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="177"/>
+      <c r="A27" s="195"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="185"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="175"/>
+      <c r="J27" s="197"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10352,16 +10357,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="169"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="177"/>
+      <c r="A28" s="195"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="185"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="175"/>
+      <c r="J28" s="197"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10392,20 +10397,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="169"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="171" t="s">
+      <c r="A29" s="195"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="170" t="s">
+      <c r="D29" s="187"/>
+      <c r="E29" s="184" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="174" t="s">
+      <c r="J29" s="196" t="s">
         <v>108</v>
       </c>
       <c r="K29" s="58">
@@ -10438,16 +10443,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="169"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="177"/>
+      <c r="A30" s="195"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="185"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="175"/>
+      <c r="J30" s="197"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10478,16 +10483,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="169"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="177"/>
+      <c r="A31" s="195"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="185"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="175"/>
+      <c r="J31" s="197"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10518,16 +10523,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="169"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="180"/>
+      <c r="A32" s="195"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="186"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="176"/>
+      <c r="J32" s="198"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10559,7 +10564,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="166" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10601,7 +10606,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="183"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="38" t="s">
         <v>66</v>
       </c>
@@ -10641,7 +10646,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="183"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10681,7 +10686,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="184"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="38" t="s">
         <v>68</v>
       </c>
@@ -18879,6 +18884,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18895,21 +18915,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18987,24 +18992,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -19028,22 +19033,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -19202,12 +19207,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="217" t="s">
+      <c r="F7" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="219"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="201"/>
       <c r="J7" s="136" t="s">
         <v>79</v>
       </c>
@@ -19260,27 +19265,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="170" t="s">
+      <c r="A8" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="204" t="s">
+      <c r="C8" s="229" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="220"/>
-      <c r="E8" s="223" t="s">
+      <c r="D8" s="204"/>
+      <c r="E8" s="207" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="191" t="s">
+      <c r="J8" s="178" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="191">
+      <c r="K8" s="178">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19321,17 +19326,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="211"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19370,17 +19375,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="177"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="211"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="208"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="207"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19425,17 +19430,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="177"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="211"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="208"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="207"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19445,8 +19450,8 @@
       <c r="N11" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="O11" s="225"/>
-      <c r="P11" s="226"/>
+      <c r="O11" s="214"/>
+      <c r="P11" s="215"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19470,17 +19475,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="177"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="211"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="208"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="207"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19490,8 +19495,8 @@
       <c r="N12" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="O12" s="227"/>
-      <c r="P12" s="228"/>
+      <c r="O12" s="216"/>
+      <c r="P12" s="217"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19515,17 +19520,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="177"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="211"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="208"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="207"/>
-      <c r="K13" s="207"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19535,8 +19540,8 @@
       <c r="N13" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="O13" s="227"/>
-      <c r="P13" s="228"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="217"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19560,17 +19565,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="177"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="212"/>
+      <c r="A14" s="185"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="209"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="208"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19580,8 +19585,8 @@
       <c r="N14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="O14" s="229"/>
-      <c r="P14" s="230"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="219"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19605,8 +19610,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="177"/>
-      <c r="B15" s="203"/>
+      <c r="A15" s="185"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="141" t="s">
         <v>165</v>
       </c>
@@ -19662,25 +19667,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="177"/>
-      <c r="B16" s="201" t="s">
+      <c r="A16" s="185"/>
+      <c r="B16" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="204" t="s">
+      <c r="C16" s="229" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="224"/>
-      <c r="E16" s="210" t="s">
+      <c r="D16" s="213"/>
+      <c r="E16" s="223" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="191" t="s">
+      <c r="J16" s="178" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="196">
+      <c r="K16" s="183">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19721,17 +19726,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="177"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="211"/>
+      <c r="A17" s="185"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="208"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="192"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="179"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19770,17 +19775,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="177"/>
-      <c r="B18" s="202"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="211"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="208"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="192"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="179"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19819,21 +19824,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="177"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="204" t="s">
+      <c r="A19" s="185"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="229" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="221"/>
-      <c r="E19" s="211"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="191" t="s">
+      <c r="J19" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="K19" s="192"/>
+      <c r="K19" s="179"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19872,17 +19877,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="177"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="211"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="208"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="192"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="179"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19927,13 +19932,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="177"/>
-      <c r="B21" s="202"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="221"/>
-      <c r="E21" s="211"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="208"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19941,7 +19946,7 @@
       <c r="J21" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="K21" s="192"/>
+      <c r="K21" s="179"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19980,21 +19985,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="177"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="204" t="s">
+      <c r="A22" s="185"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="229" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="221"/>
-      <c r="E22" s="211"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="208"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="191" t="s">
+      <c r="J22" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="K22" s="192"/>
+      <c r="K22" s="179"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -20033,17 +20038,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="177"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="206"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="212"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="209"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="193"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="180"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -20082,25 +20087,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="177"/>
-      <c r="B24" s="213" t="s">
+      <c r="A24" s="185"/>
+      <c r="B24" s="220" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="201" t="s">
+      <c r="C24" s="210" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="210" t="s">
+      <c r="D24" s="175"/>
+      <c r="E24" s="223" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="191" t="s">
+      <c r="J24" s="178" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="191">
+      <c r="K24" s="178">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -20141,17 +20146,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="177"/>
-      <c r="B25" s="214"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="189"/>
-      <c r="E25" s="211"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="221"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="208"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="207"/>
-      <c r="K25" s="207"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="202"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -20190,17 +20195,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="177"/>
-      <c r="B26" s="214"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="211"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="221"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="208"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="208"/>
-      <c r="K26" s="208"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="203"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20239,13 +20244,13 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="180"/>
-      <c r="B27" s="215"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="222"/>
       <c r="C27" s="143" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="190"/>
-      <c r="E27" s="216"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="224"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20294,27 +20299,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="201" t="s">
+      <c r="B28" s="210" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="209"/>
-      <c r="E28" s="170" t="s">
+      <c r="D28" s="232"/>
+      <c r="E28" s="184" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="174" t="s">
+      <c r="J28" s="196" t="s">
         <v>162</v>
       </c>
-      <c r="K28" s="191">
+      <c r="K28" s="178">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20326,8 +20331,8 @@
       <c r="N28" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="O28" s="197"/>
-      <c r="P28" s="198"/>
+      <c r="O28" s="225"/>
+      <c r="P28" s="226"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20351,19 +20356,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="177"/>
-      <c r="B29" s="202"/>
+      <c r="A29" s="185"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="177"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="185"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="207"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="202"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20373,8 +20378,8 @@
       <c r="N29" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="O29" s="199"/>
-      <c r="P29" s="200"/>
+      <c r="O29" s="227"/>
+      <c r="P29" s="228"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20398,19 +20403,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="177"/>
-      <c r="B30" s="203"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="180"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="186"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="208"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="203"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20420,8 +20425,8 @@
       <c r="N30" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="O30" s="199"/>
-      <c r="P30" s="200"/>
+      <c r="O30" s="227"/>
+      <c r="P30" s="228"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20445,7 +20450,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="180"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="127" t="s">
         <v>179</v>
       </c>
@@ -20475,8 +20480,8 @@
       <c r="N31" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="O31" s="199"/>
-      <c r="P31" s="200"/>
+      <c r="O31" s="227"/>
+      <c r="P31" s="228"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -29006,6 +29011,25 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="O28:P31"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A27"/>
@@ -29020,25 +29044,6 @@
     <mergeCell ref="K16:K23"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="O11:P14"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="O28:P31"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="E16:E23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29050,8 +29055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK983"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -29116,24 +29121,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="231"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="241"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -29157,22 +29162,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="232"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="242"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29331,12 +29336,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -29389,27 +29394,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="247" t="s">
+      <c r="B8" s="236" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="238"/>
-      <c r="E8" s="223" t="s">
+      <c r="D8" s="248"/>
+      <c r="E8" s="207" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="191" t="s">
+      <c r="J8" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="196">
+      <c r="K8" s="183">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29456,17 +29461,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="169"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="211"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="133"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="192"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="179"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29505,17 +29510,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="247"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="212"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="209"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="133"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="193"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="180"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29554,23 +29559,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="169"/>
-      <c r="B11" s="247"/>
-      <c r="C11" s="243" t="s">
+      <c r="A11" s="195"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="233" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="188"/>
-      <c r="E11" s="210" t="s">
+      <c r="D11" s="175"/>
+      <c r="E11" s="223" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="133"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="191" t="s">
+      <c r="J11" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="196">
+      <c r="K11" s="183">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29611,17 +29616,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="169"/>
-      <c r="B12" s="247"/>
-      <c r="C12" s="244"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="211"/>
+      <c r="A12" s="195"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="208"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="133"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="192"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="179"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29660,17 +29665,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="169"/>
-      <c r="B13" s="247"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="216"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="224"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="193"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="180"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29715,23 +29720,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="247"/>
-      <c r="C14" s="243" t="s">
+      <c r="A14" s="195"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="242"/>
-      <c r="E14" s="239" t="s">
+      <c r="D14" s="237"/>
+      <c r="E14" s="249" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
       <c r="H14" s="19"/>
       <c r="I14" s="133"/>
-      <c r="J14" s="191" t="s">
+      <c r="J14" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="K14" s="196">
+      <c r="K14" s="183">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29772,27 +29777,27 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="169"/>
-      <c r="B15" s="247"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="242"/>
-      <c r="E15" s="240"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="236"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="239"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
       <c r="H15" s="19"/>
       <c r="I15" s="133"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="192"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="179"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
       <c r="M15" s="71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N15" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="O15" s="236">
+      <c r="O15" s="246">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29821,27 +29826,27 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="169"/>
-      <c r="B16" s="247"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="241"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="236"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="240"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="193"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="180"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
       <c r="M16" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="O16" s="237"/>
+      <c r="O16" s="247"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29874,30 +29879,30 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="169"/>
-      <c r="B17" s="247"/>
-      <c r="C17" s="243" t="s">
+      <c r="A17" s="195"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178" t="s">
+      <c r="D17" s="187"/>
+      <c r="E17" s="187" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="191" t="s">
+      <c r="J17" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="196">
+      <c r="K17" s="183">
         <v>3</v>
       </c>
       <c r="L17" s="57">
         <v>1</v>
       </c>
       <c r="M17" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="72" t="s">
         <v>159</v>
@@ -29931,27 +29936,27 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="247"/>
-      <c r="C18" s="244"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="192"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="179"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
       <c r="M18" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="O18" s="236">
+      <c r="O18" s="246">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29980,27 +29985,27 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="169"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="193"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="180"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
       <c r="M19" s="71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="O19" s="237"/>
+      <c r="O19" s="247"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -30027,27 +30032,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="247"/>
+      <c r="A20" s="195"/>
+      <c r="B20" s="236"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="233" t="s">
+      <c r="D20" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="234"/>
-      <c r="H20" s="234"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="234"/>
-      <c r="Q20" s="235"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="244"/>
+      <c r="M20" s="244"/>
+      <c r="N20" s="244"/>
+      <c r="O20" s="244"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="245"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -30070,27 +30075,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="170" t="s">
+      <c r="A21" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="243" t="s">
+      <c r="B21" s="233" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="242"/>
-      <c r="E21" s="246" t="s">
+      <c r="D21" s="237"/>
+      <c r="E21" s="238" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="20"/>
       <c r="I21" s="133"/>
-      <c r="J21" s="191" t="s">
+      <c r="J21" s="178" t="s">
         <v>190</v>
       </c>
-      <c r="K21" s="196">
+      <c r="K21" s="183">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -30131,17 +30136,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="177"/>
-      <c r="B22" s="244"/>
-      <c r="C22" s="244"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="240"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="239"/>
       <c r="F22" s="133"/>
       <c r="G22" s="133"/>
       <c r="H22" s="20"/>
       <c r="I22" s="133"/>
-      <c r="J22" s="207"/>
-      <c r="K22" s="192"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="179"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -30180,17 +30185,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="177"/>
-      <c r="B23" s="244"/>
-      <c r="C23" s="244"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="240"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="239"/>
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="20"/>
       <c r="I23" s="133"/>
-      <c r="J23" s="207"/>
-      <c r="K23" s="192"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="179"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30229,17 +30234,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="180"/>
-      <c r="B24" s="245"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="241"/>
+      <c r="A24" s="186"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="240"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="193"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="180"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -38762,24 +38767,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38796,6 +38783,24 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38872,24 +38877,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="190" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38913,22 +38918,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -39087,12 +39092,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
       <c r="J7" s="42" t="s">
         <v>79</v>
       </c>
@@ -39145,25 +39150,25 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="255" t="s">
+      <c r="C8" s="252"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="257" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="191" t="s">
+      <c r="J8" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="191">
+      <c r="K8" s="178">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -39206,17 +39211,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="169"/>
-      <c r="B9" s="251"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="256"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="253"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="258"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="207"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="202"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -39253,17 +39258,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="251"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="256"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="258"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="207"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="202"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -39300,17 +39305,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="169"/>
-      <c r="B11" s="251"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="256"/>
+      <c r="A11" s="195"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="258"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="207"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="202"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39345,17 +39350,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="169"/>
-      <c r="B12" s="253"/>
-      <c r="C12" s="254"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="257"/>
+      <c r="A12" s="195"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="259"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="208"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="203"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -39390,7 +39395,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="169"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39453,8 +39458,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="213" t="s">
+      <c r="A14" s="195"/>
+      <c r="B14" s="220" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39516,8 +39521,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="169"/>
-      <c r="B15" s="214"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="44" t="s">
         <v>88</v>
       </c>
@@ -39571,7 +39576,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="169"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39630,7 +39635,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="169"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39689,8 +39694,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="248" t="s">
+      <c r="A18" s="195"/>
+      <c r="B18" s="250" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -39744,8 +39749,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="169"/>
-      <c r="B19" s="248"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="250"/>
       <c r="C19" s="43" t="s">
         <v>96</v>
       </c>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 진행 사항 체크.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="21630" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="215">
   <si>
     <r>
       <rPr>
@@ -915,10 +910,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>구현 예정</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>30% 진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -932,10 +923,6 @@
   </si>
   <si>
     <t>수정 사항 발생시 즉시 공유 합시다</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -960,6 +947,22 @@
   </si>
   <si>
     <t>웹/앱 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 예정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1095,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,6 +1148,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1679,7 +1688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2003,9 +2012,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2108,10 +2114,10 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2168,14 +2174,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2185,6 +2203,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2222,50 +2273,65 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2275,12 +2341,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2292,21 +2352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2328,69 +2373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2419,6 +2401,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2449,6 +2455,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2668,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2710,15 +2728,15 @@
       <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="81"/>
       <c r="U2" s="81"/>
       <c r="V2" s="81"/>
@@ -2726,13 +2744,13 @@
       <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="156"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="81"/>
       <c r="U3" s="81"/>
       <c r="V3" s="81"/>
@@ -2784,15 +2802,15 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:24" ht="40.5" customHeight="1">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
       <c r="I7" s="81"/>
       <c r="U7" s="85"/>
       <c r="V7" s="81"/>
@@ -2812,18 +2830,18 @@
       <c r="E8" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="160" t="s">
+      <c r="G8" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="161"/>
+      <c r="H8" s="160"/>
       <c r="U8" s="81"/>
       <c r="V8" s="81"/>
     </row>
     <row r="9" spans="1:24" ht="25.5" customHeight="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="119" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="91" t="s">
@@ -2835,76 +2853,76 @@
       <c r="E9" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="130" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="157" t="s">
+      <c r="F9" s="129" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="157"/>
+      <c r="H9" s="156"/>
       <c r="U9" s="85"/>
       <c r="V9" s="81"/>
       <c r="W9" s="81"/>
       <c r="X9" s="81"/>
     </row>
     <row r="10" spans="1:24" ht="25.5" customHeight="1">
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="119" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="144" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
+        <v>203</v>
+      </c>
+      <c r="F10" s="143" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
       <c r="U10" s="85"/>
       <c r="V10" s="81"/>
       <c r="W10" s="81"/>
       <c r="X10" s="81"/>
     </row>
     <row r="11" spans="1:24" ht="25.5" customHeight="1">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="162" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="156" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="157" t="s">
-        <v>205</v>
-      </c>
-      <c r="H11" s="157"/>
+      <c r="H11" s="156"/>
       <c r="U11" s="85"/>
       <c r="V11" s="81"/>
       <c r="W11" s="81"/>
       <c r="X11" s="81"/>
     </row>
     <row r="12" spans="1:24" ht="25.5" customHeight="1">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="119" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="111" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
+        <v>213</v>
+      </c>
+      <c r="F12" s="146" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
       <c r="U12" s="85"/>
       <c r="V12" s="81"/>
       <c r="W12" s="81"/>
@@ -2930,14 +2948,14 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1">
       <c r="B14" s="81"/>
-      <c r="C14" s="162" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="134"/>
+      <c r="C14" s="161" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
       <c r="K14" s="81"/>
@@ -2995,25 +3013,25 @@
       <c r="X15" s="81"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="145" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="261" t="s">
         <v>208</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>210</v>
       </c>
       <c r="G16" s="71">
         <v>0</v>
       </c>
-      <c r="H16" s="118"/>
+      <c r="H16" s="117"/>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
       <c r="K16" s="81"/>
@@ -3032,18 +3050,18 @@
       <c r="X16" s="81"/>
     </row>
     <row r="17" spans="1:24" ht="24">
-      <c r="B17" s="148"/>
-      <c r="C17" s="121" t="s">
+      <c r="B17" s="147"/>
+      <c r="C17" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="125" t="s">
+      <c r="D17" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="262" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="261" t="s">
         <v>209</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>211</v>
       </c>
       <c r="G17" s="71">
         <v>0</v>
@@ -3067,18 +3085,18 @@
       <c r="X17" s="81"/>
     </row>
     <row r="18" spans="1:24" ht="36">
-      <c r="B18" s="148"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="145">
         <v>0.66</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>211</v>
+      <c r="F18" s="259" t="s">
+        <v>209</v>
       </c>
       <c r="G18" s="71">
         <v>0</v>
@@ -3102,17 +3120,17 @@
       <c r="X18" s="81"/>
     </row>
     <row r="19" spans="1:24" ht="24">
-      <c r="B19" s="148"/>
-      <c r="C19" s="122" t="s">
+      <c r="B19" s="147"/>
+      <c r="C19" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="147" t="s">
+      <c r="E19" s="145" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="259"/>
       <c r="G19" s="71">
         <v>0</v>
       </c>
@@ -3135,7 +3153,7 @@
       <c r="X19" s="81"/>
     </row>
     <row r="20" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B20" s="148"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="100" t="s">
         <v>124</v>
       </c>
@@ -3144,7 +3162,7 @@
       </c>
       <c r="E20" s="71"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="145">
+      <c r="G20" s="144">
         <v>0</v>
       </c>
       <c r="H20" s="96"/>
@@ -3166,18 +3184,18 @@
       <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B21" s